--- a/2025 FIVB Men's Volleyball World Championship.xlsx
+++ b/2025 FIVB Men's Volleyball World Championship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F0065-74F8-4F61-9786-6739ACA70D91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FA2F72F-C869-4EBD-80DB-9135035DF785}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="CC01" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1" xr2:uid="{701403F6-3112-456D-B33A-FC5595D41656}"/>
@@ -866,22 +866,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,28 +915,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2414,15 +2414,15 @@
       </c>
       <c r="D3" s="1">
         <f>SUM(H3*3,I3*3,J3*2,K3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
         <f>F3+G3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C3)</f>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="I3" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C3,Preliminary!AJ:AJ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C3,Preliminary!AK:AK)</f>
@@ -2454,27 +2454,27 @@
       </c>
       <c r="N3" s="1">
         <f>SUMIF(Preliminary!AE:AE,C3,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C3,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3" s="1">
         <f>SUMIF(Preliminary!AE:AE,C3,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C3,Preliminary!AR:AR)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="4">
         <f>IFERROR((N3/O3)*1000,"MAX")</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="Q3" s="1">
         <f>SUMIF(Preliminary!AE:AE,C3,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C3,Preliminary!AV:AV)</f>
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="R3" s="1">
         <f>SUMIF(Preliminary!AE:AE,C3,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C3,Preliminary!AW:AW)</f>
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" ref="S3:S20" si="0">IFERROR((Q3/R3)*1000,"MAX")</f>
-        <v>706.66666666666663</v>
+        <v>917.15976331360946</v>
       </c>
       <c r="T3" s="1">
         <f>SUMPRODUCT(($F$3:$F$6=F3)*($D$3:$D$6&gt;D3))</f>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="U3" s="1">
         <f>SUMPRODUCT(($F$3:$F$6=F3)*($D$3:$D$6=D3)*($P$3:$P$6&gt;P3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V3" s="1">
         <f>SUMPRODUCT(($F$3:$F$6=F3)*($D$3:$D$6=D3)*($P$3:$P$6=P3)*($S$3:$S$6&gt;S3))</f>
@@ -2500,7 +2500,7 @@
       <c r="A4" s="55"/>
       <c r="B4" s="1">
         <f>RANK(F4,$F$3:$F$6)+SUM(T4:W4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="str">
         <f>Preliminary!AB7</f>
@@ -2508,15 +2508,15 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D20" si="1">SUM(H4*3,I4*3,J4*2,K4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E20" si="2">F4+G4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C4)</f>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="I4" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C4,Preliminary!AJ:AJ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C4,Preliminary!AK:AK)</f>
@@ -2548,27 +2548,27 @@
       </c>
       <c r="N4" s="1">
         <f>SUMIF(Preliminary!AE:AE,C4,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C4,Preliminary!AQ:AQ)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O4" s="1">
         <f>SUMIF(Preliminary!AE:AE,C4,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C4,Preliminary!AR:AR)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" ref="P4:P20" si="3">IFERROR((N4/O4)*1000,"MAX")</f>
-        <v>333.33333333333331</v>
+        <v>1000</v>
       </c>
       <c r="Q4" s="1">
         <f>SUMIF(Preliminary!AE:AE,C4,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C4,Preliminary!AV:AV)</f>
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="R4" s="1">
         <f>SUMIF(Preliminary!AE:AE,C4,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C4,Preliminary!AW:AW)</f>
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="0"/>
-        <v>934.06593406593413</v>
+        <v>1045.7142857142858</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" ref="T4:T6" si="4">SUMPRODUCT(($F$3:$F$6=F4)*($D$3:$D$6&gt;D4))</f>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="U4" s="1">
         <f t="shared" ref="U4:U6" si="5">SUMPRODUCT(($F$3:$F$6=F4)*($D$3:$D$6=D4)*($P$3:$P$6&gt;P4))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="1">
         <f t="shared" ref="V4:V6" si="6">SUMPRODUCT(($F$3:$F$6=F4)*($D$3:$D$6=D4)*($P$3:$P$6=P4)*($S$3:$S$6&gt;S4))</f>
@@ -2594,7 +2594,7 @@
       <c r="A5" s="55"/>
       <c r="B5" s="1">
         <f>RANK(F5,$F$3:$F$6)+SUM(T5:W5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="str">
         <f>Preliminary!AB8</f>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C5)</f>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="G5" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C5,Preliminary!AI:AI)</f>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="L5" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C5,Preliminary!AT:AT)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C5,Preliminary!AU:AU)</f>
@@ -2642,27 +2642,27 @@
       </c>
       <c r="N5" s="1">
         <f>SUMIF(Preliminary!AE:AE,C5,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C5,Preliminary!AQ:AQ)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" s="1">
         <f>SUMIF(Preliminary!AE:AE,C5,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C5,Preliminary!AR:AR)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q5" s="1">
         <f>SUMIF(Preliminary!AE:AE,C5,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C5,Preliminary!AV:AV)</f>
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="R5" s="1">
         <f>SUMIF(Preliminary!AE:AE,C5,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C5,Preliminary!AW:AW)</f>
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="0"/>
-        <v>1070.5882352941176</v>
+        <v>989.30481283422455</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="4"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="V5" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="7"/>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C6)</f>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="G6" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C6,Preliminary!AI:AI)</f>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="L6" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C6,Preliminary!AT:AT)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C6,Preliminary!AU:AU)</f>
@@ -2736,27 +2736,27 @@
       </c>
       <c r="N6" s="1">
         <f>SUMIF(Preliminary!AE:AE,C6,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C6,Preliminary!AQ:AQ)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O6" s="1">
         <f>SUMIF(Preliminary!AE:AE,C6,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C6,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="P6" s="4">
         <f t="shared" si="3"/>
-        <v>MAX</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="Q6" s="1">
         <f>SUMIF(Preliminary!AE:AE,C6,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C6,Preliminary!AV:AV)</f>
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="R6" s="1">
         <f>SUMIF(Preliminary!AE:AE,C6,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C6,Preliminary!AW:AW)</f>
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="0"/>
-        <v>1415.0943396226414</v>
+        <v>1052.9801324503312</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="4"/>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B11" s="1">
         <f>RANK(F11,$F$11:$F$14)+SUM(T11:W11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="str">
         <f>Preliminary!AB22</f>
@@ -3170,11 +3170,11 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C11)</f>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="G11" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C11,Preliminary!AI:AI)</f>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="K11" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C11,Preliminary!AS:AS)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C11,Preliminary!AT:AT)</f>
@@ -3210,27 +3210,27 @@
       </c>
       <c r="N11" s="1">
         <f>SUMIF(Preliminary!AE:AE,C11,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C11,Preliminary!AQ:AQ)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O11" s="1">
         <f>SUMIF(Preliminary!AE:AE,C11,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C11,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="P11" s="4">
         <f t="shared" si="3"/>
-        <v>MAX</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="Q11" s="1">
         <f>SUMIF(Preliminary!AE:AE,C11,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C11,Preliminary!AV:AV)</f>
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="R11" s="1">
         <f>SUMIF(Preliminary!AE:AE,C11,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C11,Preliminary!AW:AW)</f>
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="S11" s="4">
         <f t="shared" si="0"/>
-        <v>1630.4347826086955</v>
+        <v>1176.4705882352941</v>
       </c>
       <c r="T11" s="1">
         <f>SUMPRODUCT(($F$11:$F$14=F11)*($D$11:$D$14&gt;D11))</f>
@@ -3256,7 +3256,7 @@
       <c r="A12" s="55"/>
       <c r="B12" s="1">
         <f t="shared" ref="B12:B14" si="13">RANK(F12,$F$11:$F$14)+SUM(T12:W12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="str">
         <f>Preliminary!AB23</f>
@@ -3264,15 +3264,15 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C12)</f>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="I12" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C12,Preliminary!AJ:AJ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C12,Preliminary!AK:AK)</f>
@@ -3304,31 +3304,31 @@
       </c>
       <c r="N12" s="1">
         <f>SUMIF(Preliminary!AE:AE,C12,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C12,Preliminary!AQ:AQ)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O12" s="1">
         <f>SUMIF(Preliminary!AE:AE,C12,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C12,Preliminary!AR:AR)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q12" s="1">
         <f>SUMIF(Preliminary!AE:AE,C12,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C12,Preliminary!AV:AV)</f>
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="R12" s="1">
         <f>SUMIF(Preliminary!AE:AE,C12,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C12,Preliminary!AW:AW)</f>
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="S12" s="4">
         <f t="shared" si="0"/>
-        <v>971.42857142857144</v>
+        <v>1047.1204188481674</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" ref="T12:T14" si="14">SUMPRODUCT(($F$11:$F$14=F12)*($D$11:$D$14&gt;D12))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" ref="U12:U14" si="15">SUMPRODUCT(($F$11:$F$14=F12)*($D$11:$D$14=D12)*($P$11:$P$14&gt;P12))</f>
@@ -3358,15 +3358,15 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C13)</f>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="J13" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C13,Preliminary!AK:AK)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C13,Preliminary!AS:AS)</f>
@@ -3398,31 +3398,31 @@
       </c>
       <c r="N13" s="1">
         <f>SUMIF(Preliminary!AE:AE,C13,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C13,Preliminary!AQ:AQ)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O13" s="1">
         <f>SUMIF(Preliminary!AE:AE,C13,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C13,Preliminary!AR:AR)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="3"/>
-        <v>666.66666666666663</v>
+        <v>1000</v>
       </c>
       <c r="Q13" s="1">
         <f>SUMIF(Preliminary!AE:AE,C13,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C13,Preliminary!AV:AV)</f>
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="R13" s="1">
         <f>SUMIF(Preliminary!AE:AE,C13,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C13,Preliminary!AW:AW)</f>
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="S13" s="4">
         <f t="shared" si="0"/>
-        <v>1029.4117647058822</v>
+        <v>1024.1545893719808</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="15"/>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C14)</f>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="G14" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C14,Preliminary!AI:AI)</f>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="L14" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C14,Preliminary!AT:AT)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C14,Preliminary!AU:AU)</f>
@@ -3492,31 +3492,31 @@
       </c>
       <c r="N14" s="1">
         <f>SUMIF(Preliminary!AE:AE,C14,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C14,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="1">
         <f>SUMIF(Preliminary!AE:AE,C14,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C14,Preliminary!AR:AR)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="Q14" s="1">
         <f>SUMIF(Preliminary!AE:AE,C14,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C14,Preliminary!AV:AV)</f>
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="R14" s="1">
         <f>SUMIF(Preliminary!AE:AE,C14,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C14,Preliminary!AW:AW)</f>
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="S14" s="4">
         <f t="shared" si="0"/>
-        <v>613.33333333333326</v>
+        <v>763.00578034682076</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="15"/>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="B23" s="1">
         <f>RANK(F23,$F$23:$F$26)+SUM(T23:W23)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="str">
         <f>Preliminary!AB46</f>
@@ -4304,11 +4304,11 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C23)</f>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="G23" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C23,Preliminary!AI:AI)</f>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="K23" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C23,Preliminary!AS:AS)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C23,Preliminary!AT:AT)</f>
@@ -4344,27 +4344,27 @@
       </c>
       <c r="N23" s="1">
         <f>SUMIF(Preliminary!AE:AE,C23,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C23,Preliminary!AQ:AQ)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O23" s="1">
         <f>SUMIF(Preliminary!AE:AE,C23,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C23,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="P23" s="4">
         <f t="shared" si="26"/>
-        <v>MAX</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="Q23" s="1">
         <f>SUMIF(Preliminary!AE:AE,C23,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C23,Preliminary!AV:AV)</f>
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="R23" s="1">
         <f>SUMIF(Preliminary!AE:AE,C23,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C23,Preliminary!AW:AW)</f>
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" si="27"/>
-        <v>1442.3076923076924</v>
+        <v>1131.25</v>
       </c>
       <c r="T23" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F23)*($D$23:$D$26&gt;D23))</f>
@@ -4398,15 +4398,15 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C24)</f>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C24,Preliminary!AI:AI)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C24,Preliminary!AJ:AJ)</f>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="N24" s="1">
         <f>SUMIF(Preliminary!AE:AE,C24,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C24,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O24" s="1">
         <f>SUMIF(Preliminary!AE:AE,C24,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C24,Preliminary!AR:AR)</f>
@@ -4446,23 +4446,23 @@
       </c>
       <c r="P24" s="4">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q24" s="1">
         <f>SUMIF(Preliminary!AE:AE,C24,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C24,Preliminary!AV:AV)</f>
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="R24" s="1">
         <f>SUMIF(Preliminary!AE:AE,C24,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C24,Preliminary!AW:AW)</f>
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="27"/>
-        <v>733.33333333333326</v>
+        <v>1130.4347826086955</v>
       </c>
       <c r="T24" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F24)*($D$23:$D$26&gt;D24))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F24)*($D$23:$D$26=D24)*($P$23:$P$26&gt;P24))</f>
@@ -4484,7 +4484,7 @@
       <c r="A25" s="55"/>
       <c r="B25" s="1">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="str">
         <f>Preliminary!AB48</f>
@@ -4492,15 +4492,15 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C25)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C25)</f>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="J25" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C25,Preliminary!AK:AK)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C25,Preliminary!AS:AS)</f>
@@ -4532,27 +4532,27 @@
       </c>
       <c r="N25" s="1">
         <f>SUMIF(Preliminary!AE:AE,C25,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C25,Preliminary!AQ:AQ)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O25" s="1">
         <f>SUMIF(Preliminary!AE:AE,C25,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C25,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="4" t="str">
+        <v>2</v>
+      </c>
+      <c r="P25" s="4">
         <f t="shared" si="26"/>
-        <v>MAX</v>
+        <v>3000</v>
       </c>
       <c r="Q25" s="1">
         <f>SUMIF(Preliminary!AE:AE,C25,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C25,Preliminary!AV:AV)</f>
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="R25" s="1">
         <f>SUMIF(Preliminary!AE:AE,C25,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C25,Preliminary!AW:AW)</f>
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="27"/>
-        <v>1363.6363636363635</v>
+        <v>1136.6459627329193</v>
       </c>
       <c r="T25" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F25)*($D$23:$D$26&gt;D25))</f>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="V25" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F25)*($D$23:$D$26=D25)*($P$23:$P$26=P25)*($S$23:$S$26&gt;S25))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F25)*($D$23:$D$26=D25)*($P$23:$P$26=P25)*($S$23:$S$26=S25)*($X$23:$X$26&lt;X25))</f>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C26)</f>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="G26" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C26)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C26,Preliminary!AI:AI)</f>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="M26" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C26,Preliminary!AU:AU)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" s="1">
         <f>SUMIF(Preliminary!AE:AE,C26,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C26,Preliminary!AQ:AQ)</f>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="O26" s="1">
         <f>SUMIF(Preliminary!AE:AE,C26,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C26,Preliminary!AR:AR)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="26"/>
@@ -4638,15 +4638,15 @@
       </c>
       <c r="Q26" s="1">
         <f>SUMIF(Preliminary!AE:AE,C26,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C26,Preliminary!AV:AV)</f>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="R26" s="1">
         <f>SUMIF(Preliminary!AE:AE,C26,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C26,Preliminary!AW:AW)</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="27"/>
-        <v>693.33333333333337</v>
+        <v>613.33333333333326</v>
       </c>
       <c r="T26" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F26)*($D$23:$D$26&gt;D26))</f>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="V26" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F26)*($D$23:$D$26=D26)*($P$23:$P$26=P26)*($S$23:$S$26&gt;S26))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F26)*($D$23:$D$26=D26)*($P$23:$P$26=P26)*($S$23:$S$26=S26)*($X$23:$X$26&lt;X26))</f>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="B31" s="1">
         <f>RANK(F31,$F$31:$F$34)+SUM(T31:W31)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="str">
         <f>Preliminary!AB62</f>
@@ -5060,15 +5060,15 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C31)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C31)</f>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C31,Preliminary!AI:AI)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C31,Preliminary!AJ:AJ)</f>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="N31" s="1">
         <f>SUMIF(Preliminary!AE:AE,C31,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C31,Preliminary!AQ:AQ)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O31" s="1">
         <f>SUMIF(Preliminary!AE:AE,C31,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C31,Preliminary!AR:AR)</f>
@@ -5108,19 +5108,19 @@
       </c>
       <c r="P31" s="4">
         <f t="shared" si="26"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="Q31" s="1">
         <f>SUMIF(Preliminary!AE:AE,C31,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C31,Preliminary!AV:AV)</f>
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="R31" s="1">
         <f>SUMIF(Preliminary!AE:AE,C31,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C31,Preliminary!AW:AW)</f>
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="S31" s="4">
         <f t="shared" si="27"/>
-        <v>1032.967032967033</v>
+        <v>1190.1408450704225</v>
       </c>
       <c r="T31" s="1">
         <f>SUMPRODUCT(($F$31:$F$34=F31)*($D$31:$D$34&gt;D31))</f>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="U31" s="1">
         <f>SUMPRODUCT(($F$31:$F$34=F31)*($D$31:$D$34=D31)*($P$31:$P$34&gt;P31))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="1">
         <f>SUMPRODUCT(($F$31:$F$34=F31)*($D$31:$D$34=D31)*($P$31:$P$34=P31)*($S$31:$S$34&gt;S31))</f>
@@ -5146,7 +5146,7 @@
       <c r="A32" s="55"/>
       <c r="B32" s="1">
         <f t="shared" ref="B32:B34" si="34">RANK(F32,$F$31:$F$34)+SUM(T32:W32)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" t="str">
         <f>Preliminary!AB63</f>
@@ -5154,15 +5154,15 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C32)</f>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C32,Preliminary!AI:AI)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C32,Preliminary!AJ:AJ)</f>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="N32" s="1">
         <f>SUMIF(Preliminary!AE:AE,C32,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C32,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O32" s="1">
         <f>SUMIF(Preliminary!AE:AE,C32,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C32,Preliminary!AR:AR)</f>
@@ -5202,19 +5202,19 @@
       </c>
       <c r="P32" s="4">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q32" s="1">
         <f>SUMIF(Preliminary!AE:AE,C32,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C32,Preliminary!AV:AV)</f>
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="R32" s="1">
         <f>SUMIF(Preliminary!AE:AE,C32,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C32,Preliminary!AW:AW)</f>
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="S32" s="4">
         <f t="shared" si="27"/>
-        <v>866.66666666666674</v>
+        <v>1035.9712230215828</v>
       </c>
       <c r="T32" s="1">
         <f t="shared" ref="T32:T34" si="35">SUMPRODUCT(($F$31:$F$34=F32)*($D$31:$D$34&gt;D32))</f>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="U32" s="1">
         <f t="shared" ref="U32:U34" si="36">SUMPRODUCT(($F$31:$F$34=F32)*($D$31:$D$34=D32)*($P$31:$P$34&gt;P32))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" s="1">
         <f t="shared" ref="V32:V34" si="37">SUMPRODUCT(($F$31:$F$34=F32)*($D$31:$D$34=D32)*($P$31:$P$34=P32)*($S$31:$S$34&gt;S32))</f>
@@ -5240,7 +5240,7 @@
       <c r="A33" s="55"/>
       <c r="B33" s="1">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="str">
         <f>Preliminary!AB64</f>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C33)</f>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G33" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C33,Preliminary!AI:AI)</f>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="M33" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C33,Preliminary!AU:AU)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="1">
         <f>SUMIF(Preliminary!AE:AE,C33,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C33,Preliminary!AQ:AQ)</f>
@@ -5292,23 +5292,23 @@
       </c>
       <c r="O33" s="1">
         <f>SUMIF(Preliminary!AE:AE,C33,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C33,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="P33" s="4">
         <f t="shared" si="26"/>
-        <v>MAX</v>
+        <v>1000</v>
       </c>
       <c r="Q33" s="1">
         <f>SUMIF(Preliminary!AE:AE,C33,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C33,Preliminary!AV:AV)</f>
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="R33" s="1">
         <f>SUMIF(Preliminary!AE:AE,C33,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C33,Preliminary!AW:AW)</f>
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="S33" s="4">
         <f t="shared" si="27"/>
-        <v>1153.8461538461538</v>
+        <v>900</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" si="35"/>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="V33" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="1">
         <f t="shared" si="38"/>
@@ -5334,7 +5334,7 @@
       <c r="A34" s="55"/>
       <c r="B34" s="1">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" t="str">
         <f>Preliminary!AB65</f>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C34)</f>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="G34" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C34)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C34,Preliminary!AI:AI)</f>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="M34" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C34,Preliminary!AU:AU)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="1">
         <f>SUMIF(Preliminary!AE:AE,C34,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C34,Preliminary!AQ:AQ)</f>
@@ -5386,23 +5386,23 @@
       </c>
       <c r="O34" s="1">
         <f>SUMIF(Preliminary!AE:AE,C34,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C34,Preliminary!AR:AR)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P34" s="4">
         <f t="shared" si="26"/>
-        <v>333.33333333333331</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="Q34" s="1">
         <f>SUMIF(Preliminary!AE:AE,C34,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C34,Preliminary!AV:AV)</f>
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="R34" s="1">
         <f>SUMIF(Preliminary!AE:AE,C34,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C34,Preliminary!AW:AW)</f>
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="S34" s="4">
         <f t="shared" si="27"/>
-        <v>968.08510638297878</v>
+        <v>895.95375722543361</v>
       </c>
       <c r="T34" s="1">
         <f t="shared" si="35"/>
@@ -5426,6 +5426,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:X1"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A34"/>
@@ -5434,11 +5439,6 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:X1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5449,7 +5449,7 @@
   <dimension ref="B2:BR67"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5513,74 +5513,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="75"/>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="75"/>
-      <c r="AV2" s="75"/>
-      <c r="AW2" s="75"/>
-      <c r="AX2" s="75"/>
-      <c r="AY2" s="75"/>
-      <c r="AZ2" s="75"/>
-      <c r="BA2" s="75"/>
-      <c r="BB2" s="75"/>
-      <c r="BC2" s="75"/>
-      <c r="BD2" s="75"/>
-      <c r="BE2" s="75"/>
-      <c r="BF2" s="75"/>
-      <c r="BG2" s="75"/>
-      <c r="BH2" s="75"/>
-      <c r="BI2" s="75"/>
-      <c r="BJ2" s="75"/>
-      <c r="BK2" s="75"/>
-      <c r="BL2" s="75"/>
-      <c r="BM2" s="75"/>
-      <c r="BN2" s="75"/>
-      <c r="BO2" s="75"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="56"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="56"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="56"/>
+      <c r="BL2" s="56"/>
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="56"/>
     </row>
     <row r="3" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX3" s="33"/>
@@ -5603,116 +5603,116 @@
       <c r="BO3" s="33"/>
     </row>
     <row r="4" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="76"/>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="76"/>
-      <c r="AT4" s="76"/>
-      <c r="AU4" s="76"/>
-      <c r="AV4" s="76"/>
-      <c r="AW4" s="76"/>
-      <c r="AX4" s="76"/>
-      <c r="AY4" s="76"/>
-      <c r="AZ4" s="76"/>
-      <c r="BA4" s="76"/>
-      <c r="BB4" s="76"/>
-      <c r="BC4" s="76"/>
-      <c r="BD4" s="76"/>
-      <c r="BE4" s="76"/>
-      <c r="BF4" s="76"/>
-      <c r="BG4" s="76"/>
-      <c r="BH4" s="76"/>
-      <c r="BI4" s="76"/>
-      <c r="BJ4" s="76"/>
-      <c r="BK4" s="76"/>
-      <c r="BL4" s="76"/>
-      <c r="BM4" s="76"/>
-      <c r="BN4" s="76"/>
-      <c r="BO4" s="76"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="57"/>
+      <c r="AY4" s="57"/>
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="57"/>
+      <c r="BB4" s="57"/>
+      <c r="BC4" s="57"/>
+      <c r="BD4" s="57"/>
+      <c r="BE4" s="57"/>
+      <c r="BF4" s="57"/>
+      <c r="BG4" s="57"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="57"/>
+      <c r="BM4" s="57"/>
+      <c r="BN4" s="57"/>
+      <c r="BO4" s="57"/>
     </row>
     <row r="5" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57" t="s">
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57" t="s">
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="57" t="s">
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57" t="s">
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
       <c r="AD5" s="12" t="s">
         <v>23</v>
       </c>
@@ -5770,34 +5770,34 @@
       <c r="AW5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX5" s="72" t="s">
+      <c r="AX5" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="AY5" s="73"/>
-      <c r="AZ5" s="74"/>
-      <c r="BA5" s="72" t="s">
+      <c r="AY5" s="62"/>
+      <c r="AZ5" s="63"/>
+      <c r="BA5" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="BB5" s="73"/>
-      <c r="BC5" s="74"/>
-      <c r="BD5" s="72" t="s">
+      <c r="BB5" s="62"/>
+      <c r="BC5" s="63"/>
+      <c r="BD5" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="BE5" s="73"/>
-      <c r="BF5" s="73"/>
-      <c r="BG5" s="73"/>
-      <c r="BH5" s="73"/>
-      <c r="BI5" s="74"/>
-      <c r="BJ5" s="72" t="s">
+      <c r="BE5" s="62"/>
+      <c r="BF5" s="62"/>
+      <c r="BG5" s="62"/>
+      <c r="BH5" s="62"/>
+      <c r="BI5" s="63"/>
+      <c r="BJ5" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="BK5" s="73"/>
-      <c r="BL5" s="74"/>
-      <c r="BM5" s="72" t="s">
+      <c r="BK5" s="62"/>
+      <c r="BL5" s="63"/>
+      <c r="BM5" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="BN5" s="73"/>
-      <c r="BO5" s="74"/>
+      <c r="BN5" s="62"/>
+      <c r="BO5" s="63"/>
     </row>
     <row r="6" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="BA7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,5,FALSE)</f>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="BC7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,7,FALSE)</f>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="BH7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,12,FALSE)</f>
@@ -6209,27 +6209,27 @@
       </c>
       <c r="BJ7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,13,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL7" s="52" t="str">
+        <v>3</v>
+      </c>
+      <c r="BL7" s="52">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,15,FALSE)</f>
-        <v>MAX</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="BM7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,16,FALSE)</f>
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="BN7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,17,FALSE)</f>
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="BO7" s="52">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,18,FALSE)</f>
-        <v>1415.0943396226414</v>
+        <v>1052.9801324503312</v>
       </c>
     </row>
     <row r="8" spans="2:67" x14ac:dyDescent="0.25">
@@ -6240,35 +6240,55 @@
         <f>AB7</f>
         <v>Iran</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="48">
+        <v>3</v>
+      </c>
       <c r="E8" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="47"/>
+      <c r="F8" s="47">
+        <v>1</v>
+      </c>
       <c r="G8" s="25" t="str">
         <f>AB9</f>
         <v>Tunisia</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="28">
+        <v>23</v>
+      </c>
       <c r="I8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="28"/>
+      <c r="J8" s="30">
+        <v>25</v>
+      </c>
+      <c r="K8" s="28">
+        <v>25</v>
+      </c>
       <c r="L8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="28"/>
+      <c r="M8" s="30">
+        <v>20</v>
+      </c>
+      <c r="N8" s="28">
+        <v>25</v>
+      </c>
       <c r="O8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="28"/>
+      <c r="P8" s="30">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>25</v>
+      </c>
       <c r="R8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S8" s="30"/>
+      <c r="S8" s="30">
+        <v>16</v>
+      </c>
       <c r="T8" s="28"/>
       <c r="U8" s="29" t="s">
         <v>0</v>
@@ -6276,14 +6296,14 @@
       <c r="V8" s="30"/>
       <c r="W8" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="X8" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y8" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AA8" s="12">
         <v>3</v>
@@ -6293,23 +6313,23 @@
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Iran</v>
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH8" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="12">
         <f t="shared" si="7"/>
@@ -6317,7 +6337,7 @@
       </c>
       <c r="AJ8" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="12">
         <f t="shared" si="9"/>
@@ -6325,27 +6345,27 @@
       </c>
       <c r="AL8" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AM8" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AO8" s="12">
+        <v>84</v>
+      </c>
+      <c r="AO8" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Tunisia</v>
       </c>
       <c r="AP8" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS8" s="12">
         <f t="shared" si="16"/>
@@ -6353,7 +6373,7 @@
       </c>
       <c r="AT8" s="12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="12">
         <f t="shared" si="18"/>
@@ -6361,18 +6381,18 @@
       </c>
       <c r="AV8" s="12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AW8" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AX8" s="50">
         <v>2</v>
       </c>
       <c r="AY8" s="51" t="str">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,2,FALSE)</f>
-        <v>Egypt</v>
+        <v>Iran</v>
       </c>
       <c r="AZ8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,3,FALSE)</f>
@@ -6380,7 +6400,7 @@
       </c>
       <c r="BA8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,5,FALSE)</f>
@@ -6388,7 +6408,7 @@
       </c>
       <c r="BC8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,7,FALSE)</f>
@@ -6408,7 +6428,7 @@
       </c>
       <c r="BH8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,12,FALSE)</f>
@@ -6416,27 +6436,27 @@
       </c>
       <c r="BJ8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,13,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,14,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BL8" s="52">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,15,FALSE)</f>
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="BM8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,16,FALSE)</f>
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="BN8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,17,FALSE)</f>
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="BO8" s="52">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,18,FALSE)</f>
-        <v>1070.5882352941176</v>
+        <v>1045.7142857142858</v>
       </c>
     </row>
     <row r="9" spans="2:67" x14ac:dyDescent="0.25">
@@ -6447,35 +6467,55 @@
         <f>AB6</f>
         <v>Philippines</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="48">
+        <v>3</v>
+      </c>
       <c r="E9" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="47"/>
+      <c r="F9" s="47">
+        <v>1</v>
+      </c>
       <c r="G9" s="25" t="str">
         <f>AB8</f>
         <v>Egypt</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="28">
+        <v>29</v>
+      </c>
       <c r="I9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="28"/>
+      <c r="J9" s="30">
+        <v>27</v>
+      </c>
+      <c r="K9" s="28">
+        <v>23</v>
+      </c>
       <c r="L9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="28"/>
+      <c r="M9" s="30">
+        <v>25</v>
+      </c>
+      <c r="N9" s="28">
+        <v>25</v>
+      </c>
       <c r="O9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="28"/>
+      <c r="P9" s="30">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>25</v>
+      </c>
       <c r="R9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S9" s="30"/>
+      <c r="S9" s="30">
+        <v>21</v>
+      </c>
       <c r="T9" s="28"/>
       <c r="U9" s="29" t="s">
         <v>0</v>
@@ -6483,14 +6523,14 @@
       <c r="V9" s="30"/>
       <c r="W9" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="X9" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y9" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AA9" s="12">
         <v>4</v>
@@ -6500,23 +6540,23 @@
       </c>
       <c r="AD9" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Philippines</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="12">
         <f t="shared" si="7"/>
@@ -6524,7 +6564,7 @@
       </c>
       <c r="AJ9" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9" s="12">
         <f t="shared" si="9"/>
@@ -6532,27 +6572,27 @@
       </c>
       <c r="AL9" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AM9" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AO9" s="12">
+        <v>94</v>
+      </c>
+      <c r="AO9" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Egypt</v>
       </c>
       <c r="AP9" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS9" s="12">
         <f t="shared" si="16"/>
@@ -6560,7 +6600,7 @@
       </c>
       <c r="AT9" s="12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="12">
         <f t="shared" si="18"/>
@@ -6568,30 +6608,30 @@
       </c>
       <c r="AV9" s="12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AW9" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AX9" s="50">
         <v>3</v>
       </c>
       <c r="AY9" s="51" t="str">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,2,FALSE)</f>
-        <v>Iran</v>
+        <v>Egypt</v>
       </c>
       <c r="AZ9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,3,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,6,FALSE)</f>
@@ -6603,7 +6643,7 @@
       </c>
       <c r="BE9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,9,FALSE)</f>
@@ -6623,27 +6663,27 @@
       </c>
       <c r="BJ9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,13,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BK9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,14,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL9" s="52">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,15,FALSE)</f>
-        <v>333.33333333333331</v>
+        <v>1000</v>
       </c>
       <c r="BM9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,16,FALSE)</f>
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="BN9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,17,FALSE)</f>
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="BO9" s="52">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,18,FALSE)</f>
-        <v>934.06593406593413</v>
+        <v>989.30481283422455</v>
       </c>
     </row>
     <row r="10" spans="2:67" x14ac:dyDescent="0.25">
@@ -6784,15 +6824,15 @@
       </c>
       <c r="AZ10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,3,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,6,FALSE)</f>
@@ -6804,7 +6844,7 @@
       </c>
       <c r="BE10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,9,FALSE)</f>
@@ -6824,27 +6864,27 @@
       </c>
       <c r="BJ10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,13,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,14,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL10" s="52">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,15,FALSE)</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="BM10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,16,FALSE)</f>
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="BN10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,17,FALSE)</f>
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="BO10" s="52">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,18,FALSE)</f>
-        <v>706.66666666666663</v>
+        <v>917.15976331360946</v>
       </c>
     </row>
     <row r="11" spans="2:67" x14ac:dyDescent="0.25">
@@ -6978,120 +7018,120 @@
       </c>
       <c r="BA11" s="26">
         <f>SUM(BA7:BA10)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="76"/>
-      <c r="AL12" s="76"/>
-      <c r="AM12" s="76"/>
-      <c r="AN12" s="76"/>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="76"/>
-      <c r="AQ12" s="76"/>
-      <c r="AR12" s="76"/>
-      <c r="AS12" s="76"/>
-      <c r="AT12" s="76"/>
-      <c r="AU12" s="76"/>
-      <c r="AV12" s="76"/>
-      <c r="AW12" s="76"/>
-      <c r="AX12" s="76"/>
-      <c r="AY12" s="76"/>
-      <c r="AZ12" s="76"/>
-      <c r="BA12" s="76"/>
-      <c r="BB12" s="76"/>
-      <c r="BC12" s="76"/>
-      <c r="BD12" s="76"/>
-      <c r="BE12" s="76"/>
-      <c r="BF12" s="76"/>
-      <c r="BG12" s="76"/>
-      <c r="BH12" s="76"/>
-      <c r="BI12" s="76"/>
-      <c r="BJ12" s="76"/>
-      <c r="BK12" s="76"/>
-      <c r="BL12" s="76"/>
-      <c r="BM12" s="76"/>
-      <c r="BN12" s="76"/>
-      <c r="BO12" s="76"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="57"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="57"/>
+      <c r="AP12" s="57"/>
+      <c r="AQ12" s="57"/>
+      <c r="AR12" s="57"/>
+      <c r="AS12" s="57"/>
+      <c r="AT12" s="57"/>
+      <c r="AU12" s="57"/>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="57"/>
+      <c r="AX12" s="57"/>
+      <c r="AY12" s="57"/>
+      <c r="AZ12" s="57"/>
+      <c r="BA12" s="57"/>
+      <c r="BB12" s="57"/>
+      <c r="BC12" s="57"/>
+      <c r="BD12" s="57"/>
+      <c r="BE12" s="57"/>
+      <c r="BF12" s="57"/>
+      <c r="BG12" s="57"/>
+      <c r="BH12" s="57"/>
+      <c r="BI12" s="57"/>
+      <c r="BJ12" s="57"/>
+      <c r="BK12" s="57"/>
+      <c r="BL12" s="57"/>
+      <c r="BM12" s="57"/>
+      <c r="BN12" s="57"/>
+      <c r="BO12" s="57"/>
     </row>
     <row r="13" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="61" t="s">
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="61" t="s">
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="61" t="s">
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="61" t="s">
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
       <c r="AD13" s="12" t="s">
         <v>23</v>
       </c>
@@ -7149,34 +7189,34 @@
       <c r="AW13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX13" s="69" t="s">
+      <c r="AX13" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AY13" s="70"/>
-      <c r="AZ13" s="71"/>
-      <c r="BA13" s="69" t="s">
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="60"/>
+      <c r="BA13" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="BB13" s="70"/>
-      <c r="BC13" s="71"/>
-      <c r="BD13" s="69" t="s">
+      <c r="BB13" s="59"/>
+      <c r="BC13" s="60"/>
+      <c r="BD13" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="BE13" s="70"/>
-      <c r="BF13" s="70"/>
-      <c r="BG13" s="70"/>
-      <c r="BH13" s="70"/>
-      <c r="BI13" s="71"/>
-      <c r="BJ13" s="69" t="s">
+      <c r="BE13" s="59"/>
+      <c r="BF13" s="59"/>
+      <c r="BG13" s="59"/>
+      <c r="BH13" s="59"/>
+      <c r="BI13" s="60"/>
+      <c r="BJ13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK13" s="70"/>
-      <c r="BL13" s="71"/>
-      <c r="BM13" s="69" t="s">
+      <c r="BK13" s="59"/>
+      <c r="BL13" s="60"/>
+      <c r="BM13" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="BN13" s="70"/>
-      <c r="BO13" s="71"/>
+      <c r="BN13" s="59"/>
+      <c r="BO13" s="60"/>
     </row>
     <row r="14" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -8393,116 +8433,116 @@
       </c>
     </row>
     <row r="20" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="76"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="76"/>
-      <c r="AH20" s="76"/>
-      <c r="AI20" s="76"/>
-      <c r="AJ20" s="76"/>
-      <c r="AK20" s="76"/>
-      <c r="AL20" s="76"/>
-      <c r="AM20" s="76"/>
-      <c r="AN20" s="76"/>
-      <c r="AO20" s="76"/>
-      <c r="AP20" s="76"/>
-      <c r="AQ20" s="76"/>
-      <c r="AR20" s="76"/>
-      <c r="AS20" s="76"/>
-      <c r="AT20" s="76"/>
-      <c r="AU20" s="76"/>
-      <c r="AV20" s="76"/>
-      <c r="AW20" s="76"/>
-      <c r="AX20" s="76"/>
-      <c r="AY20" s="76"/>
-      <c r="AZ20" s="76"/>
-      <c r="BA20" s="76"/>
-      <c r="BB20" s="76"/>
-      <c r="BC20" s="76"/>
-      <c r="BD20" s="76"/>
-      <c r="BE20" s="76"/>
-      <c r="BF20" s="76"/>
-      <c r="BG20" s="76"/>
-      <c r="BH20" s="76"/>
-      <c r="BI20" s="76"/>
-      <c r="BJ20" s="76"/>
-      <c r="BK20" s="76"/>
-      <c r="BL20" s="76"/>
-      <c r="BM20" s="76"/>
-      <c r="BN20" s="76"/>
-      <c r="BO20" s="76"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="57"/>
+      <c r="AL20" s="57"/>
+      <c r="AM20" s="57"/>
+      <c r="AN20" s="57"/>
+      <c r="AO20" s="57"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="57"/>
+      <c r="AR20" s="57"/>
+      <c r="AS20" s="57"/>
+      <c r="AT20" s="57"/>
+      <c r="AU20" s="57"/>
+      <c r="AV20" s="57"/>
+      <c r="AW20" s="57"/>
+      <c r="AX20" s="57"/>
+      <c r="AY20" s="57"/>
+      <c r="AZ20" s="57"/>
+      <c r="BA20" s="57"/>
+      <c r="BB20" s="57"/>
+      <c r="BC20" s="57"/>
+      <c r="BD20" s="57"/>
+      <c r="BE20" s="57"/>
+      <c r="BF20" s="57"/>
+      <c r="BG20" s="57"/>
+      <c r="BH20" s="57"/>
+      <c r="BI20" s="57"/>
+      <c r="BJ20" s="57"/>
+      <c r="BK20" s="57"/>
+      <c r="BL20" s="57"/>
+      <c r="BM20" s="57"/>
+      <c r="BN20" s="57"/>
+      <c r="BO20" s="57"/>
     </row>
     <row r="21" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="61" t="s">
+      <c r="H21" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="61" t="s">
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="61" t="s">
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="61" t="s">
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="61" t="s">
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
       <c r="AD21" s="12" t="s">
         <v>23</v>
       </c>
@@ -8560,34 +8600,34 @@
       <c r="AW21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX21" s="69" t="s">
+      <c r="AX21" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AY21" s="70"/>
-      <c r="AZ21" s="71"/>
-      <c r="BA21" s="69" t="s">
+      <c r="AY21" s="59"/>
+      <c r="AZ21" s="60"/>
+      <c r="BA21" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="BB21" s="70"/>
-      <c r="BC21" s="71"/>
-      <c r="BD21" s="69" t="s">
+      <c r="BB21" s="59"/>
+      <c r="BC21" s="60"/>
+      <c r="BD21" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="BE21" s="70"/>
-      <c r="BF21" s="70"/>
-      <c r="BG21" s="70"/>
-      <c r="BH21" s="70"/>
-      <c r="BI21" s="71"/>
-      <c r="BJ21" s="69" t="s">
+      <c r="BE21" s="59"/>
+      <c r="BF21" s="59"/>
+      <c r="BG21" s="59"/>
+      <c r="BH21" s="59"/>
+      <c r="BI21" s="60"/>
+      <c r="BJ21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK21" s="70"/>
-      <c r="BL21" s="71"/>
-      <c r="BM21" s="69" t="s">
+      <c r="BK21" s="59"/>
+      <c r="BL21" s="60"/>
+      <c r="BM21" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="BN21" s="70"/>
-      <c r="BO21" s="71"/>
+      <c r="BN21" s="59"/>
+      <c r="BO21" s="60"/>
     </row>
     <row r="22" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B22" s="23">
@@ -8959,19 +8999,19 @@
       </c>
       <c r="AY23" s="51" t="str">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,2,FALSE)</f>
-        <v>France</v>
+        <v>Argentina</v>
       </c>
       <c r="AZ23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,3,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,6,FALSE)</f>
@@ -8979,15 +9019,15 @@
       </c>
       <c r="BD23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,7,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,10,FALSE)</f>
@@ -9003,27 +9043,27 @@
       </c>
       <c r="BJ23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,13,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BK23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL23" s="52" t="str">
+        <v>3</v>
+      </c>
+      <c r="BL23" s="52">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,15,FALSE)</f>
-        <v>MAX</v>
+        <v>2000</v>
       </c>
       <c r="BM23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,16,FALSE)</f>
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="BN23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,17,FALSE)</f>
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="BO23" s="52">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,18,FALSE)</f>
-        <v>1630.4347826086955</v>
+        <v>1047.1204188481674</v>
       </c>
     </row>
     <row r="24" spans="2:67" x14ac:dyDescent="0.25">
@@ -9034,35 +9074,55 @@
         <f>AB23</f>
         <v>Argentina</v>
       </c>
-      <c r="D24" s="48"/>
+      <c r="D24" s="48">
+        <v>3</v>
+      </c>
       <c r="E24" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="47"/>
+      <c r="F24" s="47">
+        <v>1</v>
+      </c>
       <c r="G24" s="25" t="str">
         <f>AB25</f>
         <v>South Korea</v>
       </c>
-      <c r="H24" s="28"/>
+      <c r="H24" s="28">
+        <v>25</v>
+      </c>
       <c r="I24" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="28"/>
+      <c r="J24" s="30">
+        <v>22</v>
+      </c>
+      <c r="K24" s="28">
+        <v>23</v>
+      </c>
       <c r="L24" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M24" s="30"/>
-      <c r="N24" s="28"/>
+      <c r="M24" s="30">
+        <v>25</v>
+      </c>
+      <c r="N24" s="28">
+        <v>25</v>
+      </c>
       <c r="O24" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="28"/>
+      <c r="P24" s="30">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="28">
+        <v>25</v>
+      </c>
       <c r="R24" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S24" s="30"/>
+      <c r="S24" s="30">
+        <v>18</v>
+      </c>
       <c r="T24" s="28"/>
       <c r="U24" s="29" t="s">
         <v>0</v>
@@ -9070,14 +9130,14 @@
       <c r="V24" s="30"/>
       <c r="W24" s="31">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="X24" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y24" s="32">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="AA24" s="12">
         <v>3</v>
@@ -9087,23 +9147,23 @@
       </c>
       <c r="AD24" s="12">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE24" s="12" t="str">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>Argentina</v>
       </c>
       <c r="AF24" s="12">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" s="12">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH24" s="12">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24" s="12">
         <f t="shared" si="47"/>
@@ -9111,7 +9171,7 @@
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24" s="12">
         <f t="shared" si="49"/>
@@ -9119,27 +9179,27 @@
       </c>
       <c r="AL24" s="12">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AM24" s="12">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AO24" s="12">
+        <v>86</v>
+      </c>
+      <c r="AO24" s="12" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>South Korea</v>
       </c>
       <c r="AP24" s="12">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="12">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR24" s="12">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS24" s="12">
         <f t="shared" si="56"/>
@@ -9147,7 +9207,7 @@
       </c>
       <c r="AT24" s="12">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24" s="12">
         <f t="shared" si="58"/>
@@ -9155,26 +9215,26 @@
       </c>
       <c r="AV24" s="12">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="AW24" s="12">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AX24" s="50">
         <v>2</v>
       </c>
       <c r="AY24" s="51" t="str">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,2,FALSE)</f>
-        <v>Argentina</v>
+        <v>France</v>
       </c>
       <c r="AZ24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,3,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,5,FALSE)</f>
@@ -9182,11 +9242,11 @@
       </c>
       <c r="BC24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,8,FALSE)</f>
@@ -9194,11 +9254,11 @@
       </c>
       <c r="BF24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,9,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,11,FALSE)</f>
@@ -9210,27 +9270,27 @@
       </c>
       <c r="BJ24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,13,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BK24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,14,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL24" s="52">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,15,FALSE)</f>
-        <v>1500</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="BM24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,16,FALSE)</f>
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="BN24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,17,FALSE)</f>
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="BO24" s="52">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,18,FALSE)</f>
-        <v>971.42857142857144</v>
+        <v>1176.4705882352941</v>
       </c>
     </row>
     <row r="25" spans="2:67" x14ac:dyDescent="0.25">
@@ -9241,50 +9301,74 @@
         <f>AB22</f>
         <v>France</v>
       </c>
-      <c r="D25" s="48"/>
+      <c r="D25" s="48">
+        <v>2</v>
+      </c>
       <c r="E25" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="47"/>
+      <c r="F25" s="47">
+        <v>3</v>
+      </c>
       <c r="G25" s="25" t="str">
         <f>AB24</f>
         <v>Finland</v>
       </c>
-      <c r="H25" s="28"/>
+      <c r="H25" s="28">
+        <v>19</v>
+      </c>
       <c r="I25" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="28"/>
+      <c r="J25" s="30">
+        <v>25</v>
+      </c>
+      <c r="K25" s="28">
+        <v>25</v>
+      </c>
       <c r="L25" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M25" s="30"/>
-      <c r="N25" s="28"/>
+      <c r="M25" s="30">
+        <v>17</v>
+      </c>
+      <c r="N25" s="28">
+        <v>27</v>
+      </c>
       <c r="O25" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="28"/>
+      <c r="P25" s="30">
+        <v>29</v>
+      </c>
+      <c r="Q25" s="28">
+        <v>25</v>
+      </c>
       <c r="R25" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S25" s="30"/>
-      <c r="T25" s="28"/>
+      <c r="S25" s="30">
+        <v>21</v>
+      </c>
+      <c r="T25" s="28">
+        <v>9</v>
+      </c>
       <c r="U25" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="V25" s="30"/>
+      <c r="V25" s="30">
+        <v>15</v>
+      </c>
       <c r="W25" s="31">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="X25" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y25" s="32">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="AA25" s="12">
         <v>4</v>
@@ -9294,23 +9378,23 @@
       </c>
       <c r="AD25" s="12">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="12">
+        <v>5</v>
+      </c>
+      <c r="AE25" s="12" t="str">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>Finland</v>
       </c>
       <c r="AF25" s="12">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" s="12">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH25" s="12">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI25" s="12">
         <f t="shared" si="47"/>
@@ -9322,35 +9406,35 @@
       </c>
       <c r="AK25" s="12">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="12">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="AM25" s="12">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AO25" s="12">
+        <v>105</v>
+      </c>
+      <c r="AO25" s="12" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>France</v>
       </c>
       <c r="AP25" s="12">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25" s="12">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR25" s="12">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS25" s="12">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" s="12">
         <f t="shared" si="57"/>
@@ -9362,11 +9446,11 @@
       </c>
       <c r="AV25" s="12">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AW25" s="12">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="AX25" s="50">
         <v>3</v>
@@ -9377,15 +9461,15 @@
       </c>
       <c r="AZ25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,3,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,6,FALSE)</f>
@@ -9401,7 +9485,7 @@
       </c>
       <c r="BF25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,10,FALSE)</f>
@@ -9417,27 +9501,27 @@
       </c>
       <c r="BJ25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,13,FALSE)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BK25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,14,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BL25" s="52">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,15,FALSE)</f>
-        <v>666.66666666666663</v>
+        <v>1000</v>
       </c>
       <c r="BM25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,16,FALSE)</f>
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="BN25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,17,FALSE)</f>
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="BO25" s="52">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,18,FALSE)</f>
-        <v>1029.4117647058822</v>
+        <v>1024.1545893719808</v>
       </c>
     </row>
     <row r="26" spans="2:67" x14ac:dyDescent="0.25">
@@ -9582,7 +9666,7 @@
       </c>
       <c r="BA26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,5,FALSE)</f>
@@ -9590,7 +9674,7 @@
       </c>
       <c r="BC26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,6,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,7,FALSE)</f>
@@ -9610,7 +9694,7 @@
       </c>
       <c r="BH26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,12,FALSE)</f>
@@ -9618,27 +9702,27 @@
       </c>
       <c r="BJ26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,13,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,14,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BL26" s="52">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,15,FALSE)</f>
-        <v>0</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="BM26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,16,FALSE)</f>
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="BN26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,17,FALSE)</f>
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="BO26" s="52">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,18,FALSE)</f>
-        <v>613.33333333333326</v>
+        <v>763.00578034682076</v>
       </c>
     </row>
     <row r="27" spans="2:67" x14ac:dyDescent="0.25">
@@ -9772,120 +9856,120 @@
       </c>
       <c r="BA27" s="26">
         <f>SUM(BA23:BA26)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="76"/>
-      <c r="W28" s="76"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="76"/>
-      <c r="Z28" s="76"/>
-      <c r="AA28" s="76"/>
-      <c r="AB28" s="76"/>
-      <c r="AC28" s="76"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="76"/>
-      <c r="AF28" s="76"/>
-      <c r="AG28" s="76"/>
-      <c r="AH28" s="76"/>
-      <c r="AI28" s="76"/>
-      <c r="AJ28" s="76"/>
-      <c r="AK28" s="76"/>
-      <c r="AL28" s="76"/>
-      <c r="AM28" s="76"/>
-      <c r="AN28" s="76"/>
-      <c r="AO28" s="76"/>
-      <c r="AP28" s="76"/>
-      <c r="AQ28" s="76"/>
-      <c r="AR28" s="76"/>
-      <c r="AS28" s="76"/>
-      <c r="AT28" s="76"/>
-      <c r="AU28" s="76"/>
-      <c r="AV28" s="76"/>
-      <c r="AW28" s="76"/>
-      <c r="AX28" s="76"/>
-      <c r="AY28" s="76"/>
-      <c r="AZ28" s="76"/>
-      <c r="BA28" s="76"/>
-      <c r="BB28" s="76"/>
-      <c r="BC28" s="76"/>
-      <c r="BD28" s="76"/>
-      <c r="BE28" s="76"/>
-      <c r="BF28" s="76"/>
-      <c r="BG28" s="76"/>
-      <c r="BH28" s="76"/>
-      <c r="BI28" s="76"/>
-      <c r="BJ28" s="76"/>
-      <c r="BK28" s="76"/>
-      <c r="BL28" s="76"/>
-      <c r="BM28" s="76"/>
-      <c r="BN28" s="76"/>
-      <c r="BO28" s="76"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="57"/>
+      <c r="AX28" s="57"/>
+      <c r="AY28" s="57"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="57"/>
+      <c r="BB28" s="57"/>
+      <c r="BC28" s="57"/>
+      <c r="BD28" s="57"/>
+      <c r="BE28" s="57"/>
+      <c r="BF28" s="57"/>
+      <c r="BG28" s="57"/>
+      <c r="BH28" s="57"/>
+      <c r="BI28" s="57"/>
+      <c r="BJ28" s="57"/>
+      <c r="BK28" s="57"/>
+      <c r="BL28" s="57"/>
+      <c r="BM28" s="57"/>
+      <c r="BN28" s="57"/>
+      <c r="BO28" s="57"/>
     </row>
     <row r="29" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="61" t="s">
+      <c r="H29" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="61" t="s">
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="61" t="s">
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="61" t="s">
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="61" t="s">
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
       <c r="AD29" s="12" t="s">
         <v>23</v>
       </c>
@@ -9943,34 +10027,34 @@
       <c r="AW29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX29" s="69" t="s">
+      <c r="AX29" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AY29" s="70"/>
-      <c r="AZ29" s="71"/>
-      <c r="BA29" s="69" t="s">
+      <c r="AY29" s="59"/>
+      <c r="AZ29" s="60"/>
+      <c r="BA29" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="BB29" s="70"/>
-      <c r="BC29" s="71"/>
-      <c r="BD29" s="69" t="s">
+      <c r="BB29" s="59"/>
+      <c r="BC29" s="60"/>
+      <c r="BD29" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="BE29" s="70"/>
-      <c r="BF29" s="70"/>
-      <c r="BG29" s="70"/>
-      <c r="BH29" s="70"/>
-      <c r="BI29" s="71"/>
-      <c r="BJ29" s="69" t="s">
+      <c r="BE29" s="59"/>
+      <c r="BF29" s="59"/>
+      <c r="BG29" s="59"/>
+      <c r="BH29" s="59"/>
+      <c r="BI29" s="60"/>
+      <c r="BJ29" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK29" s="70"/>
-      <c r="BL29" s="71"/>
-      <c r="BM29" s="69" t="s">
+      <c r="BK29" s="59"/>
+      <c r="BL29" s="60"/>
+      <c r="BM29" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="BN29" s="70"/>
-      <c r="BO29" s="71"/>
+      <c r="BN29" s="59"/>
+      <c r="BO29" s="60"/>
     </row>
     <row r="30" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
@@ -11187,120 +11271,120 @@
       </c>
     </row>
     <row r="36" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="76"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="76"/>
-      <c r="U36" s="76"/>
-      <c r="V36" s="76"/>
-      <c r="W36" s="76"/>
-      <c r="X36" s="76"/>
-      <c r="Y36" s="76"/>
-      <c r="Z36" s="76"/>
-      <c r="AA36" s="76"/>
-      <c r="AB36" s="76"/>
-      <c r="AC36" s="76"/>
-      <c r="AD36" s="76"/>
-      <c r="AE36" s="76"/>
-      <c r="AF36" s="76"/>
-      <c r="AG36" s="76"/>
-      <c r="AH36" s="76"/>
-      <c r="AI36" s="76"/>
-      <c r="AJ36" s="76"/>
-      <c r="AK36" s="76"/>
-      <c r="AL36" s="76"/>
-      <c r="AM36" s="76"/>
-      <c r="AN36" s="76"/>
-      <c r="AO36" s="76"/>
-      <c r="AP36" s="76"/>
-      <c r="AQ36" s="76"/>
-      <c r="AR36" s="76"/>
-      <c r="AS36" s="76"/>
-      <c r="AT36" s="76"/>
-      <c r="AU36" s="76"/>
-      <c r="AV36" s="76"/>
-      <c r="AW36" s="76"/>
-      <c r="AX36" s="76"/>
-      <c r="AY36" s="76"/>
-      <c r="AZ36" s="76"/>
-      <c r="BA36" s="76"/>
-      <c r="BB36" s="76"/>
-      <c r="BC36" s="76"/>
-      <c r="BD36" s="76"/>
-      <c r="BE36" s="76"/>
-      <c r="BF36" s="76"/>
-      <c r="BG36" s="76"/>
-      <c r="BH36" s="76"/>
-      <c r="BI36" s="76"/>
-      <c r="BJ36" s="76"/>
-      <c r="BK36" s="76"/>
-      <c r="BL36" s="76"/>
-      <c r="BM36" s="76"/>
-      <c r="BN36" s="76"/>
-      <c r="BO36" s="76"/>
-      <c r="BQ36" s="62" t="s">
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="57"/>
+      <c r="AC36" s="57"/>
+      <c r="AD36" s="57"/>
+      <c r="AE36" s="57"/>
+      <c r="AF36" s="57"/>
+      <c r="AG36" s="57"/>
+      <c r="AH36" s="57"/>
+      <c r="AI36" s="57"/>
+      <c r="AJ36" s="57"/>
+      <c r="AK36" s="57"/>
+      <c r="AL36" s="57"/>
+      <c r="AM36" s="57"/>
+      <c r="AN36" s="57"/>
+      <c r="AO36" s="57"/>
+      <c r="AP36" s="57"/>
+      <c r="AQ36" s="57"/>
+      <c r="AR36" s="57"/>
+      <c r="AS36" s="57"/>
+      <c r="AT36" s="57"/>
+      <c r="AU36" s="57"/>
+      <c r="AV36" s="57"/>
+      <c r="AW36" s="57"/>
+      <c r="AX36" s="57"/>
+      <c r="AY36" s="57"/>
+      <c r="AZ36" s="57"/>
+      <c r="BA36" s="57"/>
+      <c r="BB36" s="57"/>
+      <c r="BC36" s="57"/>
+      <c r="BD36" s="57"/>
+      <c r="BE36" s="57"/>
+      <c r="BF36" s="57"/>
+      <c r="BG36" s="57"/>
+      <c r="BH36" s="57"/>
+      <c r="BI36" s="57"/>
+      <c r="BJ36" s="57"/>
+      <c r="BK36" s="57"/>
+      <c r="BL36" s="57"/>
+      <c r="BM36" s="57"/>
+      <c r="BN36" s="57"/>
+      <c r="BO36" s="57"/>
+      <c r="BQ36" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="BR36" s="62"/>
+      <c r="BR36" s="64"/>
     </row>
     <row r="37" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="21"/>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="61" t="s">
+      <c r="H37" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="61" t="s">
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="61" t="s">
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="61" t="s">
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="61" t="s">
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
       <c r="AD37" s="12" t="s">
         <v>23</v>
       </c>
@@ -11358,38 +11442,38 @@
       <c r="AW37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX37" s="69" t="s">
+      <c r="AX37" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AY37" s="70"/>
-      <c r="AZ37" s="71"/>
-      <c r="BA37" s="69" t="s">
+      <c r="AY37" s="59"/>
+      <c r="AZ37" s="60"/>
+      <c r="BA37" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="BB37" s="70"/>
-      <c r="BC37" s="71"/>
-      <c r="BD37" s="69" t="s">
+      <c r="BB37" s="59"/>
+      <c r="BC37" s="60"/>
+      <c r="BD37" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="BE37" s="70"/>
-      <c r="BF37" s="70"/>
-      <c r="BG37" s="70"/>
-      <c r="BH37" s="70"/>
-      <c r="BI37" s="71"/>
-      <c r="BJ37" s="69" t="s">
+      <c r="BE37" s="59"/>
+      <c r="BF37" s="59"/>
+      <c r="BG37" s="59"/>
+      <c r="BH37" s="59"/>
+      <c r="BI37" s="60"/>
+      <c r="BJ37" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK37" s="70"/>
-      <c r="BL37" s="71"/>
-      <c r="BM37" s="69" t="s">
+      <c r="BK37" s="59"/>
+      <c r="BL37" s="60"/>
+      <c r="BM37" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="BN37" s="70"/>
-      <c r="BO37" s="71"/>
-      <c r="BQ37" s="63" t="s">
+      <c r="BN37" s="59"/>
+      <c r="BO37" s="60"/>
+      <c r="BQ37" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="BR37" s="64"/>
+      <c r="BR37" s="66"/>
     </row>
     <row r="38" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B38" s="23">
@@ -11596,10 +11680,10 @@
       <c r="BO38" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="BQ38" s="65" t="s">
+      <c r="BQ38" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="BR38" s="66"/>
+      <c r="BR38" s="68"/>
     </row>
     <row r="39" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B39" s="23">
@@ -11823,10 +11907,10 @@
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>1113.6363636363635</v>
       </c>
-      <c r="BQ39" s="65" t="s">
+      <c r="BQ39" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="BR39" s="66"/>
+      <c r="BR39" s="68"/>
     </row>
     <row r="40" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B40" s="23">
@@ -12050,10 +12134,10 @@
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>1062.111801242236</v>
       </c>
-      <c r="BQ40" s="65" t="s">
+      <c r="BQ40" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="BR40" s="66"/>
+      <c r="BR40" s="68"/>
     </row>
     <row r="41" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B41" s="23">
@@ -12285,10 +12369,10 @@
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>1026.4900662251655</v>
       </c>
-      <c r="BQ41" s="67" t="s">
+      <c r="BQ41" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="BR41" s="68"/>
+      <c r="BR41" s="70"/>
     </row>
     <row r="42" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B42" s="23">
@@ -12626,116 +12710,116 @@
       </c>
     </row>
     <row r="44" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="76"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="76"/>
-      <c r="U44" s="76"/>
-      <c r="V44" s="76"/>
-      <c r="W44" s="76"/>
-      <c r="X44" s="76"/>
-      <c r="Y44" s="76"/>
-      <c r="Z44" s="76"/>
-      <c r="AA44" s="76"/>
-      <c r="AB44" s="76"/>
-      <c r="AC44" s="76"/>
-      <c r="AD44" s="76"/>
-      <c r="AE44" s="76"/>
-      <c r="AF44" s="76"/>
-      <c r="AG44" s="76"/>
-      <c r="AH44" s="76"/>
-      <c r="AI44" s="76"/>
-      <c r="AJ44" s="76"/>
-      <c r="AK44" s="76"/>
-      <c r="AL44" s="76"/>
-      <c r="AM44" s="76"/>
-      <c r="AN44" s="76"/>
-      <c r="AO44" s="76"/>
-      <c r="AP44" s="76"/>
-      <c r="AQ44" s="76"/>
-      <c r="AR44" s="76"/>
-      <c r="AS44" s="76"/>
-      <c r="AT44" s="76"/>
-      <c r="AU44" s="76"/>
-      <c r="AV44" s="76"/>
-      <c r="AW44" s="76"/>
-      <c r="AX44" s="76"/>
-      <c r="AY44" s="76"/>
-      <c r="AZ44" s="76"/>
-      <c r="BA44" s="76"/>
-      <c r="BB44" s="76"/>
-      <c r="BC44" s="76"/>
-      <c r="BD44" s="76"/>
-      <c r="BE44" s="76"/>
-      <c r="BF44" s="76"/>
-      <c r="BG44" s="76"/>
-      <c r="BH44" s="76"/>
-      <c r="BI44" s="76"/>
-      <c r="BJ44" s="76"/>
-      <c r="BK44" s="76"/>
-      <c r="BL44" s="76"/>
-      <c r="BM44" s="76"/>
-      <c r="BN44" s="76"/>
-      <c r="BO44" s="76"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="57"/>
+      <c r="X44" s="57"/>
+      <c r="Y44" s="57"/>
+      <c r="Z44" s="57"/>
+      <c r="AA44" s="57"/>
+      <c r="AB44" s="57"/>
+      <c r="AC44" s="57"/>
+      <c r="AD44" s="57"/>
+      <c r="AE44" s="57"/>
+      <c r="AF44" s="57"/>
+      <c r="AG44" s="57"/>
+      <c r="AH44" s="57"/>
+      <c r="AI44" s="57"/>
+      <c r="AJ44" s="57"/>
+      <c r="AK44" s="57"/>
+      <c r="AL44" s="57"/>
+      <c r="AM44" s="57"/>
+      <c r="AN44" s="57"/>
+      <c r="AO44" s="57"/>
+      <c r="AP44" s="57"/>
+      <c r="AQ44" s="57"/>
+      <c r="AR44" s="57"/>
+      <c r="AS44" s="57"/>
+      <c r="AT44" s="57"/>
+      <c r="AU44" s="57"/>
+      <c r="AV44" s="57"/>
+      <c r="AW44" s="57"/>
+      <c r="AX44" s="57"/>
+      <c r="AY44" s="57"/>
+      <c r="AZ44" s="57"/>
+      <c r="BA44" s="57"/>
+      <c r="BB44" s="57"/>
+      <c r="BC44" s="57"/>
+      <c r="BD44" s="57"/>
+      <c r="BE44" s="57"/>
+      <c r="BF44" s="57"/>
+      <c r="BG44" s="57"/>
+      <c r="BH44" s="57"/>
+      <c r="BI44" s="57"/>
+      <c r="BJ44" s="57"/>
+      <c r="BK44" s="57"/>
+      <c r="BL44" s="57"/>
+      <c r="BM44" s="57"/>
+      <c r="BN44" s="57"/>
+      <c r="BO44" s="57"/>
     </row>
     <row r="45" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="61" t="s">
+      <c r="H45" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="61" t="s">
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="61" t="s">
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="61" t="s">
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="61" t="s">
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="59"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
       <c r="AD45" s="12" t="s">
         <v>23</v>
       </c>
@@ -12793,34 +12877,34 @@
       <c r="AW45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX45" s="69" t="s">
+      <c r="AX45" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AY45" s="70"/>
-      <c r="AZ45" s="71"/>
-      <c r="BA45" s="69" t="s">
+      <c r="AY45" s="59"/>
+      <c r="AZ45" s="60"/>
+      <c r="BA45" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="BB45" s="70"/>
-      <c r="BC45" s="71"/>
-      <c r="BD45" s="69" t="s">
+      <c r="BB45" s="59"/>
+      <c r="BC45" s="60"/>
+      <c r="BD45" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="BE45" s="70"/>
-      <c r="BF45" s="70"/>
-      <c r="BG45" s="70"/>
-      <c r="BH45" s="70"/>
-      <c r="BI45" s="71"/>
-      <c r="BJ45" s="69" t="s">
+      <c r="BE45" s="59"/>
+      <c r="BF45" s="59"/>
+      <c r="BG45" s="59"/>
+      <c r="BH45" s="59"/>
+      <c r="BI45" s="60"/>
+      <c r="BJ45" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK45" s="70"/>
-      <c r="BL45" s="71"/>
-      <c r="BM45" s="69" t="s">
+      <c r="BK45" s="59"/>
+      <c r="BL45" s="60"/>
+      <c r="BM45" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="BN45" s="70"/>
-      <c r="BO45" s="71"/>
+      <c r="BN45" s="59"/>
+      <c r="BO45" s="60"/>
     </row>
     <row r="46" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -13184,19 +13268,19 @@
       </c>
       <c r="AY47" s="51" t="str">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,2,FALSE)</f>
-        <v>Italy</v>
+        <v>Belgium</v>
       </c>
       <c r="AZ47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,3,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,6,FALSE)</f>
@@ -13212,7 +13296,7 @@
       </c>
       <c r="BF47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,10,FALSE)</f>
@@ -13228,27 +13312,27 @@
       </c>
       <c r="BJ47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,13,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BK47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL47" s="52" t="str">
+        <v>2</v>
+      </c>
+      <c r="BL47" s="52">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,15,FALSE)</f>
-        <v>MAX</v>
+        <v>3000</v>
       </c>
       <c r="BM47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,16,FALSE)</f>
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="BN47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,17,FALSE)</f>
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="BO47" s="52">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,18,FALSE)</f>
-        <v>1442.3076923076924</v>
+        <v>1136.6459627329193</v>
       </c>
     </row>
     <row r="48" spans="2:70" x14ac:dyDescent="0.25">
@@ -13259,30 +13343,46 @@
         <f>AB47</f>
         <v>Ukraine</v>
       </c>
-      <c r="D48" s="48"/>
+      <c r="D48" s="48">
+        <v>3</v>
+      </c>
       <c r="E48" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F48" s="47"/>
+      <c r="F48" s="47">
+        <v>0</v>
+      </c>
       <c r="G48" s="5" t="str">
         <f>AB49</f>
         <v>Algeria</v>
       </c>
-      <c r="H48" s="28"/>
+      <c r="H48" s="28">
+        <v>25</v>
+      </c>
       <c r="I48" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J48" s="30"/>
-      <c r="K48" s="28"/>
+      <c r="J48" s="30">
+        <v>17</v>
+      </c>
+      <c r="K48" s="28">
+        <v>25</v>
+      </c>
       <c r="L48" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M48" s="30"/>
-      <c r="N48" s="28"/>
+      <c r="M48" s="30">
+        <v>12</v>
+      </c>
+      <c r="N48" s="28">
+        <v>25</v>
+      </c>
       <c r="O48" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P48" s="30"/>
+      <c r="P48" s="30">
+        <v>11</v>
+      </c>
       <c r="Q48" s="28"/>
       <c r="R48" s="29" t="s">
         <v>0</v>
@@ -13295,14 +13395,14 @@
       <c r="V48" s="30"/>
       <c r="W48" s="31">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X48" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y48" s="32">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA48" s="12">
         <v>3</v>
@@ -13312,19 +13412,19 @@
       </c>
       <c r="AD48" s="12">
         <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="AE48" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE48" s="12" t="str">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>Ukraine</v>
       </c>
       <c r="AF48" s="12">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG48" s="12">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH48" s="12">
         <f t="shared" si="109"/>
@@ -13332,7 +13432,7 @@
       </c>
       <c r="AI48" s="12">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ48" s="12">
         <f t="shared" si="111"/>
@@ -13344,19 +13444,19 @@
       </c>
       <c r="AL48" s="12">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM48" s="12">
         <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="AO48" s="12">
+        <v>40</v>
+      </c>
+      <c r="AO48" s="12" t="str">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>Algeria</v>
       </c>
       <c r="AP48" s="12">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ48" s="12">
         <f t="shared" si="117"/>
@@ -13364,7 +13464,7 @@
       </c>
       <c r="AR48" s="12">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS48" s="12">
         <f t="shared" si="119"/>
@@ -13376,30 +13476,30 @@
       </c>
       <c r="AU48" s="12">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV48" s="12">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AW48" s="12">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX48" s="50">
         <v>2</v>
       </c>
       <c r="AY48" s="51" t="str">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,2,FALSE)</f>
-        <v>Belgium</v>
+        <v>Italy</v>
       </c>
       <c r="AZ48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,3,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,5,FALSE)</f>
@@ -13407,7 +13507,7 @@
       </c>
       <c r="BC48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,7,FALSE)</f>
@@ -13423,7 +13523,7 @@
       </c>
       <c r="BG48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,11,FALSE)</f>
@@ -13435,27 +13535,27 @@
       </c>
       <c r="BJ48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,13,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BK48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL48" s="52" t="str">
+        <v>3</v>
+      </c>
+      <c r="BL48" s="52">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,15,FALSE)</f>
-        <v>MAX</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="BM48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,16,FALSE)</f>
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="BN48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,17,FALSE)</f>
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="BO48" s="52">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,18,FALSE)</f>
-        <v>1363.6363636363635</v>
+        <v>1131.25</v>
       </c>
     </row>
     <row r="49" spans="2:67" x14ac:dyDescent="0.25">
@@ -13466,50 +13566,74 @@
         <f>AB46</f>
         <v>Italy</v>
       </c>
-      <c r="D49" s="48"/>
+      <c r="D49" s="48">
+        <v>2</v>
+      </c>
       <c r="E49" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F49" s="47"/>
+      <c r="F49" s="47">
+        <v>3</v>
+      </c>
       <c r="G49" s="5" t="str">
         <f>AB48</f>
         <v>Belgium</v>
       </c>
-      <c r="H49" s="28"/>
+      <c r="H49" s="28">
+        <v>23</v>
+      </c>
       <c r="I49" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J49" s="30"/>
-      <c r="K49" s="28"/>
+      <c r="J49" s="30">
+        <v>25</v>
+      </c>
+      <c r="K49" s="28">
+        <v>20</v>
+      </c>
       <c r="L49" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M49" s="30"/>
-      <c r="N49" s="28"/>
+      <c r="M49" s="30">
+        <v>25</v>
+      </c>
+      <c r="N49" s="28">
+        <v>25</v>
+      </c>
       <c r="O49" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="28"/>
+      <c r="P49" s="30">
+        <v>22</v>
+      </c>
+      <c r="Q49" s="28">
+        <v>25</v>
+      </c>
       <c r="R49" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S49" s="30"/>
-      <c r="T49" s="28"/>
+      <c r="S49" s="30">
+        <v>21</v>
+      </c>
+      <c r="T49" s="28">
+        <v>13</v>
+      </c>
       <c r="U49" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="V49" s="30"/>
+      <c r="V49" s="30">
+        <v>15</v>
+      </c>
       <c r="W49" s="31">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="X49" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y49" s="32">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="AA49" s="12">
         <v>4</v>
@@ -13519,23 +13643,23 @@
       </c>
       <c r="AD49" s="12">
         <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="AE49" s="12">
+        <v>5</v>
+      </c>
+      <c r="AE49" s="12" t="str">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>Belgium</v>
       </c>
       <c r="AF49" s="12">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG49" s="12">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH49" s="12">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI49" s="12">
         <f t="shared" si="110"/>
@@ -13547,35 +13671,35 @@
       </c>
       <c r="AK49" s="12">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49" s="12">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="AM49" s="12">
         <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="AO49" s="12">
+        <v>106</v>
+      </c>
+      <c r="AO49" s="12" t="str">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>Italy</v>
       </c>
       <c r="AP49" s="12">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" s="12">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR49" s="12">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS49" s="12">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT49" s="12">
         <f t="shared" si="120"/>
@@ -13587,11 +13711,11 @@
       </c>
       <c r="AV49" s="12">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="AW49" s="12">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="AX49" s="50">
         <v>3</v>
@@ -13602,15 +13726,15 @@
       </c>
       <c r="AZ49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,3,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,6,FALSE)</f>
@@ -13618,7 +13742,7 @@
       </c>
       <c r="BD49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,8,FALSE)</f>
@@ -13642,7 +13766,7 @@
       </c>
       <c r="BJ49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,13,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,14,FALSE)</f>
@@ -13650,19 +13774,19 @@
       </c>
       <c r="BL49" s="52">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,15,FALSE)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BM49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,16,FALSE)</f>
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="BN49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,17,FALSE)</f>
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="BO49" s="52">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,18,FALSE)</f>
-        <v>733.33333333333326</v>
+        <v>1130.4347826086955</v>
       </c>
     </row>
     <row r="50" spans="2:67" x14ac:dyDescent="0.25">
@@ -13807,7 +13931,7 @@
       </c>
       <c r="BA50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,5,FALSE)</f>
@@ -13815,7 +13939,7 @@
       </c>
       <c r="BC50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,6,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,7,FALSE)</f>
@@ -13839,7 +13963,7 @@
       </c>
       <c r="BI50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,12,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,13,FALSE)</f>
@@ -13847,7 +13971,7 @@
       </c>
       <c r="BK50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,14,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BL50" s="52">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,15,FALSE)</f>
@@ -13855,15 +13979,15 @@
       </c>
       <c r="BM50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,16,FALSE)</f>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="BN50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,17,FALSE)</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="BO50" s="52">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,18,FALSE)</f>
-        <v>693.33333333333337</v>
+        <v>613.33333333333326</v>
       </c>
     </row>
     <row r="51" spans="2:67" x14ac:dyDescent="0.25">
@@ -13997,120 +14121,120 @@
       </c>
       <c r="BA51" s="26">
         <f>SUM(BA47:BA50)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="76" t="s">
+      <c r="B52" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="76"/>
-      <c r="V52" s="76"/>
-      <c r="W52" s="76"/>
-      <c r="X52" s="76"/>
-      <c r="Y52" s="76"/>
-      <c r="Z52" s="76"/>
-      <c r="AA52" s="76"/>
-      <c r="AB52" s="76"/>
-      <c r="AC52" s="76"/>
-      <c r="AD52" s="76"/>
-      <c r="AE52" s="76"/>
-      <c r="AF52" s="76"/>
-      <c r="AG52" s="76"/>
-      <c r="AH52" s="76"/>
-      <c r="AI52" s="76"/>
-      <c r="AJ52" s="76"/>
-      <c r="AK52" s="76"/>
-      <c r="AL52" s="76"/>
-      <c r="AM52" s="76"/>
-      <c r="AN52" s="76"/>
-      <c r="AO52" s="76"/>
-      <c r="AP52" s="76"/>
-      <c r="AQ52" s="76"/>
-      <c r="AR52" s="76"/>
-      <c r="AS52" s="76"/>
-      <c r="AT52" s="76"/>
-      <c r="AU52" s="76"/>
-      <c r="AV52" s="76"/>
-      <c r="AW52" s="76"/>
-      <c r="AX52" s="76"/>
-      <c r="AY52" s="76"/>
-      <c r="AZ52" s="76"/>
-      <c r="BA52" s="76"/>
-      <c r="BB52" s="76"/>
-      <c r="BC52" s="76"/>
-      <c r="BD52" s="76"/>
-      <c r="BE52" s="76"/>
-      <c r="BF52" s="76"/>
-      <c r="BG52" s="76"/>
-      <c r="BH52" s="76"/>
-      <c r="BI52" s="76"/>
-      <c r="BJ52" s="76"/>
-      <c r="BK52" s="76"/>
-      <c r="BL52" s="76"/>
-      <c r="BM52" s="76"/>
-      <c r="BN52" s="76"/>
-      <c r="BO52" s="76"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="57"/>
+      <c r="V52" s="57"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="57"/>
+      <c r="Y52" s="57"/>
+      <c r="Z52" s="57"/>
+      <c r="AA52" s="57"/>
+      <c r="AB52" s="57"/>
+      <c r="AC52" s="57"/>
+      <c r="AD52" s="57"/>
+      <c r="AE52" s="57"/>
+      <c r="AF52" s="57"/>
+      <c r="AG52" s="57"/>
+      <c r="AH52" s="57"/>
+      <c r="AI52" s="57"/>
+      <c r="AJ52" s="57"/>
+      <c r="AK52" s="57"/>
+      <c r="AL52" s="57"/>
+      <c r="AM52" s="57"/>
+      <c r="AN52" s="57"/>
+      <c r="AO52" s="57"/>
+      <c r="AP52" s="57"/>
+      <c r="AQ52" s="57"/>
+      <c r="AR52" s="57"/>
+      <c r="AS52" s="57"/>
+      <c r="AT52" s="57"/>
+      <c r="AU52" s="57"/>
+      <c r="AV52" s="57"/>
+      <c r="AW52" s="57"/>
+      <c r="AX52" s="57"/>
+      <c r="AY52" s="57"/>
+      <c r="AZ52" s="57"/>
+      <c r="BA52" s="57"/>
+      <c r="BB52" s="57"/>
+      <c r="BC52" s="57"/>
+      <c r="BD52" s="57"/>
+      <c r="BE52" s="57"/>
+      <c r="BF52" s="57"/>
+      <c r="BG52" s="57"/>
+      <c r="BH52" s="57"/>
+      <c r="BI52" s="57"/>
+      <c r="BJ52" s="57"/>
+      <c r="BK52" s="57"/>
+      <c r="BL52" s="57"/>
+      <c r="BM52" s="57"/>
+      <c r="BN52" s="57"/>
+      <c r="BO52" s="57"/>
     </row>
     <row r="53" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="21"/>
-      <c r="D53" s="60" t="s">
+      <c r="D53" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="61" t="s">
+      <c r="H53" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="61" t="s">
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="61" t="s">
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="61" t="s">
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="R53" s="59"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="61" t="s">
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="U53" s="59"/>
-      <c r="V53" s="59"/>
-      <c r="W53" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X53" s="59"/>
-      <c r="Y53" s="59"/>
+      <c r="U53" s="73"/>
+      <c r="V53" s="73"/>
+      <c r="W53" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X53" s="73"/>
+      <c r="Y53" s="73"/>
       <c r="AD53" s="12" t="s">
         <v>23</v>
       </c>
@@ -14168,34 +14292,34 @@
       <c r="AW53" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX53" s="69" t="s">
+      <c r="AX53" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AY53" s="70"/>
-      <c r="AZ53" s="71"/>
-      <c r="BA53" s="69" t="s">
+      <c r="AY53" s="59"/>
+      <c r="AZ53" s="60"/>
+      <c r="BA53" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="BB53" s="70"/>
-      <c r="BC53" s="71"/>
-      <c r="BD53" s="69" t="s">
+      <c r="BB53" s="59"/>
+      <c r="BC53" s="60"/>
+      <c r="BD53" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="BE53" s="70"/>
-      <c r="BF53" s="70"/>
-      <c r="BG53" s="70"/>
-      <c r="BH53" s="70"/>
-      <c r="BI53" s="71"/>
-      <c r="BJ53" s="69" t="s">
+      <c r="BE53" s="59"/>
+      <c r="BF53" s="59"/>
+      <c r="BG53" s="59"/>
+      <c r="BH53" s="59"/>
+      <c r="BI53" s="60"/>
+      <c r="BJ53" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK53" s="70"/>
-      <c r="BL53" s="71"/>
-      <c r="BM53" s="69" t="s">
+      <c r="BK53" s="59"/>
+      <c r="BL53" s="60"/>
+      <c r="BM53" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="BN53" s="70"/>
-      <c r="BO53" s="71"/>
+      <c r="BN53" s="59"/>
+      <c r="BO53" s="60"/>
     </row>
     <row r="54" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B54" s="23">
@@ -15416,116 +15540,116 @@
       </c>
     </row>
     <row r="60" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="76" t="s">
+      <c r="B60" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="76"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
-      <c r="Q60" s="76"/>
-      <c r="R60" s="76"/>
-      <c r="S60" s="76"/>
-      <c r="T60" s="76"/>
-      <c r="U60" s="76"/>
-      <c r="V60" s="76"/>
-      <c r="W60" s="76"/>
-      <c r="X60" s="76"/>
-      <c r="Y60" s="76"/>
-      <c r="Z60" s="76"/>
-      <c r="AA60" s="76"/>
-      <c r="AB60" s="76"/>
-      <c r="AC60" s="76"/>
-      <c r="AD60" s="76"/>
-      <c r="AE60" s="76"/>
-      <c r="AF60" s="76"/>
-      <c r="AG60" s="76"/>
-      <c r="AH60" s="76"/>
-      <c r="AI60" s="76"/>
-      <c r="AJ60" s="76"/>
-      <c r="AK60" s="76"/>
-      <c r="AL60" s="76"/>
-      <c r="AM60" s="76"/>
-      <c r="AN60" s="76"/>
-      <c r="AO60" s="76"/>
-      <c r="AP60" s="76"/>
-      <c r="AQ60" s="76"/>
-      <c r="AR60" s="76"/>
-      <c r="AS60" s="76"/>
-      <c r="AT60" s="76"/>
-      <c r="AU60" s="76"/>
-      <c r="AV60" s="76"/>
-      <c r="AW60" s="76"/>
-      <c r="AX60" s="76"/>
-      <c r="AY60" s="76"/>
-      <c r="AZ60" s="76"/>
-      <c r="BA60" s="76"/>
-      <c r="BB60" s="76"/>
-      <c r="BC60" s="76"/>
-      <c r="BD60" s="76"/>
-      <c r="BE60" s="76"/>
-      <c r="BF60" s="76"/>
-      <c r="BG60" s="76"/>
-      <c r="BH60" s="76"/>
-      <c r="BI60" s="76"/>
-      <c r="BJ60" s="76"/>
-      <c r="BK60" s="76"/>
-      <c r="BL60" s="76"/>
-      <c r="BM60" s="76"/>
-      <c r="BN60" s="76"/>
-      <c r="BO60" s="76"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="57"/>
+      <c r="S60" s="57"/>
+      <c r="T60" s="57"/>
+      <c r="U60" s="57"/>
+      <c r="V60" s="57"/>
+      <c r="W60" s="57"/>
+      <c r="X60" s="57"/>
+      <c r="Y60" s="57"/>
+      <c r="Z60" s="57"/>
+      <c r="AA60" s="57"/>
+      <c r="AB60" s="57"/>
+      <c r="AC60" s="57"/>
+      <c r="AD60" s="57"/>
+      <c r="AE60" s="57"/>
+      <c r="AF60" s="57"/>
+      <c r="AG60" s="57"/>
+      <c r="AH60" s="57"/>
+      <c r="AI60" s="57"/>
+      <c r="AJ60" s="57"/>
+      <c r="AK60" s="57"/>
+      <c r="AL60" s="57"/>
+      <c r="AM60" s="57"/>
+      <c r="AN60" s="57"/>
+      <c r="AO60" s="57"/>
+      <c r="AP60" s="57"/>
+      <c r="AQ60" s="57"/>
+      <c r="AR60" s="57"/>
+      <c r="AS60" s="57"/>
+      <c r="AT60" s="57"/>
+      <c r="AU60" s="57"/>
+      <c r="AV60" s="57"/>
+      <c r="AW60" s="57"/>
+      <c r="AX60" s="57"/>
+      <c r="AY60" s="57"/>
+      <c r="AZ60" s="57"/>
+      <c r="BA60" s="57"/>
+      <c r="BB60" s="57"/>
+      <c r="BC60" s="57"/>
+      <c r="BD60" s="57"/>
+      <c r="BE60" s="57"/>
+      <c r="BF60" s="57"/>
+      <c r="BG60" s="57"/>
+      <c r="BH60" s="57"/>
+      <c r="BI60" s="57"/>
+      <c r="BJ60" s="57"/>
+      <c r="BK60" s="57"/>
+      <c r="BL60" s="57"/>
+      <c r="BM60" s="57"/>
+      <c r="BN60" s="57"/>
+      <c r="BO60" s="57"/>
     </row>
     <row r="61" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B61" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C61" s="21"/>
-      <c r="D61" s="60" t="s">
+      <c r="D61" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="61" t="s">
+      <c r="H61" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="61" t="s">
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="L61" s="59"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="61" t="s">
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="61" t="s">
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="R61" s="59"/>
-      <c r="S61" s="59"/>
-      <c r="T61" s="61" t="s">
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="U61" s="59"/>
-      <c r="V61" s="59"/>
-      <c r="W61" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X61" s="59"/>
-      <c r="Y61" s="59"/>
+      <c r="U61" s="73"/>
+      <c r="V61" s="73"/>
+      <c r="W61" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X61" s="73"/>
+      <c r="Y61" s="73"/>
       <c r="AD61" s="12" t="s">
         <v>23</v>
       </c>
@@ -15583,34 +15707,34 @@
       <c r="AW61" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX61" s="69" t="s">
+      <c r="AX61" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AY61" s="70"/>
-      <c r="AZ61" s="71"/>
-      <c r="BA61" s="69" t="s">
+      <c r="AY61" s="59"/>
+      <c r="AZ61" s="60"/>
+      <c r="BA61" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="BB61" s="70"/>
-      <c r="BC61" s="71"/>
-      <c r="BD61" s="69" t="s">
+      <c r="BB61" s="59"/>
+      <c r="BC61" s="60"/>
+      <c r="BD61" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="BE61" s="70"/>
-      <c r="BF61" s="70"/>
-      <c r="BG61" s="70"/>
-      <c r="BH61" s="70"/>
-      <c r="BI61" s="71"/>
-      <c r="BJ61" s="69" t="s">
+      <c r="BE61" s="59"/>
+      <c r="BF61" s="59"/>
+      <c r="BG61" s="59"/>
+      <c r="BH61" s="59"/>
+      <c r="BI61" s="60"/>
+      <c r="BJ61" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK61" s="70"/>
-      <c r="BL61" s="71"/>
-      <c r="BM61" s="69" t="s">
+      <c r="BK61" s="59"/>
+      <c r="BL61" s="60"/>
+      <c r="BM61" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="BN61" s="70"/>
-      <c r="BO61" s="71"/>
+      <c r="BN61" s="59"/>
+      <c r="BO61" s="60"/>
     </row>
     <row r="62" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
@@ -15978,19 +16102,19 @@
       </c>
       <c r="AY63" s="51" t="str">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,2,FALSE)</f>
-        <v>Czech Republic</v>
+        <v>Brazil</v>
       </c>
       <c r="AZ63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,3,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,6,FALSE)</f>
@@ -16002,7 +16126,7 @@
       </c>
       <c r="BE63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,9,FALSE)</f>
@@ -16022,27 +16146,27 @@
       </c>
       <c r="BJ63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,13,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BK63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL63" s="52" t="str">
+        <v>1</v>
+      </c>
+      <c r="BL63" s="52">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,15,FALSE)</f>
-        <v>MAX</v>
+        <v>6000</v>
       </c>
       <c r="BM63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,16,FALSE)</f>
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="BN63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,17,FALSE)</f>
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="BO63" s="52">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,18,FALSE)</f>
-        <v>1153.8461538461538</v>
+        <v>1190.1408450704225</v>
       </c>
     </row>
     <row r="64" spans="2:67" x14ac:dyDescent="0.25">
@@ -16053,30 +16177,46 @@
         <f>AB63</f>
         <v>Serbia</v>
       </c>
-      <c r="D64" s="48"/>
+      <c r="D64" s="48">
+        <v>3</v>
+      </c>
       <c r="E64" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F64" s="47"/>
+      <c r="F64" s="47">
+        <v>0</v>
+      </c>
       <c r="G64" s="5" t="str">
         <f>AB65</f>
         <v>China</v>
       </c>
-      <c r="H64" s="28"/>
+      <c r="H64" s="28">
+        <v>25</v>
+      </c>
       <c r="I64" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J64" s="30"/>
-      <c r="K64" s="28"/>
+      <c r="J64" s="30">
+        <v>18</v>
+      </c>
+      <c r="K64" s="28">
+        <v>25</v>
+      </c>
       <c r="L64" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M64" s="30"/>
-      <c r="N64" s="28"/>
+      <c r="M64" s="30">
+        <v>19</v>
+      </c>
+      <c r="N64" s="28">
+        <v>29</v>
+      </c>
       <c r="O64" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P64" s="30"/>
+      <c r="P64" s="30">
+        <v>27</v>
+      </c>
       <c r="Q64" s="28"/>
       <c r="R64" s="29" t="s">
         <v>0</v>
@@ -16089,14 +16229,14 @@
       <c r="V64" s="30"/>
       <c r="W64" s="31">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="X64" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y64" s="32">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AA64" s="12">
         <v>3</v>
@@ -16106,19 +16246,19 @@
       </c>
       <c r="AD64" s="12">
         <f t="shared" si="147"/>
-        <v>0</v>
-      </c>
-      <c r="AE64" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE64" s="12" t="str">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>Serbia</v>
       </c>
       <c r="AF64" s="12">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG64" s="12">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH64" s="12">
         <f t="shared" si="151"/>
@@ -16126,7 +16266,7 @@
       </c>
       <c r="AI64" s="12">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ64" s="12">
         <f t="shared" si="153"/>
@@ -16138,19 +16278,19 @@
       </c>
       <c r="AL64" s="12">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="AM64" s="12">
         <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="AO64" s="12">
+        <v>64</v>
+      </c>
+      <c r="AO64" s="12" t="str">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>China</v>
       </c>
       <c r="AP64" s="12">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ64" s="12">
         <f t="shared" si="159"/>
@@ -16158,7 +16298,7 @@
       </c>
       <c r="AR64" s="12">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS64" s="12">
         <f t="shared" si="161"/>
@@ -16170,22 +16310,22 @@
       </c>
       <c r="AU64" s="12">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV64" s="12">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AW64" s="12">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="AX64" s="50">
         <v>2</v>
       </c>
       <c r="AY64" s="51" t="str">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,2,FALSE)</f>
-        <v>Brazil</v>
+        <v>Serbia</v>
       </c>
       <c r="AZ64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,3,FALSE)</f>
@@ -16193,7 +16333,7 @@
       </c>
       <c r="BA64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,5,FALSE)</f>
@@ -16201,15 +16341,15 @@
       </c>
       <c r="BC64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,8,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,9,FALSE)</f>
@@ -16225,7 +16365,7 @@
       </c>
       <c r="BI64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,13,FALSE)</f>
@@ -16233,23 +16373,23 @@
       </c>
       <c r="BK64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,14,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL64" s="52">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,15,FALSE)</f>
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="BM64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,16,FALSE)</f>
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="BN64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,17,FALSE)</f>
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="BO64" s="52">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,18,FALSE)</f>
-        <v>1032.967032967033</v>
+        <v>1035.9712230215828</v>
       </c>
     </row>
     <row r="65" spans="2:67" x14ac:dyDescent="0.25">
@@ -16260,30 +16400,46 @@
         <f>AB62</f>
         <v>Brazil</v>
       </c>
-      <c r="D65" s="48"/>
+      <c r="D65" s="48">
+        <v>3</v>
+      </c>
       <c r="E65" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F65" s="47"/>
+      <c r="F65" s="47">
+        <v>0</v>
+      </c>
       <c r="G65" s="5" t="str">
         <f>AB64</f>
         <v>Czech Republic</v>
       </c>
-      <c r="H65" s="28"/>
+      <c r="H65" s="28">
+        <v>25</v>
+      </c>
       <c r="I65" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J65" s="30"/>
-      <c r="K65" s="28"/>
+      <c r="J65" s="30">
+        <v>11</v>
+      </c>
+      <c r="K65" s="28">
+        <v>25</v>
+      </c>
       <c r="L65" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M65" s="30"/>
-      <c r="N65" s="28"/>
+      <c r="M65" s="30">
+        <v>22</v>
+      </c>
+      <c r="N65" s="28">
+        <v>25</v>
+      </c>
       <c r="O65" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P65" s="30"/>
+      <c r="P65" s="30">
+        <v>18</v>
+      </c>
       <c r="Q65" s="28"/>
       <c r="R65" s="29" t="s">
         <v>0</v>
@@ -16296,14 +16452,14 @@
       <c r="V65" s="30"/>
       <c r="W65" s="31">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X65" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y65" s="32">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AA65" s="12">
         <v>4</v>
@@ -16313,19 +16469,19 @@
       </c>
       <c r="AD65" s="12">
         <f t="shared" si="147"/>
-        <v>0</v>
-      </c>
-      <c r="AE65" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE65" s="12" t="str">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>Brazil</v>
       </c>
       <c r="AF65" s="12">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG65" s="12">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH65" s="12">
         <f t="shared" si="151"/>
@@ -16333,7 +16489,7 @@
       </c>
       <c r="AI65" s="12">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ65" s="12">
         <f t="shared" si="153"/>
@@ -16345,19 +16501,19 @@
       </c>
       <c r="AL65" s="12">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM65" s="12">
         <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="AO65" s="12">
+        <v>51</v>
+      </c>
+      <c r="AO65" s="12" t="str">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>Czech Republic</v>
       </c>
       <c r="AP65" s="12">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ65" s="12">
         <f t="shared" si="159"/>
@@ -16365,7 +16521,7 @@
       </c>
       <c r="AR65" s="12">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS65" s="12">
         <f t="shared" si="161"/>
@@ -16377,34 +16533,34 @@
       </c>
       <c r="AU65" s="12">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV65" s="12">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AW65" s="12">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX65" s="50">
         <v>3</v>
       </c>
       <c r="AY65" s="51" t="str">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,2,FALSE)</f>
-        <v>China</v>
+        <v>Czech Republic</v>
       </c>
       <c r="AZ65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,3,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,6,FALSE)</f>
@@ -16412,7 +16568,7 @@
       </c>
       <c r="BD65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,8,FALSE)</f>
@@ -16428,15 +16584,15 @@
       </c>
       <c r="BH65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,11,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,13,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,14,FALSE)</f>
@@ -16444,19 +16600,19 @@
       </c>
       <c r="BL65" s="52">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,15,FALSE)</f>
-        <v>333.33333333333331</v>
+        <v>1000</v>
       </c>
       <c r="BM65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,16,FALSE)</f>
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="BN65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,17,FALSE)</f>
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="BO65" s="52">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,18,FALSE)</f>
-        <v>968.08510638297878</v>
+        <v>900</v>
       </c>
     </row>
     <row r="66" spans="2:67" x14ac:dyDescent="0.25">
@@ -16593,7 +16749,7 @@
       </c>
       <c r="AY66" s="51" t="str">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,2,FALSE)</f>
-        <v>Serbia</v>
+        <v>China</v>
       </c>
       <c r="AZ66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,3,FALSE)</f>
@@ -16601,7 +16757,7 @@
       </c>
       <c r="BA66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,5,FALSE)</f>
@@ -16609,7 +16765,7 @@
       </c>
       <c r="BC66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,6,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,7,FALSE)</f>
@@ -16629,7 +16785,7 @@
       </c>
       <c r="BH66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,12,FALSE)</f>
@@ -16637,27 +16793,27 @@
       </c>
       <c r="BJ66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,13,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,14,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BL66" s="52">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,15,FALSE)</f>
-        <v>0</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="BM66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,16,FALSE)</f>
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="BN66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,17,FALSE)</f>
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="BO66" s="52">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,18,FALSE)</f>
-        <v>866.66666666666674</v>
+        <v>895.95375722543361</v>
       </c>
     </row>
     <row r="67" spans="2:67" x14ac:dyDescent="0.25">
@@ -16791,12 +16947,99 @@
       </c>
       <c r="BA67" s="26">
         <f>SUM(BA63:BA66)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="111">
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BQ37:BR37"/>
+    <mergeCell ref="BQ38:BR38"/>
+    <mergeCell ref="BQ39:BR39"/>
+    <mergeCell ref="BQ40:BR40"/>
+    <mergeCell ref="BQ41:BR41"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="BA29:BC29"/>
+    <mergeCell ref="BD29:BI29"/>
+    <mergeCell ref="BJ29:BL29"/>
+    <mergeCell ref="BM29:BO29"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="BA37:BC37"/>
+    <mergeCell ref="BD37:BI37"/>
+    <mergeCell ref="BJ37:BL37"/>
+    <mergeCell ref="BM37:BO37"/>
+    <mergeCell ref="BJ21:BL21"/>
+    <mergeCell ref="BM21:BO21"/>
+    <mergeCell ref="AX61:AZ61"/>
+    <mergeCell ref="BA61:BC61"/>
+    <mergeCell ref="BD61:BI61"/>
+    <mergeCell ref="BJ61:BL61"/>
+    <mergeCell ref="BM61:BO61"/>
+    <mergeCell ref="AX45:AZ45"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BO5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA13:BC13"/>
+    <mergeCell ref="BD13:BI13"/>
     <mergeCell ref="B2:BO2"/>
     <mergeCell ref="B4:BO4"/>
     <mergeCell ref="B12:BO12"/>
@@ -16821,93 +17064,6 @@
     <mergeCell ref="AX21:AZ21"/>
     <mergeCell ref="BA21:BC21"/>
     <mergeCell ref="BD21:BI21"/>
-    <mergeCell ref="BJ21:BL21"/>
-    <mergeCell ref="BM21:BO21"/>
-    <mergeCell ref="AX61:AZ61"/>
-    <mergeCell ref="BA61:BC61"/>
-    <mergeCell ref="BD61:BI61"/>
-    <mergeCell ref="BJ61:BL61"/>
-    <mergeCell ref="BM61:BO61"/>
-    <mergeCell ref="AX45:AZ45"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BO5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA13:BC13"/>
-    <mergeCell ref="BD13:BI13"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BQ37:BR37"/>
-    <mergeCell ref="BQ38:BR38"/>
-    <mergeCell ref="BQ39:BR39"/>
-    <mergeCell ref="BQ40:BR40"/>
-    <mergeCell ref="BQ41:BR41"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="BA29:BC29"/>
-    <mergeCell ref="BD29:BI29"/>
-    <mergeCell ref="BJ29:BL29"/>
-    <mergeCell ref="BM29:BO29"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="BA37:BC37"/>
-    <mergeCell ref="BD37:BI37"/>
-    <mergeCell ref="BJ37:BL37"/>
-    <mergeCell ref="BM37:BO37"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="W61:Y61"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <conditionalFormatting sqref="T6:V11 T22:V27 T54:V59">
     <cfRule type="expression" dxfId="95" priority="464">
@@ -17315,55 +17471,55 @@
       <c r="Y1" s="18"/>
     </row>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="75"/>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="75"/>
-      <c r="AV2" s="75"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
       <c r="AW2" s="46"/>
       <c r="AX2" s="46"/>
       <c r="AY2" s="46"/>
@@ -17417,42 +17573,42 @@
         <v>54</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57" t="s">
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57" t="s">
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="57" t="s">
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57" t="s">
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
       <c r="AA5" s="12" t="s">
         <v>23</v>
       </c>
@@ -18645,52 +18801,52 @@
       <c r="W15" s="77"/>
       <c r="X15" s="77"/>
       <c r="Y15" s="77"/>
-      <c r="AU15" s="62" t="s">
+      <c r="AU15" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="AV15" s="62"/>
+      <c r="AV15" s="64"/>
     </row>
     <row r="16" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57" t="s">
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57" t="s">
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="57" t="s">
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57" t="s">
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
       <c r="AA16" s="12" t="s">
         <v>23</v>
       </c>
@@ -18748,10 +18904,10 @@
       <c r="AT16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AU16" s="63" t="s">
+      <c r="AU16" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="AV16" s="64"/>
+      <c r="AV16" s="66"/>
     </row>
     <row r="17" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23">
@@ -18882,10 +19038,10 @@
         <f>IF(D17&lt;F17,SUM(J17,M17,P17,S17,V17),SUM(H17,K17,N17,Q17,T17))</f>
         <v>0</v>
       </c>
-      <c r="AU17" s="65" t="s">
+      <c r="AU17" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AV17" s="66"/>
+      <c r="AV17" s="68"/>
     </row>
     <row r="18" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23">
@@ -19016,10 +19172,10 @@
         <f t="shared" ref="AT18:AT20" si="39">IF(D18&lt;F18,SUM(J18,M18,P18,S18,V18),SUM(H18,K18,N18,Q18,T18))</f>
         <v>0</v>
       </c>
-      <c r="AU18" s="65" t="s">
+      <c r="AU18" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AV18" s="66"/>
+      <c r="AV18" s="68"/>
     </row>
     <row r="19" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23">
@@ -19150,10 +19306,10 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AU19" s="65" t="s">
+      <c r="AU19" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="AV19" s="66"/>
+      <c r="AV19" s="68"/>
     </row>
     <row r="20" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23">
@@ -19284,10 +19440,10 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AU20" s="67" t="s">
+      <c r="AU20" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="AV20" s="68"/>
+      <c r="AV20" s="70"/>
     </row>
     <row r="21" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19323,42 +19479,42 @@
         <v>54</v>
       </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="57" t="s">
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57" t="s">
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="57" t="s">
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="57" t="s">
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
       <c r="AA23" s="12" t="s">
         <v>23</v>
       </c>
@@ -19730,42 +19886,42 @@
         <v>54</v>
       </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="57" t="s">
+      <c r="H29" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57" t="s">
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="57" t="s">
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="57" t="s">
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="57" t="s">
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
       <c r="AA29" s="12" t="s">
         <v>23</v>
       </c>
@@ -20027,42 +20183,42 @@
         <v>54</v>
       </c>
       <c r="C34" s="35"/>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="57" t="s">
+      <c r="H34" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="57" t="s">
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="57" t="s">
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="57" t="s">
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="57" t="s">
+      <c r="R34" s="74"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="74"/>
       <c r="AA34" s="12" t="s">
         <v>23</v>
       </c>
@@ -20380,22 +20536,22 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="48">
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="B2:AV2"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="B22:Y22"/>
+    <mergeCell ref="B28:Y28"/>
+    <mergeCell ref="B15:Y15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="AU18:AV18"/>
+    <mergeCell ref="AU19:AV19"/>
+    <mergeCell ref="AU20:AV20"/>
     <mergeCell ref="B33:Y33"/>
     <mergeCell ref="AU15:AV15"/>
     <mergeCell ref="T29:V29"/>
@@ -20412,22 +20568,22 @@
     <mergeCell ref="Q29:S29"/>
     <mergeCell ref="AU16:AV16"/>
     <mergeCell ref="AU17:AV17"/>
-    <mergeCell ref="B2:AV2"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="B22:Y22"/>
-    <mergeCell ref="B28:Y28"/>
-    <mergeCell ref="B15:Y15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="AU18:AV18"/>
-    <mergeCell ref="AU19:AV19"/>
-    <mergeCell ref="AU20:AV20"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
   </mergeCells>
   <conditionalFormatting sqref="BM18:XFD18 BM22:XFD23 BM20:XFD20 A18:A20 Z18:Z20 A41:A1048576 B53:Y1048576 B38:Y47 B37 D37:Y37 Z41:AT1048576 BM41:XFD1048576 A3:XFD3 BM6:XFD15 A4:A15 Z22:AT22 AA5:AT13 Z26:AT28 Z23:Z25 Z29:Z30 B36:AT36 Z34:Z35 BM25:XFD36 A22:A36 Z31:AT33 Z5:XFD5 B14:AT15 B21:Y22 B28:Y28 B33:Y33 Z6:Z13 AW24:BL1048576 AU21:AV1048576 B4:XFD4">
     <cfRule type="cellIs" dxfId="31" priority="79" operator="equal">
@@ -20602,6 +20758,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DBF2846C41E31A469E3CED25F2422E48" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0c08e4af4d80db6585ac36ba965bb3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2c8c20e6-817c-474f-b9c2-eb2b1ac24837" xmlns:ns4="dc8c2798-6aba-4af7-93a4-b89253b03650" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e7db2db65f9cb533b4933096bc9b657" ns3:_="" ns4:_="">
     <xsd:import namespace="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
@@ -20834,24 +21007,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
+    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1A4F3B6-8EF3-43FC-AA6E-56F4B11E76F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20868,29 +21049,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/2025 FIVB Men's Volleyball World Championship.xlsx
+++ b/2025 FIVB Men's Volleyball World Championship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FA2F72F-C869-4EBD-80DB-9135035DF785}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A9E86A1-23A4-461C-916E-3E874DCD86AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="CC01" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1" xr2:uid="{701403F6-3112-456D-B33A-FC5595D41656}"/>
@@ -866,28 +866,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -915,22 +909,28 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2792,15 +2792,15 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C7)</f>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="I7" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C7,Preliminary!AJ:AJ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C7,Preliminary!AK:AK)</f>
@@ -2832,27 +2832,27 @@
       </c>
       <c r="N7" s="1">
         <f>SUMIF(Preliminary!AE:AE,C7,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C7,Preliminary!AQ:AQ)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O7" s="1">
         <f>SUMIF(Preliminary!AE:AE,C7,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C7,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
         <f t="shared" si="3"/>
-        <v>MAX</v>
+        <v>9000</v>
       </c>
       <c r="Q7" s="1">
         <f>SUMIF(Preliminary!AE:AE,C7,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C7,Preliminary!AV:AV)</f>
-        <v>159</v>
+        <v>256</v>
       </c>
       <c r="R7" s="1">
         <f>SUMIF(Preliminary!AE:AE,C7,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C7,Preliminary!AW:AW)</f>
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="0"/>
-        <v>1325</v>
+        <v>1224.8803827751196</v>
       </c>
       <c r="T7" s="1">
         <f>SUMPRODUCT(($F$7:$F$10=F7)*($D$7:$D$10&gt;D7))</f>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C8)</f>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="G8" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C8,Preliminary!AI:AI)</f>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="L8" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C8,Preliminary!AT:AT)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C8,Preliminary!AU:AU)</f>
@@ -2926,27 +2926,27 @@
       </c>
       <c r="N8" s="1">
         <f>SUMIF(Preliminary!AE:AE,C8,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C8,Preliminary!AQ:AQ)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O8" s="1">
         <f>SUMIF(Preliminary!AE:AE,C8,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C8,Preliminary!AR:AR)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>1750</v>
       </c>
       <c r="Q8" s="1">
         <f>SUMIF(Preliminary!AE:AE,C8,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C8,Preliminary!AV:AV)</f>
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="R8" s="1">
         <f>SUMIF(Preliminary!AE:AE,C8,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C8,Preliminary!AW:AW)</f>
-        <v>163</v>
+        <v>260</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="0"/>
-        <v>1092.0245398773004</v>
+        <v>1026.9230769230769</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" ref="T8:T9" si="9">SUMPRODUCT(($F$7:$F$10=F8)*($D$7:$D$10&gt;D8))</f>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="U8" s="1">
         <f t="shared" ref="U8:U9" si="10">SUMPRODUCT(($F$7:$F$10=F8)*($D$7:$D$10=D8)*($P$7:$P$10&gt;P8))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" ref="V8:V9" si="11">SUMPRODUCT(($F$7:$F$10=F8)*($D$7:$D$10=D8)*($P$7:$P$10=P8)*($S$7:$S$10&gt;S8))</f>
@@ -2980,15 +2980,15 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C9)</f>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="I9" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C9,Preliminary!AJ:AJ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C9,Preliminary!AK:AK)</f>
@@ -3020,27 +3020,27 @@
       </c>
       <c r="N9" s="1">
         <f>SUMIF(Preliminary!AE:AE,C9,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C9,Preliminary!AQ:AQ)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O9" s="1">
         <f>SUMIF(Preliminary!AE:AE,C9,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C9,Preliminary!AR:AR)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="3"/>
-        <v>166.66666666666666</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="Q9" s="1">
         <f>SUMIF(Preliminary!AE:AE,C9,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C9,Preliminary!AV:AV)</f>
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="R9" s="1">
         <f>SUMIF(Preliminary!AE:AE,C9,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C9,Preliminary!AW:AW)</f>
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="S9" s="4">
         <f t="shared" si="0"/>
-        <v>829.54545454545462</v>
+        <v>906.01503759398497</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="9"/>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C10)</f>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="G10" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C10,Preliminary!AI:AI)</f>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="L10" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C10,Preliminary!AT:AT)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C10,Preliminary!AU:AU)</f>
@@ -3114,27 +3114,27 @@
       </c>
       <c r="N10" s="1">
         <f>SUMIF(Preliminary!AE:AE,C10,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C10,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
         <f>SUMIF(Preliminary!AE:AE,C10,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C10,Preliminary!AR:AR)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>111.1111111111111</v>
       </c>
       <c r="Q10" s="1">
         <f>SUMIF(Preliminary!AE:AE,C10,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C10,Preliminary!AV:AV)</f>
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="R10" s="1">
         <f>SUMIF(Preliminary!AE:AE,C10,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C10,Preliminary!AW:AW)</f>
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" si="0"/>
-        <v>850.93167701863354</v>
+        <v>886.71875</v>
       </c>
       <c r="T10" s="1">
         <f>SUMPRODUCT(($F$7:$F$10=F10)*($D$7:$D$10&gt;D10))</f>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="U10" s="1">
         <f>SUMPRODUCT(($F$7:$F$10=F10)*($D$7:$D$10=D10)*($P$7:$P$10&gt;P10))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
         <f>SUMPRODUCT(($F$7:$F$10=F10)*($D$7:$D$10=D10)*($P$7:$P$10=P10)*($S$7:$S$10&gt;S10))</f>
@@ -3548,15 +3548,15 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C15)</f>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="I15" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C15,Preliminary!AJ:AJ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C15,Preliminary!AK:AK)</f>
@@ -3588,27 +3588,27 @@
       </c>
       <c r="N15" s="1">
         <f>SUMIF(Preliminary!AE:AE,C15,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C15,Preliminary!AQ:AQ)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O15" s="1">
         <f>SUMIF(Preliminary!AE:AE,C15,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C15,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4">
         <f t="shared" si="3"/>
-        <v>MAX</v>
+        <v>9000</v>
       </c>
       <c r="Q15" s="1">
         <f>SUMIF(Preliminary!AE:AE,C15,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C15,Preliminary!AV:AV)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="R15" s="1">
         <f>SUMIF(Preliminary!AE:AE,C15,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C15,Preliminary!AW:AW)</f>
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="S15" s="4">
         <f t="shared" si="0"/>
-        <v>1327.4336283185842</v>
+        <v>1237.6237623762377</v>
       </c>
       <c r="T15" s="1">
         <f>SUMPRODUCT(($F$15:$F$18=F15)*($D$15:$D$18&gt;D15))</f>
@@ -3634,7 +3634,7 @@
       <c r="A16" s="55"/>
       <c r="B16" s="1">
         <f t="shared" ref="B16:B18" si="17">RANK(F16,$F$15:$F$18)+SUM(T16:W16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="str">
         <f>Preliminary!AB31</f>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C16)</f>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="G16" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C16,Preliminary!AI:AI)</f>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="L16" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C16,Preliminary!AT:AT)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C16,Preliminary!AU:AU)</f>
@@ -3682,27 +3682,27 @@
       </c>
       <c r="N16" s="1">
         <f>SUMIF(Preliminary!AE:AE,C16,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C16,Preliminary!AQ:AQ)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O16" s="1">
         <f>SUMIF(Preliminary!AE:AE,C16,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C16,Preliminary!AR:AR)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" si="3"/>
-        <v>1333.3333333333333</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="Q16" s="1">
         <f>SUMIF(Preliminary!AE:AE,C16,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C16,Preliminary!AV:AV)</f>
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="R16" s="1">
         <f>SUMIF(Preliminary!AE:AE,C16,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C16,Preliminary!AW:AW)</f>
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="S16" s="4">
         <f t="shared" si="0"/>
-        <v>1012.6582278481013</v>
+        <v>965.11627906976753</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ref="T16:T18" si="18">SUMPRODUCT(($F$15:$F$18=F16)*($D$15:$D$18&gt;D16))</f>
@@ -3728,7 +3728,7 @@
       <c r="A17" s="55"/>
       <c r="B17" s="1">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="str">
         <f>Preliminary!AB32</f>
@@ -3736,15 +3736,15 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C17)</f>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="J17" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C17,Preliminary!AK:AK)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C17,Preliminary!AS:AS)</f>
@@ -3776,27 +3776,27 @@
       </c>
       <c r="N17" s="1">
         <f>SUMIF(Preliminary!AE:AE,C17,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C17,Preliminary!AQ:AQ)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O17" s="1">
         <f>SUMIF(Preliminary!AE:AE,C17,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C17,Preliminary!AR:AR)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" si="3"/>
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q17" s="1">
         <f>SUMIF(Preliminary!AE:AE,C17,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C17,Preliminary!AV:AV)</f>
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="R17" s="1">
         <f>SUMIF(Preliminary!AE:AE,C17,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C17,Preliminary!AW:AW)</f>
-        <v>160</v>
+        <v>262</v>
       </c>
       <c r="S17" s="4">
         <f t="shared" si="0"/>
-        <v>956.25</v>
+        <v>1000</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="18"/>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="U17" s="1">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="20"/>
@@ -3830,11 +3830,11 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C18)</f>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="G18" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C18)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C18,Preliminary!AI:AI)</f>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="K18" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C18,Preliminary!AS:AS)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C18,Preliminary!AT:AT)</f>
@@ -3870,27 +3870,27 @@
       </c>
       <c r="N18" s="1">
         <f>SUMIF(Preliminary!AE:AE,C18,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C18,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18" s="1">
         <f>SUMIF(Preliminary!AE:AE,C18,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C18,Preliminary!AR:AR)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>222.2222222222222</v>
       </c>
       <c r="Q18" s="1">
         <f>SUMIF(Preliminary!AE:AE,C18,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C18,Preliminary!AV:AV)</f>
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="R18" s="1">
         <f>SUMIF(Preliminary!AE:AE,C18,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C18,Preliminary!AW:AW)</f>
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" si="0"/>
-        <v>786.66666666666663</v>
+        <v>849.42084942084944</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" si="18"/>
@@ -3926,15 +3926,15 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C19)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C19)</f>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="I19" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C19,Preliminary!AJ:AJ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C19,Preliminary!AK:AK)</f>
@@ -3966,27 +3966,27 @@
       </c>
       <c r="N19" s="1">
         <f>SUMIF(Preliminary!AE:AE,C19,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C19,Preliminary!AQ:AQ)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O19" s="1">
         <f>SUMIF(Preliminary!AE:AE,C19,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C19,Preliminary!AR:AR)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="3"/>
-        <v>1666.6666666666667</v>
+        <v>2000</v>
       </c>
       <c r="Q19" s="1">
         <f>SUMIF(Preliminary!AE:AE,C19,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C19,Preliminary!AV:AV)</f>
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="R19" s="1">
         <f>SUMIF(Preliminary!AE:AE,C19,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C19,Preliminary!AW:AW)</f>
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" si="0"/>
-        <v>1062.111801242236</v>
+        <v>1042.6356589147288</v>
       </c>
       <c r="T19" s="1">
         <f>SUMPRODUCT(($F$19:$F$22=F19)*($D$19:$D$22&gt;D19))</f>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C20)</f>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="G20" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C20)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C20,Preliminary!AI:AI)</f>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="L20" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C20,Preliminary!AT:AT)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C20,Preliminary!AU:AU)</f>
@@ -4060,31 +4060,31 @@
       </c>
       <c r="N20" s="1">
         <f>SUMIF(Preliminary!AE:AE,C20,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C20,Preliminary!AQ:AQ)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O20" s="1">
         <f>SUMIF(Preliminary!AE:AE,C20,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C20,Preliminary!AR:AR)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="Q20" s="1">
         <f>SUMIF(Preliminary!AE:AE,C20,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C20,Preliminary!AV:AV)</f>
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="R20" s="1">
         <f>SUMIF(Preliminary!AE:AE,C20,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C20,Preliminary!AW:AW)</f>
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="0"/>
-        <v>1026.4900662251655</v>
+        <v>1012.0481927710842</v>
       </c>
       <c r="T20" s="1">
         <f t="shared" ref="T20:T22" si="21">SUMPRODUCT(($F$19:$F$22=F20)*($D$19:$D$22&gt;D20))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" ref="U20:U22" si="22">SUMPRODUCT(($F$19:$F$22=F20)*($D$19:$D$22=D20)*($P$19:$P$22&gt;P20))</f>
@@ -4114,15 +4114,15 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" ref="D21:D34" si="24">SUM(H21*3,I21*3,J21*2,K21)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ref="E21:E34" si="25">F21+G21</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C21)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C21)</f>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C21,Preliminary!AI:AI)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C21,Preliminary!AJ:AJ)</f>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="N21" s="1">
         <f>SUMIF(Preliminary!AE:AE,C21,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C21,Preliminary!AQ:AQ)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O21" s="1">
         <f>SUMIF(Preliminary!AE:AE,C21,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C21,Preliminary!AR:AR)</f>
@@ -4162,19 +4162,19 @@
       </c>
       <c r="P21" s="4">
         <f t="shared" ref="P21:P34" si="26">IFERROR((N21/O21)*1000,"MAX")</f>
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="Q21" s="1">
         <f>SUMIF(Preliminary!AE:AE,C21,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C21,Preliminary!AV:AV)</f>
-        <v>196</v>
+        <v>271</v>
       </c>
       <c r="R21" s="1">
         <f>SUMIF(Preliminary!AE:AE,C21,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C21,Preliminary!AW:AW)</f>
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="S21" s="4">
         <f t="shared" ref="S21:S34" si="27">IFERROR((Q21/R21)*1000,"MAX")</f>
-        <v>1113.6363636363635</v>
+        <v>1248.8479262672811</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" si="21"/>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C22)</f>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="G22" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C22)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C22,Preliminary!AI:AI)</f>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="M22" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C22,Preliminary!AU:AU)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" s="1">
         <f>SUMIF(Preliminary!AE:AE,C22,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C22,Preliminary!AQ:AQ)</f>
@@ -4252,7 +4252,7 @@
       </c>
       <c r="O22" s="1">
         <f>SUMIF(Preliminary!AE:AE,C22,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C22,Preliminary!AR:AR)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" si="26"/>
@@ -4260,15 +4260,15 @@
       </c>
       <c r="Q22" s="1">
         <f>SUMIF(Preliminary!AE:AE,C22,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C22,Preliminary!AV:AV)</f>
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="R22" s="1">
         <f>SUMIF(Preliminary!AE:AE,C22,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C22,Preliminary!AW:AW)</f>
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="S22" s="4">
         <f t="shared" si="27"/>
-        <v>773.33333333333337</v>
+        <v>697.77777777777783</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="21"/>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="B27" s="1">
         <f>RANK(F27,$F$27:$F$30)+SUM(T27:W27)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" t="str">
         <f>Preliminary!AB54</f>
@@ -4682,15 +4682,15 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C27)</f>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C27,Preliminary!AI:AI)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C27,Preliminary!AJ:AJ)</f>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="N27" s="1">
         <f>SUMIF(Preliminary!AE:AE,C27,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C27,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O27" s="1">
         <f>SUMIF(Preliminary!AE:AE,C27,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C27,Preliminary!AR:AR)</f>
@@ -4730,19 +4730,19 @@
       </c>
       <c r="P27" s="4">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q27" s="1">
         <f>SUMIF(Preliminary!AE:AE,C27,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C27,Preliminary!AV:AV)</f>
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="R27" s="1">
         <f>SUMIF(Preliminary!AE:AE,C27,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C27,Preliminary!AW:AW)</f>
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" si="27"/>
-        <v>840</v>
+        <v>1010.0502512562814</v>
       </c>
       <c r="T27" s="1">
         <f>SUMPRODUCT(($F$27:$F$30=F27)*($D$27:$D$30&gt;D27))</f>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="U27" s="1">
         <f>SUMPRODUCT(($F$27:$F$30=F27)*($D$27:$D$30=D27)*($P$27:$P$30&gt;P27))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="1">
         <f>SUMPRODUCT(($F$27:$F$30=F27)*($D$27:$D$30=D27)*($P$27:$P$30=P27)*($S$27:$S$30&gt;S27))</f>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C28)</f>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="G28" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C28,Preliminary!AI:AI)</f>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="M28" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C28,Preliminary!AU:AU)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="1">
         <f>SUMIF(Preliminary!AE:AE,C28,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C28,Preliminary!AQ:AQ)</f>
@@ -4820,23 +4820,23 @@
       </c>
       <c r="O28" s="1">
         <f>SUMIF(Preliminary!AE:AE,C28,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C28,Preliminary!AR:AR)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="26"/>
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="Q28" s="1">
         <f>SUMIF(Preliminary!AE:AE,C28,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C28,Preliminary!AV:AV)</f>
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="R28" s="1">
         <f>SUMIF(Preliminary!AE:AE,C28,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C28,Preliminary!AW:AW)</f>
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="27"/>
-        <v>1181.2080536912752</v>
+        <v>1053.0973451327434</v>
       </c>
       <c r="T28" s="1">
         <f t="shared" ref="T28:T30" si="30">SUMPRODUCT(($F$27:$F$30=F28)*($D$27:$D$30&gt;D28))</f>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="V28" s="1">
         <f t="shared" ref="V28:V30" si="32">SUMPRODUCT(($F$27:$F$30=F28)*($D$27:$D$30=D28)*($P$27:$P$30=P28)*($S$27:$S$30&gt;S28))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="1">
         <f t="shared" ref="W28:W30" si="33">SUMPRODUCT(($F$27:$F$30=F28)*($D$27:$D$30=D28)*($P$27:$P$30=P28)*($S$27:$S$30=S28)*($X$27:$X$30&lt;X28))</f>
@@ -4870,15 +4870,15 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C29)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C29)</f>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C29,Preliminary!AI:AI)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C29,Preliminary!AJ:AJ)</f>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="N29" s="1">
         <f>SUMIF(Preliminary!AE:AE,C29,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C29,Preliminary!AQ:AQ)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O29" s="1">
         <f>SUMIF(Preliminary!AE:AE,C29,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C29,Preliminary!AR:AR)</f>
@@ -4918,19 +4918,19 @@
       </c>
       <c r="P29" s="4">
         <f t="shared" si="26"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q29" s="1">
         <f>SUMIF(Preliminary!AE:AE,C29,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C29,Preliminary!AV:AV)</f>
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="R29" s="1">
         <f>SUMIF(Preliminary!AE:AE,C29,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C29,Preliminary!AW:AW)</f>
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" si="27"/>
-        <v>1291.044776119403</v>
+        <v>1275.5102040816325</v>
       </c>
       <c r="T29" s="1">
         <f t="shared" si="30"/>
@@ -4956,7 +4956,7 @@
       <c r="A30" s="55"/>
       <c r="B30" s="1">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" t="str">
         <f>Preliminary!AB57</f>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C30)</f>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="G30" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C30)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C30,Preliminary!AI:AI)</f>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="M30" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C30,Preliminary!AU:AU)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="1">
         <f>SUMIF(Preliminary!AE:AE,C30,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C30,Preliminary!AQ:AQ)</f>
@@ -5008,23 +5008,23 @@
       </c>
       <c r="O30" s="1">
         <f>SUMIF(Preliminary!AE:AE,C30,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C30,Preliminary!AR:AR)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="26"/>
-        <v>333.33333333333331</v>
+        <v>222.2222222222222</v>
       </c>
       <c r="Q30" s="1">
         <f>SUMIF(Preliminary!AE:AE,C30,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C30,Preliminary!AV:AV)</f>
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="R30" s="1">
         <f>SUMIF(Preliminary!AE:AE,C30,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C30,Preliminary!AW:AW)</f>
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="S30" s="4">
         <f t="shared" si="27"/>
-        <v>788.94472361809039</v>
+        <v>751.8248175182481</v>
       </c>
       <c r="T30" s="1">
         <f t="shared" si="30"/>
@@ -5426,11 +5426,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:X1"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A34"/>
@@ -5439,6 +5434,11 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:X1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5449,7 +5449,7 @@
   <dimension ref="B2:BR67"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5513,74 +5513,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="56"/>
-      <c r="BB2" s="56"/>
-      <c r="BC2" s="56"/>
-      <c r="BD2" s="56"/>
-      <c r="BE2" s="56"/>
-      <c r="BF2" s="56"/>
-      <c r="BG2" s="56"/>
-      <c r="BH2" s="56"/>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="56"/>
-      <c r="BK2" s="56"/>
-      <c r="BL2" s="56"/>
-      <c r="BM2" s="56"/>
-      <c r="BN2" s="56"/>
-      <c r="BO2" s="56"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
+      <c r="BB2" s="75"/>
+      <c r="BC2" s="75"/>
+      <c r="BD2" s="75"/>
+      <c r="BE2" s="75"/>
+      <c r="BF2" s="75"/>
+      <c r="BG2" s="75"/>
+      <c r="BH2" s="75"/>
+      <c r="BI2" s="75"/>
+      <c r="BJ2" s="75"/>
+      <c r="BK2" s="75"/>
+      <c r="BL2" s="75"/>
+      <c r="BM2" s="75"/>
+      <c r="BN2" s="75"/>
+      <c r="BO2" s="75"/>
     </row>
     <row r="3" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX3" s="33"/>
@@ -5603,116 +5603,116 @@
       <c r="BO3" s="33"/>
     </row>
     <row r="4" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="57"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="57"/>
-      <c r="AS4" s="57"/>
-      <c r="AT4" s="57"/>
-      <c r="AU4" s="57"/>
-      <c r="AV4" s="57"/>
-      <c r="AW4" s="57"/>
-      <c r="AX4" s="57"/>
-      <c r="AY4" s="57"/>
-      <c r="AZ4" s="57"/>
-      <c r="BA4" s="57"/>
-      <c r="BB4" s="57"/>
-      <c r="BC4" s="57"/>
-      <c r="BD4" s="57"/>
-      <c r="BE4" s="57"/>
-      <c r="BF4" s="57"/>
-      <c r="BG4" s="57"/>
-      <c r="BH4" s="57"/>
-      <c r="BI4" s="57"/>
-      <c r="BJ4" s="57"/>
-      <c r="BK4" s="57"/>
-      <c r="BL4" s="57"/>
-      <c r="BM4" s="57"/>
-      <c r="BN4" s="57"/>
-      <c r="BO4" s="57"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="76"/>
+      <c r="BB4" s="76"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="76"/>
+      <c r="BH4" s="76"/>
+      <c r="BI4" s="76"/>
+      <c r="BJ4" s="76"/>
+      <c r="BK4" s="76"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="76"/>
+      <c r="BN4" s="76"/>
+      <c r="BO4" s="76"/>
     </row>
     <row r="5" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="75" t="s">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75" t="s">
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75" t="s">
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
       <c r="AD5" s="12" t="s">
         <v>23</v>
       </c>
@@ -5770,34 +5770,34 @@
       <c r="AW5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX5" s="61" t="s">
+      <c r="AX5" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="63"/>
-      <c r="BA5" s="61" t="s">
+      <c r="AY5" s="73"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="63"/>
-      <c r="BD5" s="61" t="s">
+      <c r="BB5" s="73"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="BE5" s="62"/>
-      <c r="BF5" s="62"/>
-      <c r="BG5" s="62"/>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="63"/>
-      <c r="BJ5" s="61" t="s">
+      <c r="BE5" s="73"/>
+      <c r="BF5" s="73"/>
+      <c r="BG5" s="73"/>
+      <c r="BH5" s="73"/>
+      <c r="BI5" s="74"/>
+      <c r="BJ5" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="BK5" s="62"/>
-      <c r="BL5" s="63"/>
-      <c r="BM5" s="61" t="s">
+      <c r="BK5" s="73"/>
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="BN5" s="62"/>
-      <c r="BO5" s="63"/>
+      <c r="BN5" s="73"/>
+      <c r="BO5" s="74"/>
     </row>
     <row r="6" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
@@ -7022,116 +7022,116 @@
       </c>
     </row>
     <row r="12" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="57"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="57"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="57"/>
-      <c r="AN12" s="57"/>
-      <c r="AO12" s="57"/>
-      <c r="AP12" s="57"/>
-      <c r="AQ12" s="57"/>
-      <c r="AR12" s="57"/>
-      <c r="AS12" s="57"/>
-      <c r="AT12" s="57"/>
-      <c r="AU12" s="57"/>
-      <c r="AV12" s="57"/>
-      <c r="AW12" s="57"/>
-      <c r="AX12" s="57"/>
-      <c r="AY12" s="57"/>
-      <c r="AZ12" s="57"/>
-      <c r="BA12" s="57"/>
-      <c r="BB12" s="57"/>
-      <c r="BC12" s="57"/>
-      <c r="BD12" s="57"/>
-      <c r="BE12" s="57"/>
-      <c r="BF12" s="57"/>
-      <c r="BG12" s="57"/>
-      <c r="BH12" s="57"/>
-      <c r="BI12" s="57"/>
-      <c r="BJ12" s="57"/>
-      <c r="BK12" s="57"/>
-      <c r="BL12" s="57"/>
-      <c r="BM12" s="57"/>
-      <c r="BN12" s="57"/>
-      <c r="BO12" s="57"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="76"/>
+      <c r="AK12" s="76"/>
+      <c r="AL12" s="76"/>
+      <c r="AM12" s="76"/>
+      <c r="AN12" s="76"/>
+      <c r="AO12" s="76"/>
+      <c r="AP12" s="76"/>
+      <c r="AQ12" s="76"/>
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="76"/>
+      <c r="AT12" s="76"/>
+      <c r="AU12" s="76"/>
+      <c r="AV12" s="76"/>
+      <c r="AW12" s="76"/>
+      <c r="AX12" s="76"/>
+      <c r="AY12" s="76"/>
+      <c r="AZ12" s="76"/>
+      <c r="BA12" s="76"/>
+      <c r="BB12" s="76"/>
+      <c r="BC12" s="76"/>
+      <c r="BD12" s="76"/>
+      <c r="BE12" s="76"/>
+      <c r="BF12" s="76"/>
+      <c r="BG12" s="76"/>
+      <c r="BH12" s="76"/>
+      <c r="BI12" s="76"/>
+      <c r="BJ12" s="76"/>
+      <c r="BK12" s="76"/>
+      <c r="BL12" s="76"/>
+      <c r="BM12" s="76"/>
+      <c r="BN12" s="76"/>
+      <c r="BO12" s="76"/>
     </row>
     <row r="13" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="72" t="s">
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="72" t="s">
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="72" t="s">
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="72" t="s">
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
       <c r="AD13" s="12" t="s">
         <v>23</v>
       </c>
@@ -7189,34 +7189,34 @@
       <c r="AW13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX13" s="58" t="s">
+      <c r="AX13" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AY13" s="59"/>
-      <c r="AZ13" s="60"/>
-      <c r="BA13" s="58" t="s">
+      <c r="AY13" s="70"/>
+      <c r="AZ13" s="71"/>
+      <c r="BA13" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="BB13" s="59"/>
-      <c r="BC13" s="60"/>
-      <c r="BD13" s="58" t="s">
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="71"/>
+      <c r="BD13" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="59"/>
-      <c r="BG13" s="59"/>
-      <c r="BH13" s="59"/>
-      <c r="BI13" s="60"/>
-      <c r="BJ13" s="58" t="s">
+      <c r="BE13" s="70"/>
+      <c r="BF13" s="70"/>
+      <c r="BG13" s="70"/>
+      <c r="BH13" s="70"/>
+      <c r="BI13" s="71"/>
+      <c r="BJ13" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK13" s="59"/>
-      <c r="BL13" s="60"/>
-      <c r="BM13" s="58" t="s">
+      <c r="BK13" s="70"/>
+      <c r="BL13" s="71"/>
+      <c r="BM13" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="BN13" s="59"/>
-      <c r="BO13" s="60"/>
+      <c r="BN13" s="70"/>
+      <c r="BO13" s="71"/>
     </row>
     <row r="14" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -7588,15 +7588,15 @@
       </c>
       <c r="AZ15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,3,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,5,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,6,FALSE)</f>
@@ -7608,7 +7608,7 @@
       </c>
       <c r="BE15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,9,FALSE)</f>
@@ -7628,27 +7628,27 @@
       </c>
       <c r="BJ15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,13,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL15" s="52" t="str">
+        <v>1</v>
+      </c>
+      <c r="BL15" s="52">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,15,FALSE)</f>
-        <v>MAX</v>
+        <v>9000</v>
       </c>
       <c r="BM15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,16,FALSE)</f>
-        <v>159</v>
+        <v>256</v>
       </c>
       <c r="BN15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,17,FALSE)</f>
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="BO15" s="52">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,18,FALSE)</f>
-        <v>1325</v>
+        <v>1224.8803827751196</v>
       </c>
     </row>
     <row r="16" spans="2:67" x14ac:dyDescent="0.25">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="BA16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,5,FALSE)</f>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="BC16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,7,FALSE)</f>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="BH16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,12,FALSE)</f>
@@ -7851,27 +7851,27 @@
       </c>
       <c r="BJ16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,13,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BK16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,14,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BL16" s="52">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,15,FALSE)</f>
-        <v>6000</v>
+        <v>1750</v>
       </c>
       <c r="BM16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,16,FALSE)</f>
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="BN16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,17,FALSE)</f>
-        <v>163</v>
+        <v>260</v>
       </c>
       <c r="BO16" s="52">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,18,FALSE)</f>
-        <v>1092.0245398773004</v>
+        <v>1026.9230769230769</v>
       </c>
     </row>
     <row r="17" spans="2:67" x14ac:dyDescent="0.25">
@@ -8034,15 +8034,15 @@
       </c>
       <c r="AZ17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,3,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,6,FALSE)</f>
@@ -8054,7 +8054,7 @@
       </c>
       <c r="BE17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,9,FALSE)</f>
@@ -8074,27 +8074,27 @@
       </c>
       <c r="BJ17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,13,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BK17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,14,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BL17" s="52">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,15,FALSE)</f>
-        <v>166.66666666666666</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="BM17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,16,FALSE)</f>
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="BN17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,17,FALSE)</f>
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="BO17" s="52">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,18,FALSE)</f>
-        <v>829.54545454545462</v>
+        <v>906.01503759398497</v>
       </c>
     </row>
     <row r="18" spans="2:67" x14ac:dyDescent="0.25">
@@ -8105,35 +8105,55 @@
         <f>AB16</f>
         <v>Qatar</v>
       </c>
-      <c r="D18" s="48"/>
+      <c r="D18" s="48">
+        <v>3</v>
+      </c>
       <c r="E18" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="47">
+        <v>1</v>
+      </c>
       <c r="G18" s="5" t="str">
         <f>AB17</f>
         <v>Romania</v>
       </c>
-      <c r="H18" s="28"/>
+      <c r="H18" s="28">
+        <v>20</v>
+      </c>
       <c r="I18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="28"/>
+      <c r="J18" s="30">
+        <v>25</v>
+      </c>
+      <c r="K18" s="28">
+        <v>25</v>
+      </c>
       <c r="L18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="28"/>
+      <c r="M18" s="30">
+        <v>23</v>
+      </c>
+      <c r="N18" s="28">
+        <v>25</v>
+      </c>
       <c r="O18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="28"/>
+      <c r="P18" s="30">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="28">
+        <v>25</v>
+      </c>
       <c r="R18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S18" s="30"/>
+      <c r="S18" s="30">
+        <v>22</v>
+      </c>
       <c r="T18" s="28"/>
       <c r="U18" s="29" t="s">
         <v>0</v>
@@ -8141,34 +8161,34 @@
       <c r="V18" s="30"/>
       <c r="W18" s="31">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="X18" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y18" s="32">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AD18" s="12">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="12" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>Qatar</v>
       </c>
       <c r="AF18" s="12">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="12">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH18" s="12">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18" s="12">
         <f t="shared" si="26"/>
@@ -8176,7 +8196,7 @@
       </c>
       <c r="AJ18" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="12">
         <f t="shared" si="28"/>
@@ -8184,27 +8204,27 @@
       </c>
       <c r="AL18" s="12">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM18" s="12">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AO18" s="12">
+        <v>90</v>
+      </c>
+      <c r="AO18" s="12" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>Romania</v>
       </c>
       <c r="AP18" s="12">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="12">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR18" s="12">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS18" s="12">
         <f t="shared" si="35"/>
@@ -8212,7 +8232,7 @@
       </c>
       <c r="AT18" s="12">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="12">
         <f t="shared" si="37"/>
@@ -8220,11 +8240,11 @@
       </c>
       <c r="AV18" s="12">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AW18" s="12">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AX18" s="50">
         <v>4</v>
@@ -8239,7 +8259,7 @@
       </c>
       <c r="BA18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,5,FALSE)</f>
@@ -8247,7 +8267,7 @@
       </c>
       <c r="BC18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,6,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,7,FALSE)</f>
@@ -8267,7 +8287,7 @@
       </c>
       <c r="BH18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,12,FALSE)</f>
@@ -8275,27 +8295,27 @@
       </c>
       <c r="BJ18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,13,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,14,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL18" s="52">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,15,FALSE)</f>
-        <v>0</v>
+        <v>111.1111111111111</v>
       </c>
       <c r="BM18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,16,FALSE)</f>
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="BN18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,17,FALSE)</f>
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="BO18" s="52">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,18,FALSE)</f>
-        <v>850.93167701863354</v>
+        <v>886.71875</v>
       </c>
     </row>
     <row r="19" spans="2:67" x14ac:dyDescent="0.25">
@@ -8306,35 +8326,55 @@
         <f>AB14</f>
         <v>Poland</v>
       </c>
-      <c r="D19" s="48"/>
+      <c r="D19" s="48">
+        <v>3</v>
+      </c>
       <c r="E19" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="47">
+        <v>1</v>
+      </c>
       <c r="G19" s="5" t="str">
         <f>AB15</f>
         <v>Netherlands</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="28">
+        <v>22</v>
+      </c>
       <c r="I19" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="28"/>
+      <c r="J19" s="30">
+        <v>25</v>
+      </c>
+      <c r="K19" s="28">
+        <v>25</v>
+      </c>
       <c r="L19" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M19" s="30"/>
-      <c r="N19" s="28"/>
+      <c r="M19" s="30">
+        <v>23</v>
+      </c>
+      <c r="N19" s="28">
+        <v>25</v>
+      </c>
       <c r="O19" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="28"/>
+      <c r="P19" s="30">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="28">
+        <v>25</v>
+      </c>
       <c r="R19" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S19" s="30"/>
+      <c r="S19" s="30">
+        <v>22</v>
+      </c>
       <c r="T19" s="28"/>
       <c r="U19" s="29" t="s">
         <v>0</v>
@@ -8342,34 +8382,34 @@
       <c r="V19" s="30"/>
       <c r="W19" s="31">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="X19" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y19" s="32">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE19" s="12" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>Poland</v>
       </c>
       <c r="AF19" s="12">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="12">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH19" s="12">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="12">
         <f t="shared" si="26"/>
@@ -8377,7 +8417,7 @@
       </c>
       <c r="AJ19" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="12">
         <f t="shared" si="28"/>
@@ -8385,27 +8425,27 @@
       </c>
       <c r="AL19" s="12">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AM19" s="12">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AO19" s="12">
+        <v>89</v>
+      </c>
+      <c r="AO19" s="12" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>Netherlands</v>
       </c>
       <c r="AP19" s="12">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="12">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" s="12">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS19" s="12">
         <f t="shared" si="35"/>
@@ -8413,7 +8453,7 @@
       </c>
       <c r="AT19" s="12">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="12">
         <f t="shared" si="37"/>
@@ -8421,128 +8461,128 @@
       </c>
       <c r="AV19" s="12">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AW19" s="12">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="BA19" s="26">
         <f>SUM(BA15:BA18)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="57"/>
-      <c r="AL20" s="57"/>
-      <c r="AM20" s="57"/>
-      <c r="AN20" s="57"/>
-      <c r="AO20" s="57"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="57"/>
-      <c r="AR20" s="57"/>
-      <c r="AS20" s="57"/>
-      <c r="AT20" s="57"/>
-      <c r="AU20" s="57"/>
-      <c r="AV20" s="57"/>
-      <c r="AW20" s="57"/>
-      <c r="AX20" s="57"/>
-      <c r="AY20" s="57"/>
-      <c r="AZ20" s="57"/>
-      <c r="BA20" s="57"/>
-      <c r="BB20" s="57"/>
-      <c r="BC20" s="57"/>
-      <c r="BD20" s="57"/>
-      <c r="BE20" s="57"/>
-      <c r="BF20" s="57"/>
-      <c r="BG20" s="57"/>
-      <c r="BH20" s="57"/>
-      <c r="BI20" s="57"/>
-      <c r="BJ20" s="57"/>
-      <c r="BK20" s="57"/>
-      <c r="BL20" s="57"/>
-      <c r="BM20" s="57"/>
-      <c r="BN20" s="57"/>
-      <c r="BO20" s="57"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="76"/>
+      <c r="AI20" s="76"/>
+      <c r="AJ20" s="76"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="76"/>
+      <c r="AM20" s="76"/>
+      <c r="AN20" s="76"/>
+      <c r="AO20" s="76"/>
+      <c r="AP20" s="76"/>
+      <c r="AQ20" s="76"/>
+      <c r="AR20" s="76"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="76"/>
+      <c r="AU20" s="76"/>
+      <c r="AV20" s="76"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="76"/>
+      <c r="AY20" s="76"/>
+      <c r="AZ20" s="76"/>
+      <c r="BA20" s="76"/>
+      <c r="BB20" s="76"/>
+      <c r="BC20" s="76"/>
+      <c r="BD20" s="76"/>
+      <c r="BE20" s="76"/>
+      <c r="BF20" s="76"/>
+      <c r="BG20" s="76"/>
+      <c r="BH20" s="76"/>
+      <c r="BI20" s="76"/>
+      <c r="BJ20" s="76"/>
+      <c r="BK20" s="76"/>
+      <c r="BL20" s="76"/>
+      <c r="BM20" s="76"/>
+      <c r="BN20" s="76"/>
+      <c r="BO20" s="76"/>
     </row>
     <row r="21" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="72" t="s">
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="72" t="s">
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="72" t="s">
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="72" t="s">
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
       <c r="AD21" s="12" t="s">
         <v>23</v>
       </c>
@@ -8600,34 +8640,34 @@
       <c r="AW21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX21" s="58" t="s">
+      <c r="AX21" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AY21" s="59"/>
-      <c r="AZ21" s="60"/>
-      <c r="BA21" s="58" t="s">
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="71"/>
+      <c r="BA21" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="BB21" s="59"/>
-      <c r="BC21" s="60"/>
-      <c r="BD21" s="58" t="s">
+      <c r="BB21" s="70"/>
+      <c r="BC21" s="71"/>
+      <c r="BD21" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="BE21" s="59"/>
-      <c r="BF21" s="59"/>
-      <c r="BG21" s="59"/>
-      <c r="BH21" s="59"/>
-      <c r="BI21" s="60"/>
-      <c r="BJ21" s="58" t="s">
+      <c r="BE21" s="70"/>
+      <c r="BF21" s="70"/>
+      <c r="BG21" s="70"/>
+      <c r="BH21" s="70"/>
+      <c r="BI21" s="71"/>
+      <c r="BJ21" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK21" s="59"/>
-      <c r="BL21" s="60"/>
-      <c r="BM21" s="58" t="s">
+      <c r="BK21" s="70"/>
+      <c r="BL21" s="71"/>
+      <c r="BM21" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="BN21" s="59"/>
-      <c r="BO21" s="60"/>
+      <c r="BN21" s="70"/>
+      <c r="BO21" s="71"/>
     </row>
     <row r="22" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B22" s="23">
@@ -9860,116 +9900,116 @@
       </c>
     </row>
     <row r="28" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="57"/>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="57"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="57"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="57"/>
-      <c r="AW28" s="57"/>
-      <c r="AX28" s="57"/>
-      <c r="AY28" s="57"/>
-      <c r="AZ28" s="57"/>
-      <c r="BA28" s="57"/>
-      <c r="BB28" s="57"/>
-      <c r="BC28" s="57"/>
-      <c r="BD28" s="57"/>
-      <c r="BE28" s="57"/>
-      <c r="BF28" s="57"/>
-      <c r="BG28" s="57"/>
-      <c r="BH28" s="57"/>
-      <c r="BI28" s="57"/>
-      <c r="BJ28" s="57"/>
-      <c r="BK28" s="57"/>
-      <c r="BL28" s="57"/>
-      <c r="BM28" s="57"/>
-      <c r="BN28" s="57"/>
-      <c r="BO28" s="57"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="76"/>
+      <c r="AB28" s="76"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="76"/>
+      <c r="AJ28" s="76"/>
+      <c r="AK28" s="76"/>
+      <c r="AL28" s="76"/>
+      <c r="AM28" s="76"/>
+      <c r="AN28" s="76"/>
+      <c r="AO28" s="76"/>
+      <c r="AP28" s="76"/>
+      <c r="AQ28" s="76"/>
+      <c r="AR28" s="76"/>
+      <c r="AS28" s="76"/>
+      <c r="AT28" s="76"/>
+      <c r="AU28" s="76"/>
+      <c r="AV28" s="76"/>
+      <c r="AW28" s="76"/>
+      <c r="AX28" s="76"/>
+      <c r="AY28" s="76"/>
+      <c r="AZ28" s="76"/>
+      <c r="BA28" s="76"/>
+      <c r="BB28" s="76"/>
+      <c r="BC28" s="76"/>
+      <c r="BD28" s="76"/>
+      <c r="BE28" s="76"/>
+      <c r="BF28" s="76"/>
+      <c r="BG28" s="76"/>
+      <c r="BH28" s="76"/>
+      <c r="BI28" s="76"/>
+      <c r="BJ28" s="76"/>
+      <c r="BK28" s="76"/>
+      <c r="BL28" s="76"/>
+      <c r="BM28" s="76"/>
+      <c r="BN28" s="76"/>
+      <c r="BO28" s="76"/>
     </row>
     <row r="29" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="72" t="s">
+      <c r="H29" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="72" t="s">
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="72" t="s">
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="72" t="s">
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="72" t="s">
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
       <c r="AD29" s="12" t="s">
         <v>23</v>
       </c>
@@ -10027,34 +10067,34 @@
       <c r="AW29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX29" s="58" t="s">
+      <c r="AX29" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AY29" s="59"/>
-      <c r="AZ29" s="60"/>
-      <c r="BA29" s="58" t="s">
+      <c r="AY29" s="70"/>
+      <c r="AZ29" s="71"/>
+      <c r="BA29" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="BB29" s="59"/>
-      <c r="BC29" s="60"/>
-      <c r="BD29" s="58" t="s">
+      <c r="BB29" s="70"/>
+      <c r="BC29" s="71"/>
+      <c r="BD29" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="BE29" s="59"/>
-      <c r="BF29" s="59"/>
-      <c r="BG29" s="59"/>
-      <c r="BH29" s="59"/>
-      <c r="BI29" s="60"/>
-      <c r="BJ29" s="58" t="s">
+      <c r="BE29" s="70"/>
+      <c r="BF29" s="70"/>
+      <c r="BG29" s="70"/>
+      <c r="BH29" s="70"/>
+      <c r="BI29" s="71"/>
+      <c r="BJ29" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK29" s="59"/>
-      <c r="BL29" s="60"/>
-      <c r="BM29" s="58" t="s">
+      <c r="BK29" s="70"/>
+      <c r="BL29" s="71"/>
+      <c r="BM29" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="BN29" s="59"/>
-      <c r="BO29" s="60"/>
+      <c r="BN29" s="70"/>
+      <c r="BO29" s="71"/>
     </row>
     <row r="30" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
@@ -10426,15 +10466,15 @@
       </c>
       <c r="AZ31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,3,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,5,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,6,FALSE)</f>
@@ -10446,7 +10486,7 @@
       </c>
       <c r="BE31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,9,FALSE)</f>
@@ -10466,27 +10506,27 @@
       </c>
       <c r="BJ31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,13,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL31" s="52" t="str">
+        <v>1</v>
+      </c>
+      <c r="BL31" s="52">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,15,FALSE)</f>
-        <v>MAX</v>
+        <v>9000</v>
       </c>
       <c r="BM31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,16,FALSE)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="BN31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,17,FALSE)</f>
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="BO31" s="52">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,18,FALSE)</f>
-        <v>1327.4336283185842</v>
+        <v>1237.6237623762377</v>
       </c>
     </row>
     <row r="32" spans="2:67" x14ac:dyDescent="0.25">
@@ -10645,19 +10685,19 @@
       </c>
       <c r="AY32" s="51" t="str">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,2,FALSE)</f>
-        <v>Cuba</v>
+        <v>Portugal</v>
       </c>
       <c r="AZ32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,3,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,6,FALSE)</f>
@@ -10665,15 +10705,15 @@
       </c>
       <c r="BD32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,7,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,10,FALSE)</f>
@@ -10681,35 +10721,35 @@
       </c>
       <c r="BH32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,11,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,13,FALSE)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BK32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,14,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BL32" s="52">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,15,FALSE)</f>
-        <v>1333.3333333333333</v>
+        <v>1000</v>
       </c>
       <c r="BM32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,16,FALSE)</f>
-        <v>160</v>
+        <v>262</v>
       </c>
       <c r="BN32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,17,FALSE)</f>
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="BO32" s="52">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,18,FALSE)</f>
-        <v>1012.6582278481013</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33" spans="2:70" x14ac:dyDescent="0.25">
@@ -10868,7 +10908,7 @@
       </c>
       <c r="AY33" s="51" t="str">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,2,FALSE)</f>
-        <v>Portugal</v>
+        <v>Cuba</v>
       </c>
       <c r="AZ33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,3,FALSE)</f>
@@ -10876,7 +10916,7 @@
       </c>
       <c r="BA33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,5,FALSE)</f>
@@ -10884,15 +10924,15 @@
       </c>
       <c r="BC33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,6,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,8,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,9,FALSE)</f>
@@ -10904,35 +10944,35 @@
       </c>
       <c r="BH33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,11,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,13,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BK33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,14,FALSE)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BL33" s="52">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,15,FALSE)</f>
-        <v>750</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="BM33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,16,FALSE)</f>
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="BN33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,17,FALSE)</f>
-        <v>160</v>
+        <v>258</v>
       </c>
       <c r="BO33" s="52">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,18,FALSE)</f>
-        <v>956.25</v>
+        <v>965.11627906976753</v>
       </c>
     </row>
     <row r="34" spans="2:70" x14ac:dyDescent="0.25">
@@ -10943,70 +10983,94 @@
         <f>AB32</f>
         <v>Portugal</v>
       </c>
-      <c r="D34" s="48"/>
+      <c r="D34" s="48">
+        <v>3</v>
+      </c>
       <c r="E34" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="47"/>
+      <c r="F34" s="47">
+        <v>2</v>
+      </c>
       <c r="G34" s="5" t="str">
         <f>AB33</f>
         <v>Colombia</v>
       </c>
-      <c r="H34" s="28"/>
+      <c r="H34" s="28">
+        <v>23</v>
+      </c>
       <c r="I34" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J34" s="30"/>
-      <c r="K34" s="28"/>
+      <c r="J34" s="30">
+        <v>25</v>
+      </c>
+      <c r="K34" s="28">
+        <v>21</v>
+      </c>
       <c r="L34" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M34" s="30"/>
-      <c r="N34" s="28"/>
+      <c r="M34" s="30">
+        <v>25</v>
+      </c>
+      <c r="N34" s="28">
+        <v>25</v>
+      </c>
       <c r="O34" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="28"/>
+      <c r="P34" s="30">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="28">
+        <v>25</v>
+      </c>
       <c r="R34" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S34" s="30"/>
-      <c r="T34" s="28"/>
+      <c r="S34" s="30">
+        <v>21</v>
+      </c>
+      <c r="T34" s="28">
+        <v>15</v>
+      </c>
       <c r="U34" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="V34" s="30"/>
+      <c r="V34" s="30">
+        <v>11</v>
+      </c>
       <c r="W34" s="31">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="X34" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y34" s="32">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD34" s="12">
         <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="12">
+        <v>5</v>
+      </c>
+      <c r="AE34" s="12" t="str">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>Portugal</v>
       </c>
       <c r="AF34" s="12">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" s="12">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH34" s="12">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI34" s="12">
         <f t="shared" si="70"/>
@@ -11018,35 +11082,35 @@
       </c>
       <c r="AK34" s="12">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="12">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="AM34" s="12">
         <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AO34" s="12">
+        <v>102</v>
+      </c>
+      <c r="AO34" s="12" t="str">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>Colombia</v>
       </c>
       <c r="AP34" s="12">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ34" s="12">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR34" s="12">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS34" s="12">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="12">
         <f t="shared" si="80"/>
@@ -11058,11 +11122,11 @@
       </c>
       <c r="AV34" s="12">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AW34" s="12">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="AX34" s="50">
         <v>4</v>
@@ -11073,11 +11137,11 @@
       </c>
       <c r="AZ34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,5,FALSE)</f>
@@ -11085,7 +11149,7 @@
       </c>
       <c r="BC34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,6,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,7,FALSE)</f>
@@ -11101,7 +11165,7 @@
       </c>
       <c r="BG34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,11,FALSE)</f>
@@ -11113,27 +11177,27 @@
       </c>
       <c r="BJ34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,13,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,14,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL34" s="52">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,15,FALSE)</f>
-        <v>0</v>
+        <v>222.2222222222222</v>
       </c>
       <c r="BM34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,16,FALSE)</f>
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="BN34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,17,FALSE)</f>
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="BO34" s="52">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,18,FALSE)</f>
-        <v>786.66666666666663</v>
+        <v>849.42084942084944</v>
       </c>
     </row>
     <row r="35" spans="2:70" x14ac:dyDescent="0.25">
@@ -11144,35 +11208,55 @@
         <f>AB30</f>
         <v>United States</v>
       </c>
-      <c r="D35" s="48"/>
+      <c r="D35" s="48">
+        <v>3</v>
+      </c>
       <c r="E35" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F35" s="47"/>
+      <c r="F35" s="47">
+        <v>1</v>
+      </c>
       <c r="G35" s="5" t="str">
         <f>AB31</f>
         <v>Cuba</v>
       </c>
-      <c r="H35" s="28"/>
+      <c r="H35" s="28">
+        <v>25</v>
+      </c>
       <c r="I35" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J35" s="30"/>
-      <c r="K35" s="28"/>
+      <c r="J35" s="30">
+        <v>17</v>
+      </c>
+      <c r="K35" s="28">
+        <v>25</v>
+      </c>
       <c r="L35" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M35" s="30"/>
-      <c r="N35" s="28"/>
+      <c r="M35" s="30">
+        <v>22</v>
+      </c>
+      <c r="N35" s="28">
+        <v>23</v>
+      </c>
       <c r="O35" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="28"/>
+      <c r="P35" s="30">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="28">
+        <v>27</v>
+      </c>
       <c r="R35" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S35" s="30"/>
+      <c r="S35" s="30">
+        <v>25</v>
+      </c>
       <c r="T35" s="28"/>
       <c r="U35" s="29" t="s">
         <v>0</v>
@@ -11180,34 +11264,34 @@
       <c r="V35" s="30"/>
       <c r="W35" s="31">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X35" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y35" s="32">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AD35" s="12">
         <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE35" s="12" t="str">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>United States</v>
       </c>
       <c r="AF35" s="12">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35" s="12">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH35" s="12">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI35" s="12">
         <f t="shared" si="70"/>
@@ -11215,7 +11299,7 @@
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK35" s="12">
         <f t="shared" si="72"/>
@@ -11223,27 +11307,27 @@
       </c>
       <c r="AL35" s="12">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM35" s="12">
         <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AO35" s="12">
+        <v>89</v>
+      </c>
+      <c r="AO35" s="12" t="str">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>Cuba</v>
       </c>
       <c r="AP35" s="12">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ35" s="12">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR35" s="12">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS35" s="12">
         <f t="shared" si="79"/>
@@ -11251,7 +11335,7 @@
       </c>
       <c r="AT35" s="12">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU35" s="12">
         <f t="shared" si="81"/>
@@ -11259,132 +11343,132 @@
       </c>
       <c r="AV35" s="12">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AW35" s="12">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BA35" s="26">
         <f>SUM(BA31:BA34)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57"/>
-      <c r="AB36" s="57"/>
-      <c r="AC36" s="57"/>
-      <c r="AD36" s="57"/>
-      <c r="AE36" s="57"/>
-      <c r="AF36" s="57"/>
-      <c r="AG36" s="57"/>
-      <c r="AH36" s="57"/>
-      <c r="AI36" s="57"/>
-      <c r="AJ36" s="57"/>
-      <c r="AK36" s="57"/>
-      <c r="AL36" s="57"/>
-      <c r="AM36" s="57"/>
-      <c r="AN36" s="57"/>
-      <c r="AO36" s="57"/>
-      <c r="AP36" s="57"/>
-      <c r="AQ36" s="57"/>
-      <c r="AR36" s="57"/>
-      <c r="AS36" s="57"/>
-      <c r="AT36" s="57"/>
-      <c r="AU36" s="57"/>
-      <c r="AV36" s="57"/>
-      <c r="AW36" s="57"/>
-      <c r="AX36" s="57"/>
-      <c r="AY36" s="57"/>
-      <c r="AZ36" s="57"/>
-      <c r="BA36" s="57"/>
-      <c r="BB36" s="57"/>
-      <c r="BC36" s="57"/>
-      <c r="BD36" s="57"/>
-      <c r="BE36" s="57"/>
-      <c r="BF36" s="57"/>
-      <c r="BG36" s="57"/>
-      <c r="BH36" s="57"/>
-      <c r="BI36" s="57"/>
-      <c r="BJ36" s="57"/>
-      <c r="BK36" s="57"/>
-      <c r="BL36" s="57"/>
-      <c r="BM36" s="57"/>
-      <c r="BN36" s="57"/>
-      <c r="BO36" s="57"/>
-      <c r="BQ36" s="64" t="s">
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="76"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="76"/>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="76"/>
+      <c r="AE36" s="76"/>
+      <c r="AF36" s="76"/>
+      <c r="AG36" s="76"/>
+      <c r="AH36" s="76"/>
+      <c r="AI36" s="76"/>
+      <c r="AJ36" s="76"/>
+      <c r="AK36" s="76"/>
+      <c r="AL36" s="76"/>
+      <c r="AM36" s="76"/>
+      <c r="AN36" s="76"/>
+      <c r="AO36" s="76"/>
+      <c r="AP36" s="76"/>
+      <c r="AQ36" s="76"/>
+      <c r="AR36" s="76"/>
+      <c r="AS36" s="76"/>
+      <c r="AT36" s="76"/>
+      <c r="AU36" s="76"/>
+      <c r="AV36" s="76"/>
+      <c r="AW36" s="76"/>
+      <c r="AX36" s="76"/>
+      <c r="AY36" s="76"/>
+      <c r="AZ36" s="76"/>
+      <c r="BA36" s="76"/>
+      <c r="BB36" s="76"/>
+      <c r="BC36" s="76"/>
+      <c r="BD36" s="76"/>
+      <c r="BE36" s="76"/>
+      <c r="BF36" s="76"/>
+      <c r="BG36" s="76"/>
+      <c r="BH36" s="76"/>
+      <c r="BI36" s="76"/>
+      <c r="BJ36" s="76"/>
+      <c r="BK36" s="76"/>
+      <c r="BL36" s="76"/>
+      <c r="BM36" s="76"/>
+      <c r="BN36" s="76"/>
+      <c r="BO36" s="76"/>
+      <c r="BQ36" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="BR36" s="64"/>
+      <c r="BR36" s="62"/>
     </row>
     <row r="37" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="21"/>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="72" t="s">
+      <c r="H37" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="72" t="s">
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="72" t="s">
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="72" t="s">
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="72" t="s">
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="73"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
       <c r="AD37" s="12" t="s">
         <v>23</v>
       </c>
@@ -11442,38 +11526,38 @@
       <c r="AW37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX37" s="58" t="s">
+      <c r="AX37" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AY37" s="59"/>
-      <c r="AZ37" s="60"/>
-      <c r="BA37" s="58" t="s">
+      <c r="AY37" s="70"/>
+      <c r="AZ37" s="71"/>
+      <c r="BA37" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="BB37" s="59"/>
-      <c r="BC37" s="60"/>
-      <c r="BD37" s="58" t="s">
+      <c r="BB37" s="70"/>
+      <c r="BC37" s="71"/>
+      <c r="BD37" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="BE37" s="59"/>
-      <c r="BF37" s="59"/>
-      <c r="BG37" s="59"/>
-      <c r="BH37" s="59"/>
-      <c r="BI37" s="60"/>
-      <c r="BJ37" s="58" t="s">
+      <c r="BE37" s="70"/>
+      <c r="BF37" s="70"/>
+      <c r="BG37" s="70"/>
+      <c r="BH37" s="70"/>
+      <c r="BI37" s="71"/>
+      <c r="BJ37" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK37" s="59"/>
-      <c r="BL37" s="60"/>
-      <c r="BM37" s="58" t="s">
+      <c r="BK37" s="70"/>
+      <c r="BL37" s="71"/>
+      <c r="BM37" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="BN37" s="59"/>
-      <c r="BO37" s="60"/>
-      <c r="BQ37" s="65" t="s">
+      <c r="BN37" s="70"/>
+      <c r="BO37" s="71"/>
+      <c r="BQ37" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="BR37" s="66"/>
+      <c r="BR37" s="64"/>
     </row>
     <row r="38" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B38" s="23">
@@ -11680,10 +11764,10 @@
       <c r="BO38" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="BQ38" s="67" t="s">
+      <c r="BQ38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="BR38" s="68"/>
+      <c r="BR38" s="66"/>
     </row>
     <row r="39" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B39" s="23">
@@ -11845,15 +11929,15 @@
       </c>
       <c r="AZ39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,3,FALSE)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,5,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,6,FALSE)</f>
@@ -11861,7 +11945,7 @@
       </c>
       <c r="BD39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,8,FALSE)</f>
@@ -11885,7 +11969,7 @@
       </c>
       <c r="BJ39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,13,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,14,FALSE)</f>
@@ -11893,24 +11977,24 @@
       </c>
       <c r="BL39" s="52">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,15,FALSE)</f>
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="BM39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,16,FALSE)</f>
-        <v>196</v>
+        <v>271</v>
       </c>
       <c r="BN39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,17,FALSE)</f>
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="BO39" s="52">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,18,FALSE)</f>
-        <v>1113.6363636363635</v>
-      </c>
-      <c r="BQ39" s="67" t="s">
+        <v>1248.8479262672811</v>
+      </c>
+      <c r="BQ39" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="BR39" s="68"/>
+      <c r="BR39" s="66"/>
     </row>
     <row r="40" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B40" s="23">
@@ -12072,15 +12156,15 @@
       </c>
       <c r="AZ40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,3,FALSE)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,6,FALSE)</f>
@@ -12092,7 +12176,7 @@
       </c>
       <c r="BE40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,9,FALSE)</f>
@@ -12112,32 +12196,32 @@
       </c>
       <c r="BJ40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,13,FALSE)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BK40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,14,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL40" s="52">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,15,FALSE)</f>
-        <v>1666.6666666666667</v>
+        <v>2000</v>
       </c>
       <c r="BM40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,16,FALSE)</f>
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="BN40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,17,FALSE)</f>
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="BO40" s="52">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,18,FALSE)</f>
-        <v>1062.111801242236</v>
-      </c>
-      <c r="BQ40" s="67" t="s">
+        <v>1042.6356589147288</v>
+      </c>
+      <c r="BQ40" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="BR40" s="68"/>
+      <c r="BR40" s="66"/>
     </row>
     <row r="41" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B41" s="23">
@@ -12311,7 +12395,7 @@
       </c>
       <c r="BA41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,5,FALSE)</f>
@@ -12319,7 +12403,7 @@
       </c>
       <c r="BC41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,6,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,7,FALSE)</f>
@@ -12339,7 +12423,7 @@
       </c>
       <c r="BH41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,12,FALSE)</f>
@@ -12347,32 +12431,32 @@
       </c>
       <c r="BJ41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,13,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,14,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BL41" s="52">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,15,FALSE)</f>
-        <v>1000</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="BM41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,16,FALSE)</f>
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="BN41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,17,FALSE)</f>
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="BO41" s="52">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,18,FALSE)</f>
-        <v>1026.4900662251655</v>
-      </c>
-      <c r="BQ41" s="69" t="s">
+        <v>1012.0481927710842</v>
+      </c>
+      <c r="BQ41" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="BR41" s="70"/>
+      <c r="BR41" s="68"/>
     </row>
     <row r="42" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B42" s="23">
@@ -12382,30 +12466,46 @@
         <f>AB40</f>
         <v>Bulgaria</v>
       </c>
-      <c r="D42" s="48"/>
+      <c r="D42" s="48">
+        <v>3</v>
+      </c>
       <c r="E42" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F42" s="47"/>
+      <c r="F42" s="47">
+        <v>0</v>
+      </c>
       <c r="G42" s="25" t="str">
         <f>AB41</f>
         <v>Chile</v>
       </c>
-      <c r="H42" s="28"/>
+      <c r="H42" s="28">
+        <v>25</v>
+      </c>
       <c r="I42" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J42" s="30"/>
-      <c r="K42" s="28"/>
+      <c r="J42" s="30">
+        <v>17</v>
+      </c>
+      <c r="K42" s="28">
+        <v>25</v>
+      </c>
       <c r="L42" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M42" s="30"/>
-      <c r="N42" s="28"/>
+      <c r="M42" s="30">
+        <v>12</v>
+      </c>
+      <c r="N42" s="28">
+        <v>25</v>
+      </c>
       <c r="O42" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P42" s="30"/>
+      <c r="P42" s="30">
+        <v>12</v>
+      </c>
       <c r="Q42" s="28"/>
       <c r="R42" s="29" t="s">
         <v>0</v>
@@ -12418,30 +12518,30 @@
       <c r="V42" s="30"/>
       <c r="W42" s="31">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X42" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y42" s="32">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AD42" s="12">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE42" s="12" t="str">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>Bulgaria</v>
       </c>
       <c r="AF42" s="12">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG42" s="12">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH42" s="12">
         <f t="shared" si="88"/>
@@ -12449,7 +12549,7 @@
       </c>
       <c r="AI42" s="12">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="90"/>
@@ -12461,19 +12561,19 @@
       </c>
       <c r="AL42" s="12">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM42" s="12">
         <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="AO42" s="12">
+        <v>41</v>
+      </c>
+      <c r="AO42" s="12" t="str">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>Chile</v>
       </c>
       <c r="AP42" s="12">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ42" s="12">
         <f t="shared" si="96"/>
@@ -12481,7 +12581,7 @@
       </c>
       <c r="AR42" s="12">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS42" s="12">
         <f t="shared" si="98"/>
@@ -12493,15 +12593,15 @@
       </c>
       <c r="AU42" s="12">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV42" s="12">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AW42" s="12">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX42" s="50">
         <v>4</v>
@@ -12516,7 +12616,7 @@
       </c>
       <c r="BA42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,5,FALSE)</f>
@@ -12524,7 +12624,7 @@
       </c>
       <c r="BC42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,6,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,7,FALSE)</f>
@@ -12548,7 +12648,7 @@
       </c>
       <c r="BI42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,12,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,13,FALSE)</f>
@@ -12556,7 +12656,7 @@
       </c>
       <c r="BK42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,14,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL42" s="52">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,15,FALSE)</f>
@@ -12564,15 +12664,15 @@
       </c>
       <c r="BM42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,16,FALSE)</f>
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="BN42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,17,FALSE)</f>
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="BO42" s="52">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,18,FALSE)</f>
-        <v>773.33333333333337</v>
+        <v>697.77777777777783</v>
       </c>
     </row>
     <row r="43" spans="2:70" x14ac:dyDescent="0.25">
@@ -12583,35 +12683,55 @@
         <f>AB38</f>
         <v>Slovenia</v>
       </c>
-      <c r="D43" s="48"/>
+      <c r="D43" s="48">
+        <v>3</v>
+      </c>
       <c r="E43" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F43" s="47"/>
+      <c r="F43" s="47">
+        <v>1</v>
+      </c>
       <c r="G43" s="25" t="str">
         <f>AB39</f>
         <v>Germany</v>
       </c>
-      <c r="H43" s="28"/>
+      <c r="H43" s="28">
+        <v>25</v>
+      </c>
       <c r="I43" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="30"/>
-      <c r="K43" s="28"/>
+      <c r="J43" s="30">
+        <v>21</v>
+      </c>
+      <c r="K43" s="28">
+        <v>17</v>
+      </c>
       <c r="L43" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M43" s="30"/>
-      <c r="N43" s="28"/>
+      <c r="M43" s="30">
+        <v>25</v>
+      </c>
+      <c r="N43" s="28">
+        <v>31</v>
+      </c>
       <c r="O43" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="28"/>
+      <c r="P43" s="30">
+        <v>29</v>
+      </c>
+      <c r="Q43" s="28">
+        <v>25</v>
+      </c>
       <c r="R43" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S43" s="30"/>
+      <c r="S43" s="30">
+        <v>22</v>
+      </c>
       <c r="T43" s="28"/>
       <c r="U43" s="29" t="s">
         <v>0</v>
@@ -12619,34 +12739,34 @@
       <c r="V43" s="30"/>
       <c r="W43" s="31">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="X43" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y43" s="32">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AD43" s="12">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="AE43" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE43" s="12" t="str">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>Slovenia</v>
       </c>
       <c r="AF43" s="12">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG43" s="12">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH43" s="12">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43" s="12">
         <f t="shared" si="89"/>
@@ -12654,7 +12774,7 @@
       </c>
       <c r="AJ43" s="12">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="12">
         <f t="shared" si="91"/>
@@ -12662,27 +12782,27 @@
       </c>
       <c r="AL43" s="12">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AM43" s="12">
         <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="AO43" s="12">
+        <v>97</v>
+      </c>
+      <c r="AO43" s="12" t="str">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>Germany</v>
       </c>
       <c r="AP43" s="12">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43" s="12">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR43" s="12">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS43" s="12">
         <f t="shared" si="98"/>
@@ -12690,7 +12810,7 @@
       </c>
       <c r="AT43" s="12">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU43" s="12">
         <f t="shared" si="100"/>
@@ -12698,128 +12818,128 @@
       </c>
       <c r="AV43" s="12">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AW43" s="12">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="BA43" s="26">
         <f>SUM(BA39:BA42)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="57"/>
-      <c r="U44" s="57"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="57"/>
-      <c r="X44" s="57"/>
-      <c r="Y44" s="57"/>
-      <c r="Z44" s="57"/>
-      <c r="AA44" s="57"/>
-      <c r="AB44" s="57"/>
-      <c r="AC44" s="57"/>
-      <c r="AD44" s="57"/>
-      <c r="AE44" s="57"/>
-      <c r="AF44" s="57"/>
-      <c r="AG44" s="57"/>
-      <c r="AH44" s="57"/>
-      <c r="AI44" s="57"/>
-      <c r="AJ44" s="57"/>
-      <c r="AK44" s="57"/>
-      <c r="AL44" s="57"/>
-      <c r="AM44" s="57"/>
-      <c r="AN44" s="57"/>
-      <c r="AO44" s="57"/>
-      <c r="AP44" s="57"/>
-      <c r="AQ44" s="57"/>
-      <c r="AR44" s="57"/>
-      <c r="AS44" s="57"/>
-      <c r="AT44" s="57"/>
-      <c r="AU44" s="57"/>
-      <c r="AV44" s="57"/>
-      <c r="AW44" s="57"/>
-      <c r="AX44" s="57"/>
-      <c r="AY44" s="57"/>
-      <c r="AZ44" s="57"/>
-      <c r="BA44" s="57"/>
-      <c r="BB44" s="57"/>
-      <c r="BC44" s="57"/>
-      <c r="BD44" s="57"/>
-      <c r="BE44" s="57"/>
-      <c r="BF44" s="57"/>
-      <c r="BG44" s="57"/>
-      <c r="BH44" s="57"/>
-      <c r="BI44" s="57"/>
-      <c r="BJ44" s="57"/>
-      <c r="BK44" s="57"/>
-      <c r="BL44" s="57"/>
-      <c r="BM44" s="57"/>
-      <c r="BN44" s="57"/>
-      <c r="BO44" s="57"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="76"/>
+      <c r="T44" s="76"/>
+      <c r="U44" s="76"/>
+      <c r="V44" s="76"/>
+      <c r="W44" s="76"/>
+      <c r="X44" s="76"/>
+      <c r="Y44" s="76"/>
+      <c r="Z44" s="76"/>
+      <c r="AA44" s="76"/>
+      <c r="AB44" s="76"/>
+      <c r="AC44" s="76"/>
+      <c r="AD44" s="76"/>
+      <c r="AE44" s="76"/>
+      <c r="AF44" s="76"/>
+      <c r="AG44" s="76"/>
+      <c r="AH44" s="76"/>
+      <c r="AI44" s="76"/>
+      <c r="AJ44" s="76"/>
+      <c r="AK44" s="76"/>
+      <c r="AL44" s="76"/>
+      <c r="AM44" s="76"/>
+      <c r="AN44" s="76"/>
+      <c r="AO44" s="76"/>
+      <c r="AP44" s="76"/>
+      <c r="AQ44" s="76"/>
+      <c r="AR44" s="76"/>
+      <c r="AS44" s="76"/>
+      <c r="AT44" s="76"/>
+      <c r="AU44" s="76"/>
+      <c r="AV44" s="76"/>
+      <c r="AW44" s="76"/>
+      <c r="AX44" s="76"/>
+      <c r="AY44" s="76"/>
+      <c r="AZ44" s="76"/>
+      <c r="BA44" s="76"/>
+      <c r="BB44" s="76"/>
+      <c r="BC44" s="76"/>
+      <c r="BD44" s="76"/>
+      <c r="BE44" s="76"/>
+      <c r="BF44" s="76"/>
+      <c r="BG44" s="76"/>
+      <c r="BH44" s="76"/>
+      <c r="BI44" s="76"/>
+      <c r="BJ44" s="76"/>
+      <c r="BK44" s="76"/>
+      <c r="BL44" s="76"/>
+      <c r="BM44" s="76"/>
+      <c r="BN44" s="76"/>
+      <c r="BO44" s="76"/>
     </row>
     <row r="45" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="72" t="s">
+      <c r="H45" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="72" t="s">
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L45" s="73"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="72" t="s">
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="O45" s="73"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="72" t="s">
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="R45" s="73"/>
-      <c r="S45" s="73"/>
-      <c r="T45" s="72" t="s">
+      <c r="R45" s="59"/>
+      <c r="S45" s="59"/>
+      <c r="T45" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U45" s="73"/>
-      <c r="V45" s="73"/>
-      <c r="W45" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X45" s="73"/>
-      <c r="Y45" s="73"/>
+      <c r="U45" s="59"/>
+      <c r="V45" s="59"/>
+      <c r="W45" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X45" s="59"/>
+      <c r="Y45" s="59"/>
       <c r="AD45" s="12" t="s">
         <v>23</v>
       </c>
@@ -12877,34 +12997,34 @@
       <c r="AW45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX45" s="58" t="s">
+      <c r="AX45" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AY45" s="59"/>
-      <c r="AZ45" s="60"/>
-      <c r="BA45" s="58" t="s">
+      <c r="AY45" s="70"/>
+      <c r="AZ45" s="71"/>
+      <c r="BA45" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="BB45" s="59"/>
-      <c r="BC45" s="60"/>
-      <c r="BD45" s="58" t="s">
+      <c r="BB45" s="70"/>
+      <c r="BC45" s="71"/>
+      <c r="BD45" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="BE45" s="59"/>
-      <c r="BF45" s="59"/>
-      <c r="BG45" s="59"/>
-      <c r="BH45" s="59"/>
-      <c r="BI45" s="60"/>
-      <c r="BJ45" s="58" t="s">
+      <c r="BE45" s="70"/>
+      <c r="BF45" s="70"/>
+      <c r="BG45" s="70"/>
+      <c r="BH45" s="70"/>
+      <c r="BI45" s="71"/>
+      <c r="BJ45" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK45" s="59"/>
-      <c r="BL45" s="60"/>
-      <c r="BM45" s="58" t="s">
+      <c r="BK45" s="70"/>
+      <c r="BL45" s="71"/>
+      <c r="BM45" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="BN45" s="59"/>
-      <c r="BO45" s="60"/>
+      <c r="BN45" s="70"/>
+      <c r="BO45" s="71"/>
     </row>
     <row r="46" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -14125,116 +14245,116 @@
       </c>
     </row>
     <row r="52" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="57"/>
-      <c r="U52" s="57"/>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
-      <c r="Y52" s="57"/>
-      <c r="Z52" s="57"/>
-      <c r="AA52" s="57"/>
-      <c r="AB52" s="57"/>
-      <c r="AC52" s="57"/>
-      <c r="AD52" s="57"/>
-      <c r="AE52" s="57"/>
-      <c r="AF52" s="57"/>
-      <c r="AG52" s="57"/>
-      <c r="AH52" s="57"/>
-      <c r="AI52" s="57"/>
-      <c r="AJ52" s="57"/>
-      <c r="AK52" s="57"/>
-      <c r="AL52" s="57"/>
-      <c r="AM52" s="57"/>
-      <c r="AN52" s="57"/>
-      <c r="AO52" s="57"/>
-      <c r="AP52" s="57"/>
-      <c r="AQ52" s="57"/>
-      <c r="AR52" s="57"/>
-      <c r="AS52" s="57"/>
-      <c r="AT52" s="57"/>
-      <c r="AU52" s="57"/>
-      <c r="AV52" s="57"/>
-      <c r="AW52" s="57"/>
-      <c r="AX52" s="57"/>
-      <c r="AY52" s="57"/>
-      <c r="AZ52" s="57"/>
-      <c r="BA52" s="57"/>
-      <c r="BB52" s="57"/>
-      <c r="BC52" s="57"/>
-      <c r="BD52" s="57"/>
-      <c r="BE52" s="57"/>
-      <c r="BF52" s="57"/>
-      <c r="BG52" s="57"/>
-      <c r="BH52" s="57"/>
-      <c r="BI52" s="57"/>
-      <c r="BJ52" s="57"/>
-      <c r="BK52" s="57"/>
-      <c r="BL52" s="57"/>
-      <c r="BM52" s="57"/>
-      <c r="BN52" s="57"/>
-      <c r="BO52" s="57"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="76"/>
+      <c r="S52" s="76"/>
+      <c r="T52" s="76"/>
+      <c r="U52" s="76"/>
+      <c r="V52" s="76"/>
+      <c r="W52" s="76"/>
+      <c r="X52" s="76"/>
+      <c r="Y52" s="76"/>
+      <c r="Z52" s="76"/>
+      <c r="AA52" s="76"/>
+      <c r="AB52" s="76"/>
+      <c r="AC52" s="76"/>
+      <c r="AD52" s="76"/>
+      <c r="AE52" s="76"/>
+      <c r="AF52" s="76"/>
+      <c r="AG52" s="76"/>
+      <c r="AH52" s="76"/>
+      <c r="AI52" s="76"/>
+      <c r="AJ52" s="76"/>
+      <c r="AK52" s="76"/>
+      <c r="AL52" s="76"/>
+      <c r="AM52" s="76"/>
+      <c r="AN52" s="76"/>
+      <c r="AO52" s="76"/>
+      <c r="AP52" s="76"/>
+      <c r="AQ52" s="76"/>
+      <c r="AR52" s="76"/>
+      <c r="AS52" s="76"/>
+      <c r="AT52" s="76"/>
+      <c r="AU52" s="76"/>
+      <c r="AV52" s="76"/>
+      <c r="AW52" s="76"/>
+      <c r="AX52" s="76"/>
+      <c r="AY52" s="76"/>
+      <c r="AZ52" s="76"/>
+      <c r="BA52" s="76"/>
+      <c r="BB52" s="76"/>
+      <c r="BC52" s="76"/>
+      <c r="BD52" s="76"/>
+      <c r="BE52" s="76"/>
+      <c r="BF52" s="76"/>
+      <c r="BG52" s="76"/>
+      <c r="BH52" s="76"/>
+      <c r="BI52" s="76"/>
+      <c r="BJ52" s="76"/>
+      <c r="BK52" s="76"/>
+      <c r="BL52" s="76"/>
+      <c r="BM52" s="76"/>
+      <c r="BN52" s="76"/>
+      <c r="BO52" s="76"/>
     </row>
     <row r="53" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="21"/>
-      <c r="D53" s="71" t="s">
+      <c r="D53" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="72" t="s">
+      <c r="H53" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="72" t="s">
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L53" s="73"/>
-      <c r="M53" s="73"/>
-      <c r="N53" s="72" t="s">
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="O53" s="73"/>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="72" t="s">
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="R53" s="73"/>
-      <c r="S53" s="73"/>
-      <c r="T53" s="72" t="s">
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U53" s="73"/>
-      <c r="V53" s="73"/>
-      <c r="W53" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X53" s="73"/>
-      <c r="Y53" s="73"/>
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X53" s="59"/>
+      <c r="Y53" s="59"/>
       <c r="AD53" s="12" t="s">
         <v>23</v>
       </c>
@@ -14292,34 +14412,34 @@
       <c r="AW53" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX53" s="58" t="s">
+      <c r="AX53" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AY53" s="59"/>
-      <c r="AZ53" s="60"/>
-      <c r="BA53" s="58" t="s">
+      <c r="AY53" s="70"/>
+      <c r="AZ53" s="71"/>
+      <c r="BA53" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="BB53" s="59"/>
-      <c r="BC53" s="60"/>
-      <c r="BD53" s="58" t="s">
+      <c r="BB53" s="70"/>
+      <c r="BC53" s="71"/>
+      <c r="BD53" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="BE53" s="59"/>
-      <c r="BF53" s="59"/>
-      <c r="BG53" s="59"/>
-      <c r="BH53" s="59"/>
-      <c r="BI53" s="60"/>
-      <c r="BJ53" s="58" t="s">
+      <c r="BE53" s="70"/>
+      <c r="BF53" s="70"/>
+      <c r="BG53" s="70"/>
+      <c r="BH53" s="70"/>
+      <c r="BI53" s="71"/>
+      <c r="BJ53" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK53" s="59"/>
-      <c r="BL53" s="60"/>
-      <c r="BM53" s="58" t="s">
+      <c r="BK53" s="70"/>
+      <c r="BL53" s="71"/>
+      <c r="BM53" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="BN53" s="59"/>
-      <c r="BO53" s="60"/>
+      <c r="BN53" s="70"/>
+      <c r="BO53" s="71"/>
     </row>
     <row r="54" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B54" s="23">
@@ -14329,30 +14449,46 @@
         <f>AB55</f>
         <v>Canada</v>
       </c>
-      <c r="D54" s="48"/>
+      <c r="D54" s="48">
+        <v>0</v>
+      </c>
       <c r="E54" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F54" s="47"/>
+      <c r="F54" s="47">
+        <v>3</v>
+      </c>
       <c r="G54" s="25" t="str">
         <f>AB56</f>
         <v>Turkey</v>
       </c>
-      <c r="H54" s="28"/>
+      <c r="H54" s="28">
+        <v>21</v>
+      </c>
       <c r="I54" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J54" s="30"/>
-      <c r="K54" s="28"/>
+      <c r="J54" s="30">
+        <v>25</v>
+      </c>
+      <c r="K54" s="28">
+        <v>16</v>
+      </c>
       <c r="L54" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M54" s="30"/>
-      <c r="N54" s="28"/>
+      <c r="M54" s="30">
+        <v>25</v>
+      </c>
+      <c r="N54" s="28">
+        <v>25</v>
+      </c>
       <c r="O54" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P54" s="30"/>
+      <c r="P54" s="30">
+        <v>27</v>
+      </c>
       <c r="Q54" s="28"/>
       <c r="R54" s="29" t="s">
         <v>0</v>
@@ -14365,14 +14501,14 @@
       <c r="V54" s="30"/>
       <c r="W54" s="31">
         <f>SUM(H54,K54,N54,Q54,T54)</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="X54" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y54" s="32">
         <f>SUM(J54,M54,P54,S54,V54)</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AA54" s="12">
         <v>1</v>
@@ -14382,19 +14518,19 @@
       </c>
       <c r="AD54" s="12">
         <f>AG54+AH54</f>
-        <v>0</v>
-      </c>
-      <c r="AE54" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE54" s="12" t="str">
         <f>IF(OR(D54="",F54=""),0,IF(D54&gt;F54,C54,G54))</f>
-        <v>0</v>
+        <v>Turkey</v>
       </c>
       <c r="AF54" s="12">
         <f>IF(OR(D54="",F54=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG54" s="12">
         <f>IF(OR(D54="",F54=""),0,IF(D54&gt;F54,D54,F54))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH54" s="12">
         <f>IF(OR(D54="",F54=""),0,IF(D54&gt;F54,F54,D54))</f>
@@ -14402,7 +14538,7 @@
       </c>
       <c r="AI54" s="12">
         <f>IF(AND(AG54=3,AH54=0),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ54" s="12">
         <f>IF(AND(AG54=3,AH54=1),1,0)</f>
@@ -14414,19 +14550,19 @@
       </c>
       <c r="AL54" s="12">
         <f>IF(D54&gt;F54,SUM(H54,K54,N54,Q54,T54,),SUM(J54,M54,P54,S54,V54))</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AM54" s="12">
         <f>IF(D54&gt;F54,SUM(J54,M54,P54,S54,V54),SUM(H54,K54,N54,Q54,T54))</f>
-        <v>0</v>
-      </c>
-      <c r="AO54" s="12">
+        <v>62</v>
+      </c>
+      <c r="AO54" s="12" t="str">
         <f>IF(OR(D54="",F54=""),0,IF(D54&lt;F54,C54,G54))</f>
-        <v>0</v>
+        <v>Canada</v>
       </c>
       <c r="AP54" s="12">
         <f>IF(OR(D54="",F54=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ54" s="12">
         <f>IF(OR(D54="",F54=""),0,IF(D54&lt;F54,D54,F54))</f>
@@ -14434,7 +14570,7 @@
       </c>
       <c r="AR54" s="12">
         <f>IF(OR(D54="",F54=""),0,IF(D54&lt;F54,F54,D54))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS54" s="12">
         <f>IF(AND(AQ54=2,AR54=3),1,0)</f>
@@ -14446,15 +14582,15 @@
       </c>
       <c r="AU54" s="12">
         <f>IF(AND(AQ54=0,AR54=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV54" s="12">
         <f>IF(D54&lt;F54,SUM(H54,K54,N54,Q54,T54,),SUM(J54,M54,P54,S54,V54))</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="AW54" s="12">
         <f>IF(D54&lt;F54,SUM(J54,M54,P54,S54,V54),SUM(H54,K54,N54,Q54,T54))</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AX54" s="27" t="s">
         <v>24</v>
@@ -14519,30 +14655,46 @@
         <f>AB54</f>
         <v>Japan</v>
       </c>
-      <c r="D55" s="48"/>
+      <c r="D55" s="48">
+        <v>3</v>
+      </c>
       <c r="E55" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F55" s="47"/>
+      <c r="F55" s="47">
+        <v>0</v>
+      </c>
       <c r="G55" s="25" t="str">
         <f>AB57</f>
         <v>Libya</v>
       </c>
-      <c r="H55" s="28"/>
+      <c r="H55" s="28">
+        <v>25</v>
+      </c>
       <c r="I55" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J55" s="30"/>
-      <c r="K55" s="28"/>
+      <c r="J55" s="30">
+        <v>20</v>
+      </c>
+      <c r="K55" s="28">
+        <v>25</v>
+      </c>
       <c r="L55" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M55" s="30"/>
-      <c r="N55" s="28"/>
+      <c r="M55" s="30">
+        <v>17</v>
+      </c>
+      <c r="N55" s="28">
+        <v>25</v>
+      </c>
       <c r="O55" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P55" s="30"/>
+      <c r="P55" s="30">
+        <v>12</v>
+      </c>
       <c r="Q55" s="28"/>
       <c r="R55" s="29" t="s">
         <v>0</v>
@@ -14555,14 +14707,14 @@
       <c r="V55" s="30"/>
       <c r="W55" s="31">
         <f t="shared" ref="W55:W59" si="126">SUM(H55,K55,N55,Q55,T55)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X55" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y55" s="32">
         <f t="shared" ref="Y55:Y59" si="127">SUM(J55,M55,P55,S55,V55)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AA55" s="12">
         <v>2</v>
@@ -14572,19 +14724,19 @@
       </c>
       <c r="AD55" s="12">
         <f t="shared" ref="AD55:AD59" si="128">AG55+AH55</f>
-        <v>0</v>
-      </c>
-      <c r="AE55" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE55" s="12" t="str">
         <f t="shared" ref="AE55:AE59" si="129">IF(OR(D55="",F55=""),0,IF(D55&gt;F55,C55,G55))</f>
-        <v>0</v>
+        <v>Japan</v>
       </c>
       <c r="AF55" s="12">
         <f t="shared" ref="AF55:AF59" si="130">IF(OR(D55="",F55=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG55" s="12">
         <f t="shared" ref="AG55:AG59" si="131">IF(OR(D55="",F55=""),0,IF(D55&gt;F55,D55,F55))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH55" s="12">
         <f t="shared" ref="AH55:AH59" si="132">IF(OR(D55="",F55=""),0,IF(D55&gt;F55,F55,D55))</f>
@@ -14592,7 +14744,7 @@
       </c>
       <c r="AI55" s="12">
         <f t="shared" ref="AI55:AI59" si="133">IF(AND(AG55=3,AH55=0),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ55" s="12">
         <f t="shared" ref="AJ55:AJ59" si="134">IF(AND(AG55=3,AH55=1),1,0)</f>
@@ -14604,19 +14756,19 @@
       </c>
       <c r="AL55" s="12">
         <f t="shared" ref="AL55:AL59" si="136">IF(D55&gt;F55,SUM(H55,K55,N55,Q55,T55,),SUM(J55,M55,P55,S55,V55))</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM55" s="12">
         <f t="shared" ref="AM55:AM59" si="137">IF(D55&gt;F55,SUM(J55,M55,P55,S55,V55),SUM(H55,K55,N55,Q55,T55))</f>
-        <v>0</v>
-      </c>
-      <c r="AO55" s="12">
+        <v>49</v>
+      </c>
+      <c r="AO55" s="12" t="str">
         <f t="shared" ref="AO55:AO59" si="138">IF(OR(D55="",F55=""),0,IF(D55&lt;F55,C55,G55))</f>
-        <v>0</v>
+        <v>Libya</v>
       </c>
       <c r="AP55" s="12">
         <f t="shared" ref="AP55:AP59" si="139">IF(OR(D55="",F55=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ55" s="12">
         <f t="shared" ref="AQ55:AQ59" si="140">IF(OR(D55="",F55=""),0,IF(D55&lt;F55,D55,F55))</f>
@@ -14624,7 +14776,7 @@
       </c>
       <c r="AR55" s="12">
         <f t="shared" ref="AR55:AR59" si="141">IF(OR(D55="",F55=""),0,IF(D55&lt;F55,F55,D55))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS55" s="12">
         <f t="shared" ref="AS55:AS59" si="142">IF(AND(AQ55=2,AR55=3),1,0)</f>
@@ -14636,15 +14788,15 @@
       </c>
       <c r="AU55" s="12">
         <f t="shared" ref="AU55:AU59" si="144">IF(AND(AQ55=0,AR55=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV55" s="12">
         <f t="shared" ref="AV55:AV59" si="145">IF(D55&lt;F55,SUM(H55,K55,N55,Q55,T55,),SUM(J55,M55,P55,S55,V55))</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AW55" s="12">
         <f t="shared" ref="AW55:AW59" si="146">IF(D55&lt;F55,SUM(J55,M55,P55,S55,V55),SUM(H55,K55,N55,Q55,T55))</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX55" s="50">
         <v>1</v>
@@ -14655,15 +14807,15 @@
       </c>
       <c r="AZ55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,3,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,5,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,6,FALSE)</f>
@@ -14671,7 +14823,7 @@
       </c>
       <c r="BD55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,8,FALSE)</f>
@@ -14695,7 +14847,7 @@
       </c>
       <c r="BJ55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,13,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,14,FALSE)</f>
@@ -14703,19 +14855,19 @@
       </c>
       <c r="BL55" s="52">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,15,FALSE)</f>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="BM55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,16,FALSE)</f>
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="BN55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,17,FALSE)</f>
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="BO55" s="52">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,18,FALSE)</f>
-        <v>1291.044776119403</v>
+        <v>1275.5102040816325</v>
       </c>
     </row>
     <row r="56" spans="2:67" x14ac:dyDescent="0.25">
@@ -14886,7 +15038,7 @@
       </c>
       <c r="BA56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,5,FALSE)</f>
@@ -14894,7 +15046,7 @@
       </c>
       <c r="BC56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,7,FALSE)</f>
@@ -14918,7 +15070,7 @@
       </c>
       <c r="BI56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,13,FALSE)</f>
@@ -14926,23 +15078,23 @@
       </c>
       <c r="BK56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,14,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BL56" s="52">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,15,FALSE)</f>
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="BM56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,16,FALSE)</f>
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="BN56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,17,FALSE)</f>
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="BO56" s="52">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,18,FALSE)</f>
-        <v>1181.2080536912752</v>
+        <v>1053.0973451327434</v>
       </c>
     </row>
     <row r="57" spans="2:67" x14ac:dyDescent="0.25">
@@ -15101,19 +15253,19 @@
       </c>
       <c r="AY57" s="51" t="str">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,2,FALSE)</f>
-        <v>Libya</v>
+        <v>Japan</v>
       </c>
       <c r="AZ57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,3,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,6,FALSE)</f>
@@ -15121,7 +15273,7 @@
       </c>
       <c r="BD57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,8,FALSE)</f>
@@ -15137,15 +15289,15 @@
       </c>
       <c r="BH57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,11,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,12,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,13,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,14,FALSE)</f>
@@ -15153,11 +15305,11 @@
       </c>
       <c r="BL57" s="52">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,15,FALSE)</f>
-        <v>333.33333333333331</v>
+        <v>500</v>
       </c>
       <c r="BM57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,16,FALSE)</f>
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="BN57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,17,FALSE)</f>
@@ -15165,7 +15317,7 @@
       </c>
       <c r="BO57" s="52">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,18,FALSE)</f>
-        <v>788.94472361809039</v>
+        <v>1010.0502512562814</v>
       </c>
     </row>
     <row r="58" spans="2:67" x14ac:dyDescent="0.25">
@@ -15322,7 +15474,7 @@
       </c>
       <c r="AY58" s="51" t="str">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,2,FALSE)</f>
-        <v>Japan</v>
+        <v>Libya</v>
       </c>
       <c r="AZ58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,3,FALSE)</f>
@@ -15330,7 +15482,7 @@
       </c>
       <c r="BA58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,5,FALSE)</f>
@@ -15338,7 +15490,7 @@
       </c>
       <c r="BC58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,6,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,7,FALSE)</f>
@@ -15358,35 +15510,35 @@
       </c>
       <c r="BH58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,11,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,12,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,13,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,14,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL58" s="52">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,15,FALSE)</f>
-        <v>0</v>
+        <v>222.2222222222222</v>
       </c>
       <c r="BM58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,16,FALSE)</f>
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="BN58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,17,FALSE)</f>
-        <v>150</v>
+        <v>274</v>
       </c>
       <c r="BO58" s="52">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,18,FALSE)</f>
-        <v>840</v>
+        <v>751.8248175182481</v>
       </c>
     </row>
     <row r="59" spans="2:67" x14ac:dyDescent="0.25">
@@ -15536,120 +15688,120 @@
       </c>
       <c r="BA59" s="26">
         <f>SUM(BA55:BA58)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="57"/>
-      <c r="T60" s="57"/>
-      <c r="U60" s="57"/>
-      <c r="V60" s="57"/>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="57"/>
-      <c r="Z60" s="57"/>
-      <c r="AA60" s="57"/>
-      <c r="AB60" s="57"/>
-      <c r="AC60" s="57"/>
-      <c r="AD60" s="57"/>
-      <c r="AE60" s="57"/>
-      <c r="AF60" s="57"/>
-      <c r="AG60" s="57"/>
-      <c r="AH60" s="57"/>
-      <c r="AI60" s="57"/>
-      <c r="AJ60" s="57"/>
-      <c r="AK60" s="57"/>
-      <c r="AL60" s="57"/>
-      <c r="AM60" s="57"/>
-      <c r="AN60" s="57"/>
-      <c r="AO60" s="57"/>
-      <c r="AP60" s="57"/>
-      <c r="AQ60" s="57"/>
-      <c r="AR60" s="57"/>
-      <c r="AS60" s="57"/>
-      <c r="AT60" s="57"/>
-      <c r="AU60" s="57"/>
-      <c r="AV60" s="57"/>
-      <c r="AW60" s="57"/>
-      <c r="AX60" s="57"/>
-      <c r="AY60" s="57"/>
-      <c r="AZ60" s="57"/>
-      <c r="BA60" s="57"/>
-      <c r="BB60" s="57"/>
-      <c r="BC60" s="57"/>
-      <c r="BD60" s="57"/>
-      <c r="BE60" s="57"/>
-      <c r="BF60" s="57"/>
-      <c r="BG60" s="57"/>
-      <c r="BH60" s="57"/>
-      <c r="BI60" s="57"/>
-      <c r="BJ60" s="57"/>
-      <c r="BK60" s="57"/>
-      <c r="BL60" s="57"/>
-      <c r="BM60" s="57"/>
-      <c r="BN60" s="57"/>
-      <c r="BO60" s="57"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="76"/>
+      <c r="O60" s="76"/>
+      <c r="P60" s="76"/>
+      <c r="Q60" s="76"/>
+      <c r="R60" s="76"/>
+      <c r="S60" s="76"/>
+      <c r="T60" s="76"/>
+      <c r="U60" s="76"/>
+      <c r="V60" s="76"/>
+      <c r="W60" s="76"/>
+      <c r="X60" s="76"/>
+      <c r="Y60" s="76"/>
+      <c r="Z60" s="76"/>
+      <c r="AA60" s="76"/>
+      <c r="AB60" s="76"/>
+      <c r="AC60" s="76"/>
+      <c r="AD60" s="76"/>
+      <c r="AE60" s="76"/>
+      <c r="AF60" s="76"/>
+      <c r="AG60" s="76"/>
+      <c r="AH60" s="76"/>
+      <c r="AI60" s="76"/>
+      <c r="AJ60" s="76"/>
+      <c r="AK60" s="76"/>
+      <c r="AL60" s="76"/>
+      <c r="AM60" s="76"/>
+      <c r="AN60" s="76"/>
+      <c r="AO60" s="76"/>
+      <c r="AP60" s="76"/>
+      <c r="AQ60" s="76"/>
+      <c r="AR60" s="76"/>
+      <c r="AS60" s="76"/>
+      <c r="AT60" s="76"/>
+      <c r="AU60" s="76"/>
+      <c r="AV60" s="76"/>
+      <c r="AW60" s="76"/>
+      <c r="AX60" s="76"/>
+      <c r="AY60" s="76"/>
+      <c r="AZ60" s="76"/>
+      <c r="BA60" s="76"/>
+      <c r="BB60" s="76"/>
+      <c r="BC60" s="76"/>
+      <c r="BD60" s="76"/>
+      <c r="BE60" s="76"/>
+      <c r="BF60" s="76"/>
+      <c r="BG60" s="76"/>
+      <c r="BH60" s="76"/>
+      <c r="BI60" s="76"/>
+      <c r="BJ60" s="76"/>
+      <c r="BK60" s="76"/>
+      <c r="BL60" s="76"/>
+      <c r="BM60" s="76"/>
+      <c r="BN60" s="76"/>
+      <c r="BO60" s="76"/>
     </row>
     <row r="61" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B61" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C61" s="21"/>
-      <c r="D61" s="71" t="s">
+      <c r="D61" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="72" t="s">
+      <c r="H61" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="72" t="s">
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L61" s="73"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="72" t="s">
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="O61" s="73"/>
-      <c r="P61" s="73"/>
-      <c r="Q61" s="72" t="s">
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="R61" s="73"/>
-      <c r="S61" s="73"/>
-      <c r="T61" s="72" t="s">
+      <c r="R61" s="59"/>
+      <c r="S61" s="59"/>
+      <c r="T61" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U61" s="73"/>
-      <c r="V61" s="73"/>
-      <c r="W61" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X61" s="73"/>
-      <c r="Y61" s="73"/>
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
       <c r="AD61" s="12" t="s">
         <v>23</v>
       </c>
@@ -15707,34 +15859,34 @@
       <c r="AW61" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX61" s="58" t="s">
+      <c r="AX61" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AY61" s="59"/>
-      <c r="AZ61" s="60"/>
-      <c r="BA61" s="58" t="s">
+      <c r="AY61" s="70"/>
+      <c r="AZ61" s="71"/>
+      <c r="BA61" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="BB61" s="59"/>
-      <c r="BC61" s="60"/>
-      <c r="BD61" s="58" t="s">
+      <c r="BB61" s="70"/>
+      <c r="BC61" s="71"/>
+      <c r="BD61" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="BE61" s="59"/>
-      <c r="BF61" s="59"/>
-      <c r="BG61" s="59"/>
-      <c r="BH61" s="59"/>
-      <c r="BI61" s="60"/>
-      <c r="BJ61" s="58" t="s">
+      <c r="BE61" s="70"/>
+      <c r="BF61" s="70"/>
+      <c r="BG61" s="70"/>
+      <c r="BH61" s="70"/>
+      <c r="BI61" s="71"/>
+      <c r="BJ61" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK61" s="59"/>
-      <c r="BL61" s="60"/>
-      <c r="BM61" s="58" t="s">
+      <c r="BK61" s="70"/>
+      <c r="BL61" s="71"/>
+      <c r="BM61" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="BN61" s="59"/>
-      <c r="BO61" s="60"/>
+      <c r="BN61" s="70"/>
+      <c r="BO61" s="71"/>
     </row>
     <row r="62" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
@@ -16953,93 +17105,6 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="111">
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="W61:Y61"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BQ37:BR37"/>
-    <mergeCell ref="BQ38:BR38"/>
-    <mergeCell ref="BQ39:BR39"/>
-    <mergeCell ref="BQ40:BR40"/>
-    <mergeCell ref="BQ41:BR41"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="BA29:BC29"/>
-    <mergeCell ref="BD29:BI29"/>
-    <mergeCell ref="BJ29:BL29"/>
-    <mergeCell ref="BM29:BO29"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="BA37:BC37"/>
-    <mergeCell ref="BD37:BI37"/>
-    <mergeCell ref="BJ37:BL37"/>
-    <mergeCell ref="BM37:BO37"/>
-    <mergeCell ref="BJ21:BL21"/>
-    <mergeCell ref="BM21:BO21"/>
-    <mergeCell ref="AX61:AZ61"/>
-    <mergeCell ref="BA61:BC61"/>
-    <mergeCell ref="BD61:BI61"/>
-    <mergeCell ref="BJ61:BL61"/>
-    <mergeCell ref="BM61:BO61"/>
-    <mergeCell ref="AX45:AZ45"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BO5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA13:BC13"/>
-    <mergeCell ref="BD13:BI13"/>
     <mergeCell ref="B2:BO2"/>
     <mergeCell ref="B4:BO4"/>
     <mergeCell ref="B12:BO12"/>
@@ -17064,6 +17129,93 @@
     <mergeCell ref="AX21:AZ21"/>
     <mergeCell ref="BA21:BC21"/>
     <mergeCell ref="BD21:BI21"/>
+    <mergeCell ref="BJ21:BL21"/>
+    <mergeCell ref="BM21:BO21"/>
+    <mergeCell ref="AX61:AZ61"/>
+    <mergeCell ref="BA61:BC61"/>
+    <mergeCell ref="BD61:BI61"/>
+    <mergeCell ref="BJ61:BL61"/>
+    <mergeCell ref="BM61:BO61"/>
+    <mergeCell ref="AX45:AZ45"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BO5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA13:BC13"/>
+    <mergeCell ref="BD13:BI13"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BQ37:BR37"/>
+    <mergeCell ref="BQ38:BR38"/>
+    <mergeCell ref="BQ39:BR39"/>
+    <mergeCell ref="BQ40:BR40"/>
+    <mergeCell ref="BQ41:BR41"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="BA29:BC29"/>
+    <mergeCell ref="BD29:BI29"/>
+    <mergeCell ref="BJ29:BL29"/>
+    <mergeCell ref="BM29:BO29"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="BA37:BC37"/>
+    <mergeCell ref="BD37:BI37"/>
+    <mergeCell ref="BJ37:BL37"/>
+    <mergeCell ref="BM37:BO37"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <conditionalFormatting sqref="T6:V11 T22:V27 T54:V59">
     <cfRule type="expression" dxfId="95" priority="464">
@@ -17471,55 +17623,55 @@
       <c r="Y1" s="18"/>
     </row>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
       <c r="AW2" s="46"/>
       <c r="AX2" s="46"/>
       <c r="AY2" s="46"/>
@@ -17573,42 +17725,42 @@
         <v>54</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="75" t="s">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75" t="s">
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75" t="s">
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
       <c r="AA5" s="12" t="s">
         <v>23</v>
       </c>
@@ -17934,7 +18086,7 @@
       </c>
       <c r="C8" s="24" t="str">
         <f>IF(Preliminary!BA15&lt;3,"Winner of Pool B",Preliminary!AY15)</f>
-        <v>Winner of Pool B</v>
+        <v>Poland</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="49" t="s">
@@ -17943,7 +18095,7 @@
       <c r="F8" s="47"/>
       <c r="G8" s="25" t="str">
         <f>IF(Preliminary!BA56&lt;3,"Runners-up of Pool G",Preliminary!AY56)</f>
-        <v>Runners-up of Pool G</v>
+        <v>Canada</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="29" t="s">
@@ -18064,7 +18216,7 @@
       </c>
       <c r="C9" s="24" t="str">
         <f>IF(Preliminary!BA55&lt;3,"Winner of Pool G",Preliminary!AY55)</f>
-        <v>Winner of Pool G</v>
+        <v>Turkey</v>
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="49" t="s">
@@ -18073,7 +18225,7 @@
       <c r="F9" s="47"/>
       <c r="G9" s="25" t="str">
         <f>IF(Preliminary!BA16&lt;3,"Runners-up of Pool B",Preliminary!AY16)</f>
-        <v>Runners-up of Pool B</v>
+        <v>Netherlands</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="29" t="s">
@@ -18470,7 +18622,7 @@
       </c>
       <c r="C12" s="24" t="str">
         <f>IF(Preliminary!BA31&lt;3,"Winner of Pool D",Preliminary!AY31)</f>
-        <v>Winner of Pool D</v>
+        <v>United States</v>
       </c>
       <c r="D12" s="48"/>
       <c r="E12" s="49" t="s">
@@ -18478,8 +18630,8 @@
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="25" t="str">
-        <f>IF(Preliminary!BB40&lt;3,"Runners-up of Pool E",Preliminary!AY40)</f>
-        <v>Runners-up of Pool E</v>
+        <f>IF(Preliminary!BA40&lt;3,"Runners-up of Pool E",Preliminary!AY40)</f>
+        <v>Slovenia</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="29" t="s">
@@ -18616,7 +18768,7 @@
       </c>
       <c r="C13" s="24" t="str">
         <f>IF(Preliminary!BA39&lt;3,"Winner of Pool E",Preliminary!AY39)</f>
-        <v>Winner of Pool E</v>
+        <v>Bulgaria</v>
       </c>
       <c r="D13" s="48"/>
       <c r="E13" s="49" t="s">
@@ -18625,7 +18777,7 @@
       <c r="F13" s="47"/>
       <c r="G13" s="25" t="str">
         <f>IF(Preliminary!BA32&lt;3,"Runners-up of Pool D",Preliminary!AY32)</f>
-        <v>Runners-up of Pool D</v>
+        <v>Portugal</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="29" t="s">
@@ -18801,52 +18953,52 @@
       <c r="W15" s="77"/>
       <c r="X15" s="77"/>
       <c r="Y15" s="77"/>
-      <c r="AU15" s="64" t="s">
+      <c r="AU15" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="AV15" s="64"/>
+      <c r="AV15" s="62"/>
     </row>
     <row r="16" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="75" t="s">
+      <c r="H16" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="75" t="s">
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="75" t="s">
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="75" t="s">
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="75" t="s">
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
       <c r="AA16" s="12" t="s">
         <v>23</v>
       </c>
@@ -18904,10 +19056,10 @@
       <c r="AT16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AU16" s="65" t="s">
+      <c r="AU16" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="AV16" s="66"/>
+      <c r="AV16" s="64"/>
     </row>
     <row r="17" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23">
@@ -19038,10 +19190,10 @@
         <f>IF(D17&lt;F17,SUM(J17,M17,P17,S17,V17),SUM(H17,K17,N17,Q17,T17))</f>
         <v>0</v>
       </c>
-      <c r="AU17" s="67" t="s">
+      <c r="AU17" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AV17" s="68"/>
+      <c r="AV17" s="66"/>
     </row>
     <row r="18" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23">
@@ -19172,10 +19324,10 @@
         <f t="shared" ref="AT18:AT20" si="39">IF(D18&lt;F18,SUM(J18,M18,P18,S18,V18),SUM(H18,K18,N18,Q18,T18))</f>
         <v>0</v>
       </c>
-      <c r="AU18" s="67" t="s">
+      <c r="AU18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="AV18" s="68"/>
+      <c r="AV18" s="66"/>
     </row>
     <row r="19" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23">
@@ -19306,10 +19458,10 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AU19" s="67" t="s">
+      <c r="AU19" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="AV19" s="68"/>
+      <c r="AV19" s="66"/>
     </row>
     <row r="20" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23">
@@ -19440,10 +19592,10 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AU20" s="69" t="s">
+      <c r="AU20" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="AV20" s="70"/>
+      <c r="AV20" s="68"/>
     </row>
     <row r="21" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19479,42 +19631,42 @@
         <v>54</v>
       </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="75" t="s">
+      <c r="H23" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75" t="s">
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="75" t="s">
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="75" t="s">
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="75" t="s">
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
       <c r="AA23" s="12" t="s">
         <v>23</v>
       </c>
@@ -19886,42 +20038,42 @@
         <v>54</v>
       </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="75" t="s">
+      <c r="H29" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="75" t="s">
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="75" t="s">
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="75" t="s">
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="75" t="s">
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="74"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
       <c r="AA29" s="12" t="s">
         <v>23</v>
       </c>
@@ -20183,42 +20335,42 @@
         <v>54</v>
       </c>
       <c r="C34" s="35"/>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="75" t="s">
+      <c r="H34" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75" t="s">
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75" t="s">
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75" t="s">
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="74"/>
-      <c r="S34" s="74"/>
-      <c r="T34" s="75" t="s">
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="U34" s="74"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X34" s="74"/>
-      <c r="Y34" s="74"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
       <c r="AA34" s="12" t="s">
         <v>23</v>
       </c>
@@ -20536,6 +20688,38 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="48">
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="B33:Y33"/>
+    <mergeCell ref="AU15:AV15"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="AU16:AV16"/>
+    <mergeCell ref="AU17:AV17"/>
     <mergeCell ref="B2:AV2"/>
     <mergeCell ref="T16:V16"/>
     <mergeCell ref="W16:Y16"/>
@@ -20552,38 +20736,6 @@
     <mergeCell ref="AU18:AV18"/>
     <mergeCell ref="AU19:AV19"/>
     <mergeCell ref="AU20:AV20"/>
-    <mergeCell ref="B33:Y33"/>
-    <mergeCell ref="AU15:AV15"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="AU16:AV16"/>
-    <mergeCell ref="AU17:AV17"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
   </mergeCells>
   <conditionalFormatting sqref="BM18:XFD18 BM22:XFD23 BM20:XFD20 A18:A20 Z18:Z20 A41:A1048576 B53:Y1048576 B38:Y47 B37 D37:Y37 Z41:AT1048576 BM41:XFD1048576 A3:XFD3 BM6:XFD15 A4:A15 Z22:AT22 AA5:AT13 Z26:AT28 Z23:Z25 Z29:Z30 B36:AT36 Z34:Z35 BM25:XFD36 A22:A36 Z31:AT33 Z5:XFD5 B14:AT15 B21:Y22 B28:Y28 B33:Y33 Z6:Z13 AW24:BL1048576 AU21:AV1048576 B4:XFD4">
     <cfRule type="cellIs" dxfId="31" priority="79" operator="equal">
@@ -20758,23 +20910,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DBF2846C41E31A469E3CED25F2422E48" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0c08e4af4d80db6585ac36ba965bb3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2c8c20e6-817c-474f-b9c2-eb2b1ac24837" xmlns:ns4="dc8c2798-6aba-4af7-93a4-b89253b03650" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e7db2db65f9cb533b4933096bc9b657" ns3:_="" ns4:_="">
     <xsd:import namespace="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
@@ -21007,32 +21142,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
-    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1A4F3B6-8EF3-43FC-AA6E-56F4B11E76F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21049,4 +21176,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/2025 FIVB Men's Volleyball World Championship.xlsx
+++ b/2025 FIVB Men's Volleyball World Championship.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A9E86A1-23A4-461C-916E-3E874DCD86AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D05B025F-9BA3-4D6C-A32B-EA86B4708C85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="CC01" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1" xr2:uid="{701403F6-3112-456D-B33A-FC5595D41656}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="2" xr2:uid="{701403F6-3112-456D-B33A-FC5595D41656}"/>
   </bookViews>
   <sheets>
     <sheet name="Dummy" sheetId="2" state="hidden" r:id="rId1"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="B3" s="1">
         <f>RANK(F3,$F$3:$F$6)+SUM(T3:W3)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="str">
         <f>Preliminary!AB6</f>
@@ -2414,11 +2414,11 @@
       </c>
       <c r="D3" s="1">
         <f>SUM(H3*3,I3*3,J3*2,K3)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
         <f>F3+G3</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C3)</f>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="G3" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C3,Preliminary!AI:AI)</f>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="K3" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C3,Preliminary!AS:AS)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C3,Preliminary!AT:AT)</f>
@@ -2454,27 +2454,27 @@
       </c>
       <c r="N3" s="1">
         <f>SUMIF(Preliminary!AE:AE,C3,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C3,Preliminary!AQ:AQ)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O3" s="1">
         <f>SUMIF(Preliminary!AE:AE,C3,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C3,Preliminary!AR:AR)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P3" s="4">
         <f>IFERROR((N3/O3)*1000,"MAX")</f>
-        <v>750</v>
+        <v>714.28571428571433</v>
       </c>
       <c r="Q3" s="1">
         <f>SUMIF(Preliminary!AE:AE,C3,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C3,Preliminary!AV:AV)</f>
-        <v>155</v>
+        <v>269</v>
       </c>
       <c r="R3" s="1">
         <f>SUMIF(Preliminary!AE:AE,C3,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C3,Preliminary!AW:AW)</f>
-        <v>169</v>
+        <v>279</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" ref="S3:S20" si="0">IFERROR((Q3/R3)*1000,"MAX")</f>
-        <v>917.15976331360946</v>
+        <v>964.15770609318997</v>
       </c>
       <c r="T3" s="1">
         <f>SUMPRODUCT(($F$3:$F$6=F3)*($D$3:$D$6&gt;D3))</f>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="U3" s="1">
         <f>SUMPRODUCT(($F$3:$F$6=F3)*($D$3:$D$6=D3)*($P$3:$P$6&gt;P3))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V3" s="1">
         <f>SUMPRODUCT(($F$3:$F$6=F3)*($D$3:$D$6=D3)*($P$3:$P$6=P3)*($S$3:$S$6&gt;S3))</f>
@@ -2508,15 +2508,15 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D20" si="1">SUM(H4*3,I4*3,J4*2,K4)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E20" si="2">F4+G4</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C4)</f>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="J4" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C4,Preliminary!AK:AK)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C4,Preliminary!AS:AS)</f>
@@ -2548,35 +2548,35 @@
       </c>
       <c r="N4" s="1">
         <f>SUMIF(Preliminary!AE:AE,C4,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C4,Preliminary!AQ:AQ)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O4" s="1">
         <f>SUMIF(Preliminary!AE:AE,C4,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C4,Preliminary!AR:AR)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" ref="P4:P20" si="3">IFERROR((N4/O4)*1000,"MAX")</f>
-        <v>1000</v>
+        <v>1166.6666666666667</v>
       </c>
       <c r="Q4" s="1">
         <f>SUMIF(Preliminary!AE:AE,C4,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C4,Preliminary!AV:AV)</f>
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="R4" s="1">
         <f>SUMIF(Preliminary!AE:AE,C4,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C4,Preliminary!AW:AW)</f>
-        <v>175</v>
+        <v>289</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="0"/>
-        <v>1045.7142857142858</v>
+        <v>1013.840830449827</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" ref="T4:T6" si="4">SUMPRODUCT(($F$3:$F$6=F4)*($D$3:$D$6&gt;D4))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" ref="U4:U6" si="5">SUMPRODUCT(($F$3:$F$6=F4)*($D$3:$D$6=D4)*($P$3:$P$6&gt;P4))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
         <f t="shared" ref="V4:V6" si="6">SUMPRODUCT(($F$3:$F$6=F4)*($D$3:$D$6=D4)*($P$3:$P$6=P4)*($S$3:$S$6&gt;S4))</f>
@@ -2594,7 +2594,7 @@
       <c r="A5" s="55"/>
       <c r="B5" s="1">
         <f>RANK(F5,$F$3:$F$6)+SUM(T5:W5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="str">
         <f>Preliminary!AB8</f>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C5)</f>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="G5" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C5,Preliminary!AI:AI)</f>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="M5" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C5,Preliminary!AU:AU)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1">
         <f>SUMIF(Preliminary!AE:AE,C5,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C5,Preliminary!AQ:AQ)</f>
@@ -2646,35 +2646,35 @@
       </c>
       <c r="O5" s="1">
         <f>SUMIF(Preliminary!AE:AE,C5,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C5,Preliminary!AR:AR)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="Q5" s="1">
         <f>SUMIF(Preliminary!AE:AE,C5,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C5,Preliminary!AV:AV)</f>
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="R5" s="1">
         <f>SUMIF(Preliminary!AE:AE,C5,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C5,Preliminary!AW:AW)</f>
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="0"/>
-        <v>989.30481283422455</v>
+        <v>931.29770992366412</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="7"/>
@@ -2696,15 +2696,15 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C6)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C6)</f>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="H6" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C6,Preliminary!AI:AI)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C6,Preliminary!AJ:AJ)</f>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="N6" s="1">
         <f>SUMIF(Preliminary!AE:AE,C6,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C6,Preliminary!AQ:AQ)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O6" s="1">
         <f>SUMIF(Preliminary!AE:AE,C6,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C6,Preliminary!AR:AR)</f>
@@ -2744,19 +2744,19 @@
       </c>
       <c r="P6" s="4">
         <f t="shared" si="3"/>
-        <v>1333.3333333333333</v>
+        <v>2333.3333333333335</v>
       </c>
       <c r="Q6" s="1">
         <f>SUMIF(Preliminary!AE:AE,C6,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C6,Preliminary!AV:AV)</f>
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="R6" s="1">
         <f>SUMIF(Preliminary!AE:AE,C6,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C6,Preliminary!AW:AW)</f>
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="0"/>
-        <v>1052.9801324503312</v>
+        <v>1114.2857142857142</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="4"/>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B11" s="1">
         <f>RANK(F11,$F$11:$F$14)+SUM(T11:W11)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="str">
         <f>Preliminary!AB22</f>
@@ -3170,11 +3170,11 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C11)</f>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="G11" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C11,Preliminary!AI:AI)</f>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="K11" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C11,Preliminary!AS:AS)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C11,Preliminary!AT:AT)</f>
@@ -3210,27 +3210,27 @@
       </c>
       <c r="N11" s="1">
         <f>SUMIF(Preliminary!AE:AE,C11,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C11,Preliminary!AQ:AQ)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O11" s="1">
         <f>SUMIF(Preliminary!AE:AE,C11,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C11,Preliminary!AR:AR)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="3"/>
-        <v>1666.6666666666667</v>
+        <v>1166.6666666666667</v>
       </c>
       <c r="Q11" s="1">
         <f>SUMIF(Preliminary!AE:AE,C11,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C11,Preliminary!AV:AV)</f>
-        <v>180</v>
+        <v>291</v>
       </c>
       <c r="R11" s="1">
         <f>SUMIF(Preliminary!AE:AE,C11,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C11,Preliminary!AW:AW)</f>
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="S11" s="4">
         <f t="shared" si="0"/>
-        <v>1176.4705882352941</v>
+        <v>1110.6870229007632</v>
       </c>
       <c r="T11" s="1">
         <f>SUMPRODUCT(($F$11:$F$14=F11)*($D$11:$D$14&gt;D11))</f>
@@ -3264,15 +3264,15 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C12)</f>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="J12" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C12,Preliminary!AK:AK)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C12,Preliminary!AS:AS)</f>
@@ -3304,27 +3304,27 @@
       </c>
       <c r="N12" s="1">
         <f>SUMIF(Preliminary!AE:AE,C12,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C12,Preliminary!AQ:AQ)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O12" s="1">
         <f>SUMIF(Preliminary!AE:AE,C12,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C12,Preliminary!AR:AR)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="Q12" s="1">
         <f>SUMIF(Preliminary!AE:AE,C12,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C12,Preliminary!AV:AV)</f>
-        <v>200</v>
+        <v>309</v>
       </c>
       <c r="R12" s="1">
         <f>SUMIF(Preliminary!AE:AE,C12,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C12,Preliminary!AW:AW)</f>
-        <v>191</v>
+        <v>302</v>
       </c>
       <c r="S12" s="4">
         <f t="shared" si="0"/>
-        <v>1047.1204188481674</v>
+        <v>1023.1788079470199</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" ref="T12:T14" si="14">SUMPRODUCT(($F$11:$F$14=F12)*($D$11:$D$14&gt;D12))</f>
@@ -3350,7 +3350,7 @@
       <c r="A13" s="55"/>
       <c r="B13" s="1">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="str">
         <f>Preliminary!AB24</f>
@@ -3358,15 +3358,15 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C13)</f>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="I13" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C13,Preliminary!AJ:AJ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C13,Preliminary!AK:AK)</f>
@@ -3398,31 +3398,31 @@
       </c>
       <c r="N13" s="1">
         <f>SUMIF(Preliminary!AE:AE,C13,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C13,Preliminary!AQ:AQ)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O13" s="1">
         <f>SUMIF(Preliminary!AE:AE,C13,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C13,Preliminary!AR:AR)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="Q13" s="1">
         <f>SUMIF(Preliminary!AE:AE,C13,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C13,Preliminary!AV:AV)</f>
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="R13" s="1">
         <f>SUMIF(Preliminary!AE:AE,C13,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C13,Preliminary!AW:AW)</f>
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="S13" s="4">
         <f t="shared" si="0"/>
-        <v>1024.1545893719808</v>
+        <v>1034.0136054421769</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="15"/>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C14)</f>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="G14" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C14)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C14,Preliminary!AI:AI)</f>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="L14" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C14,Preliminary!AT:AT)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C14,Preliminary!AU:AU)</f>
@@ -3492,27 +3492,27 @@
       </c>
       <c r="N14" s="1">
         <f>SUMIF(Preliminary!AE:AE,C14,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C14,Preliminary!AQ:AQ)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" s="1">
         <f>SUMIF(Preliminary!AE:AE,C14,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C14,Preliminary!AR:AR)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="3"/>
-        <v>166.66666666666666</v>
+        <v>222.2222222222222</v>
       </c>
       <c r="Q14" s="1">
         <f>SUMIF(Preliminary!AE:AE,C14,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C14,Preliminary!AV:AV)</f>
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="R14" s="1">
         <f>SUMIF(Preliminary!AE:AE,C14,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C14,Preliminary!AW:AW)</f>
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="S14" s="4">
         <f t="shared" si="0"/>
-        <v>763.00578034682076</v>
+        <v>826.41509433962267</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="14"/>
@@ -4304,15 +4304,15 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C23)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C23)</f>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C23,Preliminary!AI:AI)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C23,Preliminary!AJ:AJ)</f>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="N23" s="1">
         <f>SUMIF(Preliminary!AE:AE,C23,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C23,Preliminary!AQ:AQ)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O23" s="1">
         <f>SUMIF(Preliminary!AE:AE,C23,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C23,Preliminary!AR:AR)</f>
@@ -4352,19 +4352,19 @@
       </c>
       <c r="P23" s="4">
         <f t="shared" si="26"/>
-        <v>1666.6666666666667</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="Q23" s="1">
         <f>SUMIF(Preliminary!AE:AE,C23,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C23,Preliminary!AV:AV)</f>
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="R23" s="1">
         <f>SUMIF(Preliminary!AE:AE,C23,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C23,Preliminary!AW:AW)</f>
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" si="27"/>
-        <v>1131.25</v>
+        <v>1158.3710407239821</v>
       </c>
       <c r="T23" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F23)*($D$23:$D$26&gt;D23))</f>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C24)</f>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="G24" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C24)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C24,Preliminary!AI:AI)</f>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="M24" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C24,Preliminary!AU:AU)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" s="1">
         <f>SUMIF(Preliminary!AE:AE,C24,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C24,Preliminary!AQ:AQ)</f>
@@ -4442,27 +4442,27 @@
       </c>
       <c r="O24" s="1">
         <f>SUMIF(Preliminary!AE:AE,C24,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C24,Preliminary!AR:AR)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="26"/>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q24" s="1">
         <f>SUMIF(Preliminary!AE:AE,C24,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C24,Preliminary!AV:AV)</f>
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="R24" s="1">
         <f>SUMIF(Preliminary!AE:AE,C24,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C24,Preliminary!AW:AW)</f>
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="27"/>
-        <v>1130.4347826086955</v>
+        <v>1005.2631578947369</v>
       </c>
       <c r="T24" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F24)*($D$23:$D$26&gt;D24))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F24)*($D$23:$D$26=D24)*($P$23:$P$26&gt;P24))</f>
@@ -4492,15 +4492,15 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C25)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C25)</f>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C25,Preliminary!AI:AI)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C25,Preliminary!AJ:AJ)</f>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="N25" s="1">
         <f>SUMIF(Preliminary!AE:AE,C25,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C25,Preliminary!AQ:AQ)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O25" s="1">
         <f>SUMIF(Preliminary!AE:AE,C25,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C25,Preliminary!AR:AR)</f>
@@ -4540,19 +4540,19 @@
       </c>
       <c r="P25" s="4">
         <f t="shared" si="26"/>
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="Q25" s="1">
         <f>SUMIF(Preliminary!AE:AE,C25,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C25,Preliminary!AV:AV)</f>
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="R25" s="1">
         <f>SUMIF(Preliminary!AE:AE,C25,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C25,Preliminary!AW:AW)</f>
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="27"/>
-        <v>1136.6459627329193</v>
+        <v>1200</v>
       </c>
       <c r="T25" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F25)*($D$23:$D$26&gt;D25))</f>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C26)</f>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="G26" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C26)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C26,Preliminary!AI:AI)</f>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="M26" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C26,Preliminary!AU:AU)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26" s="1">
         <f>SUMIF(Preliminary!AE:AE,C26,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C26,Preliminary!AQ:AQ)</f>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="O26" s="1">
         <f>SUMIF(Preliminary!AE:AE,C26,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C26,Preliminary!AR:AR)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="26"/>
@@ -4638,15 +4638,15 @@
       </c>
       <c r="Q26" s="1">
         <f>SUMIF(Preliminary!AE:AE,C26,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C26,Preliminary!AV:AV)</f>
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="R26" s="1">
         <f>SUMIF(Preliminary!AE:AE,C26,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C26,Preliminary!AW:AW)</f>
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="27"/>
-        <v>613.33333333333326</v>
+        <v>648.8888888888888</v>
       </c>
       <c r="T26" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F26)*($D$23:$D$26&gt;D26))</f>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="B31" s="1">
         <f>RANK(F31,$F$31:$F$34)+SUM(T31:W31)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="str">
         <f>Preliminary!AB62</f>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C31)</f>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="G31" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C31,Preliminary!AI:AI)</f>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="M31" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C31,Preliminary!AU:AU)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="1">
         <f>SUMIF(Preliminary!AE:AE,C31,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C31,Preliminary!AQ:AQ)</f>
@@ -5104,23 +5104,23 @@
       </c>
       <c r="O31" s="1">
         <f>SUMIF(Preliminary!AE:AE,C31,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C31,Preliminary!AR:AR)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="26"/>
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="Q31" s="1">
         <f>SUMIF(Preliminary!AE:AE,C31,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C31,Preliminary!AV:AV)</f>
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="R31" s="1">
         <f>SUMIF(Preliminary!AE:AE,C31,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C31,Preliminary!AW:AW)</f>
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="S31" s="4">
         <f t="shared" si="27"/>
-        <v>1190.1408450704225</v>
+        <v>1073.7327188940092</v>
       </c>
       <c r="T31" s="1">
         <f>SUMPRODUCT(($F$31:$F$34=F31)*($D$31:$D$34&gt;D31))</f>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="U31" s="1">
         <f>SUMPRODUCT(($F$31:$F$34=F31)*($D$31:$D$34=D31)*($P$31:$P$34&gt;P31))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V31" s="1">
         <f>SUMPRODUCT(($F$31:$F$34=F31)*($D$31:$D$34=D31)*($P$31:$P$34=P31)*($S$31:$S$34&gt;S31))</f>
@@ -5146,7 +5146,7 @@
       <c r="A32" s="55"/>
       <c r="B32" s="1">
         <f t="shared" ref="B32:B34" si="34">RANK(F32,$F$31:$F$34)+SUM(T32:W32)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="str">
         <f>Preliminary!AB63</f>
@@ -5154,15 +5154,15 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C32)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C32)</f>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C32,Preliminary!AI:AI)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C32,Preliminary!AJ:AJ)</f>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="N32" s="1">
         <f>SUMIF(Preliminary!AE:AE,C32,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C32,Preliminary!AQ:AQ)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O32" s="1">
         <f>SUMIF(Preliminary!AE:AE,C32,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C32,Preliminary!AR:AR)</f>
@@ -5202,19 +5202,19 @@
       </c>
       <c r="P32" s="4">
         <f t="shared" si="26"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q32" s="1">
         <f>SUMIF(Preliminary!AE:AE,C32,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C32,Preliminary!AV:AV)</f>
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="R32" s="1">
         <f>SUMIF(Preliminary!AE:AE,C32,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C32,Preliminary!AW:AW)</f>
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="S32" s="4">
         <f t="shared" si="27"/>
-        <v>1035.9712230215828</v>
+        <v>1078.8177339901476</v>
       </c>
       <c r="T32" s="1">
         <f t="shared" ref="T32:T34" si="35">SUMPRODUCT(($F$31:$F$34=F32)*($D$31:$D$34&gt;D32))</f>
@@ -5240,7 +5240,7 @@
       <c r="A33" s="55"/>
       <c r="B33" s="1">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="str">
         <f>Preliminary!AB64</f>
@@ -5248,15 +5248,15 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C33)</f>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="H33" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C33,Preliminary!AI:AI)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C33,Preliminary!AJ:AJ)</f>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="N33" s="1">
         <f>SUMIF(Preliminary!AE:AE,C33,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C33,Preliminary!AQ:AQ)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O33" s="1">
         <f>SUMIF(Preliminary!AE:AE,C33,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C33,Preliminary!AR:AR)</f>
@@ -5296,19 +5296,19 @@
       </c>
       <c r="P33" s="4">
         <f t="shared" si="26"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q33" s="1">
         <f>SUMIF(Preliminary!AE:AE,C33,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C33,Preliminary!AV:AV)</f>
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="R33" s="1">
         <f>SUMIF(Preliminary!AE:AE,C33,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C33,Preliminary!AW:AW)</f>
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="S33" s="4">
         <f t="shared" si="27"/>
-        <v>900</v>
+        <v>1004.9751243781095</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" si="35"/>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C34)</f>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="G34" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C34)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C34,Preliminary!AI:AI)</f>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="M34" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C34,Preliminary!AU:AU)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N34" s="1">
         <f>SUMIF(Preliminary!AE:AE,C34,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C34,Preliminary!AQ:AQ)</f>
@@ -5386,23 +5386,23 @@
       </c>
       <c r="O34" s="1">
         <f>SUMIF(Preliminary!AE:AE,C34,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C34,Preliminary!AR:AR)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P34" s="4">
         <f t="shared" si="26"/>
-        <v>166.66666666666666</v>
+        <v>111.1111111111111</v>
       </c>
       <c r="Q34" s="1">
         <f>SUMIF(Preliminary!AE:AE,C34,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C34,Preliminary!AV:AV)</f>
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="R34" s="1">
         <f>SUMIF(Preliminary!AE:AE,C34,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C34,Preliminary!AW:AW)</f>
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="S34" s="4">
         <f t="shared" si="27"/>
-        <v>895.95375722543361</v>
+        <v>867.46987951807228</v>
       </c>
       <c r="T34" s="1">
         <f t="shared" si="35"/>
@@ -5448,8 +5448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842A5577-D33C-4D22-A376-2229D9D229A5}">
   <dimension ref="B2:BR67"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6169,15 +6169,15 @@
       </c>
       <c r="AZ7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,3,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,6,FALSE)</f>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="BD7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,8,FALSE)</f>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="BJ7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,13,FALSE)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BK7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,14,FALSE)</f>
@@ -6217,19 +6217,19 @@
       </c>
       <c r="BL7" s="52">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,15,FALSE)</f>
-        <v>1333.3333333333333</v>
+        <v>2333.3333333333335</v>
       </c>
       <c r="BM7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,16,FALSE)</f>
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="BN7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,17,FALSE)</f>
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="BO7" s="52">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,18,FALSE)</f>
-        <v>1052.9801324503312</v>
+        <v>1114.2857142857142</v>
       </c>
     </row>
     <row r="8" spans="2:67" x14ac:dyDescent="0.25">
@@ -6396,15 +6396,15 @@
       </c>
       <c r="AZ8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,3,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,6,FALSE)</f>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="BF8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,10,FALSE)</f>
@@ -6436,27 +6436,27 @@
       </c>
       <c r="BJ8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,13,FALSE)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BK8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,14,FALSE)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BL8" s="52">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,15,FALSE)</f>
-        <v>1000</v>
+        <v>1166.6666666666667</v>
       </c>
       <c r="BM8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,16,FALSE)</f>
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="BN8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,17,FALSE)</f>
-        <v>175</v>
+        <v>289</v>
       </c>
       <c r="BO8" s="52">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,18,FALSE)</f>
-        <v>1045.7142857142858</v>
+        <v>1013.840830449827</v>
       </c>
     </row>
     <row r="9" spans="2:67" x14ac:dyDescent="0.25">
@@ -6619,15 +6619,15 @@
       </c>
       <c r="AY9" s="51" t="str">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,2,FALSE)</f>
-        <v>Egypt</v>
+        <v>Philippines</v>
       </c>
       <c r="AZ9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,3,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,5,FALSE)</f>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="BC9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,6,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,7,FALSE)</f>
@@ -6651,39 +6651,39 @@
       </c>
       <c r="BG9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,11,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,13,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,14,FALSE)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BL9" s="52">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,15,FALSE)</f>
-        <v>1000</v>
+        <v>714.28571428571433</v>
       </c>
       <c r="BM9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,16,FALSE)</f>
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="BN9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,17,FALSE)</f>
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="BO9" s="52">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,18,FALSE)</f>
-        <v>989.30481283422455</v>
+        <v>964.15770609318997</v>
       </c>
     </row>
     <row r="10" spans="2:67" x14ac:dyDescent="0.25">
@@ -6694,30 +6694,46 @@
         <f>AB8</f>
         <v>Egypt</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="48">
+        <v>0</v>
+      </c>
       <c r="E10" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="47">
+        <v>3</v>
+      </c>
       <c r="G10" s="25" t="str">
         <f>AB9</f>
         <v>Tunisia</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="28">
+        <v>19</v>
+      </c>
       <c r="I10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="28"/>
+      <c r="J10" s="30">
+        <v>25</v>
+      </c>
+      <c r="K10" s="28">
+        <v>18</v>
+      </c>
       <c r="L10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="28"/>
+      <c r="M10" s="30">
+        <v>25</v>
+      </c>
+      <c r="N10" s="28">
+        <v>22</v>
+      </c>
       <c r="O10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P10" s="30"/>
+      <c r="P10" s="30">
+        <v>25</v>
+      </c>
       <c r="Q10" s="28"/>
       <c r="R10" s="29" t="s">
         <v>0</v>
@@ -6730,30 +6746,30 @@
       <c r="V10" s="30"/>
       <c r="W10" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="X10" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y10" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AD10" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Tunisia</v>
       </c>
       <c r="AF10" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH10" s="12">
         <f t="shared" si="6"/>
@@ -6761,7 +6777,7 @@
       </c>
       <c r="AI10" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="12">
         <f t="shared" si="8"/>
@@ -6773,19 +6789,19 @@
       </c>
       <c r="AL10" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM10" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AO10" s="12">
+        <v>59</v>
+      </c>
+      <c r="AO10" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Egypt</v>
       </c>
       <c r="AP10" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10" s="12">
         <f t="shared" si="14"/>
@@ -6793,7 +6809,7 @@
       </c>
       <c r="AR10" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS10" s="12">
         <f t="shared" si="16"/>
@@ -6805,22 +6821,22 @@
       </c>
       <c r="AU10" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10" s="12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AW10" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX10" s="50">
         <v>4</v>
       </c>
       <c r="AY10" s="51" t="str">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,2,FALSE)</f>
-        <v>Philippines</v>
+        <v>Egypt</v>
       </c>
       <c r="AZ10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,3,FALSE)</f>
@@ -6828,7 +6844,7 @@
       </c>
       <c r="BA10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,5,FALSE)</f>
@@ -6836,7 +6852,7 @@
       </c>
       <c r="BC10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,6,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,7,FALSE)</f>
@@ -6856,7 +6872,7 @@
       </c>
       <c r="BH10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,12,FALSE)</f>
@@ -6864,27 +6880,27 @@
       </c>
       <c r="BJ10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,13,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,14,FALSE)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BL10" s="52">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,15,FALSE)</f>
-        <v>750</v>
+        <v>571.42857142857144</v>
       </c>
       <c r="BM10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,16,FALSE)</f>
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="BN10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,17,FALSE)</f>
-        <v>169</v>
+        <v>262</v>
       </c>
       <c r="BO10" s="52">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,18,FALSE)</f>
-        <v>917.15976331360946</v>
+        <v>931.29770992366412</v>
       </c>
     </row>
     <row r="11" spans="2:67" x14ac:dyDescent="0.25">
@@ -6895,70 +6911,94 @@
         <f>AB6</f>
         <v>Philippines</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="48">
+        <v>2</v>
+      </c>
       <c r="E11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="47"/>
+      <c r="F11" s="47">
+        <v>3</v>
+      </c>
       <c r="G11" s="25" t="str">
         <f>AB7</f>
         <v>Iran</v>
       </c>
-      <c r="H11" s="28"/>
+      <c r="H11" s="28">
+        <v>25</v>
+      </c>
       <c r="I11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="28"/>
+      <c r="J11" s="30">
+        <v>21</v>
+      </c>
+      <c r="K11" s="28">
+        <v>21</v>
+      </c>
       <c r="L11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="28"/>
+      <c r="M11" s="30">
+        <v>25</v>
+      </c>
+      <c r="N11" s="28">
+        <v>25</v>
+      </c>
       <c r="O11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="28"/>
+      <c r="P11" s="30">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>23</v>
+      </c>
       <c r="R11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S11" s="30"/>
-      <c r="T11" s="28"/>
+      <c r="S11" s="30">
+        <v>25</v>
+      </c>
+      <c r="T11" s="28">
+        <v>20</v>
+      </c>
       <c r="U11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="V11" s="30"/>
+      <c r="V11" s="30">
+        <v>22</v>
+      </c>
       <c r="W11" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="X11" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y11" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AD11" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="12">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Iran</v>
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH11" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI11" s="12">
         <f t="shared" si="7"/>
@@ -6970,35 +7010,35 @@
       </c>
       <c r="AK11" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM11" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AO11" s="12">
+        <v>114</v>
+      </c>
+      <c r="AO11" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Philippines</v>
       </c>
       <c r="AP11" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ11" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR11" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS11" s="12">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="12">
         <f t="shared" si="17"/>
@@ -7010,15 +7050,15 @@
       </c>
       <c r="AV11" s="12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="AW11" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="BA11" s="26">
         <f>SUM(BA7:BA10)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9043,15 +9083,15 @@
       </c>
       <c r="AZ23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,3,FALSE)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,5,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,6,FALSE)</f>
@@ -9067,7 +9107,7 @@
       </c>
       <c r="BF23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,9,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,10,FALSE)</f>
@@ -9083,27 +9123,27 @@
       </c>
       <c r="BJ23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,13,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,14,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BL23" s="52">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,15,FALSE)</f>
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="BM23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,16,FALSE)</f>
-        <v>200</v>
+        <v>309</v>
       </c>
       <c r="BN23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,17,FALSE)</f>
-        <v>191</v>
+        <v>302</v>
       </c>
       <c r="BO23" s="52">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,18,FALSE)</f>
-        <v>1047.1204188481674</v>
+        <v>1023.1788079470199</v>
       </c>
     </row>
     <row r="24" spans="2:67" x14ac:dyDescent="0.25">
@@ -9266,19 +9306,19 @@
       </c>
       <c r="AY24" s="51" t="str">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,2,FALSE)</f>
-        <v>France</v>
+        <v>Finland</v>
       </c>
       <c r="AZ24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,3,FALSE)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,6,FALSE)</f>
@@ -9286,15 +9326,15 @@
       </c>
       <c r="BD24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,7,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,10,FALSE)</f>
@@ -9310,27 +9350,27 @@
       </c>
       <c r="BJ24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,13,FALSE)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BK24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,14,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BL24" s="52">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,15,FALSE)</f>
-        <v>1666.6666666666667</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="BM24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,16,FALSE)</f>
-        <v>180</v>
+        <v>304</v>
       </c>
       <c r="BN24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,17,FALSE)</f>
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="BO24" s="52">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,18,FALSE)</f>
-        <v>1176.4705882352941</v>
+        <v>1034.0136054421769</v>
       </c>
     </row>
     <row r="25" spans="2:67" x14ac:dyDescent="0.25">
@@ -9497,15 +9537,15 @@
       </c>
       <c r="AY25" s="51" t="str">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,2,FALSE)</f>
-        <v>Finland</v>
+        <v>France</v>
       </c>
       <c r="AZ25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,3,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,5,FALSE)</f>
@@ -9513,11 +9553,11 @@
       </c>
       <c r="BC25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,6,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,8,FALSE)</f>
@@ -9525,11 +9565,11 @@
       </c>
       <c r="BF25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,9,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,10,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,11,FALSE)</f>
@@ -9541,27 +9581,27 @@
       </c>
       <c r="BJ25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,13,FALSE)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BK25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,14,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL25" s="52">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,15,FALSE)</f>
-        <v>1000</v>
+        <v>1166.6666666666667</v>
       </c>
       <c r="BM25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,16,FALSE)</f>
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="BN25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,17,FALSE)</f>
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="BO25" s="52">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,18,FALSE)</f>
-        <v>1024.1545893719808</v>
+        <v>1110.6870229007632</v>
       </c>
     </row>
     <row r="26" spans="2:67" x14ac:dyDescent="0.25">
@@ -9572,35 +9612,55 @@
         <f>AB24</f>
         <v>Finland</v>
       </c>
-      <c r="D26" s="48"/>
+      <c r="D26" s="48">
+        <v>3</v>
+      </c>
       <c r="E26" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="47"/>
+      <c r="F26" s="47">
+        <v>1</v>
+      </c>
       <c r="G26" s="25" t="str">
         <f>AB25</f>
         <v>South Korea</v>
       </c>
-      <c r="H26" s="28"/>
+      <c r="H26" s="28">
+        <v>25</v>
+      </c>
       <c r="I26" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="28"/>
+      <c r="J26" s="30">
+        <v>18</v>
+      </c>
+      <c r="K26" s="28">
+        <v>25</v>
+      </c>
       <c r="L26" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M26" s="30"/>
-      <c r="N26" s="28"/>
+      <c r="M26" s="30">
+        <v>23</v>
+      </c>
+      <c r="N26" s="28">
+        <v>17</v>
+      </c>
       <c r="O26" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="28"/>
+      <c r="P26" s="30">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="28">
+        <v>25</v>
+      </c>
       <c r="R26" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S26" s="30"/>
+      <c r="S26" s="30">
+        <v>21</v>
+      </c>
       <c r="T26" s="28"/>
       <c r="U26" s="29" t="s">
         <v>0</v>
@@ -9608,34 +9668,34 @@
       <c r="V26" s="30"/>
       <c r="W26" s="31">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="X26" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y26" s="32">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="AD26" s="12">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE26" s="12" t="str">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>Finland</v>
       </c>
       <c r="AF26" s="12">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26" s="12">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH26" s="12">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI26" s="12">
         <f t="shared" si="47"/>
@@ -9643,7 +9703,7 @@
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK26" s="12">
         <f t="shared" si="49"/>
@@ -9651,27 +9711,27 @@
       </c>
       <c r="AL26" s="12">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AM26" s="12">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AO26" s="12">
+        <v>87</v>
+      </c>
+      <c r="AO26" s="12" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>South Korea</v>
       </c>
       <c r="AP26" s="12">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26" s="12">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR26" s="12">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS26" s="12">
         <f t="shared" si="56"/>
@@ -9679,7 +9739,7 @@
       </c>
       <c r="AT26" s="12">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="12">
         <f t="shared" si="58"/>
@@ -9687,11 +9747,11 @@
       </c>
       <c r="AV26" s="12">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="AW26" s="12">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AX26" s="50">
         <v>4</v>
@@ -9706,7 +9766,7 @@
       </c>
       <c r="BA26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,5,FALSE)</f>
@@ -9714,7 +9774,7 @@
       </c>
       <c r="BC26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,6,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,7,FALSE)</f>
@@ -9734,7 +9794,7 @@
       </c>
       <c r="BH26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,12,FALSE)</f>
@@ -9742,27 +9802,27 @@
       </c>
       <c r="BJ26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,13,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,14,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL26" s="52">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,15,FALSE)</f>
-        <v>166.66666666666666</v>
+        <v>222.2222222222222</v>
       </c>
       <c r="BM26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,16,FALSE)</f>
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="BN26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,17,FALSE)</f>
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="BO26" s="52">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,18,FALSE)</f>
-        <v>763.00578034682076</v>
+        <v>826.41509433962267</v>
       </c>
     </row>
     <row r="27" spans="2:67" x14ac:dyDescent="0.25">
@@ -9773,70 +9833,94 @@
         <f>AB22</f>
         <v>France</v>
       </c>
-      <c r="D27" s="48"/>
+      <c r="D27" s="48">
+        <v>2</v>
+      </c>
       <c r="E27" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="47"/>
+      <c r="F27" s="47">
+        <v>3</v>
+      </c>
       <c r="G27" s="25" t="str">
         <f>AB23</f>
         <v>Argentina</v>
       </c>
-      <c r="H27" s="28"/>
+      <c r="H27" s="28">
+        <v>26</v>
+      </c>
       <c r="I27" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="28"/>
+      <c r="J27" s="30">
+        <v>28</v>
+      </c>
+      <c r="K27" s="28">
+        <v>23</v>
+      </c>
       <c r="L27" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M27" s="30"/>
-      <c r="N27" s="28"/>
+      <c r="M27" s="30">
+        <v>25</v>
+      </c>
+      <c r="N27" s="28">
+        <v>25</v>
+      </c>
       <c r="O27" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="28"/>
+      <c r="P27" s="30">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="28">
+        <v>25</v>
+      </c>
       <c r="R27" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S27" s="30"/>
-      <c r="T27" s="28"/>
+      <c r="S27" s="30">
+        <v>20</v>
+      </c>
+      <c r="T27" s="28">
+        <v>12</v>
+      </c>
       <c r="U27" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="V27" s="30"/>
+      <c r="V27" s="30">
+        <v>15</v>
+      </c>
       <c r="W27" s="31">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="X27" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y27" s="32">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="AD27" s="12">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="12">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="12" t="str">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>Argentina</v>
       </c>
       <c r="AF27" s="12">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27" s="12">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH27" s="12">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI27" s="12">
         <f t="shared" si="47"/>
@@ -9848,35 +9932,35 @@
       </c>
       <c r="AK27" s="12">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="12">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="AM27" s="12">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AO27" s="12">
+        <v>111</v>
+      </c>
+      <c r="AO27" s="12" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>France</v>
       </c>
       <c r="AP27" s="12">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="12">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR27" s="12">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS27" s="12">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="12">
         <f t="shared" si="57"/>
@@ -9888,15 +9972,15 @@
       </c>
       <c r="AV27" s="12">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="AW27" s="12">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="BA27" s="26">
         <f>SUM(BA23:BA26)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13392,15 +13476,15 @@
       </c>
       <c r="AZ47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,3,FALSE)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,5,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,6,FALSE)</f>
@@ -13408,7 +13492,7 @@
       </c>
       <c r="BD47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,8,FALSE)</f>
@@ -13432,7 +13516,7 @@
       </c>
       <c r="BJ47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,13,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,14,FALSE)</f>
@@ -13440,19 +13524,19 @@
       </c>
       <c r="BL47" s="52">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,15,FALSE)</f>
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="BM47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,16,FALSE)</f>
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="BN47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,17,FALSE)</f>
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="BO47" s="52">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,18,FALSE)</f>
-        <v>1136.6459627329193</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="48" spans="2:70" x14ac:dyDescent="0.25">
@@ -13615,15 +13699,15 @@
       </c>
       <c r="AZ48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,3,FALSE)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,6,FALSE)</f>
@@ -13631,7 +13715,7 @@
       </c>
       <c r="BD48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,8,FALSE)</f>
@@ -13655,7 +13739,7 @@
       </c>
       <c r="BJ48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,13,FALSE)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BK48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,14,FALSE)</f>
@@ -13663,19 +13747,19 @@
       </c>
       <c r="BL48" s="52">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,15,FALSE)</f>
-        <v>1666.6666666666667</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="BM48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,16,FALSE)</f>
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="BN48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,17,FALSE)</f>
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="BO48" s="52">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,18,FALSE)</f>
-        <v>1131.25</v>
+        <v>1158.3710407239821</v>
       </c>
     </row>
     <row r="49" spans="2:67" x14ac:dyDescent="0.25">
@@ -13850,7 +13934,7 @@
       </c>
       <c r="BA49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,5,FALSE)</f>
@@ -13858,7 +13942,7 @@
       </c>
       <c r="BC49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,6,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,7,FALSE)</f>
@@ -13882,7 +13966,7 @@
       </c>
       <c r="BI49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,12,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,13,FALSE)</f>
@@ -13890,23 +13974,23 @@
       </c>
       <c r="BK49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,14,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BL49" s="52">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,15,FALSE)</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="BM49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,16,FALSE)</f>
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="BN49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,17,FALSE)</f>
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="BO49" s="52">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,18,FALSE)</f>
-        <v>1130.4347826086955</v>
+        <v>1005.2631578947369</v>
       </c>
     </row>
     <row r="50" spans="2:67" x14ac:dyDescent="0.25">
@@ -13917,30 +14001,46 @@
         <f>AB48</f>
         <v>Belgium</v>
       </c>
-      <c r="D50" s="48"/>
+      <c r="D50" s="48">
+        <v>3</v>
+      </c>
       <c r="E50" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F50" s="47"/>
+      <c r="F50" s="47">
+        <v>0</v>
+      </c>
       <c r="G50" s="5" t="str">
         <f>AB49</f>
         <v>Algeria</v>
       </c>
-      <c r="H50" s="28"/>
+      <c r="H50" s="28">
+        <v>25</v>
+      </c>
       <c r="I50" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J50" s="30"/>
-      <c r="K50" s="28"/>
+      <c r="J50" s="30">
+        <v>22</v>
+      </c>
+      <c r="K50" s="28">
+        <v>25</v>
+      </c>
       <c r="L50" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M50" s="30"/>
-      <c r="N50" s="28"/>
+      <c r="M50" s="30">
+        <v>20</v>
+      </c>
+      <c r="N50" s="28">
+        <v>25</v>
+      </c>
       <c r="O50" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P50" s="30"/>
+      <c r="P50" s="30">
+        <v>12</v>
+      </c>
       <c r="Q50" s="28"/>
       <c r="R50" s="29" t="s">
         <v>0</v>
@@ -13953,30 +14053,30 @@
       <c r="V50" s="30"/>
       <c r="W50" s="31">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X50" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y50" s="32">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AD50" s="12">
         <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="AE50" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE50" s="12" t="str">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>Belgium</v>
       </c>
       <c r="AF50" s="12">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG50" s="12">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH50" s="12">
         <f t="shared" si="109"/>
@@ -13984,7 +14084,7 @@
       </c>
       <c r="AI50" s="12">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ50" s="12">
         <f t="shared" si="111"/>
@@ -13996,19 +14096,19 @@
       </c>
       <c r="AL50" s="12">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM50" s="12">
         <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="AO50" s="12">
+        <v>54</v>
+      </c>
+      <c r="AO50" s="12" t="str">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>Algeria</v>
       </c>
       <c r="AP50" s="12">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ50" s="12">
         <f t="shared" si="117"/>
@@ -14016,7 +14116,7 @@
       </c>
       <c r="AR50" s="12">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS50" s="12">
         <f t="shared" si="119"/>
@@ -14028,15 +14128,15 @@
       </c>
       <c r="AU50" s="12">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV50" s="12">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AW50" s="12">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX50" s="50">
         <v>4</v>
@@ -14051,7 +14151,7 @@
       </c>
       <c r="BA50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,5,FALSE)</f>
@@ -14059,7 +14159,7 @@
       </c>
       <c r="BC50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,6,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,7,FALSE)</f>
@@ -14083,7 +14183,7 @@
       </c>
       <c r="BI50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,12,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,13,FALSE)</f>
@@ -14091,7 +14191,7 @@
       </c>
       <c r="BK50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,14,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL50" s="52">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,15,FALSE)</f>
@@ -14099,15 +14199,15 @@
       </c>
       <c r="BM50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,16,FALSE)</f>
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="BN50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,17,FALSE)</f>
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="BO50" s="52">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,18,FALSE)</f>
-        <v>613.33333333333326</v>
+        <v>648.8888888888888</v>
       </c>
     </row>
     <row r="51" spans="2:67" x14ac:dyDescent="0.25">
@@ -14118,30 +14218,46 @@
         <f>AB46</f>
         <v>Italy</v>
       </c>
-      <c r="D51" s="48"/>
+      <c r="D51" s="48">
+        <v>3</v>
+      </c>
       <c r="E51" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F51" s="47"/>
+      <c r="F51" s="47">
+        <v>0</v>
+      </c>
       <c r="G51" s="5" t="str">
         <f>AB47</f>
         <v>Ukraine</v>
       </c>
-      <c r="H51" s="28"/>
+      <c r="H51" s="28">
+        <v>25</v>
+      </c>
       <c r="I51" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J51" s="30"/>
-      <c r="K51" s="28"/>
+      <c r="J51" s="30">
+        <v>21</v>
+      </c>
+      <c r="K51" s="28">
+        <v>25</v>
+      </c>
       <c r="L51" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M51" s="30"/>
-      <c r="N51" s="28"/>
+      <c r="M51" s="30">
+        <v>22</v>
+      </c>
+      <c r="N51" s="28">
+        <v>25</v>
+      </c>
       <c r="O51" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P51" s="30"/>
+      <c r="P51" s="30">
+        <v>18</v>
+      </c>
       <c r="Q51" s="28"/>
       <c r="R51" s="29" t="s">
         <v>0</v>
@@ -14154,30 +14270,30 @@
       <c r="V51" s="30"/>
       <c r="W51" s="31">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X51" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y51" s="32">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AD51" s="12">
         <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="AE51" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE51" s="12" t="str">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>Italy</v>
       </c>
       <c r="AF51" s="12">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG51" s="12">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH51" s="12">
         <f t="shared" si="109"/>
@@ -14185,7 +14301,7 @@
       </c>
       <c r="AI51" s="12">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ51" s="12">
         <f t="shared" si="111"/>
@@ -14197,19 +14313,19 @@
       </c>
       <c r="AL51" s="12">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM51" s="12">
         <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="AO51" s="12">
+        <v>61</v>
+      </c>
+      <c r="AO51" s="12" t="str">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>Ukraine</v>
       </c>
       <c r="AP51" s="12">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ51" s="12">
         <f t="shared" si="117"/>
@@ -14217,7 +14333,7 @@
       </c>
       <c r="AR51" s="12">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS51" s="12">
         <f t="shared" si="119"/>
@@ -14229,19 +14345,19 @@
       </c>
       <c r="AU51" s="12">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV51" s="12">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AW51" s="12">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BA51" s="26">
         <f>SUM(BA47:BA50)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16254,7 +16370,7 @@
       </c>
       <c r="AY63" s="51" t="str">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,2,FALSE)</f>
-        <v>Brazil</v>
+        <v>Serbia</v>
       </c>
       <c r="AZ63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,3,FALSE)</f>
@@ -16262,7 +16378,7 @@
       </c>
       <c r="BA63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,5,FALSE)</f>
@@ -16270,15 +16386,15 @@
       </c>
       <c r="BC63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,8,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,9,FALSE)</f>
@@ -16294,7 +16410,7 @@
       </c>
       <c r="BI63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,13,FALSE)</f>
@@ -16302,23 +16418,23 @@
       </c>
       <c r="BK63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,14,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL63" s="52">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,15,FALSE)</f>
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="BM63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,16,FALSE)</f>
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="BN63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,17,FALSE)</f>
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="BO63" s="52">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,18,FALSE)</f>
-        <v>1190.1408450704225</v>
+        <v>1078.8177339901476</v>
       </c>
     </row>
     <row r="64" spans="2:67" x14ac:dyDescent="0.25">
@@ -16477,19 +16593,19 @@
       </c>
       <c r="AY64" s="51" t="str">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,2,FALSE)</f>
-        <v>Serbia</v>
+        <v>Czech Republic</v>
       </c>
       <c r="AZ64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,3,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,6,FALSE)</f>
@@ -16497,7 +16613,7 @@
       </c>
       <c r="BD64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,8,FALSE)</f>
@@ -16521,7 +16637,7 @@
       </c>
       <c r="BJ64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,13,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BK64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,14,FALSE)</f>
@@ -16529,19 +16645,19 @@
       </c>
       <c r="BL64" s="52">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,15,FALSE)</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BM64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,16,FALSE)</f>
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="BN64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,17,FALSE)</f>
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="BO64" s="52">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,18,FALSE)</f>
-        <v>1035.9712230215828</v>
+        <v>1004.9751243781095</v>
       </c>
     </row>
     <row r="65" spans="2:67" x14ac:dyDescent="0.25">
@@ -16700,19 +16816,19 @@
       </c>
       <c r="AY65" s="51" t="str">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,2,FALSE)</f>
-        <v>Czech Republic</v>
+        <v>Brazil</v>
       </c>
       <c r="AZ65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,3,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,6,FALSE)</f>
@@ -16724,7 +16840,7 @@
       </c>
       <c r="BE65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,9,FALSE)</f>
@@ -16744,27 +16860,27 @@
       </c>
       <c r="BJ65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,13,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BK65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,14,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL65" s="52">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,15,FALSE)</f>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="BM65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,16,FALSE)</f>
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="BN65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,17,FALSE)</f>
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="BO65" s="52">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,18,FALSE)</f>
-        <v>900</v>
+        <v>1073.7327188940092</v>
       </c>
     </row>
     <row r="66" spans="2:67" x14ac:dyDescent="0.25">
@@ -16775,30 +16891,46 @@
         <f>AB64</f>
         <v>Czech Republic</v>
       </c>
-      <c r="D66" s="48"/>
+      <c r="D66" s="48">
+        <v>3</v>
+      </c>
       <c r="E66" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F66" s="47"/>
+      <c r="F66" s="47">
+        <v>0</v>
+      </c>
       <c r="G66" s="5" t="str">
         <f>AB65</f>
         <v>China</v>
       </c>
-      <c r="H66" s="28"/>
+      <c r="H66" s="28">
+        <v>26</v>
+      </c>
       <c r="I66" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J66" s="30"/>
-      <c r="K66" s="28"/>
+      <c r="J66" s="30">
+        <v>24</v>
+      </c>
+      <c r="K66" s="28">
+        <v>25</v>
+      </c>
       <c r="L66" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M66" s="30"/>
-      <c r="N66" s="28"/>
+      <c r="M66" s="30">
+        <v>19</v>
+      </c>
+      <c r="N66" s="28">
+        <v>25</v>
+      </c>
       <c r="O66" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P66" s="30"/>
+      <c r="P66" s="30">
+        <v>18</v>
+      </c>
       <c r="Q66" s="28"/>
       <c r="R66" s="29" t="s">
         <v>0</v>
@@ -16811,30 +16943,30 @@
       <c r="V66" s="30"/>
       <c r="W66" s="31">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="X66" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y66" s="32">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AD66" s="12">
         <f t="shared" si="147"/>
-        <v>0</v>
-      </c>
-      <c r="AE66" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE66" s="12" t="str">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>Czech Republic</v>
       </c>
       <c r="AF66" s="12">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG66" s="12">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH66" s="12">
         <f t="shared" si="151"/>
@@ -16842,7 +16974,7 @@
       </c>
       <c r="AI66" s="12">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ66" s="12">
         <f t="shared" si="153"/>
@@ -16854,19 +16986,19 @@
       </c>
       <c r="AL66" s="12">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AM66" s="12">
         <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="AO66" s="12">
+        <v>61</v>
+      </c>
+      <c r="AO66" s="12" t="str">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>China</v>
       </c>
       <c r="AP66" s="12">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ66" s="12">
         <f t="shared" si="159"/>
@@ -16874,7 +17006,7 @@
       </c>
       <c r="AR66" s="12">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS66" s="12">
         <f t="shared" si="161"/>
@@ -16886,15 +17018,15 @@
       </c>
       <c r="AU66" s="12">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV66" s="12">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AW66" s="12">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AX66" s="50">
         <v>4</v>
@@ -16909,7 +17041,7 @@
       </c>
       <c r="BA66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,5,FALSE)</f>
@@ -16917,7 +17049,7 @@
       </c>
       <c r="BC66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,6,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,7,FALSE)</f>
@@ -16941,7 +17073,7 @@
       </c>
       <c r="BI66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,12,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,13,FALSE)</f>
@@ -16949,23 +17081,23 @@
       </c>
       <c r="BK66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,14,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL66" s="52">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,15,FALSE)</f>
-        <v>166.66666666666666</v>
+        <v>111.1111111111111</v>
       </c>
       <c r="BM66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,16,FALSE)</f>
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="BN66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,17,FALSE)</f>
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="BO66" s="52">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,18,FALSE)</f>
-        <v>895.95375722543361</v>
+        <v>867.46987951807228</v>
       </c>
     </row>
     <row r="67" spans="2:67" x14ac:dyDescent="0.25">
@@ -16976,30 +17108,46 @@
         <f>AB62</f>
         <v>Brazil</v>
       </c>
-      <c r="D67" s="48"/>
+      <c r="D67" s="48">
+        <v>0</v>
+      </c>
       <c r="E67" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F67" s="47"/>
+      <c r="F67" s="47">
+        <v>3</v>
+      </c>
       <c r="G67" s="5" t="str">
         <f>AB63</f>
         <v>Serbia</v>
       </c>
-      <c r="H67" s="28"/>
+      <c r="H67" s="28">
+        <v>22</v>
+      </c>
       <c r="I67" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J67" s="30"/>
-      <c r="K67" s="28"/>
+      <c r="J67" s="30">
+        <v>25</v>
+      </c>
+      <c r="K67" s="28">
+        <v>20</v>
+      </c>
       <c r="L67" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M67" s="30"/>
-      <c r="N67" s="28"/>
+      <c r="M67" s="30">
+        <v>25</v>
+      </c>
+      <c r="N67" s="28">
+        <v>22</v>
+      </c>
       <c r="O67" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P67" s="30"/>
+      <c r="P67" s="30">
+        <v>25</v>
+      </c>
       <c r="Q67" s="28"/>
       <c r="R67" s="29" t="s">
         <v>0</v>
@@ -17012,30 +17160,30 @@
       <c r="V67" s="30"/>
       <c r="W67" s="31">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="X67" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y67" s="32">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AD67" s="12">
         <f t="shared" si="147"/>
-        <v>0</v>
-      </c>
-      <c r="AE67" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE67" s="12" t="str">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>Serbia</v>
       </c>
       <c r="AF67" s="12">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG67" s="12">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH67" s="12">
         <f t="shared" si="151"/>
@@ -17043,7 +17191,7 @@
       </c>
       <c r="AI67" s="12">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ67" s="12">
         <f t="shared" si="153"/>
@@ -17055,19 +17203,19 @@
       </c>
       <c r="AL67" s="12">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM67" s="12">
         <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="AO67" s="12">
+        <v>64</v>
+      </c>
+      <c r="AO67" s="12" t="str">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>Brazil</v>
       </c>
       <c r="AP67" s="12">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ67" s="12">
         <f t="shared" si="159"/>
@@ -17075,7 +17223,7 @@
       </c>
       <c r="AR67" s="12">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS67" s="12">
         <f t="shared" si="161"/>
@@ -17087,19 +17235,19 @@
       </c>
       <c r="AU67" s="12">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV67" s="12">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AW67" s="12">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BA67" s="26">
         <f>SUM(BA63:BA66)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -17553,7 +17701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8907CF4-F9AC-40E8-A2EF-9961349DD93C}">
   <dimension ref="B1:BO48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -17825,7 +17973,7 @@
       </c>
       <c r="C6" s="24" t="str">
         <f>IF(Preliminary!BA7&lt;3,"Winner of Pool A",Preliminary!AY7)</f>
-        <v>Winner of Pool A</v>
+        <v>Tunisia</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="49" t="s">
@@ -17834,7 +17982,7 @@
       <c r="F6" s="47"/>
       <c r="G6" s="25" t="str">
         <f>IF(Preliminary!BA64&lt;3,"Runners-up of Pool H",Preliminary!AY64)</f>
-        <v>Runners-up of Pool H</v>
+        <v>Czech Republic</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="29" t="s">
@@ -17956,7 +18104,7 @@
       </c>
       <c r="C7" s="24" t="str">
         <f>IF(Preliminary!BA63&lt;3,"Winner of Pool H",Preliminary!AY63)</f>
-        <v>Winner of Pool H</v>
+        <v>Serbia</v>
       </c>
       <c r="D7" s="48"/>
       <c r="E7" s="49" t="s">
@@ -17965,7 +18113,7 @@
       <c r="F7" s="47"/>
       <c r="G7" s="25" t="str">
         <f>IF(Preliminary!BA8&lt;3,"Runners-up of Pool A",Preliminary!AY8)</f>
-        <v>Runners-up of Pool A</v>
+        <v>Iran</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="29" t="s">
@@ -18346,7 +18494,7 @@
       </c>
       <c r="C10" s="24" t="str">
         <f>IF(Preliminary!BA23&lt;3,"Winner of Pool C",Preliminary!AY23)</f>
-        <v>Winner of Pool C</v>
+        <v>Argentina</v>
       </c>
       <c r="D10" s="48"/>
       <c r="E10" s="49" t="s">
@@ -18355,7 +18503,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="25" t="str">
         <f>IF(Preliminary!BA48&lt;3,"Runners-up of Pool F",Preliminary!AY48)</f>
-        <v>Runners-up of Pool F</v>
+        <v>Italy</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="29" t="s">
@@ -18476,7 +18624,7 @@
       </c>
       <c r="C11" s="24" t="str">
         <f>IF(Preliminary!BA47&lt;3,"Winner of Pool F",Preliminary!AY47)</f>
-        <v>Winner of Pool F</v>
+        <v>Belgium</v>
       </c>
       <c r="D11" s="48"/>
       <c r="E11" s="49" t="s">
@@ -18485,7 +18633,7 @@
       <c r="F11" s="47"/>
       <c r="G11" s="25" t="str">
         <f>IF(Preliminary!BA24&lt;3,"Runners-up of Pool C",Preliminary!AY24)</f>
-        <v>Runners-up of Pool C</v>
+        <v>Finland</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="29" t="s">
@@ -21189,16 +21337,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/2025 FIVB Men's Volleyball World Championship.xlsx
+++ b/2025 FIVB Men's Volleyball World Championship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D05B025F-9BA3-4D6C-A32B-EA86B4708C85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB0267AB-AFAE-4A15-BC3F-52F61FDEF525}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="CC01" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="2" xr2:uid="{701403F6-3112-456D-B33A-FC5595D41656}"/>
@@ -866,22 +866,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,28 +915,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5426,6 +5426,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:X1"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A34"/>
@@ -5434,11 +5439,6 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:X1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5513,74 +5513,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="75"/>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="75"/>
-      <c r="AV2" s="75"/>
-      <c r="AW2" s="75"/>
-      <c r="AX2" s="75"/>
-      <c r="AY2" s="75"/>
-      <c r="AZ2" s="75"/>
-      <c r="BA2" s="75"/>
-      <c r="BB2" s="75"/>
-      <c r="BC2" s="75"/>
-      <c r="BD2" s="75"/>
-      <c r="BE2" s="75"/>
-      <c r="BF2" s="75"/>
-      <c r="BG2" s="75"/>
-      <c r="BH2" s="75"/>
-      <c r="BI2" s="75"/>
-      <c r="BJ2" s="75"/>
-      <c r="BK2" s="75"/>
-      <c r="BL2" s="75"/>
-      <c r="BM2" s="75"/>
-      <c r="BN2" s="75"/>
-      <c r="BO2" s="75"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="56"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="56"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="56"/>
+      <c r="BL2" s="56"/>
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="56"/>
     </row>
     <row r="3" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX3" s="33"/>
@@ -5603,116 +5603,116 @@
       <c r="BO3" s="33"/>
     </row>
     <row r="4" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="76"/>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="76"/>
-      <c r="AT4" s="76"/>
-      <c r="AU4" s="76"/>
-      <c r="AV4" s="76"/>
-      <c r="AW4" s="76"/>
-      <c r="AX4" s="76"/>
-      <c r="AY4" s="76"/>
-      <c r="AZ4" s="76"/>
-      <c r="BA4" s="76"/>
-      <c r="BB4" s="76"/>
-      <c r="BC4" s="76"/>
-      <c r="BD4" s="76"/>
-      <c r="BE4" s="76"/>
-      <c r="BF4" s="76"/>
-      <c r="BG4" s="76"/>
-      <c r="BH4" s="76"/>
-      <c r="BI4" s="76"/>
-      <c r="BJ4" s="76"/>
-      <c r="BK4" s="76"/>
-      <c r="BL4" s="76"/>
-      <c r="BM4" s="76"/>
-      <c r="BN4" s="76"/>
-      <c r="BO4" s="76"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="57"/>
+      <c r="AY4" s="57"/>
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="57"/>
+      <c r="BB4" s="57"/>
+      <c r="BC4" s="57"/>
+      <c r="BD4" s="57"/>
+      <c r="BE4" s="57"/>
+      <c r="BF4" s="57"/>
+      <c r="BG4" s="57"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="57"/>
+      <c r="BM4" s="57"/>
+      <c r="BN4" s="57"/>
+      <c r="BO4" s="57"/>
     </row>
     <row r="5" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57" t="s">
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57" t="s">
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="57" t="s">
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57" t="s">
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
       <c r="AD5" s="12" t="s">
         <v>23</v>
       </c>
@@ -5770,34 +5770,34 @@
       <c r="AW5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX5" s="72" t="s">
+      <c r="AX5" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="AY5" s="73"/>
-      <c r="AZ5" s="74"/>
-      <c r="BA5" s="72" t="s">
+      <c r="AY5" s="62"/>
+      <c r="AZ5" s="63"/>
+      <c r="BA5" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="BB5" s="73"/>
-      <c r="BC5" s="74"/>
-      <c r="BD5" s="72" t="s">
+      <c r="BB5" s="62"/>
+      <c r="BC5" s="63"/>
+      <c r="BD5" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="BE5" s="73"/>
-      <c r="BF5" s="73"/>
-      <c r="BG5" s="73"/>
-      <c r="BH5" s="73"/>
-      <c r="BI5" s="74"/>
-      <c r="BJ5" s="72" t="s">
+      <c r="BE5" s="62"/>
+      <c r="BF5" s="62"/>
+      <c r="BG5" s="62"/>
+      <c r="BH5" s="62"/>
+      <c r="BI5" s="63"/>
+      <c r="BJ5" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="BK5" s="73"/>
-      <c r="BL5" s="74"/>
-      <c r="BM5" s="72" t="s">
+      <c r="BK5" s="62"/>
+      <c r="BL5" s="63"/>
+      <c r="BM5" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="BN5" s="73"/>
-      <c r="BO5" s="74"/>
+      <c r="BN5" s="62"/>
+      <c r="BO5" s="63"/>
     </row>
     <row r="6" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
@@ -7062,116 +7062,116 @@
       </c>
     </row>
     <row r="12" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="76"/>
-      <c r="AL12" s="76"/>
-      <c r="AM12" s="76"/>
-      <c r="AN12" s="76"/>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="76"/>
-      <c r="AQ12" s="76"/>
-      <c r="AR12" s="76"/>
-      <c r="AS12" s="76"/>
-      <c r="AT12" s="76"/>
-      <c r="AU12" s="76"/>
-      <c r="AV12" s="76"/>
-      <c r="AW12" s="76"/>
-      <c r="AX12" s="76"/>
-      <c r="AY12" s="76"/>
-      <c r="AZ12" s="76"/>
-      <c r="BA12" s="76"/>
-      <c r="BB12" s="76"/>
-      <c r="BC12" s="76"/>
-      <c r="BD12" s="76"/>
-      <c r="BE12" s="76"/>
-      <c r="BF12" s="76"/>
-      <c r="BG12" s="76"/>
-      <c r="BH12" s="76"/>
-      <c r="BI12" s="76"/>
-      <c r="BJ12" s="76"/>
-      <c r="BK12" s="76"/>
-      <c r="BL12" s="76"/>
-      <c r="BM12" s="76"/>
-      <c r="BN12" s="76"/>
-      <c r="BO12" s="76"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="57"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="57"/>
+      <c r="AP12" s="57"/>
+      <c r="AQ12" s="57"/>
+      <c r="AR12" s="57"/>
+      <c r="AS12" s="57"/>
+      <c r="AT12" s="57"/>
+      <c r="AU12" s="57"/>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="57"/>
+      <c r="AX12" s="57"/>
+      <c r="AY12" s="57"/>
+      <c r="AZ12" s="57"/>
+      <c r="BA12" s="57"/>
+      <c r="BB12" s="57"/>
+      <c r="BC12" s="57"/>
+      <c r="BD12" s="57"/>
+      <c r="BE12" s="57"/>
+      <c r="BF12" s="57"/>
+      <c r="BG12" s="57"/>
+      <c r="BH12" s="57"/>
+      <c r="BI12" s="57"/>
+      <c r="BJ12" s="57"/>
+      <c r="BK12" s="57"/>
+      <c r="BL12" s="57"/>
+      <c r="BM12" s="57"/>
+      <c r="BN12" s="57"/>
+      <c r="BO12" s="57"/>
     </row>
     <row r="13" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="61" t="s">
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="61" t="s">
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="61" t="s">
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="61" t="s">
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
       <c r="AD13" s="12" t="s">
         <v>23</v>
       </c>
@@ -7229,34 +7229,34 @@
       <c r="AW13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX13" s="69" t="s">
+      <c r="AX13" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AY13" s="70"/>
-      <c r="AZ13" s="71"/>
-      <c r="BA13" s="69" t="s">
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="60"/>
+      <c r="BA13" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="BB13" s="70"/>
-      <c r="BC13" s="71"/>
-      <c r="BD13" s="69" t="s">
+      <c r="BB13" s="59"/>
+      <c r="BC13" s="60"/>
+      <c r="BD13" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="BE13" s="70"/>
-      <c r="BF13" s="70"/>
-      <c r="BG13" s="70"/>
-      <c r="BH13" s="70"/>
-      <c r="BI13" s="71"/>
-      <c r="BJ13" s="69" t="s">
+      <c r="BE13" s="59"/>
+      <c r="BF13" s="59"/>
+      <c r="BG13" s="59"/>
+      <c r="BH13" s="59"/>
+      <c r="BI13" s="60"/>
+      <c r="BJ13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK13" s="70"/>
-      <c r="BL13" s="71"/>
-      <c r="BM13" s="69" t="s">
+      <c r="BK13" s="59"/>
+      <c r="BL13" s="60"/>
+      <c r="BM13" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="BN13" s="70"/>
-      <c r="BO13" s="71"/>
+      <c r="BN13" s="59"/>
+      <c r="BO13" s="60"/>
     </row>
     <row r="14" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -8513,116 +8513,116 @@
       </c>
     </row>
     <row r="20" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="76"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="76"/>
-      <c r="AH20" s="76"/>
-      <c r="AI20" s="76"/>
-      <c r="AJ20" s="76"/>
-      <c r="AK20" s="76"/>
-      <c r="AL20" s="76"/>
-      <c r="AM20" s="76"/>
-      <c r="AN20" s="76"/>
-      <c r="AO20" s="76"/>
-      <c r="AP20" s="76"/>
-      <c r="AQ20" s="76"/>
-      <c r="AR20" s="76"/>
-      <c r="AS20" s="76"/>
-      <c r="AT20" s="76"/>
-      <c r="AU20" s="76"/>
-      <c r="AV20" s="76"/>
-      <c r="AW20" s="76"/>
-      <c r="AX20" s="76"/>
-      <c r="AY20" s="76"/>
-      <c r="AZ20" s="76"/>
-      <c r="BA20" s="76"/>
-      <c r="BB20" s="76"/>
-      <c r="BC20" s="76"/>
-      <c r="BD20" s="76"/>
-      <c r="BE20" s="76"/>
-      <c r="BF20" s="76"/>
-      <c r="BG20" s="76"/>
-      <c r="BH20" s="76"/>
-      <c r="BI20" s="76"/>
-      <c r="BJ20" s="76"/>
-      <c r="BK20" s="76"/>
-      <c r="BL20" s="76"/>
-      <c r="BM20" s="76"/>
-      <c r="BN20" s="76"/>
-      <c r="BO20" s="76"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="57"/>
+      <c r="AL20" s="57"/>
+      <c r="AM20" s="57"/>
+      <c r="AN20" s="57"/>
+      <c r="AO20" s="57"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="57"/>
+      <c r="AR20" s="57"/>
+      <c r="AS20" s="57"/>
+      <c r="AT20" s="57"/>
+      <c r="AU20" s="57"/>
+      <c r="AV20" s="57"/>
+      <c r="AW20" s="57"/>
+      <c r="AX20" s="57"/>
+      <c r="AY20" s="57"/>
+      <c r="AZ20" s="57"/>
+      <c r="BA20" s="57"/>
+      <c r="BB20" s="57"/>
+      <c r="BC20" s="57"/>
+      <c r="BD20" s="57"/>
+      <c r="BE20" s="57"/>
+      <c r="BF20" s="57"/>
+      <c r="BG20" s="57"/>
+      <c r="BH20" s="57"/>
+      <c r="BI20" s="57"/>
+      <c r="BJ20" s="57"/>
+      <c r="BK20" s="57"/>
+      <c r="BL20" s="57"/>
+      <c r="BM20" s="57"/>
+      <c r="BN20" s="57"/>
+      <c r="BO20" s="57"/>
     </row>
     <row r="21" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="61" t="s">
+      <c r="H21" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="61" t="s">
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="61" t="s">
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="61" t="s">
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="61" t="s">
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
       <c r="AD21" s="12" t="s">
         <v>23</v>
       </c>
@@ -8680,34 +8680,34 @@
       <c r="AW21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX21" s="69" t="s">
+      <c r="AX21" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AY21" s="70"/>
-      <c r="AZ21" s="71"/>
-      <c r="BA21" s="69" t="s">
+      <c r="AY21" s="59"/>
+      <c r="AZ21" s="60"/>
+      <c r="BA21" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="BB21" s="70"/>
-      <c r="BC21" s="71"/>
-      <c r="BD21" s="69" t="s">
+      <c r="BB21" s="59"/>
+      <c r="BC21" s="60"/>
+      <c r="BD21" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="BE21" s="70"/>
-      <c r="BF21" s="70"/>
-      <c r="BG21" s="70"/>
-      <c r="BH21" s="70"/>
-      <c r="BI21" s="71"/>
-      <c r="BJ21" s="69" t="s">
+      <c r="BE21" s="59"/>
+      <c r="BF21" s="59"/>
+      <c r="BG21" s="59"/>
+      <c r="BH21" s="59"/>
+      <c r="BI21" s="60"/>
+      <c r="BJ21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK21" s="70"/>
-      <c r="BL21" s="71"/>
-      <c r="BM21" s="69" t="s">
+      <c r="BK21" s="59"/>
+      <c r="BL21" s="60"/>
+      <c r="BM21" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="BN21" s="70"/>
-      <c r="BO21" s="71"/>
+      <c r="BN21" s="59"/>
+      <c r="BO21" s="60"/>
     </row>
     <row r="22" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B22" s="23">
@@ -9984,116 +9984,116 @@
       </c>
     </row>
     <row r="28" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="76"/>
-      <c r="W28" s="76"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="76"/>
-      <c r="Z28" s="76"/>
-      <c r="AA28" s="76"/>
-      <c r="AB28" s="76"/>
-      <c r="AC28" s="76"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="76"/>
-      <c r="AF28" s="76"/>
-      <c r="AG28" s="76"/>
-      <c r="AH28" s="76"/>
-      <c r="AI28" s="76"/>
-      <c r="AJ28" s="76"/>
-      <c r="AK28" s="76"/>
-      <c r="AL28" s="76"/>
-      <c r="AM28" s="76"/>
-      <c r="AN28" s="76"/>
-      <c r="AO28" s="76"/>
-      <c r="AP28" s="76"/>
-      <c r="AQ28" s="76"/>
-      <c r="AR28" s="76"/>
-      <c r="AS28" s="76"/>
-      <c r="AT28" s="76"/>
-      <c r="AU28" s="76"/>
-      <c r="AV28" s="76"/>
-      <c r="AW28" s="76"/>
-      <c r="AX28" s="76"/>
-      <c r="AY28" s="76"/>
-      <c r="AZ28" s="76"/>
-      <c r="BA28" s="76"/>
-      <c r="BB28" s="76"/>
-      <c r="BC28" s="76"/>
-      <c r="BD28" s="76"/>
-      <c r="BE28" s="76"/>
-      <c r="BF28" s="76"/>
-      <c r="BG28" s="76"/>
-      <c r="BH28" s="76"/>
-      <c r="BI28" s="76"/>
-      <c r="BJ28" s="76"/>
-      <c r="BK28" s="76"/>
-      <c r="BL28" s="76"/>
-      <c r="BM28" s="76"/>
-      <c r="BN28" s="76"/>
-      <c r="BO28" s="76"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="57"/>
+      <c r="AX28" s="57"/>
+      <c r="AY28" s="57"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="57"/>
+      <c r="BB28" s="57"/>
+      <c r="BC28" s="57"/>
+      <c r="BD28" s="57"/>
+      <c r="BE28" s="57"/>
+      <c r="BF28" s="57"/>
+      <c r="BG28" s="57"/>
+      <c r="BH28" s="57"/>
+      <c r="BI28" s="57"/>
+      <c r="BJ28" s="57"/>
+      <c r="BK28" s="57"/>
+      <c r="BL28" s="57"/>
+      <c r="BM28" s="57"/>
+      <c r="BN28" s="57"/>
+      <c r="BO28" s="57"/>
     </row>
     <row r="29" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="61" t="s">
+      <c r="H29" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="61" t="s">
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="61" t="s">
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="61" t="s">
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="61" t="s">
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
       <c r="AD29" s="12" t="s">
         <v>23</v>
       </c>
@@ -10151,34 +10151,34 @@
       <c r="AW29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX29" s="69" t="s">
+      <c r="AX29" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AY29" s="70"/>
-      <c r="AZ29" s="71"/>
-      <c r="BA29" s="69" t="s">
+      <c r="AY29" s="59"/>
+      <c r="AZ29" s="60"/>
+      <c r="BA29" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="BB29" s="70"/>
-      <c r="BC29" s="71"/>
-      <c r="BD29" s="69" t="s">
+      <c r="BB29" s="59"/>
+      <c r="BC29" s="60"/>
+      <c r="BD29" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="BE29" s="70"/>
-      <c r="BF29" s="70"/>
-      <c r="BG29" s="70"/>
-      <c r="BH29" s="70"/>
-      <c r="BI29" s="71"/>
-      <c r="BJ29" s="69" t="s">
+      <c r="BE29" s="59"/>
+      <c r="BF29" s="59"/>
+      <c r="BG29" s="59"/>
+      <c r="BH29" s="59"/>
+      <c r="BI29" s="60"/>
+      <c r="BJ29" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK29" s="70"/>
-      <c r="BL29" s="71"/>
-      <c r="BM29" s="69" t="s">
+      <c r="BK29" s="59"/>
+      <c r="BL29" s="60"/>
+      <c r="BM29" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="BN29" s="70"/>
-      <c r="BO29" s="71"/>
+      <c r="BN29" s="59"/>
+      <c r="BO29" s="60"/>
     </row>
     <row r="30" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
@@ -11439,120 +11439,120 @@
       </c>
     </row>
     <row r="36" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="76"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="76"/>
-      <c r="U36" s="76"/>
-      <c r="V36" s="76"/>
-      <c r="W36" s="76"/>
-      <c r="X36" s="76"/>
-      <c r="Y36" s="76"/>
-      <c r="Z36" s="76"/>
-      <c r="AA36" s="76"/>
-      <c r="AB36" s="76"/>
-      <c r="AC36" s="76"/>
-      <c r="AD36" s="76"/>
-      <c r="AE36" s="76"/>
-      <c r="AF36" s="76"/>
-      <c r="AG36" s="76"/>
-      <c r="AH36" s="76"/>
-      <c r="AI36" s="76"/>
-      <c r="AJ36" s="76"/>
-      <c r="AK36" s="76"/>
-      <c r="AL36" s="76"/>
-      <c r="AM36" s="76"/>
-      <c r="AN36" s="76"/>
-      <c r="AO36" s="76"/>
-      <c r="AP36" s="76"/>
-      <c r="AQ36" s="76"/>
-      <c r="AR36" s="76"/>
-      <c r="AS36" s="76"/>
-      <c r="AT36" s="76"/>
-      <c r="AU36" s="76"/>
-      <c r="AV36" s="76"/>
-      <c r="AW36" s="76"/>
-      <c r="AX36" s="76"/>
-      <c r="AY36" s="76"/>
-      <c r="AZ36" s="76"/>
-      <c r="BA36" s="76"/>
-      <c r="BB36" s="76"/>
-      <c r="BC36" s="76"/>
-      <c r="BD36" s="76"/>
-      <c r="BE36" s="76"/>
-      <c r="BF36" s="76"/>
-      <c r="BG36" s="76"/>
-      <c r="BH36" s="76"/>
-      <c r="BI36" s="76"/>
-      <c r="BJ36" s="76"/>
-      <c r="BK36" s="76"/>
-      <c r="BL36" s="76"/>
-      <c r="BM36" s="76"/>
-      <c r="BN36" s="76"/>
-      <c r="BO36" s="76"/>
-      <c r="BQ36" s="62" t="s">
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="57"/>
+      <c r="AC36" s="57"/>
+      <c r="AD36" s="57"/>
+      <c r="AE36" s="57"/>
+      <c r="AF36" s="57"/>
+      <c r="AG36" s="57"/>
+      <c r="AH36" s="57"/>
+      <c r="AI36" s="57"/>
+      <c r="AJ36" s="57"/>
+      <c r="AK36" s="57"/>
+      <c r="AL36" s="57"/>
+      <c r="AM36" s="57"/>
+      <c r="AN36" s="57"/>
+      <c r="AO36" s="57"/>
+      <c r="AP36" s="57"/>
+      <c r="AQ36" s="57"/>
+      <c r="AR36" s="57"/>
+      <c r="AS36" s="57"/>
+      <c r="AT36" s="57"/>
+      <c r="AU36" s="57"/>
+      <c r="AV36" s="57"/>
+      <c r="AW36" s="57"/>
+      <c r="AX36" s="57"/>
+      <c r="AY36" s="57"/>
+      <c r="AZ36" s="57"/>
+      <c r="BA36" s="57"/>
+      <c r="BB36" s="57"/>
+      <c r="BC36" s="57"/>
+      <c r="BD36" s="57"/>
+      <c r="BE36" s="57"/>
+      <c r="BF36" s="57"/>
+      <c r="BG36" s="57"/>
+      <c r="BH36" s="57"/>
+      <c r="BI36" s="57"/>
+      <c r="BJ36" s="57"/>
+      <c r="BK36" s="57"/>
+      <c r="BL36" s="57"/>
+      <c r="BM36" s="57"/>
+      <c r="BN36" s="57"/>
+      <c r="BO36" s="57"/>
+      <c r="BQ36" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="BR36" s="62"/>
+      <c r="BR36" s="64"/>
     </row>
     <row r="37" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="21"/>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="61" t="s">
+      <c r="H37" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="61" t="s">
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="61" t="s">
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="61" t="s">
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="61" t="s">
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
       <c r="AD37" s="12" t="s">
         <v>23</v>
       </c>
@@ -11610,38 +11610,38 @@
       <c r="AW37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX37" s="69" t="s">
+      <c r="AX37" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AY37" s="70"/>
-      <c r="AZ37" s="71"/>
-      <c r="BA37" s="69" t="s">
+      <c r="AY37" s="59"/>
+      <c r="AZ37" s="60"/>
+      <c r="BA37" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="BB37" s="70"/>
-      <c r="BC37" s="71"/>
-      <c r="BD37" s="69" t="s">
+      <c r="BB37" s="59"/>
+      <c r="BC37" s="60"/>
+      <c r="BD37" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="BE37" s="70"/>
-      <c r="BF37" s="70"/>
-      <c r="BG37" s="70"/>
-      <c r="BH37" s="70"/>
-      <c r="BI37" s="71"/>
-      <c r="BJ37" s="69" t="s">
+      <c r="BE37" s="59"/>
+      <c r="BF37" s="59"/>
+      <c r="BG37" s="59"/>
+      <c r="BH37" s="59"/>
+      <c r="BI37" s="60"/>
+      <c r="BJ37" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK37" s="70"/>
-      <c r="BL37" s="71"/>
-      <c r="BM37" s="69" t="s">
+      <c r="BK37" s="59"/>
+      <c r="BL37" s="60"/>
+      <c r="BM37" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="BN37" s="70"/>
-      <c r="BO37" s="71"/>
-      <c r="BQ37" s="63" t="s">
+      <c r="BN37" s="59"/>
+      <c r="BO37" s="60"/>
+      <c r="BQ37" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="BR37" s="64"/>
+      <c r="BR37" s="66"/>
     </row>
     <row r="38" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B38" s="23">
@@ -11848,10 +11848,10 @@
       <c r="BO38" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="BQ38" s="65" t="s">
+      <c r="BQ38" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="BR38" s="66"/>
+      <c r="BR38" s="68"/>
     </row>
     <row r="39" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B39" s="23">
@@ -12075,10 +12075,10 @@
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>1248.8479262672811</v>
       </c>
-      <c r="BQ39" s="65" t="s">
+      <c r="BQ39" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="BR39" s="66"/>
+      <c r="BR39" s="68"/>
     </row>
     <row r="40" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B40" s="23">
@@ -12302,10 +12302,10 @@
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>1042.6356589147288</v>
       </c>
-      <c r="BQ40" s="65" t="s">
+      <c r="BQ40" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="BR40" s="66"/>
+      <c r="BR40" s="68"/>
     </row>
     <row r="41" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B41" s="23">
@@ -12537,10 +12537,10 @@
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>1012.0481927710842</v>
       </c>
-      <c r="BQ41" s="67" t="s">
+      <c r="BQ41" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="BR41" s="68"/>
+      <c r="BR41" s="70"/>
     </row>
     <row r="42" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B42" s="23">
@@ -12914,116 +12914,116 @@
       </c>
     </row>
     <row r="44" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="76"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="76"/>
-      <c r="U44" s="76"/>
-      <c r="V44" s="76"/>
-      <c r="W44" s="76"/>
-      <c r="X44" s="76"/>
-      <c r="Y44" s="76"/>
-      <c r="Z44" s="76"/>
-      <c r="AA44" s="76"/>
-      <c r="AB44" s="76"/>
-      <c r="AC44" s="76"/>
-      <c r="AD44" s="76"/>
-      <c r="AE44" s="76"/>
-      <c r="AF44" s="76"/>
-      <c r="AG44" s="76"/>
-      <c r="AH44" s="76"/>
-      <c r="AI44" s="76"/>
-      <c r="AJ44" s="76"/>
-      <c r="AK44" s="76"/>
-      <c r="AL44" s="76"/>
-      <c r="AM44" s="76"/>
-      <c r="AN44" s="76"/>
-      <c r="AO44" s="76"/>
-      <c r="AP44" s="76"/>
-      <c r="AQ44" s="76"/>
-      <c r="AR44" s="76"/>
-      <c r="AS44" s="76"/>
-      <c r="AT44" s="76"/>
-      <c r="AU44" s="76"/>
-      <c r="AV44" s="76"/>
-      <c r="AW44" s="76"/>
-      <c r="AX44" s="76"/>
-      <c r="AY44" s="76"/>
-      <c r="AZ44" s="76"/>
-      <c r="BA44" s="76"/>
-      <c r="BB44" s="76"/>
-      <c r="BC44" s="76"/>
-      <c r="BD44" s="76"/>
-      <c r="BE44" s="76"/>
-      <c r="BF44" s="76"/>
-      <c r="BG44" s="76"/>
-      <c r="BH44" s="76"/>
-      <c r="BI44" s="76"/>
-      <c r="BJ44" s="76"/>
-      <c r="BK44" s="76"/>
-      <c r="BL44" s="76"/>
-      <c r="BM44" s="76"/>
-      <c r="BN44" s="76"/>
-      <c r="BO44" s="76"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="57"/>
+      <c r="X44" s="57"/>
+      <c r="Y44" s="57"/>
+      <c r="Z44" s="57"/>
+      <c r="AA44" s="57"/>
+      <c r="AB44" s="57"/>
+      <c r="AC44" s="57"/>
+      <c r="AD44" s="57"/>
+      <c r="AE44" s="57"/>
+      <c r="AF44" s="57"/>
+      <c r="AG44" s="57"/>
+      <c r="AH44" s="57"/>
+      <c r="AI44" s="57"/>
+      <c r="AJ44" s="57"/>
+      <c r="AK44" s="57"/>
+      <c r="AL44" s="57"/>
+      <c r="AM44" s="57"/>
+      <c r="AN44" s="57"/>
+      <c r="AO44" s="57"/>
+      <c r="AP44" s="57"/>
+      <c r="AQ44" s="57"/>
+      <c r="AR44" s="57"/>
+      <c r="AS44" s="57"/>
+      <c r="AT44" s="57"/>
+      <c r="AU44" s="57"/>
+      <c r="AV44" s="57"/>
+      <c r="AW44" s="57"/>
+      <c r="AX44" s="57"/>
+      <c r="AY44" s="57"/>
+      <c r="AZ44" s="57"/>
+      <c r="BA44" s="57"/>
+      <c r="BB44" s="57"/>
+      <c r="BC44" s="57"/>
+      <c r="BD44" s="57"/>
+      <c r="BE44" s="57"/>
+      <c r="BF44" s="57"/>
+      <c r="BG44" s="57"/>
+      <c r="BH44" s="57"/>
+      <c r="BI44" s="57"/>
+      <c r="BJ44" s="57"/>
+      <c r="BK44" s="57"/>
+      <c r="BL44" s="57"/>
+      <c r="BM44" s="57"/>
+      <c r="BN44" s="57"/>
+      <c r="BO44" s="57"/>
     </row>
     <row r="45" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="61" t="s">
+      <c r="H45" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="61" t="s">
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="61" t="s">
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="61" t="s">
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="61" t="s">
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="59"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
       <c r="AD45" s="12" t="s">
         <v>23</v>
       </c>
@@ -13081,34 +13081,34 @@
       <c r="AW45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX45" s="69" t="s">
+      <c r="AX45" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AY45" s="70"/>
-      <c r="AZ45" s="71"/>
-      <c r="BA45" s="69" t="s">
+      <c r="AY45" s="59"/>
+      <c r="AZ45" s="60"/>
+      <c r="BA45" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="BB45" s="70"/>
-      <c r="BC45" s="71"/>
-      <c r="BD45" s="69" t="s">
+      <c r="BB45" s="59"/>
+      <c r="BC45" s="60"/>
+      <c r="BD45" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="BE45" s="70"/>
-      <c r="BF45" s="70"/>
-      <c r="BG45" s="70"/>
-      <c r="BH45" s="70"/>
-      <c r="BI45" s="71"/>
-      <c r="BJ45" s="69" t="s">
+      <c r="BE45" s="59"/>
+      <c r="BF45" s="59"/>
+      <c r="BG45" s="59"/>
+      <c r="BH45" s="59"/>
+      <c r="BI45" s="60"/>
+      <c r="BJ45" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK45" s="70"/>
-      <c r="BL45" s="71"/>
-      <c r="BM45" s="69" t="s">
+      <c r="BK45" s="59"/>
+      <c r="BL45" s="60"/>
+      <c r="BM45" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="BN45" s="70"/>
-      <c r="BO45" s="71"/>
+      <c r="BN45" s="59"/>
+      <c r="BO45" s="60"/>
     </row>
     <row r="46" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -14361,116 +14361,116 @@
       </c>
     </row>
     <row r="52" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="76" t="s">
+      <c r="B52" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="76"/>
-      <c r="V52" s="76"/>
-      <c r="W52" s="76"/>
-      <c r="X52" s="76"/>
-      <c r="Y52" s="76"/>
-      <c r="Z52" s="76"/>
-      <c r="AA52" s="76"/>
-      <c r="AB52" s="76"/>
-      <c r="AC52" s="76"/>
-      <c r="AD52" s="76"/>
-      <c r="AE52" s="76"/>
-      <c r="AF52" s="76"/>
-      <c r="AG52" s="76"/>
-      <c r="AH52" s="76"/>
-      <c r="AI52" s="76"/>
-      <c r="AJ52" s="76"/>
-      <c r="AK52" s="76"/>
-      <c r="AL52" s="76"/>
-      <c r="AM52" s="76"/>
-      <c r="AN52" s="76"/>
-      <c r="AO52" s="76"/>
-      <c r="AP52" s="76"/>
-      <c r="AQ52" s="76"/>
-      <c r="AR52" s="76"/>
-      <c r="AS52" s="76"/>
-      <c r="AT52" s="76"/>
-      <c r="AU52" s="76"/>
-      <c r="AV52" s="76"/>
-      <c r="AW52" s="76"/>
-      <c r="AX52" s="76"/>
-      <c r="AY52" s="76"/>
-      <c r="AZ52" s="76"/>
-      <c r="BA52" s="76"/>
-      <c r="BB52" s="76"/>
-      <c r="BC52" s="76"/>
-      <c r="BD52" s="76"/>
-      <c r="BE52" s="76"/>
-      <c r="BF52" s="76"/>
-      <c r="BG52" s="76"/>
-      <c r="BH52" s="76"/>
-      <c r="BI52" s="76"/>
-      <c r="BJ52" s="76"/>
-      <c r="BK52" s="76"/>
-      <c r="BL52" s="76"/>
-      <c r="BM52" s="76"/>
-      <c r="BN52" s="76"/>
-      <c r="BO52" s="76"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="57"/>
+      <c r="V52" s="57"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="57"/>
+      <c r="Y52" s="57"/>
+      <c r="Z52" s="57"/>
+      <c r="AA52" s="57"/>
+      <c r="AB52" s="57"/>
+      <c r="AC52" s="57"/>
+      <c r="AD52" s="57"/>
+      <c r="AE52" s="57"/>
+      <c r="AF52" s="57"/>
+      <c r="AG52" s="57"/>
+      <c r="AH52" s="57"/>
+      <c r="AI52" s="57"/>
+      <c r="AJ52" s="57"/>
+      <c r="AK52" s="57"/>
+      <c r="AL52" s="57"/>
+      <c r="AM52" s="57"/>
+      <c r="AN52" s="57"/>
+      <c r="AO52" s="57"/>
+      <c r="AP52" s="57"/>
+      <c r="AQ52" s="57"/>
+      <c r="AR52" s="57"/>
+      <c r="AS52" s="57"/>
+      <c r="AT52" s="57"/>
+      <c r="AU52" s="57"/>
+      <c r="AV52" s="57"/>
+      <c r="AW52" s="57"/>
+      <c r="AX52" s="57"/>
+      <c r="AY52" s="57"/>
+      <c r="AZ52" s="57"/>
+      <c r="BA52" s="57"/>
+      <c r="BB52" s="57"/>
+      <c r="BC52" s="57"/>
+      <c r="BD52" s="57"/>
+      <c r="BE52" s="57"/>
+      <c r="BF52" s="57"/>
+      <c r="BG52" s="57"/>
+      <c r="BH52" s="57"/>
+      <c r="BI52" s="57"/>
+      <c r="BJ52" s="57"/>
+      <c r="BK52" s="57"/>
+      <c r="BL52" s="57"/>
+      <c r="BM52" s="57"/>
+      <c r="BN52" s="57"/>
+      <c r="BO52" s="57"/>
     </row>
     <row r="53" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="21"/>
-      <c r="D53" s="60" t="s">
+      <c r="D53" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="61" t="s">
+      <c r="H53" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="61" t="s">
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="61" t="s">
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="61" t="s">
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="R53" s="59"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="61" t="s">
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="U53" s="59"/>
-      <c r="V53" s="59"/>
-      <c r="W53" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X53" s="59"/>
-      <c r="Y53" s="59"/>
+      <c r="U53" s="73"/>
+      <c r="V53" s="73"/>
+      <c r="W53" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X53" s="73"/>
+      <c r="Y53" s="73"/>
       <c r="AD53" s="12" t="s">
         <v>23</v>
       </c>
@@ -14528,34 +14528,34 @@
       <c r="AW53" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX53" s="69" t="s">
+      <c r="AX53" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AY53" s="70"/>
-      <c r="AZ53" s="71"/>
-      <c r="BA53" s="69" t="s">
+      <c r="AY53" s="59"/>
+      <c r="AZ53" s="60"/>
+      <c r="BA53" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="BB53" s="70"/>
-      <c r="BC53" s="71"/>
-      <c r="BD53" s="69" t="s">
+      <c r="BB53" s="59"/>
+      <c r="BC53" s="60"/>
+      <c r="BD53" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="BE53" s="70"/>
-      <c r="BF53" s="70"/>
-      <c r="BG53" s="70"/>
-      <c r="BH53" s="70"/>
-      <c r="BI53" s="71"/>
-      <c r="BJ53" s="69" t="s">
+      <c r="BE53" s="59"/>
+      <c r="BF53" s="59"/>
+      <c r="BG53" s="59"/>
+      <c r="BH53" s="59"/>
+      <c r="BI53" s="60"/>
+      <c r="BJ53" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK53" s="70"/>
-      <c r="BL53" s="71"/>
-      <c r="BM53" s="69" t="s">
+      <c r="BK53" s="59"/>
+      <c r="BL53" s="60"/>
+      <c r="BM53" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="BN53" s="70"/>
-      <c r="BO53" s="71"/>
+      <c r="BN53" s="59"/>
+      <c r="BO53" s="60"/>
     </row>
     <row r="54" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B54" s="23">
@@ -15808,116 +15808,116 @@
       </c>
     </row>
     <row r="60" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="76" t="s">
+      <c r="B60" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="76"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
-      <c r="Q60" s="76"/>
-      <c r="R60" s="76"/>
-      <c r="S60" s="76"/>
-      <c r="T60" s="76"/>
-      <c r="U60" s="76"/>
-      <c r="V60" s="76"/>
-      <c r="W60" s="76"/>
-      <c r="X60" s="76"/>
-      <c r="Y60" s="76"/>
-      <c r="Z60" s="76"/>
-      <c r="AA60" s="76"/>
-      <c r="AB60" s="76"/>
-      <c r="AC60" s="76"/>
-      <c r="AD60" s="76"/>
-      <c r="AE60" s="76"/>
-      <c r="AF60" s="76"/>
-      <c r="AG60" s="76"/>
-      <c r="AH60" s="76"/>
-      <c r="AI60" s="76"/>
-      <c r="AJ60" s="76"/>
-      <c r="AK60" s="76"/>
-      <c r="AL60" s="76"/>
-      <c r="AM60" s="76"/>
-      <c r="AN60" s="76"/>
-      <c r="AO60" s="76"/>
-      <c r="AP60" s="76"/>
-      <c r="AQ60" s="76"/>
-      <c r="AR60" s="76"/>
-      <c r="AS60" s="76"/>
-      <c r="AT60" s="76"/>
-      <c r="AU60" s="76"/>
-      <c r="AV60" s="76"/>
-      <c r="AW60" s="76"/>
-      <c r="AX60" s="76"/>
-      <c r="AY60" s="76"/>
-      <c r="AZ60" s="76"/>
-      <c r="BA60" s="76"/>
-      <c r="BB60" s="76"/>
-      <c r="BC60" s="76"/>
-      <c r="BD60" s="76"/>
-      <c r="BE60" s="76"/>
-      <c r="BF60" s="76"/>
-      <c r="BG60" s="76"/>
-      <c r="BH60" s="76"/>
-      <c r="BI60" s="76"/>
-      <c r="BJ60" s="76"/>
-      <c r="BK60" s="76"/>
-      <c r="BL60" s="76"/>
-      <c r="BM60" s="76"/>
-      <c r="BN60" s="76"/>
-      <c r="BO60" s="76"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="57"/>
+      <c r="S60" s="57"/>
+      <c r="T60" s="57"/>
+      <c r="U60" s="57"/>
+      <c r="V60" s="57"/>
+      <c r="W60" s="57"/>
+      <c r="X60" s="57"/>
+      <c r="Y60" s="57"/>
+      <c r="Z60" s="57"/>
+      <c r="AA60" s="57"/>
+      <c r="AB60" s="57"/>
+      <c r="AC60" s="57"/>
+      <c r="AD60" s="57"/>
+      <c r="AE60" s="57"/>
+      <c r="AF60" s="57"/>
+      <c r="AG60" s="57"/>
+      <c r="AH60" s="57"/>
+      <c r="AI60" s="57"/>
+      <c r="AJ60" s="57"/>
+      <c r="AK60" s="57"/>
+      <c r="AL60" s="57"/>
+      <c r="AM60" s="57"/>
+      <c r="AN60" s="57"/>
+      <c r="AO60" s="57"/>
+      <c r="AP60" s="57"/>
+      <c r="AQ60" s="57"/>
+      <c r="AR60" s="57"/>
+      <c r="AS60" s="57"/>
+      <c r="AT60" s="57"/>
+      <c r="AU60" s="57"/>
+      <c r="AV60" s="57"/>
+      <c r="AW60" s="57"/>
+      <c r="AX60" s="57"/>
+      <c r="AY60" s="57"/>
+      <c r="AZ60" s="57"/>
+      <c r="BA60" s="57"/>
+      <c r="BB60" s="57"/>
+      <c r="BC60" s="57"/>
+      <c r="BD60" s="57"/>
+      <c r="BE60" s="57"/>
+      <c r="BF60" s="57"/>
+      <c r="BG60" s="57"/>
+      <c r="BH60" s="57"/>
+      <c r="BI60" s="57"/>
+      <c r="BJ60" s="57"/>
+      <c r="BK60" s="57"/>
+      <c r="BL60" s="57"/>
+      <c r="BM60" s="57"/>
+      <c r="BN60" s="57"/>
+      <c r="BO60" s="57"/>
     </row>
     <row r="61" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B61" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C61" s="21"/>
-      <c r="D61" s="60" t="s">
+      <c r="D61" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="61" t="s">
+      <c r="H61" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="61" t="s">
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="L61" s="59"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="61" t="s">
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="61" t="s">
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="R61" s="59"/>
-      <c r="S61" s="59"/>
-      <c r="T61" s="61" t="s">
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="U61" s="59"/>
-      <c r="V61" s="59"/>
-      <c r="W61" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X61" s="59"/>
-      <c r="Y61" s="59"/>
+      <c r="U61" s="73"/>
+      <c r="V61" s="73"/>
+      <c r="W61" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X61" s="73"/>
+      <c r="Y61" s="73"/>
       <c r="AD61" s="12" t="s">
         <v>23</v>
       </c>
@@ -15975,34 +15975,34 @@
       <c r="AW61" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX61" s="69" t="s">
+      <c r="AX61" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AY61" s="70"/>
-      <c r="AZ61" s="71"/>
-      <c r="BA61" s="69" t="s">
+      <c r="AY61" s="59"/>
+      <c r="AZ61" s="60"/>
+      <c r="BA61" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="BB61" s="70"/>
-      <c r="BC61" s="71"/>
-      <c r="BD61" s="69" t="s">
+      <c r="BB61" s="59"/>
+      <c r="BC61" s="60"/>
+      <c r="BD61" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="BE61" s="70"/>
-      <c r="BF61" s="70"/>
-      <c r="BG61" s="70"/>
-      <c r="BH61" s="70"/>
-      <c r="BI61" s="71"/>
-      <c r="BJ61" s="69" t="s">
+      <c r="BE61" s="59"/>
+      <c r="BF61" s="59"/>
+      <c r="BG61" s="59"/>
+      <c r="BH61" s="59"/>
+      <c r="BI61" s="60"/>
+      <c r="BJ61" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK61" s="70"/>
-      <c r="BL61" s="71"/>
-      <c r="BM61" s="69" t="s">
+      <c r="BK61" s="59"/>
+      <c r="BL61" s="60"/>
+      <c r="BM61" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="BN61" s="70"/>
-      <c r="BO61" s="71"/>
+      <c r="BN61" s="59"/>
+      <c r="BO61" s="60"/>
     </row>
     <row r="62" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
@@ -17253,6 +17253,93 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="111">
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BQ37:BR37"/>
+    <mergeCell ref="BQ38:BR38"/>
+    <mergeCell ref="BQ39:BR39"/>
+    <mergeCell ref="BQ40:BR40"/>
+    <mergeCell ref="BQ41:BR41"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="BA29:BC29"/>
+    <mergeCell ref="BD29:BI29"/>
+    <mergeCell ref="BJ29:BL29"/>
+    <mergeCell ref="BM29:BO29"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="BA37:BC37"/>
+    <mergeCell ref="BD37:BI37"/>
+    <mergeCell ref="BJ37:BL37"/>
+    <mergeCell ref="BM37:BO37"/>
+    <mergeCell ref="BJ21:BL21"/>
+    <mergeCell ref="BM21:BO21"/>
+    <mergeCell ref="AX61:AZ61"/>
+    <mergeCell ref="BA61:BC61"/>
+    <mergeCell ref="BD61:BI61"/>
+    <mergeCell ref="BJ61:BL61"/>
+    <mergeCell ref="BM61:BO61"/>
+    <mergeCell ref="AX45:AZ45"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BO5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA13:BC13"/>
+    <mergeCell ref="BD13:BI13"/>
     <mergeCell ref="B2:BO2"/>
     <mergeCell ref="B4:BO4"/>
     <mergeCell ref="B12:BO12"/>
@@ -17277,93 +17364,6 @@
     <mergeCell ref="AX21:AZ21"/>
     <mergeCell ref="BA21:BC21"/>
     <mergeCell ref="BD21:BI21"/>
-    <mergeCell ref="BJ21:BL21"/>
-    <mergeCell ref="BM21:BO21"/>
-    <mergeCell ref="AX61:AZ61"/>
-    <mergeCell ref="BA61:BC61"/>
-    <mergeCell ref="BD61:BI61"/>
-    <mergeCell ref="BJ61:BL61"/>
-    <mergeCell ref="BM61:BO61"/>
-    <mergeCell ref="AX45:AZ45"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BO5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA13:BC13"/>
-    <mergeCell ref="BD13:BI13"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BQ37:BR37"/>
-    <mergeCell ref="BQ38:BR38"/>
-    <mergeCell ref="BQ39:BR39"/>
-    <mergeCell ref="BQ40:BR40"/>
-    <mergeCell ref="BQ41:BR41"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="BA29:BC29"/>
-    <mergeCell ref="BD29:BI29"/>
-    <mergeCell ref="BJ29:BL29"/>
-    <mergeCell ref="BM29:BO29"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="BA37:BC37"/>
-    <mergeCell ref="BD37:BI37"/>
-    <mergeCell ref="BJ37:BL37"/>
-    <mergeCell ref="BM37:BO37"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="W61:Y61"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <conditionalFormatting sqref="T6:V11 T22:V27 T54:V59">
     <cfRule type="expression" dxfId="95" priority="464">
@@ -17702,7 +17702,7 @@
   <dimension ref="B1:BO48"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -17771,55 +17771,55 @@
       <c r="Y1" s="18"/>
     </row>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="75"/>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="75"/>
-      <c r="AV2" s="75"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
       <c r="AW2" s="46"/>
       <c r="AX2" s="46"/>
       <c r="AY2" s="46"/>
@@ -17873,42 +17873,42 @@
         <v>54</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57" t="s">
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57" t="s">
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="57" t="s">
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57" t="s">
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
       <c r="AA5" s="12" t="s">
         <v>23</v>
       </c>
@@ -17975,30 +17975,46 @@
         <f>IF(Preliminary!BA7&lt;3,"Winner of Pool A",Preliminary!AY7)</f>
         <v>Tunisia</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="48">
+        <v>0</v>
+      </c>
       <c r="E6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="47"/>
+      <c r="F6" s="47">
+        <v>3</v>
+      </c>
       <c r="G6" s="25" t="str">
         <f>IF(Preliminary!BA64&lt;3,"Runners-up of Pool H",Preliminary!AY64)</f>
         <v>Czech Republic</v>
       </c>
-      <c r="H6" s="28"/>
+      <c r="H6" s="28">
+        <v>19</v>
+      </c>
       <c r="I6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="28"/>
+      <c r="J6" s="30">
+        <v>25</v>
+      </c>
+      <c r="K6" s="28">
+        <v>18</v>
+      </c>
       <c r="L6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="28"/>
+      <c r="M6" s="30">
+        <v>25</v>
+      </c>
+      <c r="N6" s="28">
+        <v>23</v>
+      </c>
       <c r="O6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P6" s="30"/>
+      <c r="P6" s="30">
+        <v>25</v>
+      </c>
       <c r="Q6" s="28"/>
       <c r="R6" s="29" t="s">
         <v>0</v>
@@ -18011,30 +18027,30 @@
       <c r="V6" s="30"/>
       <c r="W6" s="31">
         <f t="shared" ref="W6:W13" si="0">SUM(H6,K6,N6,Q6,T6)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="X6" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y6" s="32">
         <f t="shared" ref="Y6:Y13" si="1">SUM(J6,M6,P6,S6,V6)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA6" s="12">
         <f>AD6+AE6</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="12">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="12" t="str">
         <f>IF(OR(D6="",F6=""),0,IF(D6&gt;F6,C6,G6))</f>
-        <v>0</v>
+        <v>Czech Republic</v>
       </c>
       <c r="AC6" s="12">
         <f>IF(OR(D6="",F6=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="12">
         <f>IF(OR(D6="",F6=""),0,IF(D6&gt;F6,D6,F6))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE6" s="12">
         <f>IF(OR(D6="",F6=""),0,IF(D6&gt;F6,F6,D6))</f>
@@ -18042,7 +18058,7 @@
       </c>
       <c r="AF6" s="12">
         <f>IF(AND(AD6=3,AE6=0),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="12">
         <f>IF(AND(AD6=3,AE6=1),1,0)</f>
@@ -18054,19 +18070,19 @@
       </c>
       <c r="AI6" s="12">
         <f>IF(D6&gt;F6,SUM(H6,K6,N6,Q6,T6,),SUM(J6,M6,P6,S6,V6))</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ6" s="12">
         <f>IF(D6&gt;F6,SUM(J6,M6,P6,S6,V6),SUM(H6,K6,N6,Q6,T6))</f>
-        <v>0</v>
-      </c>
-      <c r="AL6" s="12">
+        <v>60</v>
+      </c>
+      <c r="AL6" s="12" t="str">
         <f>IF(OR(D6="",F6=""),0,IF(D6&lt;F6,C6,G6))</f>
-        <v>0</v>
+        <v>Tunisia</v>
       </c>
       <c r="AM6" s="12">
         <f>IF(OR(D6="",F6=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6" s="12">
         <f>IF(OR(D6="",F6=""),0,IF(D6&lt;F6,D6,F6))</f>
@@ -18074,7 +18090,7 @@
       </c>
       <c r="AO6" s="12">
         <f>IF(OR(D6="",F6=""),0,IF(D6&lt;F6,F6,D6))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP6" s="12">
         <f>IF(AND(AN6=2,AO6=3),1,0)</f>
@@ -18086,15 +18102,15 @@
       </c>
       <c r="AR6" s="12">
         <f>IF(AND(AN6=0,AO6=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6" s="12">
         <f>IF(D6&lt;F6,SUM(H6,K6,N6,Q6,T6,),SUM(J6,M6,P6,S6,V6))</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AT6" s="12">
         <f>IF(D6&lt;F6,SUM(J6,M6,P6,S6,V6),SUM(H6,K6,N6,Q6,T6))</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX6" s="14"/>
     </row>
@@ -18106,70 +18122,94 @@
         <f>IF(Preliminary!BA63&lt;3,"Winner of Pool H",Preliminary!AY63)</f>
         <v>Serbia</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="48">
+        <v>2</v>
+      </c>
       <c r="E7" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="47"/>
+      <c r="F7" s="47">
+        <v>3</v>
+      </c>
       <c r="G7" s="25" t="str">
         <f>IF(Preliminary!BA8&lt;3,"Runners-up of Pool A",Preliminary!AY8)</f>
         <v>Iran</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="28">
+        <v>25</v>
+      </c>
       <c r="I7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="28"/>
+      <c r="J7" s="30">
+        <v>23</v>
+      </c>
+      <c r="K7" s="28">
+        <v>19</v>
+      </c>
       <c r="L7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="28"/>
+      <c r="M7" s="30">
+        <v>25</v>
+      </c>
+      <c r="N7" s="28">
+        <v>26</v>
+      </c>
       <c r="O7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="28"/>
+      <c r="P7" s="30">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>22</v>
+      </c>
       <c r="R7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="28"/>
+      <c r="S7" s="30">
+        <v>25</v>
+      </c>
+      <c r="T7" s="28">
+        <v>9</v>
+      </c>
       <c r="U7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="V7" s="30"/>
+      <c r="V7" s="30">
+        <v>15</v>
+      </c>
       <c r="W7" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="X7" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y7" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AA7" s="12">
         <f t="shared" ref="AA7:AA13" si="2">AD7+AE7</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="12">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="12" t="str">
         <f t="shared" ref="AB7:AB13" si="3">IF(OR(D7="",F7=""),0,IF(D7&gt;F7,C7,G7))</f>
-        <v>0</v>
+        <v>Iran</v>
       </c>
       <c r="AC7" s="12">
         <f t="shared" ref="AC7:AC13" si="4">IF(OR(D7="",F7=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="12">
         <f t="shared" ref="AD7:AD13" si="5">IF(OR(D7="",F7=""),0,IF(D7&gt;F7,D7,F7))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE7" s="12">
         <f t="shared" ref="AE7:AE13" si="6">IF(OR(D7="",F7=""),0,IF(D7&gt;F7,F7,D7))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF7" s="12">
         <f t="shared" ref="AF7:AF13" si="7">IF(AND(AD7=3,AE7=0),1,0)</f>
@@ -18181,35 +18221,35 @@
       </c>
       <c r="AH7" s="12">
         <f t="shared" ref="AH7:AH13" si="9">IF(AND(AD7=3,AE7=2),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="12">
         <f t="shared" ref="AI7:AI13" si="10">IF(D7&gt;F7,SUM(H7,K7,N7,Q7,T7,),SUM(J7,M7,P7,S7,V7))</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AJ7" s="12">
         <f t="shared" ref="AJ7:AJ13" si="11">IF(D7&gt;F7,SUM(J7,M7,P7,S7,V7),SUM(H7,K7,N7,Q7,T7))</f>
-        <v>0</v>
-      </c>
-      <c r="AL7" s="12">
+        <v>101</v>
+      </c>
+      <c r="AL7" s="12" t="str">
         <f t="shared" ref="AL7:AL13" si="12">IF(OR(D7="",F7=""),0,IF(D7&lt;F7,C7,G7))</f>
-        <v>0</v>
+        <v>Serbia</v>
       </c>
       <c r="AM7" s="12">
         <f t="shared" ref="AM7:AM13" si="13">IF(OR(D7="",F7=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7" s="12">
         <f t="shared" ref="AN7:AN13" si="14">IF(OR(D7="",F7=""),0,IF(D7&lt;F7,D7,F7))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO7" s="12">
         <f t="shared" ref="AO7:AO13" si="15">IF(OR(D7="",F7=""),0,IF(D7&lt;F7,F7,D7))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP7" s="12">
         <f t="shared" ref="AP7:AP13" si="16">IF(AND(AN7=2,AO7=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7" s="12">
         <f t="shared" ref="AQ7:AQ13" si="17">IF(AND(AN7=1,AO7=3),1,0)</f>
@@ -18221,11 +18261,11 @@
       </c>
       <c r="AS7" s="12">
         <f t="shared" ref="AS7:AS13" si="19">IF(D7&lt;F7,SUM(H7,K7,N7,Q7,T7,),SUM(J7,M7,P7,S7,V7))</f>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AT7" s="12">
         <f t="shared" ref="AT7:AT13" si="20">IF(D7&lt;F7,SUM(J7,M7,P7,S7,V7),SUM(H7,K7,N7,Q7,T7))</f>
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:67" x14ac:dyDescent="0.25">
@@ -18236,35 +18276,55 @@
         <f>IF(Preliminary!BA15&lt;3,"Winner of Pool B",Preliminary!AY15)</f>
         <v>Poland</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="48">
+        <v>3</v>
+      </c>
       <c r="E8" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="47"/>
+      <c r="F8" s="47">
+        <v>1</v>
+      </c>
       <c r="G8" s="25" t="str">
         <f>IF(Preliminary!BA56&lt;3,"Runners-up of Pool G",Preliminary!AY56)</f>
         <v>Canada</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="28">
+        <v>25</v>
+      </c>
       <c r="I8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="28"/>
+      <c r="J8" s="30">
+        <v>18</v>
+      </c>
+      <c r="K8" s="28">
+        <v>23</v>
+      </c>
       <c r="L8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="28"/>
+      <c r="M8" s="30">
+        <v>25</v>
+      </c>
+      <c r="N8" s="28">
+        <v>25</v>
+      </c>
       <c r="O8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="28"/>
+      <c r="P8" s="30">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>25</v>
+      </c>
       <c r="R8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S8" s="30"/>
+      <c r="S8" s="30">
+        <v>14</v>
+      </c>
       <c r="T8" s="28"/>
       <c r="U8" s="29" t="s">
         <v>0</v>
@@ -18272,34 +18332,34 @@
       <c r="V8" s="30"/>
       <c r="W8" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="X8" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y8" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AA8" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="12">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Poland</v>
       </c>
       <c r="AC8" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE8" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="7"/>
@@ -18307,7 +18367,7 @@
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="12">
         <f t="shared" si="9"/>
@@ -18315,27 +18375,27 @@
       </c>
       <c r="AI8" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AJ8" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL8" s="12">
+        <v>77</v>
+      </c>
+      <c r="AL8" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Canada</v>
       </c>
       <c r="AM8" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP8" s="12">
         <f t="shared" si="16"/>
@@ -18343,7 +18403,7 @@
       </c>
       <c r="AQ8" s="12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8" s="12">
         <f t="shared" si="18"/>
@@ -18351,11 +18411,11 @@
       </c>
       <c r="AS8" s="12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AT8" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:67" x14ac:dyDescent="0.25">
@@ -18366,35 +18426,55 @@
         <f>IF(Preliminary!BA55&lt;3,"Winner of Pool G",Preliminary!AY55)</f>
         <v>Turkey</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="48">
+        <v>3</v>
+      </c>
       <c r="E9" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="47"/>
+      <c r="F9" s="47">
+        <v>1</v>
+      </c>
       <c r="G9" s="25" t="str">
         <f>IF(Preliminary!BA16&lt;3,"Runners-up of Pool B",Preliminary!AY16)</f>
         <v>Netherlands</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="28">
+        <v>27</v>
+      </c>
       <c r="I9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="28"/>
+      <c r="J9" s="30">
+        <v>29</v>
+      </c>
+      <c r="K9" s="28">
+        <v>25</v>
+      </c>
       <c r="L9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="28"/>
+      <c r="M9" s="30">
+        <v>23</v>
+      </c>
+      <c r="N9" s="28">
+        <v>25</v>
+      </c>
       <c r="O9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="28"/>
+      <c r="P9" s="30">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>25</v>
+      </c>
       <c r="R9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S9" s="30"/>
+      <c r="S9" s="30">
+        <v>19</v>
+      </c>
       <c r="T9" s="28"/>
       <c r="U9" s="29" t="s">
         <v>0</v>
@@ -18402,34 +18482,34 @@
       <c r="V9" s="30"/>
       <c r="W9" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="X9" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y9" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="AA9" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="12">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Turkey</v>
       </c>
       <c r="AC9" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE9" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" si="7"/>
@@ -18437,7 +18517,7 @@
       </c>
       <c r="AG9" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" si="9"/>
@@ -18445,27 +18525,27 @@
       </c>
       <c r="AI9" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AJ9" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="12">
+        <v>87</v>
+      </c>
+      <c r="AL9" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Netherlands</v>
       </c>
       <c r="AM9" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP9" s="12">
         <f t="shared" si="16"/>
@@ -18473,7 +18553,7 @@
       </c>
       <c r="AQ9" s="12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9" s="12">
         <f t="shared" si="18"/>
@@ -18481,11 +18561,11 @@
       </c>
       <c r="AS9" s="12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="AT9" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:67" x14ac:dyDescent="0.25">
@@ -18496,30 +18576,46 @@
         <f>IF(Preliminary!BA23&lt;3,"Winner of Pool C",Preliminary!AY23)</f>
         <v>Argentina</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="48">
+        <v>0</v>
+      </c>
       <c r="E10" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="47">
+        <v>3</v>
+      </c>
       <c r="G10" s="25" t="str">
         <f>IF(Preliminary!BA48&lt;3,"Runners-up of Pool F",Preliminary!AY48)</f>
         <v>Italy</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="28">
+        <v>23</v>
+      </c>
       <c r="I10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="28"/>
+      <c r="J10" s="30">
+        <v>25</v>
+      </c>
+      <c r="K10" s="28">
+        <v>20</v>
+      </c>
       <c r="L10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="28"/>
+      <c r="M10" s="30">
+        <v>25</v>
+      </c>
+      <c r="N10" s="28">
+        <v>22</v>
+      </c>
       <c r="O10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P10" s="30"/>
+      <c r="P10" s="30">
+        <v>25</v>
+      </c>
       <c r="Q10" s="28"/>
       <c r="R10" s="29" t="s">
         <v>0</v>
@@ -18532,30 +18628,30 @@
       <c r="V10" s="30"/>
       <c r="W10" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="X10" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y10" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA10" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="12">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Italy</v>
       </c>
       <c r="AC10" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE10" s="12">
         <f t="shared" si="6"/>
@@ -18563,7 +18659,7 @@
       </c>
       <c r="AF10" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="12">
         <f t="shared" si="8"/>
@@ -18575,19 +18671,19 @@
       </c>
       <c r="AI10" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ10" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL10" s="12">
+        <v>65</v>
+      </c>
+      <c r="AL10" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Argentina</v>
       </c>
       <c r="AM10" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="12">
         <f t="shared" si="14"/>
@@ -18595,7 +18691,7 @@
       </c>
       <c r="AO10" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP10" s="12">
         <f t="shared" si="16"/>
@@ -18607,15 +18703,15 @@
       </c>
       <c r="AR10" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS10" s="12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AT10" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18626,30 +18722,46 @@
         <f>IF(Preliminary!BA47&lt;3,"Winner of Pool F",Preliminary!AY47)</f>
         <v>Belgium</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="48">
+        <v>3</v>
+      </c>
       <c r="E11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="47"/>
+      <c r="F11" s="47">
+        <v>0</v>
+      </c>
       <c r="G11" s="25" t="str">
         <f>IF(Preliminary!BA24&lt;3,"Runners-up of Pool C",Preliminary!AY24)</f>
         <v>Finland</v>
       </c>
-      <c r="H11" s="28"/>
+      <c r="H11" s="28">
+        <v>25</v>
+      </c>
       <c r="I11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="28"/>
+      <c r="J11" s="30">
+        <v>21</v>
+      </c>
+      <c r="K11" s="28">
+        <v>25</v>
+      </c>
       <c r="L11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="28"/>
+      <c r="M11" s="30">
+        <v>17</v>
+      </c>
+      <c r="N11" s="28">
+        <v>25</v>
+      </c>
       <c r="O11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P11" s="30"/>
+      <c r="P11" s="30">
+        <v>21</v>
+      </c>
       <c r="Q11" s="28"/>
       <c r="R11" s="29" t="s">
         <v>0</v>
@@ -18662,30 +18774,30 @@
       <c r="V11" s="30"/>
       <c r="W11" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X11" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y11" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AA11" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="12">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Belgium</v>
       </c>
       <c r="AC11" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE11" s="12">
         <f t="shared" si="6"/>
@@ -18693,7 +18805,7 @@
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="12">
         <f t="shared" si="8"/>
@@ -18705,19 +18817,19 @@
       </c>
       <c r="AI11" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ11" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL11" s="12">
+        <v>59</v>
+      </c>
+      <c r="AL11" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Finland</v>
       </c>
       <c r="AM11" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN11" s="12">
         <f t="shared" si="14"/>
@@ -18725,7 +18837,7 @@
       </c>
       <c r="AO11" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11" s="12">
         <f t="shared" si="16"/>
@@ -18737,15 +18849,15 @@
       </c>
       <c r="AR11" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS11" s="12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AT11" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AW11" s="38"/>
       <c r="AX11" s="38"/>
@@ -18772,35 +18884,55 @@
         <f>IF(Preliminary!BA31&lt;3,"Winner of Pool D",Preliminary!AY31)</f>
         <v>United States</v>
       </c>
-      <c r="D12" s="48"/>
+      <c r="D12" s="48">
+        <v>3</v>
+      </c>
       <c r="E12" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="47">
+        <v>1</v>
+      </c>
       <c r="G12" s="25" t="str">
         <f>IF(Preliminary!BA40&lt;3,"Runners-up of Pool E",Preliminary!AY40)</f>
         <v>Slovenia</v>
       </c>
-      <c r="H12" s="28"/>
+      <c r="H12" s="28">
+        <v>19</v>
+      </c>
       <c r="I12" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="28"/>
+      <c r="J12" s="30">
+        <v>25</v>
+      </c>
+      <c r="K12" s="28">
+        <v>25</v>
+      </c>
       <c r="L12" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="28"/>
+      <c r="M12" s="30">
+        <v>22</v>
+      </c>
+      <c r="N12" s="28">
+        <v>25</v>
+      </c>
       <c r="O12" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="28"/>
+      <c r="P12" s="30">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="28">
+        <v>25</v>
+      </c>
       <c r="R12" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S12" s="30"/>
+      <c r="S12" s="30">
+        <v>20</v>
+      </c>
       <c r="T12" s="28"/>
       <c r="U12" s="29" t="s">
         <v>0</v>
@@ -18808,34 +18940,34 @@
       <c r="V12" s="30"/>
       <c r="W12" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="X12" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y12" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AA12" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="12">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>United States</v>
       </c>
       <c r="AC12" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE12" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="12">
         <f t="shared" si="7"/>
@@ -18843,7 +18975,7 @@
       </c>
       <c r="AG12" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12" s="12">
         <f t="shared" si="9"/>
@@ -18851,27 +18983,27 @@
       </c>
       <c r="AI12" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AJ12" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="12">
+        <v>84</v>
+      </c>
+      <c r="AL12" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Slovenia</v>
       </c>
       <c r="AM12" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12" s="12">
         <f t="shared" si="16"/>
@@ -18879,7 +19011,7 @@
       </c>
       <c r="AQ12" s="12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12" s="12">
         <f t="shared" si="18"/>
@@ -18887,11 +19019,11 @@
       </c>
       <c r="AS12" s="12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AT12" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AW12" s="39"/>
       <c r="AX12" s="39"/>
@@ -18918,30 +19050,46 @@
         <f>IF(Preliminary!BA39&lt;3,"Winner of Pool E",Preliminary!AY39)</f>
         <v>Bulgaria</v>
       </c>
-      <c r="D13" s="48"/>
+      <c r="D13" s="48">
+        <v>3</v>
+      </c>
       <c r="E13" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="47"/>
+      <c r="F13" s="47">
+        <v>0</v>
+      </c>
       <c r="G13" s="25" t="str">
         <f>IF(Preliminary!BA32&lt;3,"Runners-up of Pool D",Preliminary!AY32)</f>
         <v>Portugal</v>
       </c>
-      <c r="H13" s="28"/>
+      <c r="H13" s="28">
+        <v>25</v>
+      </c>
       <c r="I13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="28"/>
+      <c r="J13" s="30">
+        <v>19</v>
+      </c>
+      <c r="K13" s="28">
+        <v>25</v>
+      </c>
       <c r="L13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="28"/>
+      <c r="M13" s="30">
+        <v>23</v>
+      </c>
+      <c r="N13" s="28">
+        <v>25</v>
+      </c>
       <c r="O13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P13" s="30"/>
+      <c r="P13" s="30">
+        <v>13</v>
+      </c>
       <c r="Q13" s="28"/>
       <c r="R13" s="29" t="s">
         <v>0</v>
@@ -18954,30 +19102,30 @@
       <c r="V13" s="30"/>
       <c r="W13" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X13" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y13" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA13" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="12">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Bulgaria</v>
       </c>
       <c r="AC13" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE13" s="12">
         <f t="shared" si="6"/>
@@ -18985,7 +19133,7 @@
       </c>
       <c r="AF13" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" s="12">
         <f t="shared" si="8"/>
@@ -18997,19 +19145,19 @@
       </c>
       <c r="AI13" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ13" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL13" s="12">
+        <v>55</v>
+      </c>
+      <c r="AL13" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Portugal</v>
       </c>
       <c r="AM13" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13" s="12">
         <f t="shared" si="14"/>
@@ -19017,7 +19165,7 @@
       </c>
       <c r="AO13" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13" s="12">
         <f t="shared" si="16"/>
@@ -19029,15 +19177,15 @@
       </c>
       <c r="AR13" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS13" s="12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AT13" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AW13" s="39"/>
       <c r="AX13" s="39"/>
@@ -19101,52 +19249,52 @@
       <c r="W15" s="77"/>
       <c r="X15" s="77"/>
       <c r="Y15" s="77"/>
-      <c r="AU15" s="62" t="s">
+      <c r="AU15" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="AV15" s="62"/>
+      <c r="AV15" s="64"/>
     </row>
     <row r="16" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57" t="s">
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57" t="s">
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="57" t="s">
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57" t="s">
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
       <c r="AA16" s="12" t="s">
         <v>23</v>
       </c>
@@ -19204,10 +19352,10 @@
       <c r="AT16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AU16" s="63" t="s">
+      <c r="AU16" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="AV16" s="64"/>
+      <c r="AV16" s="66"/>
     </row>
     <row r="17" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23">
@@ -19215,37 +19363,57 @@
       </c>
       <c r="C17" s="24" t="str">
         <f>IF(AB6=0,"Winner R1",AB6)</f>
-        <v>Winner R1</v>
-      </c>
-      <c r="D17" s="48"/>
+        <v>Czech Republic</v>
+      </c>
+      <c r="D17" s="48">
+        <v>3</v>
+      </c>
       <c r="E17" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="47">
+        <v>1</v>
+      </c>
       <c r="G17" s="25" t="str">
         <f>IF(AB7=0,"Winner R2",AB7)</f>
-        <v>Winner R2</v>
-      </c>
-      <c r="H17" s="28"/>
+        <v>Iran</v>
+      </c>
+      <c r="H17" s="28">
+        <v>22</v>
+      </c>
       <c r="I17" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="28"/>
+      <c r="J17" s="30">
+        <v>25</v>
+      </c>
+      <c r="K17" s="28">
+        <v>27</v>
+      </c>
       <c r="L17" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M17" s="30"/>
-      <c r="N17" s="28"/>
+      <c r="M17" s="30">
+        <v>25</v>
+      </c>
+      <c r="N17" s="28">
+        <v>25</v>
+      </c>
       <c r="O17" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="28"/>
+      <c r="P17" s="30">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>25</v>
+      </c>
       <c r="R17" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S17" s="30"/>
+      <c r="S17" s="30">
+        <v>21</v>
+      </c>
       <c r="T17" s="28"/>
       <c r="U17" s="29" t="s">
         <v>0</v>
@@ -19253,34 +19421,34 @@
       <c r="V17" s="30"/>
       <c r="W17" s="31">
         <f>SUM(H17,K17,N17,Q17,T17)</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="X17" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y17" s="32">
         <f>SUM(J17,M17,P17,S17,V17)</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AA17" s="12">
         <f>AD17+AE17</f>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="12">
+        <v>4</v>
+      </c>
+      <c r="AB17" s="12" t="str">
         <f>IF(OR(D17="",F17=""),0,IF(D17&gt;F17,C17,G17))</f>
-        <v>0</v>
+        <v>Czech Republic</v>
       </c>
       <c r="AC17" s="12">
         <f>IF(OR(D17="",F17=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="12">
         <f>IF(OR(D17="",F17=""),0,IF(D17&gt;F17,D17,F17))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE17" s="12">
         <f>IF(OR(D17="",F17=""),0,IF(D17&gt;F17,F17,D17))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="12">
         <f>IF(AND(AD17=3,AE17=0),1,0)</f>
@@ -19288,7 +19456,7 @@
       </c>
       <c r="AG17" s="12">
         <f>IF(AND(AD17=3,AE17=1),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17" s="12">
         <f>IF(AND(AD17=3,AE17=2),1,0)</f>
@@ -19296,27 +19464,27 @@
       </c>
       <c r="AI17" s="12">
         <f>IF(D17&gt;F17,SUM(H17,K17,N17,Q17,T17,),SUM(J17,M17,P17,S17,V17))</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AJ17" s="12">
         <f>IF(D17&gt;F17,SUM(J17,M17,P17,S17,V17),SUM(H17,K17,N17,Q17,T17))</f>
-        <v>0</v>
-      </c>
-      <c r="AL17" s="12">
+        <v>91</v>
+      </c>
+      <c r="AL17" s="12" t="str">
         <f>IF(OR(D17="",F17=""),0,IF(D17&lt;F17,C17,G17))</f>
-        <v>0</v>
+        <v>Iran</v>
       </c>
       <c r="AM17" s="12">
         <f>IF(OR(D17="",F17=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17" s="12">
         <f>IF(OR(D17="",F17=""),0,IF(D17&lt;F17,D17,F17))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17" s="12">
         <f>IF(OR(D17="",F17=""),0,IF(D17&lt;F17,F17,D17))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP17" s="12">
         <f>IF(AND(AN17=2,AO17=3),1,0)</f>
@@ -19324,7 +19492,7 @@
       </c>
       <c r="AQ17" s="12">
         <f>IF(AND(AN17=1,AO17=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17" s="12">
         <f>IF(AND(AN17=0,AO17=3),1,0)</f>
@@ -19332,49 +19500,65 @@
       </c>
       <c r="AS17" s="12">
         <f>IF(D17&lt;F17,SUM(H17,K17,N17,Q17,T17,),SUM(J17,M17,P17,S17,V17))</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AT17" s="12">
         <f>IF(D17&lt;F17,SUM(J17,M17,P17,S17,V17),SUM(H17,K17,N17,Q17,T17))</f>
-        <v>0</v>
-      </c>
-      <c r="AU17" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU17" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AV17" s="66"/>
+      <c r="AV17" s="68"/>
     </row>
     <row r="18" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="C18" s="24" t="str">
         <f>IF(AB8=0,"Winner R3",AB8)</f>
-        <v>Winner R3</v>
-      </c>
-      <c r="D18" s="48"/>
+        <v>Poland</v>
+      </c>
+      <c r="D18" s="48">
+        <v>3</v>
+      </c>
       <c r="E18" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="47">
+        <v>0</v>
+      </c>
       <c r="G18" s="25" t="str">
         <f>IF(AB9=0,"Winner R4",AB9)</f>
-        <v>Winner R4</v>
-      </c>
-      <c r="H18" s="28"/>
+        <v>Turkey</v>
+      </c>
+      <c r="H18" s="28">
+        <v>25</v>
+      </c>
       <c r="I18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="28"/>
+      <c r="J18" s="30">
+        <v>15</v>
+      </c>
+      <c r="K18" s="28">
+        <v>25</v>
+      </c>
       <c r="L18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="28"/>
+      <c r="M18" s="30">
+        <v>22</v>
+      </c>
+      <c r="N18" s="28">
+        <v>25</v>
+      </c>
       <c r="O18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P18" s="30"/>
+      <c r="P18" s="30">
+        <v>19</v>
+      </c>
       <c r="Q18" s="28"/>
       <c r="R18" s="29" t="s">
         <v>0</v>
@@ -19387,30 +19571,30 @@
       <c r="V18" s="30"/>
       <c r="W18" s="31">
         <f>SUM(H18,K18,N18,Q18,T18)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X18" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y18" s="32">
         <f>SUM(J18,M18,P18,S18,V18)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AA18" s="12">
         <f t="shared" ref="AA18:AA20" si="21">AD18+AE18</f>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="12">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="12" t="str">
         <f t="shared" ref="AB18:AB20" si="22">IF(OR(D18="",F18=""),0,IF(D18&gt;F18,C18,G18))</f>
-        <v>0</v>
+        <v>Poland</v>
       </c>
       <c r="AC18" s="12">
         <f t="shared" ref="AC18:AC20" si="23">IF(OR(D18="",F18=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="12">
         <f t="shared" ref="AD18:AD20" si="24">IF(OR(D18="",F18=""),0,IF(D18&gt;F18,D18,F18))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE18" s="12">
         <f t="shared" ref="AE18:AE20" si="25">IF(OR(D18="",F18=""),0,IF(D18&gt;F18,F18,D18))</f>
@@ -19418,7 +19602,7 @@
       </c>
       <c r="AF18" s="12">
         <f t="shared" ref="AF18:AF20" si="26">IF(AND(AD18=3,AE18=0),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="12">
         <f t="shared" ref="AG18:AG20" si="27">IF(AND(AD18=3,AE18=1),1,0)</f>
@@ -19430,19 +19614,19 @@
       </c>
       <c r="AI18" s="12">
         <f t="shared" ref="AI18:AI20" si="29">IF(D18&gt;F18,SUM(H18,K18,N18,Q18,T18,),SUM(J18,M18,P18,S18,V18))</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ18" s="12">
         <f t="shared" ref="AJ18:AJ20" si="30">IF(D18&gt;F18,SUM(J18,M18,P18,S18,V18),SUM(H18,K18,N18,Q18,T18))</f>
-        <v>0</v>
-      </c>
-      <c r="AL18" s="12">
+        <v>56</v>
+      </c>
+      <c r="AL18" s="12" t="str">
         <f t="shared" ref="AL18:AL20" si="31">IF(OR(D18="",F18=""),0,IF(D18&lt;F18,C18,G18))</f>
-        <v>0</v>
+        <v>Turkey</v>
       </c>
       <c r="AM18" s="12">
         <f t="shared" ref="AM18:AM20" si="32">IF(OR(D18="",F18=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" s="12">
         <f t="shared" ref="AN18:AN20" si="33">IF(OR(D18="",F18=""),0,IF(D18&lt;F18,D18,F18))</f>
@@ -19450,7 +19634,7 @@
       </c>
       <c r="AO18" s="12">
         <f t="shared" ref="AO18:AO20" si="34">IF(OR(D18="",F18=""),0,IF(D18&lt;F18,F18,D18))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP18" s="12">
         <f t="shared" ref="AP18:AP20" si="35">IF(AND(AN18=2,AO18=3),1,0)</f>
@@ -19462,20 +19646,20 @@
       </c>
       <c r="AR18" s="12">
         <f t="shared" ref="AR18:AR20" si="37">IF(AND(AN18=0,AO18=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS18" s="12">
         <f t="shared" ref="AS18:AS20" si="38">IF(D18&lt;F18,SUM(H18,K18,N18,Q18,T18,),SUM(J18,M18,P18,S18,V18))</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AT18" s="12">
         <f t="shared" ref="AT18:AT20" si="39">IF(D18&lt;F18,SUM(J18,M18,P18,S18,V18),SUM(H18,K18,N18,Q18,T18))</f>
-        <v>0</v>
-      </c>
-      <c r="AU18" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU18" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AV18" s="66"/>
+      <c r="AV18" s="68"/>
     </row>
     <row r="19" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23">
@@ -19483,32 +19667,48 @@
       </c>
       <c r="C19" s="24" t="str">
         <f>IF(AB10=0,"Winner R5",AB10)</f>
-        <v>Winner R5</v>
-      </c>
-      <c r="D19" s="48"/>
+        <v>Italy</v>
+      </c>
+      <c r="D19" s="48">
+        <v>3</v>
+      </c>
       <c r="E19" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="47">
+        <v>0</v>
+      </c>
       <c r="G19" s="25" t="str">
         <f>IF(AB11=0,"Winner R6",AB11)</f>
-        <v>Winner R6</v>
-      </c>
-      <c r="H19" s="28"/>
+        <v>Belgium</v>
+      </c>
+      <c r="H19" s="28">
+        <v>25</v>
+      </c>
       <c r="I19" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="28"/>
+      <c r="J19" s="30">
+        <v>13</v>
+      </c>
+      <c r="K19" s="28">
+        <v>25</v>
+      </c>
       <c r="L19" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M19" s="30"/>
-      <c r="N19" s="28"/>
+      <c r="M19" s="30">
+        <v>18</v>
+      </c>
+      <c r="N19" s="28">
+        <v>25</v>
+      </c>
       <c r="O19" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P19" s="30"/>
+      <c r="P19" s="30">
+        <v>18</v>
+      </c>
       <c r="Q19" s="28"/>
       <c r="R19" s="29" t="s">
         <v>0</v>
@@ -19521,30 +19721,30 @@
       <c r="V19" s="30"/>
       <c r="W19" s="31">
         <f>SUM(H19,K19,N19,Q19,T19)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X19" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y19" s="32">
         <f>SUM(J19,M19,P19,S19,V19)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AA19" s="12">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="12">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="12" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>Italy</v>
       </c>
       <c r="AC19" s="12">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE19" s="12">
         <f t="shared" si="25"/>
@@ -19552,7 +19752,7 @@
       </c>
       <c r="AF19" s="12">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="12">
         <f t="shared" si="27"/>
@@ -19564,19 +19764,19 @@
       </c>
       <c r="AI19" s="12">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ19" s="12">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AL19" s="12">
+        <v>49</v>
+      </c>
+      <c r="AL19" s="12" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>Belgium</v>
       </c>
       <c r="AM19" s="12">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19" s="12">
         <f t="shared" si="33"/>
@@ -19584,7 +19784,7 @@
       </c>
       <c r="AO19" s="12">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP19" s="12">
         <f t="shared" si="35"/>
@@ -19596,93 +19796,117 @@
       </c>
       <c r="AR19" s="12">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS19" s="12">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AT19" s="12">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AU19" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU19" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="AV19" s="66"/>
+      <c r="AV19" s="68"/>
     </row>
     <row r="20" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="C20" s="24" t="str">
         <f>IF(AB12=0,"Winner R7",AB12)</f>
-        <v>Winner R7</v>
-      </c>
-      <c r="D20" s="48"/>
+        <v>United States</v>
+      </c>
+      <c r="D20" s="48">
+        <v>2</v>
+      </c>
       <c r="E20" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="47"/>
+      <c r="F20" s="47">
+        <v>3</v>
+      </c>
       <c r="G20" s="25" t="str">
         <f>IF(AB13=0,"Winner R8",AB13)</f>
-        <v>Winner R8</v>
-      </c>
-      <c r="H20" s="28"/>
+        <v>Bulgaria</v>
+      </c>
+      <c r="H20" s="28">
+        <v>25</v>
+      </c>
       <c r="I20" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="28"/>
+      <c r="J20" s="30">
+        <v>21</v>
+      </c>
+      <c r="K20" s="28">
+        <v>25</v>
+      </c>
       <c r="L20" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M20" s="30"/>
-      <c r="N20" s="28"/>
+      <c r="M20" s="30">
+        <v>19</v>
+      </c>
+      <c r="N20" s="28">
+        <v>17</v>
+      </c>
       <c r="O20" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="28"/>
+      <c r="P20" s="30">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="28">
+        <v>22</v>
+      </c>
       <c r="R20" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S20" s="30"/>
-      <c r="T20" s="28"/>
+      <c r="S20" s="30">
+        <v>25</v>
+      </c>
+      <c r="T20" s="28">
+        <v>13</v>
+      </c>
       <c r="U20" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="V20" s="30"/>
+      <c r="V20" s="30">
+        <v>15</v>
+      </c>
       <c r="W20" s="31">
         <f>SUM(H20,K20,N20,Q20,T20)</f>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="X20" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y20" s="32">
         <f>SUM(J20,M20,P20,S20,V20)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AA20" s="12">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="12">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="12" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>Bulgaria</v>
       </c>
       <c r="AC20" s="12">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE20" s="12">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF20" s="12">
         <f t="shared" si="26"/>
@@ -19694,35 +19918,35 @@
       </c>
       <c r="AH20" s="12">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" s="12">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AJ20" s="12">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="12">
+        <v>102</v>
+      </c>
+      <c r="AL20" s="12" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>United States</v>
       </c>
       <c r="AM20" s="12">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20" s="12">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO20" s="12">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP20" s="12">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="12">
         <f t="shared" si="36"/>
@@ -19734,16 +19958,16 @@
       </c>
       <c r="AS20" s="12">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AT20" s="12">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AU20" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU20" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="AV20" s="68"/>
+      <c r="AV20" s="70"/>
     </row>
     <row r="21" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19779,42 +20003,42 @@
         <v>54</v>
       </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="57" t="s">
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57" t="s">
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="57" t="s">
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="57" t="s">
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
       <c r="AA23" s="12" t="s">
         <v>23</v>
       </c>
@@ -19879,7 +20103,7 @@
       </c>
       <c r="C24" s="24" t="str">
         <f>IF(AB17=0,"Winner Q1",AB17)</f>
-        <v>Winner Q1</v>
+        <v>Czech Republic</v>
       </c>
       <c r="D24" s="48"/>
       <c r="E24" s="49" t="s">
@@ -19888,7 +20112,7 @@
       <c r="F24" s="47"/>
       <c r="G24" s="25" t="str">
         <f>IF(AB20=0,"Winner Q4",AB20)</f>
-        <v>Winner Q4</v>
+        <v>Bulgaria</v>
       </c>
       <c r="H24" s="28"/>
       <c r="I24" s="29" t="s">
@@ -20009,7 +20233,7 @@
       </c>
       <c r="C25" s="24" t="str">
         <f>IF(AB18=0,"Winner Q2",AB18)</f>
-        <v>Winner Q2</v>
+        <v>Poland</v>
       </c>
       <c r="D25" s="48"/>
       <c r="E25" s="49" t="s">
@@ -20018,7 +20242,7 @@
       <c r="F25" s="47"/>
       <c r="G25" s="25" t="str">
         <f>IF(AB19=0,"Winner Q3",AB19)</f>
-        <v>Winner Q3</v>
+        <v>Italy</v>
       </c>
       <c r="H25" s="28"/>
       <c r="I25" s="29" t="s">
@@ -20186,42 +20410,42 @@
         <v>54</v>
       </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="57" t="s">
+      <c r="H29" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57" t="s">
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="57" t="s">
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="57" t="s">
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="57" t="s">
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
       <c r="AA29" s="12" t="s">
         <v>23</v>
       </c>
@@ -20483,42 +20707,42 @@
         <v>54</v>
       </c>
       <c r="C34" s="35"/>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="57" t="s">
+      <c r="H34" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="57" t="s">
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="57" t="s">
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="57" t="s">
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="57" t="s">
+      <c r="R34" s="74"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="74"/>
       <c r="AA34" s="12" t="s">
         <v>23</v>
       </c>
@@ -20836,22 +21060,22 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="48">
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="B2:AV2"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="B22:Y22"/>
+    <mergeCell ref="B28:Y28"/>
+    <mergeCell ref="B15:Y15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="AU18:AV18"/>
+    <mergeCell ref="AU19:AV19"/>
+    <mergeCell ref="AU20:AV20"/>
     <mergeCell ref="B33:Y33"/>
     <mergeCell ref="AU15:AV15"/>
     <mergeCell ref="T29:V29"/>
@@ -20868,22 +21092,22 @@
     <mergeCell ref="Q29:S29"/>
     <mergeCell ref="AU16:AV16"/>
     <mergeCell ref="AU17:AV17"/>
-    <mergeCell ref="B2:AV2"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="B22:Y22"/>
-    <mergeCell ref="B28:Y28"/>
-    <mergeCell ref="B15:Y15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="AU18:AV18"/>
-    <mergeCell ref="AU19:AV19"/>
-    <mergeCell ref="AU20:AV20"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
   </mergeCells>
   <conditionalFormatting sqref="BM18:XFD18 BM22:XFD23 BM20:XFD20 A18:A20 Z18:Z20 A41:A1048576 B53:Y1048576 B38:Y47 B37 D37:Y37 Z41:AT1048576 BM41:XFD1048576 A3:XFD3 BM6:XFD15 A4:A15 Z22:AT22 AA5:AT13 Z26:AT28 Z23:Z25 Z29:Z30 B36:AT36 Z34:Z35 BM25:XFD36 A22:A36 Z31:AT33 Z5:XFD5 B14:AT15 B21:Y22 B28:Y28 B33:Y33 Z6:Z13 AW24:BL1048576 AU21:AV1048576 B4:XFD4">
     <cfRule type="cellIs" dxfId="31" priority="79" operator="equal">
@@ -21058,6 +21282,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DBF2846C41E31A469E3CED25F2422E48" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0c08e4af4d80db6585ac36ba965bb3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2c8c20e6-817c-474f-b9c2-eb2b1ac24837" xmlns:ns4="dc8c2798-6aba-4af7-93a4-b89253b03650" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e7db2db65f9cb533b4933096bc9b657" ns3:_="" ns4:_="">
     <xsd:import namespace="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
@@ -21290,24 +21531,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1A4F3B6-8EF3-43FC-AA6E-56F4B11E76F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21324,29 +21573,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/2025 FIVB Men's Volleyball World Championship.xlsx
+++ b/2025 FIVB Men's Volleyball World Championship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB0267AB-AFAE-4A15-BC3F-52F61FDEF525}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B654F2A-6179-46B3-9A59-73480358810B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="CC01" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="2" xr2:uid="{701403F6-3112-456D-B33A-FC5595D41656}"/>
@@ -866,28 +866,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -915,22 +909,28 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5426,11 +5426,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:X1"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A34"/>
@@ -5439,6 +5434,11 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:X1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5513,74 +5513,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="56"/>
-      <c r="BB2" s="56"/>
-      <c r="BC2" s="56"/>
-      <c r="BD2" s="56"/>
-      <c r="BE2" s="56"/>
-      <c r="BF2" s="56"/>
-      <c r="BG2" s="56"/>
-      <c r="BH2" s="56"/>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="56"/>
-      <c r="BK2" s="56"/>
-      <c r="BL2" s="56"/>
-      <c r="BM2" s="56"/>
-      <c r="BN2" s="56"/>
-      <c r="BO2" s="56"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
+      <c r="BB2" s="75"/>
+      <c r="BC2" s="75"/>
+      <c r="BD2" s="75"/>
+      <c r="BE2" s="75"/>
+      <c r="BF2" s="75"/>
+      <c r="BG2" s="75"/>
+      <c r="BH2" s="75"/>
+      <c r="BI2" s="75"/>
+      <c r="BJ2" s="75"/>
+      <c r="BK2" s="75"/>
+      <c r="BL2" s="75"/>
+      <c r="BM2" s="75"/>
+      <c r="BN2" s="75"/>
+      <c r="BO2" s="75"/>
     </row>
     <row r="3" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX3" s="33"/>
@@ -5603,116 +5603,116 @@
       <c r="BO3" s="33"/>
     </row>
     <row r="4" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="57"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="57"/>
-      <c r="AS4" s="57"/>
-      <c r="AT4" s="57"/>
-      <c r="AU4" s="57"/>
-      <c r="AV4" s="57"/>
-      <c r="AW4" s="57"/>
-      <c r="AX4" s="57"/>
-      <c r="AY4" s="57"/>
-      <c r="AZ4" s="57"/>
-      <c r="BA4" s="57"/>
-      <c r="BB4" s="57"/>
-      <c r="BC4" s="57"/>
-      <c r="BD4" s="57"/>
-      <c r="BE4" s="57"/>
-      <c r="BF4" s="57"/>
-      <c r="BG4" s="57"/>
-      <c r="BH4" s="57"/>
-      <c r="BI4" s="57"/>
-      <c r="BJ4" s="57"/>
-      <c r="BK4" s="57"/>
-      <c r="BL4" s="57"/>
-      <c r="BM4" s="57"/>
-      <c r="BN4" s="57"/>
-      <c r="BO4" s="57"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="76"/>
+      <c r="BB4" s="76"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="76"/>
+      <c r="BH4" s="76"/>
+      <c r="BI4" s="76"/>
+      <c r="BJ4" s="76"/>
+      <c r="BK4" s="76"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="76"/>
+      <c r="BN4" s="76"/>
+      <c r="BO4" s="76"/>
     </row>
     <row r="5" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="75" t="s">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75" t="s">
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75" t="s">
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
       <c r="AD5" s="12" t="s">
         <v>23</v>
       </c>
@@ -5770,34 +5770,34 @@
       <c r="AW5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX5" s="61" t="s">
+      <c r="AX5" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="63"/>
-      <c r="BA5" s="61" t="s">
+      <c r="AY5" s="73"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="63"/>
-      <c r="BD5" s="61" t="s">
+      <c r="BB5" s="73"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="BE5" s="62"/>
-      <c r="BF5" s="62"/>
-      <c r="BG5" s="62"/>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="63"/>
-      <c r="BJ5" s="61" t="s">
+      <c r="BE5" s="73"/>
+      <c r="BF5" s="73"/>
+      <c r="BG5" s="73"/>
+      <c r="BH5" s="73"/>
+      <c r="BI5" s="74"/>
+      <c r="BJ5" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="BK5" s="62"/>
-      <c r="BL5" s="63"/>
-      <c r="BM5" s="61" t="s">
+      <c r="BK5" s="73"/>
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="BN5" s="62"/>
-      <c r="BO5" s="63"/>
+      <c r="BN5" s="73"/>
+      <c r="BO5" s="74"/>
     </row>
     <row r="6" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
@@ -7062,116 +7062,116 @@
       </c>
     </row>
     <row r="12" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="57"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="57"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="57"/>
-      <c r="AN12" s="57"/>
-      <c r="AO12" s="57"/>
-      <c r="AP12" s="57"/>
-      <c r="AQ12" s="57"/>
-      <c r="AR12" s="57"/>
-      <c r="AS12" s="57"/>
-      <c r="AT12" s="57"/>
-      <c r="AU12" s="57"/>
-      <c r="AV12" s="57"/>
-      <c r="AW12" s="57"/>
-      <c r="AX12" s="57"/>
-      <c r="AY12" s="57"/>
-      <c r="AZ12" s="57"/>
-      <c r="BA12" s="57"/>
-      <c r="BB12" s="57"/>
-      <c r="BC12" s="57"/>
-      <c r="BD12" s="57"/>
-      <c r="BE12" s="57"/>
-      <c r="BF12" s="57"/>
-      <c r="BG12" s="57"/>
-      <c r="BH12" s="57"/>
-      <c r="BI12" s="57"/>
-      <c r="BJ12" s="57"/>
-      <c r="BK12" s="57"/>
-      <c r="BL12" s="57"/>
-      <c r="BM12" s="57"/>
-      <c r="BN12" s="57"/>
-      <c r="BO12" s="57"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="76"/>
+      <c r="AK12" s="76"/>
+      <c r="AL12" s="76"/>
+      <c r="AM12" s="76"/>
+      <c r="AN12" s="76"/>
+      <c r="AO12" s="76"/>
+      <c r="AP12" s="76"/>
+      <c r="AQ12" s="76"/>
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="76"/>
+      <c r="AT12" s="76"/>
+      <c r="AU12" s="76"/>
+      <c r="AV12" s="76"/>
+      <c r="AW12" s="76"/>
+      <c r="AX12" s="76"/>
+      <c r="AY12" s="76"/>
+      <c r="AZ12" s="76"/>
+      <c r="BA12" s="76"/>
+      <c r="BB12" s="76"/>
+      <c r="BC12" s="76"/>
+      <c r="BD12" s="76"/>
+      <c r="BE12" s="76"/>
+      <c r="BF12" s="76"/>
+      <c r="BG12" s="76"/>
+      <c r="BH12" s="76"/>
+      <c r="BI12" s="76"/>
+      <c r="BJ12" s="76"/>
+      <c r="BK12" s="76"/>
+      <c r="BL12" s="76"/>
+      <c r="BM12" s="76"/>
+      <c r="BN12" s="76"/>
+      <c r="BO12" s="76"/>
     </row>
     <row r="13" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="72" t="s">
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="72" t="s">
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="72" t="s">
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="72" t="s">
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
       <c r="AD13" s="12" t="s">
         <v>23</v>
       </c>
@@ -7229,34 +7229,34 @@
       <c r="AW13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX13" s="58" t="s">
+      <c r="AX13" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AY13" s="59"/>
-      <c r="AZ13" s="60"/>
-      <c r="BA13" s="58" t="s">
+      <c r="AY13" s="70"/>
+      <c r="AZ13" s="71"/>
+      <c r="BA13" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="BB13" s="59"/>
-      <c r="BC13" s="60"/>
-      <c r="BD13" s="58" t="s">
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="71"/>
+      <c r="BD13" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="59"/>
-      <c r="BG13" s="59"/>
-      <c r="BH13" s="59"/>
-      <c r="BI13" s="60"/>
-      <c r="BJ13" s="58" t="s">
+      <c r="BE13" s="70"/>
+      <c r="BF13" s="70"/>
+      <c r="BG13" s="70"/>
+      <c r="BH13" s="70"/>
+      <c r="BI13" s="71"/>
+      <c r="BJ13" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK13" s="59"/>
-      <c r="BL13" s="60"/>
-      <c r="BM13" s="58" t="s">
+      <c r="BK13" s="70"/>
+      <c r="BL13" s="71"/>
+      <c r="BM13" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="BN13" s="59"/>
-      <c r="BO13" s="60"/>
+      <c r="BN13" s="70"/>
+      <c r="BO13" s="71"/>
     </row>
     <row r="14" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -8513,116 +8513,116 @@
       </c>
     </row>
     <row r="20" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="57"/>
-      <c r="AL20" s="57"/>
-      <c r="AM20" s="57"/>
-      <c r="AN20" s="57"/>
-      <c r="AO20" s="57"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="57"/>
-      <c r="AR20" s="57"/>
-      <c r="AS20" s="57"/>
-      <c r="AT20" s="57"/>
-      <c r="AU20" s="57"/>
-      <c r="AV20" s="57"/>
-      <c r="AW20" s="57"/>
-      <c r="AX20" s="57"/>
-      <c r="AY20" s="57"/>
-      <c r="AZ20" s="57"/>
-      <c r="BA20" s="57"/>
-      <c r="BB20" s="57"/>
-      <c r="BC20" s="57"/>
-      <c r="BD20" s="57"/>
-      <c r="BE20" s="57"/>
-      <c r="BF20" s="57"/>
-      <c r="BG20" s="57"/>
-      <c r="BH20" s="57"/>
-      <c r="BI20" s="57"/>
-      <c r="BJ20" s="57"/>
-      <c r="BK20" s="57"/>
-      <c r="BL20" s="57"/>
-      <c r="BM20" s="57"/>
-      <c r="BN20" s="57"/>
-      <c r="BO20" s="57"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="76"/>
+      <c r="AI20" s="76"/>
+      <c r="AJ20" s="76"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="76"/>
+      <c r="AM20" s="76"/>
+      <c r="AN20" s="76"/>
+      <c r="AO20" s="76"/>
+      <c r="AP20" s="76"/>
+      <c r="AQ20" s="76"/>
+      <c r="AR20" s="76"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="76"/>
+      <c r="AU20" s="76"/>
+      <c r="AV20" s="76"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="76"/>
+      <c r="AY20" s="76"/>
+      <c r="AZ20" s="76"/>
+      <c r="BA20" s="76"/>
+      <c r="BB20" s="76"/>
+      <c r="BC20" s="76"/>
+      <c r="BD20" s="76"/>
+      <c r="BE20" s="76"/>
+      <c r="BF20" s="76"/>
+      <c r="BG20" s="76"/>
+      <c r="BH20" s="76"/>
+      <c r="BI20" s="76"/>
+      <c r="BJ20" s="76"/>
+      <c r="BK20" s="76"/>
+      <c r="BL20" s="76"/>
+      <c r="BM20" s="76"/>
+      <c r="BN20" s="76"/>
+      <c r="BO20" s="76"/>
     </row>
     <row r="21" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="72" t="s">
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="72" t="s">
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="72" t="s">
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="72" t="s">
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
       <c r="AD21" s="12" t="s">
         <v>23</v>
       </c>
@@ -8680,34 +8680,34 @@
       <c r="AW21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX21" s="58" t="s">
+      <c r="AX21" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AY21" s="59"/>
-      <c r="AZ21" s="60"/>
-      <c r="BA21" s="58" t="s">
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="71"/>
+      <c r="BA21" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="BB21" s="59"/>
-      <c r="BC21" s="60"/>
-      <c r="BD21" s="58" t="s">
+      <c r="BB21" s="70"/>
+      <c r="BC21" s="71"/>
+      <c r="BD21" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="BE21" s="59"/>
-      <c r="BF21" s="59"/>
-      <c r="BG21" s="59"/>
-      <c r="BH21" s="59"/>
-      <c r="BI21" s="60"/>
-      <c r="BJ21" s="58" t="s">
+      <c r="BE21" s="70"/>
+      <c r="BF21" s="70"/>
+      <c r="BG21" s="70"/>
+      <c r="BH21" s="70"/>
+      <c r="BI21" s="71"/>
+      <c r="BJ21" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK21" s="59"/>
-      <c r="BL21" s="60"/>
-      <c r="BM21" s="58" t="s">
+      <c r="BK21" s="70"/>
+      <c r="BL21" s="71"/>
+      <c r="BM21" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="BN21" s="59"/>
-      <c r="BO21" s="60"/>
+      <c r="BN21" s="70"/>
+      <c r="BO21" s="71"/>
     </row>
     <row r="22" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B22" s="23">
@@ -9984,116 +9984,116 @@
       </c>
     </row>
     <row r="28" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="57"/>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="57"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="57"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="57"/>
-      <c r="AW28" s="57"/>
-      <c r="AX28" s="57"/>
-      <c r="AY28" s="57"/>
-      <c r="AZ28" s="57"/>
-      <c r="BA28" s="57"/>
-      <c r="BB28" s="57"/>
-      <c r="BC28" s="57"/>
-      <c r="BD28" s="57"/>
-      <c r="BE28" s="57"/>
-      <c r="BF28" s="57"/>
-      <c r="BG28" s="57"/>
-      <c r="BH28" s="57"/>
-      <c r="BI28" s="57"/>
-      <c r="BJ28" s="57"/>
-      <c r="BK28" s="57"/>
-      <c r="BL28" s="57"/>
-      <c r="BM28" s="57"/>
-      <c r="BN28" s="57"/>
-      <c r="BO28" s="57"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="76"/>
+      <c r="AB28" s="76"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="76"/>
+      <c r="AJ28" s="76"/>
+      <c r="AK28" s="76"/>
+      <c r="AL28" s="76"/>
+      <c r="AM28" s="76"/>
+      <c r="AN28" s="76"/>
+      <c r="AO28" s="76"/>
+      <c r="AP28" s="76"/>
+      <c r="AQ28" s="76"/>
+      <c r="AR28" s="76"/>
+      <c r="AS28" s="76"/>
+      <c r="AT28" s="76"/>
+      <c r="AU28" s="76"/>
+      <c r="AV28" s="76"/>
+      <c r="AW28" s="76"/>
+      <c r="AX28" s="76"/>
+      <c r="AY28" s="76"/>
+      <c r="AZ28" s="76"/>
+      <c r="BA28" s="76"/>
+      <c r="BB28" s="76"/>
+      <c r="BC28" s="76"/>
+      <c r="BD28" s="76"/>
+      <c r="BE28" s="76"/>
+      <c r="BF28" s="76"/>
+      <c r="BG28" s="76"/>
+      <c r="BH28" s="76"/>
+      <c r="BI28" s="76"/>
+      <c r="BJ28" s="76"/>
+      <c r="BK28" s="76"/>
+      <c r="BL28" s="76"/>
+      <c r="BM28" s="76"/>
+      <c r="BN28" s="76"/>
+      <c r="BO28" s="76"/>
     </row>
     <row r="29" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="72" t="s">
+      <c r="H29" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="72" t="s">
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="72" t="s">
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="72" t="s">
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="72" t="s">
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
       <c r="AD29" s="12" t="s">
         <v>23</v>
       </c>
@@ -10151,34 +10151,34 @@
       <c r="AW29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX29" s="58" t="s">
+      <c r="AX29" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AY29" s="59"/>
-      <c r="AZ29" s="60"/>
-      <c r="BA29" s="58" t="s">
+      <c r="AY29" s="70"/>
+      <c r="AZ29" s="71"/>
+      <c r="BA29" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="BB29" s="59"/>
-      <c r="BC29" s="60"/>
-      <c r="BD29" s="58" t="s">
+      <c r="BB29" s="70"/>
+      <c r="BC29" s="71"/>
+      <c r="BD29" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="BE29" s="59"/>
-      <c r="BF29" s="59"/>
-      <c r="BG29" s="59"/>
-      <c r="BH29" s="59"/>
-      <c r="BI29" s="60"/>
-      <c r="BJ29" s="58" t="s">
+      <c r="BE29" s="70"/>
+      <c r="BF29" s="70"/>
+      <c r="BG29" s="70"/>
+      <c r="BH29" s="70"/>
+      <c r="BI29" s="71"/>
+      <c r="BJ29" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK29" s="59"/>
-      <c r="BL29" s="60"/>
-      <c r="BM29" s="58" t="s">
+      <c r="BK29" s="70"/>
+      <c r="BL29" s="71"/>
+      <c r="BM29" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="BN29" s="59"/>
-      <c r="BO29" s="60"/>
+      <c r="BN29" s="70"/>
+      <c r="BO29" s="71"/>
     </row>
     <row r="30" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
@@ -11439,120 +11439,120 @@
       </c>
     </row>
     <row r="36" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57"/>
-      <c r="AB36" s="57"/>
-      <c r="AC36" s="57"/>
-      <c r="AD36" s="57"/>
-      <c r="AE36" s="57"/>
-      <c r="AF36" s="57"/>
-      <c r="AG36" s="57"/>
-      <c r="AH36" s="57"/>
-      <c r="AI36" s="57"/>
-      <c r="AJ36" s="57"/>
-      <c r="AK36" s="57"/>
-      <c r="AL36" s="57"/>
-      <c r="AM36" s="57"/>
-      <c r="AN36" s="57"/>
-      <c r="AO36" s="57"/>
-      <c r="AP36" s="57"/>
-      <c r="AQ36" s="57"/>
-      <c r="AR36" s="57"/>
-      <c r="AS36" s="57"/>
-      <c r="AT36" s="57"/>
-      <c r="AU36" s="57"/>
-      <c r="AV36" s="57"/>
-      <c r="AW36" s="57"/>
-      <c r="AX36" s="57"/>
-      <c r="AY36" s="57"/>
-      <c r="AZ36" s="57"/>
-      <c r="BA36" s="57"/>
-      <c r="BB36" s="57"/>
-      <c r="BC36" s="57"/>
-      <c r="BD36" s="57"/>
-      <c r="BE36" s="57"/>
-      <c r="BF36" s="57"/>
-      <c r="BG36" s="57"/>
-      <c r="BH36" s="57"/>
-      <c r="BI36" s="57"/>
-      <c r="BJ36" s="57"/>
-      <c r="BK36" s="57"/>
-      <c r="BL36" s="57"/>
-      <c r="BM36" s="57"/>
-      <c r="BN36" s="57"/>
-      <c r="BO36" s="57"/>
-      <c r="BQ36" s="64" t="s">
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="76"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="76"/>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="76"/>
+      <c r="AE36" s="76"/>
+      <c r="AF36" s="76"/>
+      <c r="AG36" s="76"/>
+      <c r="AH36" s="76"/>
+      <c r="AI36" s="76"/>
+      <c r="AJ36" s="76"/>
+      <c r="AK36" s="76"/>
+      <c r="AL36" s="76"/>
+      <c r="AM36" s="76"/>
+      <c r="AN36" s="76"/>
+      <c r="AO36" s="76"/>
+      <c r="AP36" s="76"/>
+      <c r="AQ36" s="76"/>
+      <c r="AR36" s="76"/>
+      <c r="AS36" s="76"/>
+      <c r="AT36" s="76"/>
+      <c r="AU36" s="76"/>
+      <c r="AV36" s="76"/>
+      <c r="AW36" s="76"/>
+      <c r="AX36" s="76"/>
+      <c r="AY36" s="76"/>
+      <c r="AZ36" s="76"/>
+      <c r="BA36" s="76"/>
+      <c r="BB36" s="76"/>
+      <c r="BC36" s="76"/>
+      <c r="BD36" s="76"/>
+      <c r="BE36" s="76"/>
+      <c r="BF36" s="76"/>
+      <c r="BG36" s="76"/>
+      <c r="BH36" s="76"/>
+      <c r="BI36" s="76"/>
+      <c r="BJ36" s="76"/>
+      <c r="BK36" s="76"/>
+      <c r="BL36" s="76"/>
+      <c r="BM36" s="76"/>
+      <c r="BN36" s="76"/>
+      <c r="BO36" s="76"/>
+      <c r="BQ36" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="BR36" s="64"/>
+      <c r="BR36" s="62"/>
     </row>
     <row r="37" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="21"/>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="72" t="s">
+      <c r="H37" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="72" t="s">
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="72" t="s">
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="72" t="s">
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="72" t="s">
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="73"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
       <c r="AD37" s="12" t="s">
         <v>23</v>
       </c>
@@ -11610,38 +11610,38 @@
       <c r="AW37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX37" s="58" t="s">
+      <c r="AX37" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AY37" s="59"/>
-      <c r="AZ37" s="60"/>
-      <c r="BA37" s="58" t="s">
+      <c r="AY37" s="70"/>
+      <c r="AZ37" s="71"/>
+      <c r="BA37" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="BB37" s="59"/>
-      <c r="BC37" s="60"/>
-      <c r="BD37" s="58" t="s">
+      <c r="BB37" s="70"/>
+      <c r="BC37" s="71"/>
+      <c r="BD37" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="BE37" s="59"/>
-      <c r="BF37" s="59"/>
-      <c r="BG37" s="59"/>
-      <c r="BH37" s="59"/>
-      <c r="BI37" s="60"/>
-      <c r="BJ37" s="58" t="s">
+      <c r="BE37" s="70"/>
+      <c r="BF37" s="70"/>
+      <c r="BG37" s="70"/>
+      <c r="BH37" s="70"/>
+      <c r="BI37" s="71"/>
+      <c r="BJ37" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK37" s="59"/>
-      <c r="BL37" s="60"/>
-      <c r="BM37" s="58" t="s">
+      <c r="BK37" s="70"/>
+      <c r="BL37" s="71"/>
+      <c r="BM37" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="BN37" s="59"/>
-      <c r="BO37" s="60"/>
-      <c r="BQ37" s="65" t="s">
+      <c r="BN37" s="70"/>
+      <c r="BO37" s="71"/>
+      <c r="BQ37" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="BR37" s="66"/>
+      <c r="BR37" s="64"/>
     </row>
     <row r="38" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B38" s="23">
@@ -11848,10 +11848,10 @@
       <c r="BO38" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="BQ38" s="67" t="s">
+      <c r="BQ38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="BR38" s="68"/>
+      <c r="BR38" s="66"/>
     </row>
     <row r="39" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B39" s="23">
@@ -12075,10 +12075,10 @@
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>1248.8479262672811</v>
       </c>
-      <c r="BQ39" s="67" t="s">
+      <c r="BQ39" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="BR39" s="68"/>
+      <c r="BR39" s="66"/>
     </row>
     <row r="40" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B40" s="23">
@@ -12302,10 +12302,10 @@
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>1042.6356589147288</v>
       </c>
-      <c r="BQ40" s="67" t="s">
+      <c r="BQ40" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="BR40" s="68"/>
+      <c r="BR40" s="66"/>
     </row>
     <row r="41" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B41" s="23">
@@ -12537,10 +12537,10 @@
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>1012.0481927710842</v>
       </c>
-      <c r="BQ41" s="69" t="s">
+      <c r="BQ41" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="BR41" s="70"/>
+      <c r="BR41" s="68"/>
     </row>
     <row r="42" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B42" s="23">
@@ -12914,116 +12914,116 @@
       </c>
     </row>
     <row r="44" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="57"/>
-      <c r="U44" s="57"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="57"/>
-      <c r="X44" s="57"/>
-      <c r="Y44" s="57"/>
-      <c r="Z44" s="57"/>
-      <c r="AA44" s="57"/>
-      <c r="AB44" s="57"/>
-      <c r="AC44" s="57"/>
-      <c r="AD44" s="57"/>
-      <c r="AE44" s="57"/>
-      <c r="AF44" s="57"/>
-      <c r="AG44" s="57"/>
-      <c r="AH44" s="57"/>
-      <c r="AI44" s="57"/>
-      <c r="AJ44" s="57"/>
-      <c r="AK44" s="57"/>
-      <c r="AL44" s="57"/>
-      <c r="AM44" s="57"/>
-      <c r="AN44" s="57"/>
-      <c r="AO44" s="57"/>
-      <c r="AP44" s="57"/>
-      <c r="AQ44" s="57"/>
-      <c r="AR44" s="57"/>
-      <c r="AS44" s="57"/>
-      <c r="AT44" s="57"/>
-      <c r="AU44" s="57"/>
-      <c r="AV44" s="57"/>
-      <c r="AW44" s="57"/>
-      <c r="AX44" s="57"/>
-      <c r="AY44" s="57"/>
-      <c r="AZ44" s="57"/>
-      <c r="BA44" s="57"/>
-      <c r="BB44" s="57"/>
-      <c r="BC44" s="57"/>
-      <c r="BD44" s="57"/>
-      <c r="BE44" s="57"/>
-      <c r="BF44" s="57"/>
-      <c r="BG44" s="57"/>
-      <c r="BH44" s="57"/>
-      <c r="BI44" s="57"/>
-      <c r="BJ44" s="57"/>
-      <c r="BK44" s="57"/>
-      <c r="BL44" s="57"/>
-      <c r="BM44" s="57"/>
-      <c r="BN44" s="57"/>
-      <c r="BO44" s="57"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="76"/>
+      <c r="T44" s="76"/>
+      <c r="U44" s="76"/>
+      <c r="V44" s="76"/>
+      <c r="W44" s="76"/>
+      <c r="X44" s="76"/>
+      <c r="Y44" s="76"/>
+      <c r="Z44" s="76"/>
+      <c r="AA44" s="76"/>
+      <c r="AB44" s="76"/>
+      <c r="AC44" s="76"/>
+      <c r="AD44" s="76"/>
+      <c r="AE44" s="76"/>
+      <c r="AF44" s="76"/>
+      <c r="AG44" s="76"/>
+      <c r="AH44" s="76"/>
+      <c r="AI44" s="76"/>
+      <c r="AJ44" s="76"/>
+      <c r="AK44" s="76"/>
+      <c r="AL44" s="76"/>
+      <c r="AM44" s="76"/>
+      <c r="AN44" s="76"/>
+      <c r="AO44" s="76"/>
+      <c r="AP44" s="76"/>
+      <c r="AQ44" s="76"/>
+      <c r="AR44" s="76"/>
+      <c r="AS44" s="76"/>
+      <c r="AT44" s="76"/>
+      <c r="AU44" s="76"/>
+      <c r="AV44" s="76"/>
+      <c r="AW44" s="76"/>
+      <c r="AX44" s="76"/>
+      <c r="AY44" s="76"/>
+      <c r="AZ44" s="76"/>
+      <c r="BA44" s="76"/>
+      <c r="BB44" s="76"/>
+      <c r="BC44" s="76"/>
+      <c r="BD44" s="76"/>
+      <c r="BE44" s="76"/>
+      <c r="BF44" s="76"/>
+      <c r="BG44" s="76"/>
+      <c r="BH44" s="76"/>
+      <c r="BI44" s="76"/>
+      <c r="BJ44" s="76"/>
+      <c r="BK44" s="76"/>
+      <c r="BL44" s="76"/>
+      <c r="BM44" s="76"/>
+      <c r="BN44" s="76"/>
+      <c r="BO44" s="76"/>
     </row>
     <row r="45" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="72" t="s">
+      <c r="H45" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="72" t="s">
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L45" s="73"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="72" t="s">
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="O45" s="73"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="72" t="s">
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="R45" s="73"/>
-      <c r="S45" s="73"/>
-      <c r="T45" s="72" t="s">
+      <c r="R45" s="59"/>
+      <c r="S45" s="59"/>
+      <c r="T45" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U45" s="73"/>
-      <c r="V45" s="73"/>
-      <c r="W45" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X45" s="73"/>
-      <c r="Y45" s="73"/>
+      <c r="U45" s="59"/>
+      <c r="V45" s="59"/>
+      <c r="W45" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X45" s="59"/>
+      <c r="Y45" s="59"/>
       <c r="AD45" s="12" t="s">
         <v>23</v>
       </c>
@@ -13081,34 +13081,34 @@
       <c r="AW45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX45" s="58" t="s">
+      <c r="AX45" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AY45" s="59"/>
-      <c r="AZ45" s="60"/>
-      <c r="BA45" s="58" t="s">
+      <c r="AY45" s="70"/>
+      <c r="AZ45" s="71"/>
+      <c r="BA45" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="BB45" s="59"/>
-      <c r="BC45" s="60"/>
-      <c r="BD45" s="58" t="s">
+      <c r="BB45" s="70"/>
+      <c r="BC45" s="71"/>
+      <c r="BD45" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="BE45" s="59"/>
-      <c r="BF45" s="59"/>
-      <c r="BG45" s="59"/>
-      <c r="BH45" s="59"/>
-      <c r="BI45" s="60"/>
-      <c r="BJ45" s="58" t="s">
+      <c r="BE45" s="70"/>
+      <c r="BF45" s="70"/>
+      <c r="BG45" s="70"/>
+      <c r="BH45" s="70"/>
+      <c r="BI45" s="71"/>
+      <c r="BJ45" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK45" s="59"/>
-      <c r="BL45" s="60"/>
-      <c r="BM45" s="58" t="s">
+      <c r="BK45" s="70"/>
+      <c r="BL45" s="71"/>
+      <c r="BM45" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="BN45" s="59"/>
-      <c r="BO45" s="60"/>
+      <c r="BN45" s="70"/>
+      <c r="BO45" s="71"/>
     </row>
     <row r="46" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -14361,116 +14361,116 @@
       </c>
     </row>
     <row r="52" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="57"/>
-      <c r="U52" s="57"/>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
-      <c r="Y52" s="57"/>
-      <c r="Z52" s="57"/>
-      <c r="AA52" s="57"/>
-      <c r="AB52" s="57"/>
-      <c r="AC52" s="57"/>
-      <c r="AD52" s="57"/>
-      <c r="AE52" s="57"/>
-      <c r="AF52" s="57"/>
-      <c r="AG52" s="57"/>
-      <c r="AH52" s="57"/>
-      <c r="AI52" s="57"/>
-      <c r="AJ52" s="57"/>
-      <c r="AK52" s="57"/>
-      <c r="AL52" s="57"/>
-      <c r="AM52" s="57"/>
-      <c r="AN52" s="57"/>
-      <c r="AO52" s="57"/>
-      <c r="AP52" s="57"/>
-      <c r="AQ52" s="57"/>
-      <c r="AR52" s="57"/>
-      <c r="AS52" s="57"/>
-      <c r="AT52" s="57"/>
-      <c r="AU52" s="57"/>
-      <c r="AV52" s="57"/>
-      <c r="AW52" s="57"/>
-      <c r="AX52" s="57"/>
-      <c r="AY52" s="57"/>
-      <c r="AZ52" s="57"/>
-      <c r="BA52" s="57"/>
-      <c r="BB52" s="57"/>
-      <c r="BC52" s="57"/>
-      <c r="BD52" s="57"/>
-      <c r="BE52" s="57"/>
-      <c r="BF52" s="57"/>
-      <c r="BG52" s="57"/>
-      <c r="BH52" s="57"/>
-      <c r="BI52" s="57"/>
-      <c r="BJ52" s="57"/>
-      <c r="BK52" s="57"/>
-      <c r="BL52" s="57"/>
-      <c r="BM52" s="57"/>
-      <c r="BN52" s="57"/>
-      <c r="BO52" s="57"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="76"/>
+      <c r="S52" s="76"/>
+      <c r="T52" s="76"/>
+      <c r="U52" s="76"/>
+      <c r="V52" s="76"/>
+      <c r="W52" s="76"/>
+      <c r="X52" s="76"/>
+      <c r="Y52" s="76"/>
+      <c r="Z52" s="76"/>
+      <c r="AA52" s="76"/>
+      <c r="AB52" s="76"/>
+      <c r="AC52" s="76"/>
+      <c r="AD52" s="76"/>
+      <c r="AE52" s="76"/>
+      <c r="AF52" s="76"/>
+      <c r="AG52" s="76"/>
+      <c r="AH52" s="76"/>
+      <c r="AI52" s="76"/>
+      <c r="AJ52" s="76"/>
+      <c r="AK52" s="76"/>
+      <c r="AL52" s="76"/>
+      <c r="AM52" s="76"/>
+      <c r="AN52" s="76"/>
+      <c r="AO52" s="76"/>
+      <c r="AP52" s="76"/>
+      <c r="AQ52" s="76"/>
+      <c r="AR52" s="76"/>
+      <c r="AS52" s="76"/>
+      <c r="AT52" s="76"/>
+      <c r="AU52" s="76"/>
+      <c r="AV52" s="76"/>
+      <c r="AW52" s="76"/>
+      <c r="AX52" s="76"/>
+      <c r="AY52" s="76"/>
+      <c r="AZ52" s="76"/>
+      <c r="BA52" s="76"/>
+      <c r="BB52" s="76"/>
+      <c r="BC52" s="76"/>
+      <c r="BD52" s="76"/>
+      <c r="BE52" s="76"/>
+      <c r="BF52" s="76"/>
+      <c r="BG52" s="76"/>
+      <c r="BH52" s="76"/>
+      <c r="BI52" s="76"/>
+      <c r="BJ52" s="76"/>
+      <c r="BK52" s="76"/>
+      <c r="BL52" s="76"/>
+      <c r="BM52" s="76"/>
+      <c r="BN52" s="76"/>
+      <c r="BO52" s="76"/>
     </row>
     <row r="53" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="21"/>
-      <c r="D53" s="71" t="s">
+      <c r="D53" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="72" t="s">
+      <c r="H53" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="72" t="s">
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L53" s="73"/>
-      <c r="M53" s="73"/>
-      <c r="N53" s="72" t="s">
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="O53" s="73"/>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="72" t="s">
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="R53" s="73"/>
-      <c r="S53" s="73"/>
-      <c r="T53" s="72" t="s">
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U53" s="73"/>
-      <c r="V53" s="73"/>
-      <c r="W53" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X53" s="73"/>
-      <c r="Y53" s="73"/>
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X53" s="59"/>
+      <c r="Y53" s="59"/>
       <c r="AD53" s="12" t="s">
         <v>23</v>
       </c>
@@ -14528,34 +14528,34 @@
       <c r="AW53" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX53" s="58" t="s">
+      <c r="AX53" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AY53" s="59"/>
-      <c r="AZ53" s="60"/>
-      <c r="BA53" s="58" t="s">
+      <c r="AY53" s="70"/>
+      <c r="AZ53" s="71"/>
+      <c r="BA53" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="BB53" s="59"/>
-      <c r="BC53" s="60"/>
-      <c r="BD53" s="58" t="s">
+      <c r="BB53" s="70"/>
+      <c r="BC53" s="71"/>
+      <c r="BD53" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="BE53" s="59"/>
-      <c r="BF53" s="59"/>
-      <c r="BG53" s="59"/>
-      <c r="BH53" s="59"/>
-      <c r="BI53" s="60"/>
-      <c r="BJ53" s="58" t="s">
+      <c r="BE53" s="70"/>
+      <c r="BF53" s="70"/>
+      <c r="BG53" s="70"/>
+      <c r="BH53" s="70"/>
+      <c r="BI53" s="71"/>
+      <c r="BJ53" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK53" s="59"/>
-      <c r="BL53" s="60"/>
-      <c r="BM53" s="58" t="s">
+      <c r="BK53" s="70"/>
+      <c r="BL53" s="71"/>
+      <c r="BM53" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="BN53" s="59"/>
-      <c r="BO53" s="60"/>
+      <c r="BN53" s="70"/>
+      <c r="BO53" s="71"/>
     </row>
     <row r="54" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B54" s="23">
@@ -15808,116 +15808,116 @@
       </c>
     </row>
     <row r="60" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="57"/>
-      <c r="T60" s="57"/>
-      <c r="U60" s="57"/>
-      <c r="V60" s="57"/>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="57"/>
-      <c r="Z60" s="57"/>
-      <c r="AA60" s="57"/>
-      <c r="AB60" s="57"/>
-      <c r="AC60" s="57"/>
-      <c r="AD60" s="57"/>
-      <c r="AE60" s="57"/>
-      <c r="AF60" s="57"/>
-      <c r="AG60" s="57"/>
-      <c r="AH60" s="57"/>
-      <c r="AI60" s="57"/>
-      <c r="AJ60" s="57"/>
-      <c r="AK60" s="57"/>
-      <c r="AL60" s="57"/>
-      <c r="AM60" s="57"/>
-      <c r="AN60" s="57"/>
-      <c r="AO60" s="57"/>
-      <c r="AP60" s="57"/>
-      <c r="AQ60" s="57"/>
-      <c r="AR60" s="57"/>
-      <c r="AS60" s="57"/>
-      <c r="AT60" s="57"/>
-      <c r="AU60" s="57"/>
-      <c r="AV60" s="57"/>
-      <c r="AW60" s="57"/>
-      <c r="AX60" s="57"/>
-      <c r="AY60" s="57"/>
-      <c r="AZ60" s="57"/>
-      <c r="BA60" s="57"/>
-      <c r="BB60" s="57"/>
-      <c r="BC60" s="57"/>
-      <c r="BD60" s="57"/>
-      <c r="BE60" s="57"/>
-      <c r="BF60" s="57"/>
-      <c r="BG60" s="57"/>
-      <c r="BH60" s="57"/>
-      <c r="BI60" s="57"/>
-      <c r="BJ60" s="57"/>
-      <c r="BK60" s="57"/>
-      <c r="BL60" s="57"/>
-      <c r="BM60" s="57"/>
-      <c r="BN60" s="57"/>
-      <c r="BO60" s="57"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="76"/>
+      <c r="O60" s="76"/>
+      <c r="P60" s="76"/>
+      <c r="Q60" s="76"/>
+      <c r="R60" s="76"/>
+      <c r="S60" s="76"/>
+      <c r="T60" s="76"/>
+      <c r="U60" s="76"/>
+      <c r="V60" s="76"/>
+      <c r="W60" s="76"/>
+      <c r="X60" s="76"/>
+      <c r="Y60" s="76"/>
+      <c r="Z60" s="76"/>
+      <c r="AA60" s="76"/>
+      <c r="AB60" s="76"/>
+      <c r="AC60" s="76"/>
+      <c r="AD60" s="76"/>
+      <c r="AE60" s="76"/>
+      <c r="AF60" s="76"/>
+      <c r="AG60" s="76"/>
+      <c r="AH60" s="76"/>
+      <c r="AI60" s="76"/>
+      <c r="AJ60" s="76"/>
+      <c r="AK60" s="76"/>
+      <c r="AL60" s="76"/>
+      <c r="AM60" s="76"/>
+      <c r="AN60" s="76"/>
+      <c r="AO60" s="76"/>
+      <c r="AP60" s="76"/>
+      <c r="AQ60" s="76"/>
+      <c r="AR60" s="76"/>
+      <c r="AS60" s="76"/>
+      <c r="AT60" s="76"/>
+      <c r="AU60" s="76"/>
+      <c r="AV60" s="76"/>
+      <c r="AW60" s="76"/>
+      <c r="AX60" s="76"/>
+      <c r="AY60" s="76"/>
+      <c r="AZ60" s="76"/>
+      <c r="BA60" s="76"/>
+      <c r="BB60" s="76"/>
+      <c r="BC60" s="76"/>
+      <c r="BD60" s="76"/>
+      <c r="BE60" s="76"/>
+      <c r="BF60" s="76"/>
+      <c r="BG60" s="76"/>
+      <c r="BH60" s="76"/>
+      <c r="BI60" s="76"/>
+      <c r="BJ60" s="76"/>
+      <c r="BK60" s="76"/>
+      <c r="BL60" s="76"/>
+      <c r="BM60" s="76"/>
+      <c r="BN60" s="76"/>
+      <c r="BO60" s="76"/>
     </row>
     <row r="61" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B61" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C61" s="21"/>
-      <c r="D61" s="71" t="s">
+      <c r="D61" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="72" t="s">
+      <c r="H61" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="72" t="s">
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L61" s="73"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="72" t="s">
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="O61" s="73"/>
-      <c r="P61" s="73"/>
-      <c r="Q61" s="72" t="s">
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="R61" s="73"/>
-      <c r="S61" s="73"/>
-      <c r="T61" s="72" t="s">
+      <c r="R61" s="59"/>
+      <c r="S61" s="59"/>
+      <c r="T61" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U61" s="73"/>
-      <c r="V61" s="73"/>
-      <c r="W61" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X61" s="73"/>
-      <c r="Y61" s="73"/>
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
       <c r="AD61" s="12" t="s">
         <v>23</v>
       </c>
@@ -15975,34 +15975,34 @@
       <c r="AW61" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX61" s="58" t="s">
+      <c r="AX61" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AY61" s="59"/>
-      <c r="AZ61" s="60"/>
-      <c r="BA61" s="58" t="s">
+      <c r="AY61" s="70"/>
+      <c r="AZ61" s="71"/>
+      <c r="BA61" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="BB61" s="59"/>
-      <c r="BC61" s="60"/>
-      <c r="BD61" s="58" t="s">
+      <c r="BB61" s="70"/>
+      <c r="BC61" s="71"/>
+      <c r="BD61" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="BE61" s="59"/>
-      <c r="BF61" s="59"/>
-      <c r="BG61" s="59"/>
-      <c r="BH61" s="59"/>
-      <c r="BI61" s="60"/>
-      <c r="BJ61" s="58" t="s">
+      <c r="BE61" s="70"/>
+      <c r="BF61" s="70"/>
+      <c r="BG61" s="70"/>
+      <c r="BH61" s="70"/>
+      <c r="BI61" s="71"/>
+      <c r="BJ61" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK61" s="59"/>
-      <c r="BL61" s="60"/>
-      <c r="BM61" s="58" t="s">
+      <c r="BK61" s="70"/>
+      <c r="BL61" s="71"/>
+      <c r="BM61" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="BN61" s="59"/>
-      <c r="BO61" s="60"/>
+      <c r="BN61" s="70"/>
+      <c r="BO61" s="71"/>
     </row>
     <row r="62" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
@@ -17253,93 +17253,6 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="111">
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="W61:Y61"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BQ37:BR37"/>
-    <mergeCell ref="BQ38:BR38"/>
-    <mergeCell ref="BQ39:BR39"/>
-    <mergeCell ref="BQ40:BR40"/>
-    <mergeCell ref="BQ41:BR41"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="BA29:BC29"/>
-    <mergeCell ref="BD29:BI29"/>
-    <mergeCell ref="BJ29:BL29"/>
-    <mergeCell ref="BM29:BO29"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="BA37:BC37"/>
-    <mergeCell ref="BD37:BI37"/>
-    <mergeCell ref="BJ37:BL37"/>
-    <mergeCell ref="BM37:BO37"/>
-    <mergeCell ref="BJ21:BL21"/>
-    <mergeCell ref="BM21:BO21"/>
-    <mergeCell ref="AX61:AZ61"/>
-    <mergeCell ref="BA61:BC61"/>
-    <mergeCell ref="BD61:BI61"/>
-    <mergeCell ref="BJ61:BL61"/>
-    <mergeCell ref="BM61:BO61"/>
-    <mergeCell ref="AX45:AZ45"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BO5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA13:BC13"/>
-    <mergeCell ref="BD13:BI13"/>
     <mergeCell ref="B2:BO2"/>
     <mergeCell ref="B4:BO4"/>
     <mergeCell ref="B12:BO12"/>
@@ -17364,6 +17277,93 @@
     <mergeCell ref="AX21:AZ21"/>
     <mergeCell ref="BA21:BC21"/>
     <mergeCell ref="BD21:BI21"/>
+    <mergeCell ref="BJ21:BL21"/>
+    <mergeCell ref="BM21:BO21"/>
+    <mergeCell ref="AX61:AZ61"/>
+    <mergeCell ref="BA61:BC61"/>
+    <mergeCell ref="BD61:BI61"/>
+    <mergeCell ref="BJ61:BL61"/>
+    <mergeCell ref="BM61:BO61"/>
+    <mergeCell ref="AX45:AZ45"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BO5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA13:BC13"/>
+    <mergeCell ref="BD13:BI13"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BQ37:BR37"/>
+    <mergeCell ref="BQ38:BR38"/>
+    <mergeCell ref="BQ39:BR39"/>
+    <mergeCell ref="BQ40:BR40"/>
+    <mergeCell ref="BQ41:BR41"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="BA29:BC29"/>
+    <mergeCell ref="BD29:BI29"/>
+    <mergeCell ref="BJ29:BL29"/>
+    <mergeCell ref="BM29:BO29"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="BA37:BC37"/>
+    <mergeCell ref="BD37:BI37"/>
+    <mergeCell ref="BJ37:BL37"/>
+    <mergeCell ref="BM37:BO37"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <conditionalFormatting sqref="T6:V11 T22:V27 T54:V59">
     <cfRule type="expression" dxfId="95" priority="464">
@@ -17702,7 +17702,7 @@
   <dimension ref="B1:BO48"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -17771,55 +17771,55 @@
       <c r="Y1" s="18"/>
     </row>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
       <c r="AW2" s="46"/>
       <c r="AX2" s="46"/>
       <c r="AY2" s="46"/>
@@ -17873,42 +17873,42 @@
         <v>54</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="75" t="s">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75" t="s">
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75" t="s">
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
       <c r="AA5" s="12" t="s">
         <v>23</v>
       </c>
@@ -19249,52 +19249,52 @@
       <c r="W15" s="77"/>
       <c r="X15" s="77"/>
       <c r="Y15" s="77"/>
-      <c r="AU15" s="64" t="s">
+      <c r="AU15" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="AV15" s="64"/>
+      <c r="AV15" s="62"/>
     </row>
     <row r="16" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="75" t="s">
+      <c r="H16" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="75" t="s">
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="75" t="s">
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="75" t="s">
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="75" t="s">
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
       <c r="AA16" s="12" t="s">
         <v>23</v>
       </c>
@@ -19352,10 +19352,10 @@
       <c r="AT16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AU16" s="65" t="s">
+      <c r="AU16" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="AV16" s="66"/>
+      <c r="AV16" s="64"/>
     </row>
     <row r="17" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23">
@@ -19506,10 +19506,10 @@
         <f>IF(D17&lt;F17,SUM(J17,M17,P17,S17,V17),SUM(H17,K17,N17,Q17,T17))</f>
         <v>99</v>
       </c>
-      <c r="AU17" s="67" t="s">
+      <c r="AU17" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AV17" s="68"/>
+      <c r="AV17" s="66"/>
     </row>
     <row r="18" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23">
@@ -19656,10 +19656,10 @@
         <f t="shared" ref="AT18:AT20" si="39">IF(D18&lt;F18,SUM(J18,M18,P18,S18,V18),SUM(H18,K18,N18,Q18,T18))</f>
         <v>75</v>
       </c>
-      <c r="AU18" s="67" t="s">
+      <c r="AU18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="AV18" s="68"/>
+      <c r="AV18" s="66"/>
     </row>
     <row r="19" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23">
@@ -19806,10 +19806,10 @@
         <f t="shared" si="39"/>
         <v>75</v>
       </c>
-      <c r="AU19" s="67" t="s">
+      <c r="AU19" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="AV19" s="68"/>
+      <c r="AV19" s="66"/>
     </row>
     <row r="20" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23">
@@ -19964,10 +19964,10 @@
         <f t="shared" si="39"/>
         <v>105</v>
       </c>
-      <c r="AU20" s="69" t="s">
+      <c r="AU20" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="AV20" s="70"/>
+      <c r="AV20" s="68"/>
     </row>
     <row r="21" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20003,42 +20003,42 @@
         <v>54</v>
       </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="75" t="s">
+      <c r="H23" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75" t="s">
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="75" t="s">
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="75" t="s">
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="75" t="s">
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
       <c r="AA23" s="12" t="s">
         <v>23</v>
       </c>
@@ -20105,35 +20105,55 @@
         <f>IF(AB17=0,"Winner Q1",AB17)</f>
         <v>Czech Republic</v>
       </c>
-      <c r="D24" s="48"/>
+      <c r="D24" s="48">
+        <v>1</v>
+      </c>
       <c r="E24" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="47"/>
+      <c r="F24" s="47">
+        <v>3</v>
+      </c>
       <c r="G24" s="25" t="str">
         <f>IF(AB20=0,"Winner Q4",AB20)</f>
         <v>Bulgaria</v>
       </c>
-      <c r="H24" s="28"/>
+      <c r="H24" s="28">
+        <v>20</v>
+      </c>
       <c r="I24" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="28"/>
+      <c r="J24" s="30">
+        <v>25</v>
+      </c>
+      <c r="K24" s="28">
+        <v>25</v>
+      </c>
       <c r="L24" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M24" s="30"/>
-      <c r="N24" s="28"/>
+      <c r="M24" s="30">
+        <v>23</v>
+      </c>
+      <c r="N24" s="28">
+        <v>21</v>
+      </c>
       <c r="O24" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="28"/>
+      <c r="P24" s="30">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="28">
+        <v>22</v>
+      </c>
       <c r="R24" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S24" s="30"/>
+      <c r="S24" s="30">
+        <v>25</v>
+      </c>
       <c r="T24" s="28"/>
       <c r="U24" s="29" t="s">
         <v>0</v>
@@ -20141,34 +20161,34 @@
       <c r="V24" s="30"/>
       <c r="W24" s="31">
         <f>SUM(H24,K24,N24,Q24,T24)</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="X24" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y24" s="32">
         <f>SUM(J24,M24,P24,S24,V24)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AA24" s="12">
         <f>AD24+AE24</f>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="12">
+        <v>4</v>
+      </c>
+      <c r="AB24" s="12" t="str">
         <f>IF(OR(D24="",F24=""),0,IF(D24&gt;F24,C24,G24))</f>
-        <v>0</v>
+        <v>Bulgaria</v>
       </c>
       <c r="AC24" s="12">
         <f>IF(OR(D24="",F24=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="12">
         <f>IF(OR(D24="",F24=""),0,IF(D24&gt;F24,D24,F24))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE24" s="12">
         <f>IF(OR(D24="",F24=""),0,IF(D24&gt;F24,F24,D24))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24" s="12">
         <f>IF(AND(AD24=3,AE24=0),1,0)</f>
@@ -20176,7 +20196,7 @@
       </c>
       <c r="AG24" s="12">
         <f>IF(AND(AD24=3,AE24=1),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24" s="12">
         <f>IF(AND(AD24=3,AE24=2),1,0)</f>
@@ -20184,27 +20204,27 @@
       </c>
       <c r="AI24" s="12">
         <f>IF(D24&gt;F24,SUM(H24,K24,N24,Q24,T24,),SUM(J24,M24,P24,S24,V24))</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AJ24" s="12">
         <f>IF(D24&gt;F24,SUM(J24,M24,P24,S24,V24),SUM(H24,K24,N24,Q24,T24))</f>
-        <v>0</v>
-      </c>
-      <c r="AL24" s="12">
+        <v>88</v>
+      </c>
+      <c r="AL24" s="12" t="str">
         <f>IF(OR(D24="",F24=""),0,IF(D24&lt;F24,C24,G24))</f>
-        <v>0</v>
+        <v>Czech Republic</v>
       </c>
       <c r="AM24" s="12">
         <f>IF(OR(D24="",F24=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24" s="12">
         <f>IF(OR(D24="",F24=""),0,IF(D24&lt;F24,D24,F24))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24" s="12">
         <f>IF(OR(D24="",F24=""),0,IF(D24&lt;F24,F24,D24))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP24" s="12">
         <f>IF(AND(AN24=2,AO24=3),1,0)</f>
@@ -20212,7 +20232,7 @@
       </c>
       <c r="AQ24" s="12">
         <f>IF(AND(AN24=1,AO24=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR24" s="12">
         <f>IF(AND(AN24=0,AO24=3),1,0)</f>
@@ -20220,11 +20240,11 @@
       </c>
       <c r="AS24" s="12">
         <f>IF(D24&lt;F24,SUM(H24,K24,N24,Q24,T24,),SUM(J24,M24,P24,S24,V24))</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="AT24" s="12">
         <f>IF(D24&lt;F24,SUM(J24,M24,P24,S24,V24),SUM(H24,K24,N24,Q24,T24))</f>
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20235,30 +20255,46 @@
         <f>IF(AB18=0,"Winner Q2",AB18)</f>
         <v>Poland</v>
       </c>
-      <c r="D25" s="48"/>
+      <c r="D25" s="48">
+        <v>0</v>
+      </c>
       <c r="E25" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="47"/>
+      <c r="F25" s="47">
+        <v>3</v>
+      </c>
       <c r="G25" s="25" t="str">
         <f>IF(AB19=0,"Winner Q3",AB19)</f>
         <v>Italy</v>
       </c>
-      <c r="H25" s="28"/>
+      <c r="H25" s="28">
+        <v>21</v>
+      </c>
       <c r="I25" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="28"/>
+      <c r="J25" s="30">
+        <v>25</v>
+      </c>
+      <c r="K25" s="28">
+        <v>22</v>
+      </c>
       <c r="L25" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M25" s="30"/>
-      <c r="N25" s="28"/>
+      <c r="M25" s="30">
+        <v>25</v>
+      </c>
+      <c r="N25" s="28">
+        <v>23</v>
+      </c>
       <c r="O25" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P25" s="30"/>
+      <c r="P25" s="30">
+        <v>25</v>
+      </c>
       <c r="Q25" s="28"/>
       <c r="R25" s="29" t="s">
         <v>0</v>
@@ -20271,30 +20307,30 @@
       <c r="V25" s="30"/>
       <c r="W25" s="31">
         <f>SUM(H25,K25,N25,Q25,T25)</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="X25" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y25" s="32">
         <f>SUM(J25,M25,P25,S25,V25)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA25" s="12">
         <f t="shared" ref="AA25" si="40">AD25+AE25</f>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="12">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="12" t="str">
         <f t="shared" ref="AB25" si="41">IF(OR(D25="",F25=""),0,IF(D25&gt;F25,C25,G25))</f>
-        <v>0</v>
+        <v>Italy</v>
       </c>
       <c r="AC25" s="12">
         <f t="shared" ref="AC25" si="42">IF(OR(D25="",F25=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="12">
         <f t="shared" ref="AD25" si="43">IF(OR(D25="",F25=""),0,IF(D25&gt;F25,D25,F25))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE25" s="12">
         <f t="shared" ref="AE25" si="44">IF(OR(D25="",F25=""),0,IF(D25&gt;F25,F25,D25))</f>
@@ -20302,7 +20338,7 @@
       </c>
       <c r="AF25" s="12">
         <f t="shared" ref="AF25" si="45">IF(AND(AD25=3,AE25=0),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" s="12">
         <f t="shared" ref="AG25" si="46">IF(AND(AD25=3,AE25=1),1,0)</f>
@@ -20314,19 +20350,19 @@
       </c>
       <c r="AI25" s="12">
         <f t="shared" ref="AI25" si="48">IF(D25&gt;F25,SUM(H25,K25,N25,Q25,T25,),SUM(J25,M25,P25,S25,V25))</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ25" s="12">
         <f t="shared" ref="AJ25" si="49">IF(D25&gt;F25,SUM(J25,M25,P25,S25,V25),SUM(H25,K25,N25,Q25,T25))</f>
-        <v>0</v>
-      </c>
-      <c r="AL25" s="12">
+        <v>66</v>
+      </c>
+      <c r="AL25" s="12" t="str">
         <f t="shared" ref="AL25" si="50">IF(OR(D25="",F25=""),0,IF(D25&lt;F25,C25,G25))</f>
-        <v>0</v>
+        <v>Poland</v>
       </c>
       <c r="AM25" s="12">
         <f t="shared" ref="AM25" si="51">IF(OR(D25="",F25=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25" s="12">
         <f t="shared" ref="AN25" si="52">IF(OR(D25="",F25=""),0,IF(D25&lt;F25,D25,F25))</f>
@@ -20334,7 +20370,7 @@
       </c>
       <c r="AO25" s="12">
         <f t="shared" ref="AO25" si="53">IF(OR(D25="",F25=""),0,IF(D25&lt;F25,F25,D25))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP25" s="12">
         <f t="shared" ref="AP25" si="54">IF(AND(AN25=2,AO25=3),1,0)</f>
@@ -20346,15 +20382,15 @@
       </c>
       <c r="AR25" s="12">
         <f t="shared" ref="AR25" si="56">IF(AND(AN25=0,AO25=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS25" s="12">
         <f t="shared" ref="AS25" si="57">IF(D25&lt;F25,SUM(H25,K25,N25,Q25,T25,),SUM(J25,M25,P25,S25,V25))</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AT25" s="12">
         <f t="shared" ref="AT25" si="58">IF(D25&lt;F25,SUM(J25,M25,P25,S25,V25),SUM(H25,K25,N25,Q25,T25))</f>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20410,42 +20446,42 @@
         <v>54</v>
       </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="75" t="s">
+      <c r="H29" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="75" t="s">
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="75" t="s">
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="75" t="s">
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="75" t="s">
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="74"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
       <c r="AA29" s="12" t="s">
         <v>23</v>
       </c>
@@ -20529,37 +20565,57 @@
       </c>
       <c r="C30" s="24" t="str">
         <f>IF(AL24=0,"Loser S1",AL24)</f>
-        <v>Loser S1</v>
-      </c>
-      <c r="D30" s="48"/>
+        <v>Czech Republic</v>
+      </c>
+      <c r="D30" s="48">
+        <v>1</v>
+      </c>
       <c r="E30" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="47"/>
+      <c r="F30" s="47">
+        <v>3</v>
+      </c>
       <c r="G30" s="25" t="str">
         <f>IF(AL25=0,"Loser S2",AL25)</f>
-        <v>Loser S2</v>
-      </c>
-      <c r="H30" s="28"/>
+        <v>Poland</v>
+      </c>
+      <c r="H30" s="28">
+        <v>18</v>
+      </c>
       <c r="I30" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J30" s="30"/>
-      <c r="K30" s="28"/>
+      <c r="J30" s="30">
+        <v>25</v>
+      </c>
+      <c r="K30" s="28">
+        <v>25</v>
+      </c>
       <c r="L30" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="28"/>
+      <c r="M30" s="30">
+        <v>23</v>
+      </c>
+      <c r="N30" s="28">
+        <v>22</v>
+      </c>
       <c r="O30" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="28"/>
+      <c r="P30" s="30">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="28">
+        <v>21</v>
+      </c>
       <c r="R30" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S30" s="30"/>
+      <c r="S30" s="30">
+        <v>25</v>
+      </c>
       <c r="T30" s="28"/>
       <c r="U30" s="29" t="s">
         <v>0</v>
@@ -20567,34 +20623,34 @@
       <c r="V30" s="30"/>
       <c r="W30" s="31">
         <f>SUM(H30,K30,N30,Q30,T30)</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="X30" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y30" s="32">
         <f>SUM(J30,M30,P30,S30,V30)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AA30" s="12">
         <f>AD30+AE30</f>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="12">
+        <v>4</v>
+      </c>
+      <c r="AB30" s="12" t="str">
         <f>IF(OR(D30="",F30=""),0,IF(D30&gt;F30,C30,G30))</f>
-        <v>0</v>
+        <v>Poland</v>
       </c>
       <c r="AC30" s="12">
         <f>IF(OR(D30="",F30=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="12">
         <f>IF(OR(D30="",F30=""),0,IF(D30&gt;F30,D30,F30))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE30" s="12">
         <f>IF(OR(D30="",F30=""),0,IF(D30&gt;F30,F30,D30))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30" s="12">
         <f>IF(AND(AD30=3,AE30=0),1,0)</f>
@@ -20602,7 +20658,7 @@
       </c>
       <c r="AG30" s="12">
         <f>IF(AND(AD30=3,AE30=1),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30" s="12">
         <f>IF(AND(AD30=3,AE30=2),1,0)</f>
@@ -20610,28 +20666,28 @@
       </c>
       <c r="AI30" s="12">
         <f>IF(D30&gt;F30,SUM(H30,K30,N30,Q30,T30,),SUM(J30,M30,P30,S30,V30))</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AJ30" s="12">
         <f>IF(D30&gt;F30,SUM(J30,M30,P30,S30,V30),SUM(H30,K30,N30,Q30,T30))</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="AK30" s="12"/>
-      <c r="AL30" s="12">
+      <c r="AL30" s="12" t="str">
         <f>IF(OR(D30="",F30=""),0,IF(D30&lt;F30,C30,G30))</f>
-        <v>0</v>
+        <v>Czech Republic</v>
       </c>
       <c r="AM30" s="12">
         <f>IF(OR(D30="",F30=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN30" s="12">
         <f>IF(OR(D30="",F30=""),0,IF(D30&lt;F30,D30,F30))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO30" s="12">
         <f>IF(OR(D30="",F30=""),0,IF(D30&lt;F30,F30,D30))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP30" s="12">
         <f>IF(AND(AN30=2,AO30=3),1,0)</f>
@@ -20639,7 +20695,7 @@
       </c>
       <c r="AQ30" s="12">
         <f>IF(AND(AN30=1,AO30=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR30" s="12">
         <f>IF(AND(AN30=0,AO30=3),1,0)</f>
@@ -20647,11 +20703,11 @@
       </c>
       <c r="AS30" s="12">
         <f>IF(D30&lt;F30,SUM(H30,K30,N30,Q30,T30,),SUM(J30,M30,P30,S30,V30))</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="AT30" s="12">
         <f>IF(D30&lt;F30,SUM(J30,M30,P30,S30,V30),SUM(H30,K30,N30,Q30,T30))</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AU30" s="12"/>
       <c r="AV30" s="12"/>
@@ -20707,42 +20763,42 @@
         <v>54</v>
       </c>
       <c r="C34" s="35"/>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="75" t="s">
+      <c r="H34" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75" t="s">
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75" t="s">
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75" t="s">
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="74"/>
-      <c r="S34" s="74"/>
-      <c r="T34" s="75" t="s">
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="U34" s="74"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X34" s="74"/>
-      <c r="Y34" s="74"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
       <c r="AA34" s="12" t="s">
         <v>23</v>
       </c>
@@ -20807,37 +20863,57 @@
       </c>
       <c r="C35" s="24" t="str">
         <f>IF(AB24=0,"Winner S1",AB24)</f>
-        <v>Winner S1</v>
-      </c>
-      <c r="D35" s="28"/>
+        <v>Bulgaria</v>
+      </c>
+      <c r="D35" s="28">
+        <v>1</v>
+      </c>
       <c r="E35" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F35" s="30"/>
+      <c r="F35" s="30">
+        <v>3</v>
+      </c>
       <c r="G35" s="25" t="str">
         <f>IF(AB25=0,"Winner S2",AB25)</f>
-        <v>Winner S2</v>
-      </c>
-      <c r="H35" s="28"/>
+        <v>Italy</v>
+      </c>
+      <c r="H35" s="28">
+        <v>21</v>
+      </c>
       <c r="I35" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J35" s="30"/>
-      <c r="K35" s="28"/>
+      <c r="J35" s="30">
+        <v>25</v>
+      </c>
+      <c r="K35" s="28">
+        <v>17</v>
+      </c>
       <c r="L35" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M35" s="30"/>
-      <c r="N35" s="28"/>
+      <c r="M35" s="30">
+        <v>25</v>
+      </c>
+      <c r="N35" s="28">
+        <v>25</v>
+      </c>
       <c r="O35" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="28"/>
+      <c r="P35" s="30">
+        <v>17</v>
+      </c>
+      <c r="Q35" s="28">
+        <v>10</v>
+      </c>
       <c r="R35" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S35" s="30"/>
+      <c r="S35" s="30">
+        <v>25</v>
+      </c>
       <c r="T35" s="28"/>
       <c r="U35" s="29" t="s">
         <v>0</v>
@@ -20845,34 +20921,34 @@
       <c r="V35" s="30"/>
       <c r="W35" s="31">
         <f>SUM(H35,K35,N35,Q35,T35)</f>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="X35" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y35" s="32">
         <f>SUM(J35,M35,P35,S35,V35)</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AA35" s="12">
         <f>AD35+AE35</f>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="12">
+        <v>4</v>
+      </c>
+      <c r="AB35" s="12" t="str">
         <f>IF(OR(D35="",F35=""),0,IF(D35&gt;F35,C35,G35))</f>
-        <v>0</v>
+        <v>Italy</v>
       </c>
       <c r="AC35" s="12">
         <f>IF(OR(D35="",F35=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="12">
         <f>IF(OR(D35="",F35=""),0,IF(D35&gt;F35,D35,F35))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE35" s="12">
         <f>IF(OR(D35="",F35=""),0,IF(D35&gt;F35,F35,D35))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35" s="12">
         <f>IF(AND(AD35=3,AE35=0),1,0)</f>
@@ -20880,7 +20956,7 @@
       </c>
       <c r="AG35" s="12">
         <f>IF(AND(AD35=3,AE35=1),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH35" s="12">
         <f>IF(AND(AD35=3,AE35=2),1,0)</f>
@@ -20888,27 +20964,27 @@
       </c>
       <c r="AI35" s="12">
         <f>IF(D35&gt;F35,SUM(H35,K35,N35,Q35,T35,),SUM(J35,M35,P35,S35,V35))</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AJ35" s="12">
         <f>IF(D35&gt;F35,SUM(J35,M35,P35,S35,V35),SUM(H35,K35,N35,Q35,T35))</f>
-        <v>0</v>
-      </c>
-      <c r="AL35" s="12">
+        <v>73</v>
+      </c>
+      <c r="AL35" s="12" t="str">
         <f>IF(OR(D35="",F35=""),0,IF(D35&lt;F35,C35,G35))</f>
-        <v>0</v>
+        <v>Bulgaria</v>
       </c>
       <c r="AM35" s="12">
         <f>IF(OR(D35="",F35=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN35" s="12">
         <f>IF(OR(D35="",F35=""),0,IF(D35&lt;F35,D35,F35))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO35" s="12">
         <f>IF(OR(D35="",F35=""),0,IF(D35&lt;F35,F35,D35))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP35" s="12">
         <f>IF(AND(AN35=2,AO35=3),1,0)</f>
@@ -20916,7 +20992,7 @@
       </c>
       <c r="AQ35" s="12">
         <f>IF(AND(AN35=1,AO35=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR35" s="12">
         <f>IF(AND(AN35=0,AO35=3),1,0)</f>
@@ -20924,11 +21000,11 @@
       </c>
       <c r="AS35" s="12">
         <f>IF(D35&lt;F35,SUM(H35,K35,N35,Q35,T35,),SUM(J35,M35,P35,S35,V35))</f>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AT35" s="12">
         <f>IF(D35&lt;F35,SUM(J35,M35,P35,S35,V35),SUM(H35,K35,N35,Q35,T35))</f>
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="2:46" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20965,7 +21041,7 @@
       </c>
       <c r="C38" s="53" t="str">
         <f>IF(AB35=0,"Champion",AB35)</f>
-        <v>Champion</v>
+        <v>Italy</v>
       </c>
       <c r="D38" s="43"/>
       <c r="E38" s="39"/>
@@ -20996,7 +21072,7 @@
       </c>
       <c r="C39" s="54" t="str">
         <f>IF(AL35=0,"Runner Up",AL35)</f>
-        <v>Runner Up</v>
+        <v>Bulgaria</v>
       </c>
       <c r="D39" s="43"/>
       <c r="E39" s="39"/>
@@ -21027,7 +21103,7 @@
       </c>
       <c r="C40" s="54" t="str">
         <f>IF(AB30=0,"3rd",AB30)</f>
-        <v>3rd</v>
+        <v>Poland</v>
       </c>
       <c r="D40" s="43"/>
       <c r="E40" s="39"/>
@@ -21060,6 +21136,38 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="48">
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="B33:Y33"/>
+    <mergeCell ref="AU15:AV15"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="AU16:AV16"/>
+    <mergeCell ref="AU17:AV17"/>
     <mergeCell ref="B2:AV2"/>
     <mergeCell ref="T16:V16"/>
     <mergeCell ref="W16:Y16"/>
@@ -21076,38 +21184,6 @@
     <mergeCell ref="AU18:AV18"/>
     <mergeCell ref="AU19:AV19"/>
     <mergeCell ref="AU20:AV20"/>
-    <mergeCell ref="B33:Y33"/>
-    <mergeCell ref="AU15:AV15"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="AU16:AV16"/>
-    <mergeCell ref="AU17:AV17"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
   </mergeCells>
   <conditionalFormatting sqref="BM18:XFD18 BM22:XFD23 BM20:XFD20 A18:A20 Z18:Z20 A41:A1048576 B53:Y1048576 B38:Y47 B37 D37:Y37 Z41:AT1048576 BM41:XFD1048576 A3:XFD3 BM6:XFD15 A4:A15 Z22:AT22 AA5:AT13 Z26:AT28 Z23:Z25 Z29:Z30 B36:AT36 Z34:Z35 BM25:XFD36 A22:A36 Z31:AT33 Z5:XFD5 B14:AT15 B21:Y22 B28:Y28 B33:Y33 Z6:Z13 AW24:BL1048576 AU21:AV1048576 B4:XFD4">
     <cfRule type="cellIs" dxfId="31" priority="79" operator="equal">
@@ -21282,23 +21358,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DBF2846C41E31A469E3CED25F2422E48" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0c08e4af4d80db6585ac36ba965bb3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2c8c20e6-817c-474f-b9c2-eb2b1ac24837" xmlns:ns4="dc8c2798-6aba-4af7-93a4-b89253b03650" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e7db2db65f9cb533b4933096bc9b657" ns3:_="" ns4:_="">
     <xsd:import namespace="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
@@ -21531,32 +21590,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1A4F3B6-8EF3-43FC-AA6E-56F4B11E76F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21573,4 +21624,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>